--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Desktop/wtp_rej_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34F93C-A07F-BA4A-909F-21EA4A69A1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5EE4A3-7899-1540-8FC8-81C11D1EF6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="500" windowWidth="36380" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3720" yWindow="1080" windowWidth="17280" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -55,15 +55,9 @@
     <t>Initials</t>
   </si>
   <si>
-    <t>JSD</t>
-  </si>
-  <si>
     <t>pretasksub_id</t>
   </si>
   <si>
-    <t>R_2wieTt2vepP7fRw</t>
-  </si>
-  <si>
     <t>R_10VrT1bZzlTkiIS</t>
   </si>
   <si>
@@ -124,7 +118,52 @@
     <t>Other</t>
   </si>
   <si>
-    <t>test_0410</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>60fc66800ccfce9c74ed4f3d</t>
+  </si>
+  <si>
+    <t>5e6027f12036113753519c82</t>
+  </si>
+  <si>
+    <t>65779c4bde34621ce896b77d</t>
+  </si>
+  <si>
+    <t>5fab3afc780978629141d35f</t>
+  </si>
+  <si>
+    <t>60fe49ad235696796d15f22f</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>R_71QRzOCf6SCyykG</t>
+  </si>
+  <si>
+    <t>R_3OW5qJ9BiLi9fLx</t>
+  </si>
+  <si>
+    <t>R_3IaEV0ozOrhbwm7</t>
+  </si>
+  <si>
+    <t>R_5PdmG0TTITkHEy1</t>
+  </si>
+  <si>
+    <t>R_6n8bZLFNhTTYY2S</t>
+  </si>
+  <si>
+    <t>R_6qTjvQH3gV5cOTn</t>
+  </si>
+  <si>
+    <t>R_5plGE6TsnsUQcrv</t>
+  </si>
+  <si>
+    <t>R_7ZQZ79T1AysxFwx</t>
+  </si>
+  <si>
+    <t>R_1YahCCp8wSq4NYv</t>
   </si>
 </sst>
 </file>
@@ -203,9 +242,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -217,6 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,13 +477,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -455,19 +492,19 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="10" customWidth="1"/>
     <col min="15" max="15" width="19.5" customWidth="1"/>
     <col min="16" max="16" width="15.1640625" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="103.33203125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="103.33203125" style="12" customWidth="1"/>
     <col min="19" max="22" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -476,102 +513,102 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>13</v>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="5">
-        <v>44873</v>
+        <v>45393</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="11">
-        <v>44872</v>
+        <v>28</v>
+      </c>
+      <c r="F2" s="10">
+        <v>45393</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>3</v>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -579,12 +616,12 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>44875</v>
       </c>
       <c r="O2">
         <f>_xlfn.DAYS(N2,F2)</f>
-        <v>3</v>
+        <v>-518</v>
       </c>
       <c r="P2" s="6">
         <v>2</v>
@@ -592,8 +629,8 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="13" t="s">
-        <v>12</v>
+      <c r="R2" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="S2" s="4">
         <v>0</v>
@@ -608,7 +645,111 @@
         <v>3</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45393</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10">
+        <v>45393</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45393</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10">
+        <v>45393</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45393</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45393</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10">
+        <v>45393</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5EE4A3-7899-1540-8FC8-81C11D1EF6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D152493-4D46-9846-A448-DF8402966C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3720" yWindow="1080" windowWidth="17280" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="760" windowWidth="23000" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>R_1YahCCp8wSq4NYv</t>
+  </si>
+  <si>
+    <t>5c5c451500b69200011bb8bf</t>
+  </si>
+  <si>
+    <t>63d432e27555fb4b5785cfcd</t>
+  </si>
+  <si>
+    <t>660482648009855d3c92ce84</t>
+  </si>
+  <si>
+    <t>6608b738fefbe5050e02af04</t>
+  </si>
+  <si>
+    <t>66036442d5a1059cf1eac3b5</t>
   </si>
 </sst>
 </file>
@@ -477,13 +492,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -491,7 +506,7 @@
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="10" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
@@ -608,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -671,7 +686,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -697,7 +712,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -723,7 +738,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -749,8 +764,70 @@
         <v>27</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="10">
+        <v>45394</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10">
+        <v>45394</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="10">
+        <v>45394</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10">
+        <v>45394</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="10">
+        <v>45394</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="J1:J2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D152493-4D46-9846-A448-DF8402966C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC1F5B0-2D13-1348-8B0A-B9FA31479782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="760" windowWidth="23000" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12920" yWindow="8220" windowWidth="28160" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$J$1:$J$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -175,10 +163,34 @@
     <t>660482648009855d3c92ce84</t>
   </si>
   <si>
-    <t>6608b738fefbe5050e02af04</t>
-  </si>
-  <si>
     <t>66036442d5a1059cf1eac3b5</t>
+  </si>
+  <si>
+    <t>R_3mQNVORd3lXIHWE</t>
+  </si>
+  <si>
+    <t>R_2DHPy7WtRTYflct</t>
+  </si>
+  <si>
+    <t>R_7Edekg5UjKvcy3f</t>
+  </si>
+  <si>
+    <t>R_7M4GIIWa4Xj7WWr</t>
+  </si>
+  <si>
+    <t>SJG</t>
+  </si>
+  <si>
+    <t>R_21AkVhr6BRECVVC</t>
+  </si>
+  <si>
+    <t>R_7hfp4EtbTRpBa2k</t>
+  </si>
+  <si>
+    <t>R_5tAv2rM9j9iahJh</t>
+  </si>
+  <si>
+    <t>R_8A0geOfr6FEppQr</t>
   </si>
 </sst>
 </file>
@@ -188,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,13 +237,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,6 +293,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,13 +524,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -682,6 +714,9 @@
       <c r="F3" s="10">
         <v>45393</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
@@ -708,6 +743,9 @@
       <c r="F4" s="10">
         <v>45393</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
@@ -734,6 +772,9 @@
       <c r="F5" s="10">
         <v>45393</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
@@ -760,6 +801,9 @@
       <c r="F6" s="10">
         <v>45393</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
@@ -767,67 +811,130 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E7" s="4" t="s">
+    <row r="7" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="17">
+        <v>45394</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="18">
         <v>45394</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45394</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="10">
         <v>45394</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45394</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="10">
         <v>45394</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45394</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="10">
         <v>45394</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="10">
-        <v>45394</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="4"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="J1:J2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC1F5B0-2D13-1348-8B0A-B9FA31479782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C1635-1F72-184C-84F7-43F0C8E048A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="8220" windowWidth="28160" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16580" yWindow="3700" windowWidth="28160" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>R_8A0geOfr6FEppQr</t>
+  </si>
+  <si>
+    <t>6618bd23d65a31bd4d06d092</t>
+  </si>
+  <si>
+    <t>R_6agV9VFYam5yFpe</t>
+  </si>
+  <si>
+    <t>Flatlined RSQ 3a to 5b and AQ 18 to 22</t>
+  </si>
+  <si>
+    <t>R_1h9ZD3p5IRaVSXE</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,6 +255,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -270,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,7 +317,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,10 +557,10 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -811,36 +841,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:23" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="21">
         <v>45394</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="22">
         <v>45394</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="R7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -868,7 +898,7 @@
         <v>27</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -897,7 +927,7 @@
         <v>27</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -926,7 +956,40 @@
         <v>27</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="17">
+        <v>45463</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="18">
+        <v>45454</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>27</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="R11" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C1635-1F72-184C-84F7-43F0C8E048A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756D398-0C48-1147-84D6-54DCF95E06EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="3700" windowWidth="28160" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="6180" windowWidth="28160" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -203,6 +203,126 @@
   </si>
   <si>
     <t>R_1h9ZD3p5IRaVSXE</t>
+  </si>
+  <si>
+    <t>663e5cf112f5d047cf5c9fad</t>
+  </si>
+  <si>
+    <t>5685850c333cbd000d4e042f</t>
+  </si>
+  <si>
+    <t>664a48072cc4493facd881f1</t>
+  </si>
+  <si>
+    <t>660f2fbd807c8d51f0673ec5</t>
+  </si>
+  <si>
+    <t>65cd403c98f98c43240bd8b4</t>
+  </si>
+  <si>
+    <t>663e40120b553e7aa7f786b4</t>
+  </si>
+  <si>
+    <t>6601acd8481d967fb8e752a7</t>
+  </si>
+  <si>
+    <t>6632ac1fa19e8464a16ce9da</t>
+  </si>
+  <si>
+    <t>666b027ce39d6a0e2eb09d99</t>
+  </si>
+  <si>
+    <t>60ba395e1aa45e83a8fa9931</t>
+  </si>
+  <si>
+    <t>5654175604212700054a12b1</t>
+  </si>
+  <si>
+    <t>SJG/LL</t>
+  </si>
+  <si>
+    <t>R_7CTMbDBZKtMxzqs</t>
+  </si>
+  <si>
+    <t>R_3fpZrOqPZhqGd8n</t>
+  </si>
+  <si>
+    <t>R_3PIUtqQhBntqORj</t>
+  </si>
+  <si>
+    <t>R_7w7Gsj8151i9KCh</t>
+  </si>
+  <si>
+    <t>R_1KYFRzb7aMfmECv</t>
+  </si>
+  <si>
+    <t>R_74gw7HmOkE9usuZ</t>
+  </si>
+  <si>
+    <t>R_1YXsNN7GJuGRY7W</t>
+  </si>
+  <si>
+    <t>R_7Xw3TVc69AkaU01</t>
+  </si>
+  <si>
+    <t>R_5EdosrUkn1mC68G</t>
+  </si>
+  <si>
+    <t>R_3HMlszh0lIvEy2y</t>
+  </si>
+  <si>
+    <t>R_716LT9IGfPtmGcI</t>
+  </si>
+  <si>
+    <t>R_5q9ch8sKEqUBaor</t>
+  </si>
+  <si>
+    <t>R_5n20Cxsn6TorWIV</t>
+  </si>
+  <si>
+    <t>R_3FQXzHQ09r4ehHE</t>
+  </si>
+  <si>
+    <t>R_1aDNpbsYYjRkduF</t>
+  </si>
+  <si>
+    <t>No photo upload ID</t>
+  </si>
+  <si>
+    <t>R_3n70PdFZq5M4h4P</t>
+  </si>
+  <si>
+    <t>R_5dTiiQU1xn1ob8O</t>
+  </si>
+  <si>
+    <t>R_3QGyNNH7ZjMfbDb</t>
+  </si>
+  <si>
+    <t>R_1oRZrinCYAq1WHZ</t>
+  </si>
+  <si>
+    <t>do not use</t>
+  </si>
+  <si>
+    <t>Most pictures did not meet upload criteria (bodybuilder)</t>
+  </si>
+  <si>
+    <t>6150b927614a4f154f311f9d</t>
+  </si>
+  <si>
+    <t>64c0a2d8031339ab6ec5e54a</t>
+  </si>
+  <si>
+    <t>R_6M3W12ui4nOX24F</t>
+  </si>
+  <si>
+    <t>R_3rxyRs6FgmE7Zhp</t>
+  </si>
+  <si>
+    <t>R_10pG3KWNRfcrT8r</t>
+  </si>
+  <si>
+    <t>R_5D7DUleFT6EC6kW</t>
   </si>
 </sst>
 </file>
@@ -289,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,13 +444,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,13 +693,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -679,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>3</v>
@@ -748,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>3</v>
@@ -777,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>3</v>
@@ -806,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>3</v>
@@ -835,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>3</v>
@@ -864,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>3</v>
@@ -895,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>3</v>
@@ -924,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>3</v>
@@ -953,51 +1092,400 @@
         <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:23" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="21">
         <v>45463</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="22">
         <v>45454</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>27</v>
+      <c r="G11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="18"/>
+      <c r="N11" s="22"/>
       <c r="R11" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="4"/>
-      <c r="E15" s="4"/>
+    <row r="12" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="17">
+        <v>45467</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="18">
+        <v>45466</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="N12" s="18"/>
+      <c r="R12" s="30"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45467</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="22">
+        <v>45466</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="N15" s="22"/>
+      <c r="R15" s="23" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="4"/>
+      <c r="A16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="32">
+        <v>45467</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="33">
+        <v>45466</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="R18" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="21">
+        <v>45467</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="22">
+        <v>45466</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="N21" s="22"/>
+      <c r="R21" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="21">
+        <v>45467</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="22">
+        <v>45466</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="J1:J2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756D398-0C48-1147-84D6-54DCF95E06EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B51C6E9-CD28-2849-8C4E-5DED6B14C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="6180" windowWidth="28160" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7340" yWindow="800" windowWidth="21460" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$J$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -323,6 +336,18 @@
   </si>
   <si>
     <t>R_5D7DUleFT6EC6kW</t>
+  </si>
+  <si>
+    <t>paid for part 1</t>
+  </si>
+  <si>
+    <t>had to take out 'family', 'my mother', 'with friends', 'with my best friend' from nonsocial experiences</t>
+  </si>
+  <si>
+    <t>took out 'with dad' from nonsocial experience</t>
+  </si>
+  <si>
+    <t>have to get more experiences</t>
   </si>
 </sst>
 </file>
@@ -409,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,39 +462,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,13 +695,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -709,22 +711,22 @@
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="10" customWidth="1"/>
-    <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="103.33203125" style="12" customWidth="1"/>
-    <col min="19" max="22" width="12.6640625" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="10" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="103.33203125" style="12" customWidth="1"/>
+    <col min="20" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -747,55 +749,58 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -817,54 +822,55 @@
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>44875</v>
       </c>
-      <c r="O2">
-        <f>_xlfn.DAYS(N2,F2)</f>
+      <c r="P2">
+        <f>_xlfn.DAYS(O2,F2)</f>
         <v>-518</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>30</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="V2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -886,14 +892,15 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -915,14 +922,15 @@
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -944,14 +952,15 @@
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -973,45 +982,45 @@
       <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="5">
         <v>45394</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="10">
         <v>45394</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="R7" s="23"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -1033,14 +1042,15 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1062,14 +1072,15 @@
       <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
@@ -1091,47 +1102,48 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="5">
         <v>45463</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="10">
         <v>45454</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="R11" s="26" t="s">
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>71</v>
       </c>
@@ -1153,15 +1165,20 @@
       <c r="G12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="29"/>
-      <c r="N12" s="18"/>
-      <c r="R12" s="30"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="S12" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B13" t="s">
@@ -1170,24 +1187,30 @@
       <c r="C13" s="5">
         <v>45467</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="10">
         <v>45466</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="G13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B14" t="s">
@@ -1196,52 +1219,62 @@
       <c r="C14" s="5">
         <v>45467</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="10">
         <v>45466</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="21">
-        <v>45467</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="22">
-        <v>45466</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="I15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="N15" s="22"/>
-      <c r="R15" s="23" t="s">
+      <c r="K15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B16" t="s">
@@ -1250,24 +1283,33 @@
       <c r="C16" s="5">
         <v>45467</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="10">
         <v>45466</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+      <c r="G16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B17" t="s">
@@ -1276,52 +1318,63 @@
       <c r="C17" s="5">
         <v>45467</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="10">
         <v>45466</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="21">
+        <v>45467</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="22">
+        <v>45466</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="32">
-        <v>45467</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="33">
-        <v>45466</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="N18" s="33"/>
-      <c r="R18" s="23" t="s">
+      <c r="K18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="S18" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B19" t="s">
@@ -1330,81 +1383,97 @@
       <c r="C19" s="5">
         <v>45467</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="10">
         <v>45466</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="G19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R19" s="28" t="s">
+      <c r="K19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S19" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="5">
         <v>45467</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="10">
         <v>45466</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45467</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="10">
+        <v>45466</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="21">
-        <v>45467</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="22">
-        <v>45466</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="N21" s="22"/>
-      <c r="R21" s="23" t="s">
+      <c r="K21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B22" t="s">
@@ -1413,82 +1482,100 @@
       <c r="C22" s="5">
         <v>45467</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="10">
         <v>45466</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
+      <c r="G22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="5">
         <v>45467</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="10">
         <v>45466</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="G23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="5">
         <v>45467</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="10">
         <v>45466</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="K1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B51C6E9-CD28-2849-8C4E-5DED6B14C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2045D645-A483-954D-96C9-ED8FC6119467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="800" windowWidth="21460" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>took out 'with dad' from nonsocial experience</t>
-  </si>
-  <si>
-    <t>have to get more experiences</t>
   </si>
 </sst>
 </file>
@@ -698,10 +695,10 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1170,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="O12" s="18"/>
       <c r="S12" s="24" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2045D645-A483-954D-96C9-ED8FC6119467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF740A64-FA9E-AC4E-AB11-1B537F81200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="800" windowWidth="21460" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1600" windowWidth="21460" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="116">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -345,6 +345,45 @@
   </si>
   <si>
     <t>took out 'with dad' from nonsocial experience</t>
+  </si>
+  <si>
+    <t>5fd0dc0d8dae67016ed65a54</t>
+  </si>
+  <si>
+    <t>65412ca42e0e2fbb27b8a7b2</t>
+  </si>
+  <si>
+    <t>66312c5a4b47cc24d7b28a22</t>
+  </si>
+  <si>
+    <t>665fc69fe8d5562ac1294f30</t>
+  </si>
+  <si>
+    <t>6612f6953155cebe8a8b9e0d</t>
+  </si>
+  <si>
+    <t>667838be776b27f8705b6c3c</t>
+  </si>
+  <si>
+    <t>6676fab6295042ff191ead64</t>
+  </si>
+  <si>
+    <t>6620f9142f8c0082fd5adc7d</t>
+  </si>
+  <si>
+    <t>6601a1251731342a7891c4f1</t>
+  </si>
+  <si>
+    <t>65f7fbb178b358ac91094fec</t>
+  </si>
+  <si>
+    <t>5d012930cfeb82001817c9c9</t>
+  </si>
+  <si>
+    <t>66512c26608d3961fbf2f058</t>
+  </si>
+  <si>
+    <t>6098a486fc0e4c5db3a08e71</t>
   </si>
 </sst>
 </file>
@@ -354,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -404,8 +443,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -455,7 +506,6 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -466,7 +516,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,13 +755,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1120,7 +1183,7 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="10">
@@ -1136,41 +1199,41 @@
       <c r="K11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:24" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="25">
         <v>45467</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="26">
         <v>45466</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="S12" s="24" t="s">
+      <c r="G12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="S12" s="27" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1301,7 +1364,7 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="S16" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1318,7 +1381,7 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="10">
@@ -1335,13 +1398,16 @@
       </c>
       <c r="K17" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45469</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>45467</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1350,7 +1416,7 @@
       <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>45466</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1365,7 +1431,7 @@
       <c r="K18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="21"/>
       <c r="S18" s="12" t="s">
         <v>87</v>
       </c>
@@ -1401,7 +1467,7 @@
       <c r="K19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="S19" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1514,7 +1580,7 @@
       <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="10">
@@ -1565,11 +1631,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="5"/>
+    <row r="25" spans="1:19" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="16"/>
+      <c r="E25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="K25" s="31"/>
+      <c r="O25" s="17"/>
+      <c r="S25" s="32"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="5"/>
+      <c r="E26" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="28" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="K1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF740A64-FA9E-AC4E-AB11-1B537F81200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891EE0CE-8D0B-4D47-B5BE-07F882C075F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1600" windowWidth="21460" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="1700" windowWidth="30380" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="148">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -384,6 +371,102 @@
   </si>
   <si>
     <t>6098a486fc0e4c5db3a08e71</t>
+  </si>
+  <si>
+    <t>R_7fB3VBsN8UQsGNE</t>
+  </si>
+  <si>
+    <t>R_5hX4VmeqRXfwzkV</t>
+  </si>
+  <si>
+    <t>R_5U3jZRCu0AIsEiy</t>
+  </si>
+  <si>
+    <t>R_6tMd3Bw60rm9r0E</t>
+  </si>
+  <si>
+    <t>R_396cwo3bleOFgSN</t>
+  </si>
+  <si>
+    <t>R_55kobmsELxhtuKJ</t>
+  </si>
+  <si>
+    <t>R_7NEbXIzaHEzcgMu</t>
+  </si>
+  <si>
+    <t>R_1d5ZuATUJ4llxM5</t>
+  </si>
+  <si>
+    <t>R_7H3EM6hSwhQvEjL</t>
+  </si>
+  <si>
+    <t>R_6YGhwa797CuGY6t</t>
+  </si>
+  <si>
+    <t>R_1CHsBKT2rwXGGeN</t>
+  </si>
+  <si>
+    <t>R_6rD8nXK1PCdCPD7</t>
+  </si>
+  <si>
+    <t>R_7U9JCwAm8tY0f60</t>
+  </si>
+  <si>
+    <t>duplicte response in pretask- using first response</t>
+  </si>
+  <si>
+    <t>R_5LCFdgd87jHPGMF</t>
+  </si>
+  <si>
+    <t>R_6Lm2ZE8S01m3Tvb</t>
+  </si>
+  <si>
+    <t>R_5aEvnWyJjopL3Ke</t>
+  </si>
+  <si>
+    <t>R_3YRfd2rUdNI8UkV</t>
+  </si>
+  <si>
+    <t>R_65itrw5jYKKAGL7</t>
+  </si>
+  <si>
+    <t>R_7lJHxa6bkFILe9K</t>
+  </si>
+  <si>
+    <t>R_57GVI7klsFed12V</t>
+  </si>
+  <si>
+    <t>R_7xAjKzLEuQvL48m</t>
+  </si>
+  <si>
+    <t>R_3y3Y7kqtnKXXjCO</t>
+  </si>
+  <si>
+    <t>R_7uwvd79qgXhAE6A</t>
+  </si>
+  <si>
+    <t>R_5ScGrwQmxloyS2J</t>
+  </si>
+  <si>
+    <t>R_6PCetY961P9o5Ld</t>
+  </si>
+  <si>
+    <t>R_5tVXV2vKfvzuFEt</t>
+  </si>
+  <si>
+    <t>photo 9 was alcohol- replaced with photo 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uploading picture from different accounts </t>
+  </si>
+  <si>
+    <t>uplaoded pictures from instagram app instead of browser, repaced photo 12 (alcohol) with photo 26, replaced photo 21 with photo 27</t>
+  </si>
+  <si>
+    <t>photo 5 was a gif, replaced with photo 26; uploaded pictures from instagram app instead of internet browser, neds two more social experiences</t>
+  </si>
+  <si>
+    <t>getting more experiences</t>
   </si>
 </sst>
 </file>
@@ -450,7 +533,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +552,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -482,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -532,6 +621,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,10 +849,10 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1632,74 +1723,392 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
       <c r="C25" s="16"/>
+      <c r="D25" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="E25" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="K25" s="31"/>
+      <c r="F25" s="34">
+        <v>45475.893946759257</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="O25" s="17"/>
       <c r="S25" s="32"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45476</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>123</v>
+      </c>
       <c r="E26" s="29" t="s">
         <v>104</v>
       </c>
+      <c r="F26" s="34">
+        <v>45475.933194444442</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45476</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="E27" s="28" t="s">
         <v>105</v>
       </c>
+      <c r="F27" s="34">
+        <v>45475.898773148147</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45477</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="E28" s="28" t="s">
         <v>106</v>
       </c>
+      <c r="F28" s="34">
+        <v>45475.899189814816</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45478</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="E29" s="28" t="s">
         <v>107</v>
       </c>
+      <c r="F29" s="34">
+        <v>45475.907094907408</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45479</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>120</v>
+      </c>
       <c r="E30" s="28" t="s">
         <v>108</v>
       </c>
+      <c r="F30" s="34">
+        <v>45475.912314814814</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45480</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>121</v>
+      </c>
       <c r="E31" s="28" t="s">
         <v>109</v>
       </c>
+      <c r="F31" s="34">
+        <v>45475.918715277781</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45481</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>128</v>
+      </c>
       <c r="E32" s="28" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="34">
+        <v>45475.990833333337</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45482</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>126</v>
+      </c>
       <c r="E33" s="28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="34">
+        <v>45476.090590277781</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45483</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>127</v>
+      </c>
       <c r="E34" s="28" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="34">
+        <v>45476.23265046296</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45484</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>124</v>
+      </c>
       <c r="E35" s="28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="34">
+        <v>45475.935532407406</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45485</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>122</v>
+      </c>
       <c r="E36" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="34">
+        <v>45475.923344907409</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45486</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>125</v>
+      </c>
       <c r="E37" s="28" t="s">
         <v>115</v>
+      </c>
+      <c r="F37" s="34">
+        <v>45476.044374999998</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891EE0CE-8D0B-4D47-B5BE-07F882C075F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265B309C-4F53-8A4B-8303-5EA1C84ED434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1700" windowWidth="30380" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1700" windowWidth="28800" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="148">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -571,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -605,13 +618,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -623,6 +629,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,10 +856,10 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1294,37 +1301,36 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="5">
         <v>45467</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="10">
         <v>45466</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="26"/>
-      <c r="S12" s="27" t="s">
+      <c r="G12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="19" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1727,26 +1733,29 @@
         <v>142</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="29">
         <v>45475.893946759257</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>3</v>
       </c>
+      <c r="H25" s="30" t="s">
+        <v>3</v>
+      </c>
       <c r="I25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="26" t="s">
         <v>27</v>
       </c>
       <c r="O25" s="17"/>
-      <c r="S25" s="32"/>
+      <c r="S25" s="27"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
@@ -1758,16 +1767,19 @@
       <c r="C26" s="5">
         <v>45476</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="29">
         <v>45475.933194444442</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -1790,16 +1802,19 @@
       <c r="C27" s="5">
         <v>45476</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="29">
         <v>45475.898773148147</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -1819,16 +1834,19 @@
       <c r="C28" s="5">
         <v>45477</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="29">
         <v>45475.899189814816</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -1851,16 +1869,19 @@
       <c r="C29" s="5">
         <v>45478</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="29">
         <v>45475.907094907408</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -1880,18 +1901,19 @@
       <c r="C30" s="5">
         <v>45479</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="29">
         <v>45475.912314814814</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
@@ -1912,16 +1934,19 @@
       <c r="C31" s="5">
         <v>45480</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="29">
         <v>45475.918715277781</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -1944,13 +1969,13 @@
       <c r="C32" s="5">
         <v>45481</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="29">
         <v>45475.990833333337</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -1976,16 +2001,19 @@
       <c r="C33" s="5">
         <v>45482</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="29">
         <v>45476.090590277781</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -2005,16 +2033,19 @@
       <c r="C34" s="5">
         <v>45483</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="29">
         <v>45476.23265046296</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -2034,16 +2065,19 @@
       <c r="C35" s="5">
         <v>45484</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="29">
         <v>45475.935532407406</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -2063,16 +2097,19 @@
       <c r="C36" s="5">
         <v>45485</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="29">
         <v>45475.923344907409</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -2092,16 +2129,19 @@
       <c r="C37" s="5">
         <v>45486</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="29">
         <v>45476.044374999998</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I37" s="4" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265B309C-4F53-8A4B-8303-5EA1C84ED434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8774A7C2-E449-604E-939E-787A639E450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1700" windowWidth="28800" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="1700" windowWidth="28800" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="152">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -479,7 +479,19 @@
     <t>photo 5 was a gif, replaced with photo 26; uploaded pictures from instagram app instead of internet browser, neds two more social experiences</t>
   </si>
   <si>
-    <t>getting more experiences</t>
+    <t>have data?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -584,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,14 +634,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,13 +868,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36:E37"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -868,23 +883,23 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="10" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="103.33203125" style="12" customWidth="1"/>
-    <col min="20" max="23" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="19.5" style="10" customWidth="1"/>
+    <col min="17" max="17" width="19.5" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="103.33203125" style="12" customWidth="1"/>
+    <col min="21" max="24" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -921,44 +936,47 @@
       <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -993,42 +1011,45 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="M2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>44875</v>
       </c>
-      <c r="P2">
-        <f>_xlfn.DAYS(O2,F2)</f>
+      <c r="Q2">
+        <f>_xlfn.DAYS(P2,F2)</f>
         <v>-518</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>2</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>30</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="W2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="X2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1057,8 +1078,11 @@
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M3" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1087,8 +1111,11 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M4" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1117,8 +1144,11 @@
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1147,8 +1177,11 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1177,8 +1210,11 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -1207,8 +1243,11 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1237,8 +1276,11 @@
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M9" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
@@ -1267,8 +1309,11 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
@@ -1297,11 +1342,14 @@
       <c r="K11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="M11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T11" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
@@ -1330,11 +1378,14 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="M12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T12" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
@@ -1365,8 +1416,11 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M13" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
@@ -1397,8 +1451,11 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M14" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
@@ -1426,11 +1483,14 @@
       <c r="K15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="M15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T15" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1461,11 +1521,14 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="M16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
@@ -1499,8 +1562,11 @@
       <c r="L17" s="5">
         <v>45469</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1528,12 +1594,15 @@
       <c r="K18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O18" s="21"/>
-      <c r="S18" s="12" t="s">
+      <c r="M18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="T18" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>71</v>
       </c>
@@ -1564,11 +1633,14 @@
       <c r="K19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S19" s="19" t="s">
+      <c r="M19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T19" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -1599,8 +1671,11 @@
       <c r="K20" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M20" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>71</v>
       </c>
@@ -1628,11 +1703,14 @@
       <c r="K21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="M21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T21" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -1663,8 +1741,11 @@
       <c r="K22" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M22" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
@@ -1695,8 +1776,11 @@
       <c r="K23" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M23" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
@@ -1727,37 +1811,43 @@
       <c r="K24" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M24" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>142</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>116</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>45475.893946759257</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" s="17"/>
-      <c r="S25" s="27"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="17"/>
+      <c r="T25" s="26"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>71</v>
       </c>
@@ -1767,13 +1857,13 @@
       <c r="C26" s="5">
         <v>45476</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>45475.933194444442</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1785,14 +1875,17 @@
       <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S26" s="12" t="s">
+      <c r="K26" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T26" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
@@ -1802,13 +1895,13 @@
       <c r="C27" s="5">
         <v>45476</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <v>45475.898773148147</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -1820,11 +1913,14 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K27" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
@@ -1834,13 +1930,13 @@
       <c r="C28" s="5">
         <v>45477</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <v>45475.899189814816</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1852,14 +1948,17 @@
       <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S28" s="12" t="s">
+      <c r="K28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T28" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -1869,13 +1968,13 @@
       <c r="C29" s="5">
         <v>45478</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>119</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <v>45475.907094907408</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -1887,11 +1986,14 @@
       <c r="I29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -1901,13 +2003,13 @@
       <c r="C30" s="5">
         <v>45479</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>45475.912314814814</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -1917,14 +2019,17 @@
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S30" s="12" t="s">
+      <c r="K30" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="T30" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
@@ -1934,13 +2039,13 @@
       <c r="C31" s="5">
         <v>45480</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>121</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <v>45475.918715277781</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1952,14 +2057,17 @@
       <c r="I31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S31" s="12" t="s">
+      <c r="K31" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T31" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
@@ -1969,13 +2077,13 @@
       <c r="C32" s="5">
         <v>45481</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="28">
         <v>45475.990833333337</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -1987,11 +2095,14 @@
       <c r="K32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="S32" s="12" t="s">
+      <c r="M32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T32" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>71</v>
       </c>
@@ -2001,13 +2112,13 @@
       <c r="C33" s="5">
         <v>45482</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>126</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>45476.090590277781</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2019,11 +2130,14 @@
       <c r="I33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
@@ -2033,13 +2147,13 @@
       <c r="C34" s="5">
         <v>45483</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>127</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="28">
         <v>45476.23265046296</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -2051,11 +2165,14 @@
       <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K34" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2065,13 +2182,13 @@
       <c r="C35" s="5">
         <v>45484</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="28">
         <v>45475.935532407406</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2083,11 +2200,14 @@
       <c r="I35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
@@ -2097,13 +2217,13 @@
       <c r="C36" s="5">
         <v>45485</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>122</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="28">
         <v>45475.923344907409</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2115,11 +2235,14 @@
       <c r="I36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
@@ -2129,13 +2252,13 @@
       <c r="C37" s="5">
         <v>45486</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="27" t="s">
         <v>125</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="28">
         <v>45476.044374999998</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -2147,8 +2270,11 @@
       <c r="I37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="8" t="s">
-        <v>27</v>
+      <c r="K37" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8774A7C2-E449-604E-939E-787A639E450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97FB2DE-A342-2740-B79F-807FABDA4B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="1700" windowWidth="28800" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="1720" windowWidth="28800" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="162">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -492,6 +492,36 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>6670297f1e47e468c3605ef4</t>
+  </si>
+  <si>
+    <t>5e49e45bc397b44533784587</t>
+  </si>
+  <si>
+    <t>6679bdceaa28479dfe378bb6</t>
+  </si>
+  <si>
+    <t>65c14027646a9bbfa89584c8</t>
+  </si>
+  <si>
+    <t>663ff3e539df6ec6f060f875</t>
+  </si>
+  <si>
+    <t>60c7fd00cce7a43663968b17</t>
+  </si>
+  <si>
+    <t>664d05ba68d4a45f6ba118a5</t>
+  </si>
+  <si>
+    <t>5d50feca50bdcf0001e8d38a</t>
+  </si>
+  <si>
+    <t>6496f9fbc2928ee6956ef623</t>
+  </si>
+  <si>
+    <t>63e55908254a436361a6787b</t>
   </si>
 </sst>
 </file>
@@ -501,7 +531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -557,8 +587,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,12 +613,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -596,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -621,7 +651,6 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,17 +663,29 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,13 +909,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1367,7 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="10">
@@ -1345,7 +1386,7 @@
       <c r="M11" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="T11" s="18" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1381,7 +1422,7 @@
       <c r="M12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="T12" s="18" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1524,7 +1565,7 @@
       <c r="M16" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="T16" s="19" t="s">
+      <c r="T16" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1541,7 +1582,7 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="10">
@@ -1570,7 +1611,7 @@
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>45467</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1579,7 +1620,7 @@
       <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>45466</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1597,7 +1638,7 @@
       <c r="M18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P18" s="21"/>
+      <c r="P18" s="20"/>
       <c r="T18" s="12" t="s">
         <v>87</v>
       </c>
@@ -1636,7 +1677,7 @@
       <c r="M19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="T19" s="19" t="s">
+      <c r="T19" s="18" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1815,37 +1856,40 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="25" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="32">
         <v>45475.893946759257</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="29" t="s">
+      <c r="G25" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="P25" s="17"/>
-      <c r="T25" s="26"/>
+      <c r="P25" s="35"/>
+      <c r="T25" s="36"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
@@ -1857,13 +1901,13 @@
       <c r="C26" s="5">
         <v>45476</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>45475.933194444442</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1875,7 +1919,7 @@
       <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -1895,13 +1939,13 @@
       <c r="C27" s="5">
         <v>45476</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>45475.898773148147</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -1913,7 +1957,7 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -1930,13 +1974,13 @@
       <c r="C28" s="5">
         <v>45477</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>45475.899189814816</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1948,7 +1992,7 @@
       <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="30" t="s">
+      <c r="K28" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -1968,13 +2012,13 @@
       <c r="C29" s="5">
         <v>45478</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>45475.907094907408</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -1986,7 +2030,7 @@
       <c r="I29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M29" s="4" t="s">
@@ -2003,13 +2047,13 @@
       <c r="C30" s="5">
         <v>45479</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>45475.912314814814</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -2019,7 +2063,7 @@
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="30" t="s">
+      <c r="K30" s="28" t="s">
         <v>27</v>
       </c>
       <c r="M30" s="4" t="s">
@@ -2039,13 +2083,13 @@
       <c r="C31" s="5">
         <v>45480</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>45475.918715277781</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -2057,7 +2101,7 @@
       <c r="I31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="30" t="s">
+      <c r="K31" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M31" s="4" t="s">
@@ -2077,13 +2121,13 @@
       <c r="C32" s="5">
         <v>45481</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <v>45475.990833333337</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -2102,7 +2146,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>71</v>
       </c>
@@ -2112,13 +2156,13 @@
       <c r="C33" s="5">
         <v>45482</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>45476.090590277781</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2130,14 +2174,14 @@
       <c r="I33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
@@ -2147,13 +2191,13 @@
       <c r="C34" s="5">
         <v>45483</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="27">
         <v>45476.23265046296</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -2165,14 +2209,14 @@
       <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2182,13 +2226,13 @@
       <c r="C35" s="5">
         <v>45484</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="27">
         <v>45475.935532407406</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2200,14 +2244,14 @@
       <c r="I35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
@@ -2217,13 +2261,13 @@
       <c r="C36" s="5">
         <v>45485</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="27">
         <v>45475.923344907409</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2235,14 +2279,14 @@
       <c r="I36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="30" t="s">
+      <c r="K36" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
@@ -2252,13 +2296,13 @@
       <c r="C37" s="5">
         <v>45486</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="27">
         <v>45476.044374999998</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -2270,11 +2314,65 @@
       <c r="I37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="30" t="s">
+      <c r="K37" s="28" t="s">
         <v>3</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="K38" s="25"/>
+      <c r="P38" s="16"/>
+      <c r="T38" s="26"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="38" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97FB2DE-A342-2740-B79F-807FABDA4B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C31A62C-13DA-B246-A447-520D0530E68E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="1720" windowWidth="28800" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="5860" windowWidth="34140" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="189">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -522,6 +509,87 @@
   </si>
   <si>
     <t>63e55908254a436361a6787b</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>R_3GCcAPs4532aeMv</t>
+  </si>
+  <si>
+    <t>R_5HI9bSwgpQjzAzf</t>
+  </si>
+  <si>
+    <t>R_1NxHjD3WyE5JwSv</t>
+  </si>
+  <si>
+    <t>R_1fjisI0WaigMZib</t>
+  </si>
+  <si>
+    <t>R_1P0hNu9uO9UN0Ki</t>
+  </si>
+  <si>
+    <t>R_1wKBnrUzqwJ9FYB</t>
+  </si>
+  <si>
+    <t>R_1PNZjwTlwDhvszK</t>
+  </si>
+  <si>
+    <t>R_6qqtW9MLzv88l4T</t>
+  </si>
+  <si>
+    <t>R_3P1NODy7SlCLq9j</t>
+  </si>
+  <si>
+    <t>R_6FqRMMdiXsq3xGD</t>
+  </si>
+  <si>
+    <t>R_6jcG2lKk5IJLNRm</t>
+  </si>
+  <si>
+    <t>R_1QK8vatNWJjUojD</t>
+  </si>
+  <si>
+    <t>R_6htlWgyyJZcRLXY</t>
+  </si>
+  <si>
+    <t>R_7P1LRsZZQAeoCeM</t>
+  </si>
+  <si>
+    <t>R_1bMl6bJwIWkxjSV</t>
+  </si>
+  <si>
+    <t>R_5Lj62sYS9OKLmbD</t>
+  </si>
+  <si>
+    <t>R_5s0i9HtzWQv5ALq</t>
+  </si>
+  <si>
+    <t>R_6wPCBtZuRM7vk2d</t>
+  </si>
+  <si>
+    <t>R_1ew6rGUcpUt0XaT</t>
+  </si>
+  <si>
+    <t>R_7Hbkrxr9G9GofrW</t>
+  </si>
+  <si>
+    <t>changed photo 6 (jiff format) with photo 26, changed photo 12 (format webp.) with photo 28, changed photo 19 (format webp.) with photo 29, changed photo 21 (duplicate pic) with photo 30, changed photo 25 (jiff format) with photo 31</t>
+  </si>
+  <si>
+    <t>changed photo 7 (alcohol) with photo 25- changed photo 25 with photo 26</t>
+  </si>
+  <si>
+    <t>replaced photo 11 (alcohol) with photo 26, changed photo 18 (alcohol) with photo 27</t>
+  </si>
+  <si>
+    <t>changed photo 24 (alcohol) with photo 26</t>
+  </si>
+  <si>
+    <t>n- need more experiences (talking on the phone twice in social)</t>
+  </si>
+  <si>
+    <t>n-getting more experiences (put friends in nonsocial</t>
   </si>
 </sst>
 </file>
@@ -626,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -662,12 +730,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -686,6 +748,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,13 +980,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -926,8 +997,8 @@
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="26" customWidth="1"/>
@@ -1856,40 +1927,40 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="30">
         <v>45475.893946759257</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="33" t="s">
+      <c r="G25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="T25" s="36"/>
+      <c r="P25" s="33"/>
+      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
@@ -1901,13 +1972,13 @@
       <c r="C26" s="5">
         <v>45476</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="27" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="25">
         <v>45475.933194444442</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1919,7 +1990,7 @@
       <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="K26" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -1939,13 +2010,13 @@
       <c r="C27" s="5">
         <v>45476</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="25">
         <v>45475.898773148147</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -1957,7 +2028,7 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -1974,13 +2045,13 @@
       <c r="C28" s="5">
         <v>45477</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="27" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="25">
         <v>45475.899189814816</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1992,7 +2063,7 @@
       <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -2012,13 +2083,13 @@
       <c r="C29" s="5">
         <v>45478</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="27" t="s">
         <v>119</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="25">
         <v>45475.907094907408</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -2030,7 +2101,7 @@
       <c r="I29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="28" t="s">
+      <c r="K29" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M29" s="4" t="s">
@@ -2047,13 +2118,13 @@
       <c r="C30" s="5">
         <v>45479</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="27" t="s">
         <v>120</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="25">
         <v>45475.912314814814</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -2063,8 +2134,8 @@
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="28" t="s">
-        <v>27</v>
+      <c r="K30" s="26" t="s">
+        <v>3</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>150</v>
@@ -2083,13 +2154,13 @@
       <c r="C31" s="5">
         <v>45480</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>121</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="25">
         <v>45475.918715277781</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -2101,11 +2172,14 @@
       <c r="I31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="R31" t="s">
+        <v>3</v>
       </c>
       <c r="T31" s="12" t="s">
         <v>143</v>
@@ -2121,13 +2195,13 @@
       <c r="C32" s="5">
         <v>45481</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="27" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="25">
         <v>45475.990833333337</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -2141,6 +2215,9 @@
       </c>
       <c r="M32" s="4" t="s">
         <v>149</v>
+      </c>
+      <c r="R32" t="s">
+        <v>3</v>
       </c>
       <c r="T32" s="12" t="s">
         <v>144</v>
@@ -2156,13 +2233,13 @@
       <c r="C33" s="5">
         <v>45482</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="27" t="s">
         <v>126</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="25">
         <v>45476.090590277781</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2174,11 +2251,14 @@
       <c r="I33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="28" t="s">
+      <c r="K33" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>149</v>
+      </c>
+      <c r="R33" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2191,13 +2271,13 @@
       <c r="C34" s="5">
         <v>45483</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="27" t="s">
         <v>127</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="25">
         <v>45476.23265046296</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -2209,11 +2289,14 @@
       <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>149</v>
+      </c>
+      <c r="R34" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2226,13 +2309,13 @@
       <c r="C35" s="5">
         <v>45484</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="25">
         <v>45475.935532407406</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2244,11 +2327,14 @@
       <c r="I35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>148</v>
+      </c>
+      <c r="R35" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2261,13 +2347,13 @@
       <c r="C36" s="5">
         <v>45485</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="27" t="s">
         <v>122</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="25">
         <v>45475.923344907409</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2279,11 +2365,14 @@
       <c r="I36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="28" t="s">
+      <c r="K36" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>148</v>
+      </c>
+      <c r="R36" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2296,13 +2385,13 @@
       <c r="C37" s="5">
         <v>45486</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="27" t="s">
         <v>125</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="25">
         <v>45476.044374999998</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -2314,65 +2403,294 @@
       <c r="I37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="28" t="s">
+      <c r="K37" s="26" t="s">
         <v>3</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="39">
+        <v>45490</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>163</v>
+      </c>
       <c r="E38" s="24" t="s">
         <v>152</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="K38" s="25"/>
+      <c r="I38" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="P38" s="16"/>
-      <c r="T38" s="26"/>
+      <c r="R38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="40" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="37" t="s">
+      <c r="A39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>153</v>
       </c>
+      <c r="I39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
       <c r="E40" s="22" t="s">
         <v>154</v>
       </c>
+      <c r="I40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="R40" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="37" t="s">
+      <c r="A41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>155</v>
       </c>
+      <c r="I41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="R41" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="18" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="37" t="s">
+      <c r="A42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>156</v>
       </c>
+      <c r="I42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="18" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="37" t="s">
+      <c r="A43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>157</v>
       </c>
+      <c r="I43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="37" t="s">
+      <c r="A44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>158</v>
       </c>
+      <c r="I44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="37" t="s">
+      <c r="A45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="35" t="s">
         <v>159</v>
       </c>
+      <c r="I45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="37" t="s">
+      <c r="A46" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>160</v>
       </c>
+      <c r="I46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="18" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="38" t="s">
+      <c r="A47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="36" t="s">
         <v>161</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="R48" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C31A62C-13DA-B246-A447-520D0530E68E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF81A73-A890-0C48-8685-5190421A7738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="5860" windowWidth="34140" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26560" yWindow="1940" windowWidth="28400" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -586,10 +599,10 @@
     <t>changed photo 24 (alcohol) with photo 26</t>
   </si>
   <si>
-    <t>n- need more experiences (talking on the phone twice in social)</t>
-  </si>
-  <si>
-    <t>n-getting more experiences (put friends in nonsocial</t>
+    <t>getting more experiences</t>
+  </si>
+  <si>
+    <t>don’t see it</t>
   </si>
 </sst>
 </file>
@@ -694,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -734,21 +747,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -983,10 +983,10 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1927,40 +1927,38 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="25">
         <v>45475.893946759257</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="31" t="s">
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="P25" s="33"/>
-      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
@@ -1972,7 +1970,7 @@
       <c r="C26" s="5">
         <v>45476</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="23" t="s">
@@ -2010,7 +2008,7 @@
       <c r="C27" s="5">
         <v>45476</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" t="s">
         <v>117</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -2045,7 +2043,7 @@
       <c r="C28" s="5">
         <v>45477</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -2083,7 +2081,7 @@
       <c r="C29" s="5">
         <v>45478</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" t="s">
         <v>119</v>
       </c>
       <c r="E29" s="22" t="s">
@@ -2118,7 +2116,7 @@
       <c r="C30" s="5">
         <v>45479</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" t="s">
         <v>120</v>
       </c>
       <c r="E30" s="22" t="s">
@@ -2154,7 +2152,7 @@
       <c r="C31" s="5">
         <v>45480</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" t="s">
         <v>121</v>
       </c>
       <c r="E31" s="22" t="s">
@@ -2195,7 +2193,7 @@
       <c r="C32" s="5">
         <v>45481</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="22" t="s">
@@ -2233,7 +2231,7 @@
       <c r="C33" s="5">
         <v>45482</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" t="s">
         <v>126</v>
       </c>
       <c r="E33" s="22" t="s">
@@ -2271,7 +2269,7 @@
       <c r="C34" s="5">
         <v>45483</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" t="s">
         <v>127</v>
       </c>
       <c r="E34" s="22" t="s">
@@ -2309,7 +2307,7 @@
       <c r="C35" s="5">
         <v>45484</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="22" t="s">
@@ -2347,7 +2345,7 @@
       <c r="C36" s="5">
         <v>45485</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" t="s">
         <v>122</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -2385,7 +2383,7 @@
       <c r="C37" s="5">
         <v>45486</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" t="s">
         <v>125</v>
       </c>
       <c r="E37" s="22" t="s">
@@ -2420,27 +2418,27 @@
       <c r="B38" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="30">
         <v>45490</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>152</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="I38" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="38" t="s">
-        <v>3</v>
+      <c r="I38" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="P38" s="16"/>
       <c r="R38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="T38" s="40" t="s">
+      <c r="T38" s="31" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2457,14 +2455,14 @@
       <c r="D39" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="27" t="s">
         <v>153</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="R39" t="s">
         <v>3</v>
@@ -2490,7 +2488,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R40" t="s">
         <v>3</v>
@@ -2509,7 +2507,7 @@
       <c r="D41" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="27" t="s">
         <v>155</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -2538,14 +2536,14 @@
       <c r="D42" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="27" t="s">
         <v>156</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="R42" t="s">
         <v>3</v>
@@ -2567,14 +2565,14 @@
       <c r="D43" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="R43" t="s">
         <v>3</v>
@@ -2593,14 +2591,14 @@
       <c r="D44" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="27" t="s">
         <v>158</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="R44" t="s">
         <v>3</v>
@@ -2619,14 +2617,14 @@
       <c r="D45" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="27" t="s">
         <v>159</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="R45" t="s">
         <v>3</v>
@@ -2645,14 +2643,14 @@
       <c r="D46" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="27" t="s">
         <v>160</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="R46" t="s">
         <v>3</v>
@@ -2674,14 +2672,14 @@
       <c r="D47" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="28" t="s">
         <v>161</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="R47" t="s">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF81A73-A890-0C48-8685-5190421A7738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442D004-0153-3D40-B070-84026758A0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26560" yWindow="1940" windowWidth="28400" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37920" yWindow="1540" windowWidth="25060" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="188">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>getting more experiences</t>
-  </si>
-  <si>
-    <t>don’t see it</t>
   </si>
 </sst>
 </file>
@@ -675,7 +672,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +691,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -707,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -757,6 +760,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,10 +987,10 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2029,7 +2033,7 @@
       <c r="K27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="33" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2102,7 +2106,7 @@
       <c r="K29" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="33" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2328,7 +2332,7 @@
       <c r="K35" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="33" t="s">
         <v>148</v>
       </c>
       <c r="R35" t="s">
@@ -2366,7 +2370,7 @@
       <c r="K36" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="33" t="s">
         <v>148</v>
       </c>
       <c r="R36" t="s">
@@ -2404,7 +2408,7 @@
       <c r="K37" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="33" t="s">
         <v>148</v>
       </c>
       <c r="R37" t="s">
@@ -2624,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R45" t="s">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442D004-0153-3D40-B070-84026758A0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B3C877-4F46-8044-8ACE-AD1C5C1B12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37920" yWindow="1540" windowWidth="25060" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="700" windowWidth="25060" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +751,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -761,6 +766,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,10 +993,10 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1945,7 +1951,7 @@
       <c r="E25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>45475.893946759257</v>
       </c>
       <c r="G25" t="s">
@@ -1957,7 +1963,7 @@
       <c r="I25" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="25" t="s">
         <v>3</v>
       </c>
       <c r="M25" s="4" t="s">
@@ -1980,7 +1986,7 @@
       <c r="E26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <v>45475.933194444442</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1992,7 +1998,7 @@
       <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="25" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -2018,7 +2024,7 @@
       <c r="E27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <v>45475.898773148147</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -2030,10 +2036,10 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="33" t="s">
+      <c r="K27" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2053,7 +2059,7 @@
       <c r="E28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <v>45475.899189814816</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -2065,7 +2071,7 @@
       <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="25" t="s">
         <v>3</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -2091,7 +2097,7 @@
       <c r="E29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="24">
         <v>45475.907094907408</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -2103,10 +2109,10 @@
       <c r="I29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="33" t="s">
+      <c r="K29" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="32" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2126,7 +2132,7 @@
       <c r="E30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <v>45475.912314814814</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -2136,7 +2142,7 @@
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="25" t="s">
         <v>3</v>
       </c>
       <c r="M30" s="4" t="s">
@@ -2162,7 +2168,7 @@
       <c r="E31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <v>45475.918715277781</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -2174,7 +2180,7 @@
       <c r="I31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="25" t="s">
         <v>3</v>
       </c>
       <c r="M31" s="4" t="s">
@@ -2203,7 +2209,7 @@
       <c r="E32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="24">
         <v>45475.990833333337</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -2241,7 +2247,7 @@
       <c r="E33" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>45476.090590277781</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2253,7 +2259,7 @@
       <c r="I33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="25" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="4" t="s">
@@ -2279,7 +2285,7 @@
       <c r="E34" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="24">
         <v>45476.23265046296</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -2291,7 +2297,7 @@
       <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="25" t="s">
         <v>3</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -2317,7 +2323,7 @@
       <c r="E35" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="24">
         <v>45475.935532407406</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2329,10 +2335,10 @@
       <c r="I35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="33" t="s">
+      <c r="K35" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="32" t="s">
         <v>148</v>
       </c>
       <c r="R35" t="s">
@@ -2355,7 +2361,7 @@
       <c r="E36" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="24">
         <v>45475.923344907409</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2367,10 +2373,10 @@
       <c r="I36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M36" s="33" t="s">
+      <c r="K36" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="32" t="s">
         <v>148</v>
       </c>
       <c r="R36" t="s">
@@ -2393,7 +2399,7 @@
       <c r="E37" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="24">
         <v>45476.044374999998</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -2405,10 +2411,10 @@
       <c r="I37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="33" t="s">
+      <c r="K37" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="32" t="s">
         <v>148</v>
       </c>
       <c r="R37" t="s">
@@ -2422,27 +2428,27 @@
       <c r="B38" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="29">
         <v>45490</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="33" t="s">
         <v>152</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="I38" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="29" t="s">
-        <v>27</v>
+      <c r="I38" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>3</v>
       </c>
       <c r="P38" s="16"/>
       <c r="R38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="T38" s="31" t="s">
+      <c r="T38" s="30" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2459,14 +2465,14 @@
       <c r="D39" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>153</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="26" t="s">
-        <v>27</v>
+      <c r="K39" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="R39" t="s">
         <v>3</v>
@@ -2491,8 +2497,8 @@
       <c r="I40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="26" t="s">
-        <v>187</v>
+      <c r="K40" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="R40" t="s">
         <v>3</v>
@@ -2511,14 +2517,14 @@
       <c r="D41" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="26" t="s">
         <v>155</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="26" t="s">
-        <v>187</v>
+      <c r="K41" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="R41" t="s">
         <v>3</v>
@@ -2540,14 +2546,14 @@
       <c r="D42" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>156</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="26" t="s">
-        <v>187</v>
+      <c r="K42" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="R42" t="s">
         <v>3</v>
@@ -2569,14 +2575,14 @@
       <c r="D43" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>157</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="26" t="s">
-        <v>27</v>
+      <c r="K43" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="R43" t="s">
         <v>3</v>
@@ -2595,14 +2601,14 @@
       <c r="D44" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>158</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="26" t="s">
-        <v>27</v>
+      <c r="K44" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="R44" t="s">
         <v>3</v>
@@ -2621,13 +2627,13 @@
       <c r="D45" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="26" t="s">
         <v>159</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="26" t="s">
+      <c r="K45" s="25" t="s">
         <v>187</v>
       </c>
       <c r="R45" t="s">
@@ -2647,14 +2653,14 @@
       <c r="D46" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="26" t="s">
-        <v>187</v>
+      <c r="K46" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="R46" t="s">
         <v>3</v>
@@ -2676,13 +2682,13 @@
       <c r="D47" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="27" t="s">
         <v>161</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="26" t="s">
+      <c r="K47" s="25" t="s">
         <v>187</v>
       </c>
       <c r="R47" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B3C877-4F46-8044-8ACE-AD1C5C1B12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198017DE-12AB-1044-9976-FBA610E73438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="700" windowWidth="25060" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24060" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -767,6 +767,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,10 +995,10 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2129,7 +2131,7 @@
       <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="24">
@@ -2146,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T30" s="12" t="s">
         <v>146</v>
@@ -2442,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="P38" s="16"/>
       <c r="R38" s="15" t="s">
@@ -2491,14 +2493,14 @@
       <c r="D40" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="33" t="s">
         <v>154</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="R40" t="s">
         <v>3</v>
@@ -2524,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="R41" t="s">
         <v>3</v>
@@ -2553,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="R42" t="s">
         <v>3</v>
@@ -2575,7 +2577,7 @@
       <c r="D43" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="34" t="s">
         <v>157</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -2660,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="R46" t="s">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198017DE-12AB-1044-9976-FBA610E73438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB37EA-DBD9-ED4F-89D3-4424510F1F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24060" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="187">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>NA</t>
@@ -672,7 +669,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +700,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -716,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -769,6 +772,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,10 +1001,10 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1719,7 +1725,7 @@
         <v>92</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P18" s="20"/>
       <c r="T18" s="12" t="s">
@@ -1758,7 +1764,7 @@
         <v>92</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T19" s="18" t="s">
         <v>93</v>
@@ -1828,7 +1834,7 @@
         <v>92</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>87</v>
@@ -2186,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R31" t="s">
         <v>3</v>
@@ -2425,50 +2431,50 @@
     </row>
     <row r="38" spans="1:20" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="29">
         <v>45490</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F38" s="16"/>
       <c r="I38" s="31" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="P38" s="16"/>
       <c r="R38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="5">
         <v>45490</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>153</v>
+        <v>164</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
@@ -2482,25 +2488,28 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="5">
         <v>45490</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>154</v>
+        <v>163</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K40" s="25" t="s">
         <v>3</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="R40" t="s">
         <v>3</v>
@@ -2508,19 +2517,19 @@
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="5">
         <v>45490</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>3</v>
@@ -2532,24 +2541,24 @@
         <v>3</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="5">
         <v>45490</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>3</v>
@@ -2561,30 +2570,33 @@
         <v>3</v>
       </c>
       <c r="T42" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" s="5">
         <v>45490</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="25" t="s">
         <v>3</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="R43" t="s">
         <v>3</v>
@@ -2592,19 +2604,19 @@
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="5">
         <v>45490</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>158</v>
+        <v>168</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
@@ -2618,25 +2630,25 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C45" s="5">
         <v>45490</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="R45" t="s">
         <v>3</v>
@@ -2644,54 +2656,54 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C46" s="5">
         <v>45490</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>160</v>
+        <v>170</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>159</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="R46" t="s">
         <v>3</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="5">
         <v>45490</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R47" t="s">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB37EA-DBD9-ED4F-89D3-4424510F1F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B31DE3-E27C-B240-AF56-807F9F312136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="0" windowWidth="23460" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="187">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -596,7 +596,7 @@
     <t>changed photo 24 (alcohol) with photo 26</t>
   </si>
   <si>
-    <t>getting more experiences</t>
+    <t>manual link sent, did not complete yet</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,12 +700,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -719,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,7 +752,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -771,10 +764,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,10 +993,10 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2047,7 +2039,7 @@
       <c r="K27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="31" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2120,7 +2112,7 @@
       <c r="K29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="32" t="s">
+      <c r="M29" s="31" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2137,7 +2129,7 @@
       <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="22" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="24">
@@ -2346,7 +2338,7 @@
       <c r="K35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="31" t="s">
         <v>148</v>
       </c>
       <c r="R35" t="s">
@@ -2384,7 +2376,7 @@
       <c r="K36" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M36" s="32" t="s">
+      <c r="M36" s="31" t="s">
         <v>148</v>
       </c>
       <c r="R36" t="s">
@@ -2422,7 +2414,7 @@
       <c r="K37" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="32" t="s">
+      <c r="M37" s="31" t="s">
         <v>148</v>
       </c>
       <c r="R37" t="s">
@@ -2436,27 +2428,30 @@
       <c r="B38" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>45490</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="32" t="s">
         <v>151</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="I38" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="28" t="s">
-        <v>3</v>
+      <c r="I38" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>186</v>
       </c>
       <c r="P38" s="16"/>
       <c r="R38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="T38" s="30" t="s">
+      <c r="T38" s="29" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2473,7 +2468,7 @@
       <c r="D39" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="36" t="s">
         <v>152</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -2481,6 +2476,9 @@
       </c>
       <c r="K39" s="25" t="s">
         <v>3</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="R39" t="s">
         <v>3</v>
@@ -2499,7 +2497,7 @@
       <c r="D40" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="22" t="s">
         <v>153</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -2508,7 +2506,7 @@
       <c r="K40" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="36" t="s">
+      <c r="M40" s="34" t="s">
         <v>149</v>
       </c>
       <c r="R40" t="s">
@@ -2528,7 +2526,7 @@
       <c r="D41" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="33" t="s">
         <v>154</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -2557,7 +2555,7 @@
       <c r="D42" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="33" t="s">
         <v>155</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -2586,7 +2584,7 @@
       <c r="D43" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="35" t="s">
         <v>156</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -2595,7 +2593,7 @@
       <c r="K43" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="36" t="s">
+      <c r="M43" s="34" t="s">
         <v>149</v>
       </c>
       <c r="R43" t="s">
@@ -2615,7 +2613,7 @@
       <c r="D44" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="33" t="s">
         <v>157</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -2641,14 +2639,14 @@
       <c r="D45" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="33" t="s">
         <v>158</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="R45" t="s">
         <v>3</v>
@@ -2667,7 +2665,7 @@
       <c r="D46" t="s">
         <v>170</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="36" t="s">
         <v>159</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -2675,6 +2673,9 @@
       </c>
       <c r="K46" s="25" t="s">
         <v>3</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="R46" t="s">
         <v>3</v>
@@ -2696,14 +2697,14 @@
       <c r="D47" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="R47" t="s">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B31DE3-E27C-B240-AF56-807F9F312136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FBB27F-17CC-1849-BBD7-C3C4DDEC8642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="0" windowWidth="23460" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38260" yWindow="1280" windowWidth="27740" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="194">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -482,15 +482,6 @@
     <t>have data?</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>6670297f1e47e468c3605ef4</t>
   </si>
   <si>
@@ -596,7 +587,37 @@
     <t>changed photo 24 (alcohol) with photo 26</t>
   </si>
   <si>
-    <t>manual link sent, did not complete yet</t>
+    <t>Y (allow list)</t>
+  </si>
+  <si>
+    <t>Y (manual)</t>
+  </si>
+  <si>
+    <t>N (manual)</t>
+  </si>
+  <si>
+    <t>N (allowlist)</t>
+  </si>
+  <si>
+    <t>N(allowlist)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y(allowlist)</t>
+  </si>
+  <si>
+    <t>Y(manual)</t>
+  </si>
+  <si>
+    <t>N(manual, had task error though)</t>
+  </si>
+  <si>
+    <t>N (never completed it)</t>
+  </si>
+  <si>
+    <t>N(manual)</t>
   </si>
 </sst>
 </file>
@@ -669,18 +690,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -713,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -737,8 +752,6 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,26 +760,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,10 +997,10 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1134,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1201,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1233,8 +1237,8 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>149</v>
+      <c r="M4" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1267,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1300,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1332,8 +1336,8 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>149</v>
+      <c r="M7" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1365,8 +1369,8 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>149</v>
+      <c r="M8" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1398,8 +1402,8 @@
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>149</v>
+      <c r="M9" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1431,8 +1435,8 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>148</v>
+      <c r="M10" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1448,7 +1452,7 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="10">
@@ -1464,10 +1468,10 @@
       <c r="K11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T11" s="18" t="s">
+      <c r="M11" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="T11" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1500,10 +1504,10 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="T12" s="18" t="s">
+      <c r="M12" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="T12" s="16" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1538,8 +1542,8 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>148</v>
+      <c r="M13" s="24" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1573,8 +1577,8 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>148</v>
+      <c r="M14" s="24" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1606,7 +1610,7 @@
         <v>92</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>87</v>
@@ -1643,10 +1647,10 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T16" s="18" t="s">
+      <c r="M16" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="T16" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1663,7 +1667,7 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="10">
@@ -1684,15 +1688,15 @@
       <c r="L17" s="5">
         <v>45469</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>148</v>
+      <c r="M17" s="26" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>45467</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1701,7 +1705,7 @@
       <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <v>45466</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1717,9 +1721,9 @@
         <v>92</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P18" s="20"/>
+        <v>188</v>
+      </c>
+      <c r="P18" s="18"/>
       <c r="T18" s="12" t="s">
         <v>87</v>
       </c>
@@ -1756,9 +1760,9 @@
         <v>92</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="T19" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="T19" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1793,8 +1797,8 @@
       <c r="K20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>148</v>
+      <c r="M20" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1826,7 +1830,7 @@
         <v>92</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>87</v>
@@ -1863,8 +1867,8 @@
       <c r="K22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>148</v>
+      <c r="M22" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1898,8 +1902,8 @@
       <c r="K23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>149</v>
+      <c r="M23" s="26" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1933,8 +1937,8 @@
       <c r="K24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>149</v>
+      <c r="M24" s="26" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1948,10 +1952,10 @@
       <c r="D25" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>45475.893946759257</v>
       </c>
       <c r="G25" t="s">
@@ -1963,11 +1967,11 @@
       <c r="I25" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>148</v>
+      <c r="K25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1983,10 +1987,10 @@
       <c r="D26" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <v>45475.933194444442</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1998,11 +2002,11 @@
       <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>149</v>
+      <c r="K26" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>129</v>
@@ -2021,10 +2025,10 @@
       <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <v>45475.898773148147</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -2036,11 +2040,11 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="31" t="s">
-        <v>148</v>
+      <c r="K27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2056,10 +2060,10 @@
       <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="22">
         <v>45475.899189814816</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -2071,11 +2075,11 @@
       <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>149</v>
+      <c r="K28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="T28" s="12" t="s">
         <v>145</v>
@@ -2094,10 +2098,10 @@
       <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="22">
         <v>45475.907094907408</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -2109,11 +2113,11 @@
       <c r="I29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>148</v>
+      <c r="K29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2129,10 +2133,10 @@
       <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="22">
         <v>45475.912314814814</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -2142,11 +2146,11 @@
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>149</v>
+      <c r="K30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="T30" s="12" t="s">
         <v>146</v>
@@ -2165,10 +2169,10 @@
       <c r="D31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="22">
         <v>45475.918715277781</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -2180,11 +2184,11 @@
       <c r="I31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>150</v>
+      <c r="K31" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="R31" t="s">
         <v>3</v>
@@ -2206,10 +2210,10 @@
       <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="22">
         <v>45475.990833333337</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -2221,8 +2225,8 @@
       <c r="K32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>149</v>
+      <c r="M32" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="R32" t="s">
         <v>3</v>
@@ -2244,10 +2248,10 @@
       <c r="D33" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="22">
         <v>45476.090590277781</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2259,11 +2263,11 @@
       <c r="I33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>149</v>
+      <c r="K33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="R33" t="s">
         <v>3</v>
@@ -2282,10 +2286,10 @@
       <c r="D34" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="22">
         <v>45476.23265046296</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -2297,11 +2301,11 @@
       <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>149</v>
+      <c r="K34" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="R34" t="s">
         <v>3</v>
@@ -2320,10 +2324,10 @@
       <c r="D35" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="22">
         <v>45475.935532407406</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2335,11 +2339,11 @@
       <c r="I35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="31" t="s">
-        <v>148</v>
+      <c r="K35" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="R35" t="s">
         <v>3</v>
@@ -2358,10 +2362,10 @@
       <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="22">
         <v>45475.923344907409</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2373,11 +2377,11 @@
       <c r="I36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>148</v>
+      <c r="K36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="R36" t="s">
         <v>3</v>
@@ -2396,10 +2400,10 @@
       <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="22">
         <v>45476.044374999998</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -2411,74 +2415,72 @@
       <c r="I37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="31" t="s">
+      <c r="K37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="R37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45490</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="R37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="28">
-        <v>45490</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="I38" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="P38" s="16"/>
-      <c r="R38" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="29" t="s">
+      <c r="I38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="26" t="s">
         <v>184</v>
+      </c>
+      <c r="R38" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C39" s="5">
         <v>45490</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>152</v>
+        <v>161</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M39" s="31" t="s">
-        <v>148</v>
+      <c r="K39" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="R39" t="s">
         <v>3</v>
@@ -2486,28 +2488,28 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C40" s="5">
         <v>45490</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M40" s="34" t="s">
-        <v>149</v>
+      <c r="K40" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="R40" t="s">
         <v>3</v>
@@ -2515,86 +2517,89 @@
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C41" s="5">
         <v>45490</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="K41" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R41" t="s">
         <v>3</v>
       </c>
-      <c r="T41" s="18" t="s">
-        <v>183</v>
+      <c r="T41" s="16" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C42" s="5">
         <v>45490</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="25" t="s">
-        <v>3</v>
+      <c r="K42" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="R42" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="18" t="s">
-        <v>185</v>
+      <c r="T42" s="16" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C43" s="5">
         <v>45490</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="34" t="s">
-        <v>149</v>
+      <c r="K43" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="R43" t="s">
         <v>3</v>
@@ -2602,25 +2607,28 @@
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C44" s="5">
         <v>45490</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>157</v>
+        <v>165</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="25" t="s">
-        <v>3</v>
+      <c r="K44" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="R44" t="s">
         <v>3</v>
@@ -2628,25 +2636,28 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C45" s="5">
         <v>45490</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>158</v>
+        <v>166</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="25" t="s">
-        <v>3</v>
+      <c r="K45" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="R45" t="s">
         <v>3</v>
@@ -2654,57 +2665,60 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C46" s="5">
         <v>45490</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>148</v>
+      <c r="K46" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="R46" t="s">
         <v>3</v>
       </c>
-      <c r="T46" s="18" t="s">
-        <v>182</v>
+      <c r="T46" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C47" s="5">
         <v>45490</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="25" t="s">
-        <v>27</v>
+      <c r="K47" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="R47" t="s">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FBB27F-17CC-1849-BBD7-C3C4DDEC8642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F59E2-9860-5647-8EBA-D45BE69F06AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38260" yWindow="1280" windowWidth="27740" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="1280" windowWidth="37620" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="200">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -618,6 +605,24 @@
   </si>
   <si>
     <t>N(manual)</t>
+  </si>
+  <si>
+    <t>661fee35973b5ff6fa3418ef</t>
+  </si>
+  <si>
+    <t>6645a794be029b87060615aa</t>
+  </si>
+  <si>
+    <t>R_3Dp70zLrAwIRtzB</t>
+  </si>
+  <si>
+    <t>R_38wY0OsLC3JFBMR</t>
+  </si>
+  <si>
+    <t>R_3EbxZgRlWeI2onQ</t>
+  </si>
+  <si>
+    <t>R_6r1lXejlpKcKoHl</t>
   </si>
 </sst>
 </file>
@@ -690,7 +695,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +720,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -728,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -771,6 +782,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,13 +1006,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2725,8 +2737,59 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45511</v>
+      </c>
+      <c r="D48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="R48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="5">
+        <v>45511</v>
+      </c>
+      <c r="D49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R50" t="s">
         <v>3</v>
       </c>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F59E2-9860-5647-8EBA-D45BE69F06AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B946C1C4-33D8-7146-A751-B57E47B1D488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="1280" windowWidth="37620" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1280" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="200">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -739,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -781,7 +794,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,10 +1021,10 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2237,7 +2249,7 @@
       <c r="K32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="4" t="s">
         <v>188</v>
       </c>
       <c r="R32" t="s">
@@ -2749,7 +2761,7 @@
       <c r="D48" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="29" t="s">
         <v>194</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -2783,6 +2795,9 @@
       </c>
       <c r="K49" s="8" t="s">
         <v>3</v>
+      </c>
+      <c r="M49" s="26" t="s">
+        <v>189</v>
       </c>
       <c r="R49" t="s">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B946C1C4-33D8-7146-A751-B57E47B1D488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CEC3C2-CA3C-D349-8102-E66B905C9364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1280" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37040" yWindow="1400" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="200">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1024,7 +1024,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2770,6 +2770,9 @@
       <c r="K48" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="M48" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="R48" t="s">
         <v>3</v>
       </c>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CEC3C2-CA3C-D349-8102-E66B905C9364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F239C-FFEA-FF43-9A75-B04EB3A1E27B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37040" yWindow="1400" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1400" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="215">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -636,6 +623,51 @@
   </si>
   <si>
     <t>R_6r1lXejlpKcKoHl</t>
+  </si>
+  <si>
+    <t>5cc3f0f9fdb33500018c5eeb</t>
+  </si>
+  <si>
+    <t>65d65821b5e4f4fb6de9076c</t>
+  </si>
+  <si>
+    <t>6643c34315b04d498e71017e</t>
+  </si>
+  <si>
+    <t>63db74b49b4a80525a557a61</t>
+  </si>
+  <si>
+    <t>R_7g0aDXhuCNjmBot</t>
+  </si>
+  <si>
+    <t>R_62ioBDDoUnaTQTe</t>
+  </si>
+  <si>
+    <t>R_5KexUAg2Q0lcD8L</t>
+  </si>
+  <si>
+    <t>R_34afyVyp3QlikA9</t>
+  </si>
+  <si>
+    <t>R_31gJfDvsjF47zi1</t>
+  </si>
+  <si>
+    <t>R_5dE0NPBtCywxBO9</t>
+  </si>
+  <si>
+    <t>R_6MR5VuW2Oe9NCU5</t>
+  </si>
+  <si>
+    <t>R_3k7JLJ80ccYkrop</t>
+  </si>
+  <si>
+    <t>changed photo 18 with 26 (duplicate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed photo 19 with 26 (offensive content) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed photo 25 with 26 (alcohol) </t>
   </si>
 </sst>
 </file>
@@ -645,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -707,6 +739,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -752,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -795,6 +833,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,13 +1059,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M51" sqref="M51"/>
+      <selection pane="bottomRight" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2761,7 +2802,7 @@
       <c r="D48" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="30" t="s">
         <v>194</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -2777,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>158</v>
       </c>
@@ -2806,10 +2847,121 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="31"/>
       <c r="R50" t="s">
         <v>3</v>
       </c>
+      <c r="T50" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="32"/>
+      <c r="T51" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="32"/>
+      <c r="T52" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" t="s">
+        <v>203</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="M53" s="32"/>
+    </row>
+    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="M54" s="32"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M55" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="K1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F239C-FFEA-FF43-9A75-B04EB3A1E27B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EF030-2CA9-0B48-B3F0-ABA81A252F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1400" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="216">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -668,6 +681,9 @@
   </si>
   <si>
     <t xml:space="preserve">Changed photo 25 with 26 (alcohol) </t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -773,7 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -832,10 +848,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,10 +1076,10 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K59" sqref="K59"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2602,6 +2616,9 @@
       <c r="K41" s="23" t="s">
         <v>3</v>
       </c>
+      <c r="M41" s="26" t="s">
+        <v>215</v>
+      </c>
       <c r="R41" t="s">
         <v>3</v>
       </c>
@@ -2802,7 +2819,7 @@
       <c r="D48" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" t="s">
         <v>194</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -2860,7 +2877,7 @@
       <c r="D50" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" t="s">
         <v>200</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -2869,7 +2886,9 @@
       <c r="K50" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M50" s="31"/>
+      <c r="M50" s="29" t="s">
+        <v>189</v>
+      </c>
       <c r="R50" t="s">
         <v>3</v>
       </c>
@@ -2890,7 +2909,7 @@
       <c r="D51" t="s">
         <v>205</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="30" t="s">
         <v>201</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -2899,7 +2918,7 @@
       <c r="K51" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M51" s="32"/>
+      <c r="M51" s="4"/>
       <c r="T51" s="16" t="s">
         <v>214</v>
       </c>
@@ -2917,7 +2936,7 @@
       <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="30" t="s">
         <v>202</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -2926,7 +2945,7 @@
       <c r="K52" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M52" s="32"/>
+      <c r="M52" s="4"/>
       <c r="T52" s="16" t="s">
         <v>213</v>
       </c>
@@ -2953,15 +2972,15 @@
       <c r="K53" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="32"/>
+      <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="C54" s="5"/>
-      <c r="M54" s="32"/>
+      <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M55" s="32"/>
+      <c r="M55" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="K1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EF030-2CA9-0B48-B3F0-ABA81A252F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C0E4E-68A1-FD45-8C30-D76C5E4C0BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1400" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="241">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -684,6 +671,81 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>60d0a4fa9e6e2189f489ab48</t>
+  </si>
+  <si>
+    <t>66465b2522d14ab162ff2dbd</t>
+  </si>
+  <si>
+    <t>65c10f898294498f2342fd89</t>
+  </si>
+  <si>
+    <t>667d08e12ac1bcbdd829a936</t>
+  </si>
+  <si>
+    <t>6627722f249e56fcefd07b8c</t>
+  </si>
+  <si>
+    <t>6669a122ab60c120f94b3aa5</t>
+  </si>
+  <si>
+    <t>6683b31d16dd162d502a8b00</t>
+  </si>
+  <si>
+    <t>66202163d9e5dba57c5e831d</t>
+  </si>
+  <si>
+    <t>R_1jkVda9h2Cm7dPw</t>
+  </si>
+  <si>
+    <t>R_6XkmYDDuvl5Omul</t>
+  </si>
+  <si>
+    <t>R_5qxG0yKCeqnHvZO</t>
+  </si>
+  <si>
+    <t>R_1hFi7jsHAOOu1sk</t>
+  </si>
+  <si>
+    <t>R_5ZE7FEPmQfJUIUa</t>
+  </si>
+  <si>
+    <t>R_3XbPnAeWbqixLaB</t>
+  </si>
+  <si>
+    <t>R_61py2YQKGWKujuc</t>
+  </si>
+  <si>
+    <t>R_3BtjZZwOgWtK0ri</t>
+  </si>
+  <si>
+    <t>R_50f2ME8Q6kr3MFj</t>
+  </si>
+  <si>
+    <t>R_1nWq0dhK2yWRpkt</t>
+  </si>
+  <si>
+    <t>R_6hxVJMnWJlZkCQe</t>
+  </si>
+  <si>
+    <t>R_1CriAho1XwB2LKh</t>
+  </si>
+  <si>
+    <t>R_1o0ksKzuDA3kG9K</t>
+  </si>
+  <si>
+    <t>R_5JViSvOhV3YfJyY</t>
+  </si>
+  <si>
+    <t>R_1iUnsOtPJvC61rd</t>
+  </si>
+  <si>
+    <t>820/24</t>
+  </si>
+  <si>
+    <t>getting more experiences</t>
   </si>
 </sst>
 </file>
@@ -762,7 +824,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,6 +855,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -806,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -850,6 +918,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,13 +1142,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="E67" sqref="E67:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2884,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M50" s="29" t="s">
         <v>189</v>
@@ -2916,9 +2985,14 @@
         <v>3</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R51" t="s">
+        <v>3</v>
+      </c>
       <c r="T51" s="16" t="s">
         <v>214</v>
       </c>
@@ -2943,9 +3017,14 @@
         <v>3</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R52" t="s">
+        <v>3</v>
+      </c>
       <c r="T52" s="16" t="s">
         <v>213</v>
       </c>
@@ -2972,15 +3051,241 @@
       <c r="K53" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="4"/>
+      <c r="M53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R53" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="M54" s="4"/>
+      <c r="A54" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="5">
+        <v>45524</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R54" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="5">
+        <v>45524</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="5">
+        <v>45524</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45524</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45524</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45524</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="5">
+        <v>45524</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R61" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="K1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C0E4E-68A1-FD45-8C30-D76C5E4C0BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD99166D-C4FD-AA44-B306-A3DFF8FDB8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1400" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-39580" yWindow="0" windowWidth="23920" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="239">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -673,79 +686,73 @@
     <t>Y</t>
   </si>
   <si>
+    <t>6683b31d16dd162d502a8b00</t>
+  </si>
+  <si>
+    <t>667d08e12ac1bcbdd829a936</t>
+  </si>
+  <si>
+    <t>6669a122ab60c120f94b3aa5</t>
+  </si>
+  <si>
+    <t>66465b2522d14ab162ff2dbd</t>
+  </si>
+  <si>
+    <t>6627722f249e56fcefd07b8c</t>
+  </si>
+  <si>
+    <t>66202163d9e5dba57c5e831d</t>
+  </si>
+  <si>
     <t>60d0a4fa9e6e2189f489ab48</t>
   </si>
   <si>
-    <t>66465b2522d14ab162ff2dbd</t>
-  </si>
-  <si>
-    <t>65c10f898294498f2342fd89</t>
-  </si>
-  <si>
-    <t>667d08e12ac1bcbdd829a936</t>
-  </si>
-  <si>
-    <t>6627722f249e56fcefd07b8c</t>
-  </si>
-  <si>
-    <t>6669a122ab60c120f94b3aa5</t>
-  </si>
-  <si>
-    <t>6683b31d16dd162d502a8b00</t>
-  </si>
-  <si>
-    <t>66202163d9e5dba57c5e831d</t>
+    <t>getting more experiences</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>R_5JViSvOhV3YfJyY</t>
+  </si>
+  <si>
+    <t>R_1o0ksKzuDA3kG9K</t>
+  </si>
+  <si>
+    <t>R_1CriAho1XwB2LKh</t>
+  </si>
+  <si>
+    <t>R_1iUnsOtPJvC61rd</t>
+  </si>
+  <si>
+    <t>R_6hxVJMnWJlZkCQe</t>
+  </si>
+  <si>
+    <t>R_1nWq0dhK2yWRpkt</t>
+  </si>
+  <si>
+    <t>R_50f2ME8Q6kr3MFj</t>
+  </si>
+  <si>
+    <t>R_61py2YQKGWKujuc</t>
+  </si>
+  <si>
+    <t>R_1hFi7jsHAOOu1sk</t>
+  </si>
+  <si>
+    <t>R_3IbBor4OkHd8yyi</t>
+  </si>
+  <si>
+    <t>R_6XkmYDDuvl5Omul</t>
+  </si>
+  <si>
+    <t>R_5ZE7FEPmQfJUIUa</t>
+  </si>
+  <si>
+    <t>R_3BtjZZwOgWtK0ri</t>
   </si>
   <si>
     <t>R_1jkVda9h2Cm7dPw</t>
-  </si>
-  <si>
-    <t>R_6XkmYDDuvl5Omul</t>
-  </si>
-  <si>
-    <t>R_5qxG0yKCeqnHvZO</t>
-  </si>
-  <si>
-    <t>R_1hFi7jsHAOOu1sk</t>
-  </si>
-  <si>
-    <t>R_5ZE7FEPmQfJUIUa</t>
-  </si>
-  <si>
-    <t>R_3XbPnAeWbqixLaB</t>
-  </si>
-  <si>
-    <t>R_61py2YQKGWKujuc</t>
-  </si>
-  <si>
-    <t>R_3BtjZZwOgWtK0ri</t>
-  </si>
-  <si>
-    <t>R_50f2ME8Q6kr3MFj</t>
-  </si>
-  <si>
-    <t>R_1nWq0dhK2yWRpkt</t>
-  </si>
-  <si>
-    <t>R_6hxVJMnWJlZkCQe</t>
-  </si>
-  <si>
-    <t>R_1CriAho1XwB2LKh</t>
-  </si>
-  <si>
-    <t>R_1o0ksKzuDA3kG9K</t>
-  </si>
-  <si>
-    <t>R_5JViSvOhV3YfJyY</t>
-  </si>
-  <si>
-    <t>R_1iUnsOtPJvC61rd</t>
-  </si>
-  <si>
-    <t>820/24</t>
-  </si>
-  <si>
-    <t>getting more experiences</t>
   </si>
 </sst>
 </file>
@@ -824,7 +831,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,12 +862,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -874,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -912,13 +913,14 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,13 +1144,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67:E68"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1387,7 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1484,7 +1486,7 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1517,7 +1519,7 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1550,7 +1552,7 @@
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1652,7 +1654,7 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>190</v>
       </c>
       <c r="T12" s="16" t="s">
@@ -1836,7 +1838,7 @@
       <c r="L17" s="5">
         <v>45469</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2050,7 +2052,7 @@
       <c r="K23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="25" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2085,7 +2087,7 @@
       <c r="K24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="25" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2153,7 +2155,7 @@
       <c r="K26" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="25" t="s">
         <v>190</v>
       </c>
       <c r="T26" s="12" t="s">
@@ -2226,7 +2228,7 @@
       <c r="K28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="25" t="s">
         <v>190</v>
       </c>
       <c r="T28" s="12" t="s">
@@ -2297,7 +2299,7 @@
       <c r="K30" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="25" t="s">
         <v>190</v>
       </c>
       <c r="T30" s="12" t="s">
@@ -2335,7 +2337,7 @@
       <c r="K31" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="25" t="s">
         <v>190</v>
       </c>
       <c r="R31" t="s">
@@ -2414,7 +2416,7 @@
       <c r="K33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="25" t="s">
         <v>190</v>
       </c>
       <c r="R33" t="s">
@@ -2452,7 +2454,7 @@
       <c r="K34" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="25" t="s">
         <v>190</v>
       </c>
       <c r="R34" t="s">
@@ -2595,7 +2597,7 @@
       <c r="K38" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="25" t="s">
         <v>184</v>
       </c>
       <c r="R38" t="s">
@@ -2618,7 +2620,7 @@
       <c r="D39" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>149</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -2656,7 +2658,7 @@
       <c r="K40" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="26" t="s">
+      <c r="M40" s="25" t="s">
         <v>184</v>
       </c>
       <c r="R40" t="s">
@@ -2676,7 +2678,7 @@
       <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="30" t="s">
         <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -2685,7 +2687,7 @@
       <c r="K41" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="25" t="s">
         <v>215</v>
       </c>
       <c r="R41" t="s">
@@ -2708,7 +2710,7 @@
       <c r="D42" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>152</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -2740,7 +2742,7 @@
       <c r="D43" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>153</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -2749,7 +2751,7 @@
       <c r="K43" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="26" t="s">
+      <c r="M43" s="25" t="s">
         <v>183</v>
       </c>
       <c r="R43" t="s">
@@ -2769,7 +2771,7 @@
       <c r="D44" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>154</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -2798,7 +2800,7 @@
       <c r="D45" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="26" t="s">
         <v>155</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -2827,7 +2829,7 @@
       <c r="D46" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>156</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -2859,7 +2861,7 @@
       <c r="D47" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -2897,7 +2899,7 @@
       <c r="K48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="26" t="s">
+      <c r="M48" s="25" t="s">
         <v>189</v>
       </c>
       <c r="R48" t="s">
@@ -2926,7 +2928,7 @@
       <c r="K49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="26" t="s">
+      <c r="M49" s="25" t="s">
         <v>189</v>
       </c>
       <c r="R49" t="s">
@@ -2955,7 +2957,7 @@
       <c r="K50" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="M50" s="31" t="s">
         <v>189</v>
       </c>
       <c r="R50" t="s">
@@ -2978,7 +2980,7 @@
       <c r="D51" t="s">
         <v>205</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="29" t="s">
         <v>201</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -2987,11 +2989,8 @@
       <c r="K51" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R51" t="s">
-        <v>3</v>
+      <c r="M51" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="T51" s="16" t="s">
         <v>214</v>
@@ -3010,7 +3009,7 @@
       <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="29" t="s">
         <v>202</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -3019,11 +3018,8 @@
       <c r="K52" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R52" t="s">
-        <v>3</v>
+      <c r="M52" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="T52" s="16" t="s">
         <v>213</v>
@@ -3051,11 +3047,8 @@
       <c r="K53" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R53" t="s">
-        <v>3</v>
+      <c r="M53" s="32" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3063,82 +3056,69 @@
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C54" s="5">
         <v>45524</v>
       </c>
-      <c r="D54" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="E54" s="31" t="s">
+      <c r="D54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="28" t="s">
         <v>216</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R54" t="s">
-        <v>3</v>
-      </c>
+      <c r="K54" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C55" s="5">
         <v>45524</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="31" t="s">
+      <c r="D55" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" t="s">
         <v>217</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R55" t="s">
-        <v>3</v>
-      </c>
+      <c r="K55" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="B56" t="s">
+        <v>226</v>
+      </c>
       <c r="C56" s="5">
         <v>45524</v>
       </c>
-      <c r="D56" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" s="31" t="s">
+      <c r="D56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" t="s">
         <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K56" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R56" t="s">
+      <c r="K56" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3147,27 +3127,21 @@
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C57" s="5">
         <v>45524</v>
       </c>
-      <c r="D57" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="31" t="s">
+      <c r="D57" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" t="s">
         <v>219</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R57" t="s">
+      <c r="K57" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3176,27 +3150,21 @@
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C58" s="5">
         <v>45524</v>
       </c>
-      <c r="D58" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="E58" s="31" t="s">
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" t="s">
         <v>220</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R58" t="s">
+      <c r="K58" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3205,28 +3173,22 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C59" s="5">
         <v>45524</v>
       </c>
-      <c r="D59" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="E59" s="31" t="s">
+      <c r="D59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" t="s">
         <v>221</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R59" t="s">
-        <v>3</v>
+      <c r="K59" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3234,56 +3196,21 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C60" s="5">
         <v>45524</v>
       </c>
-      <c r="D60" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="E60" s="31" t="s">
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
         <v>222</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K61" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="K60" s="23" t="s">
         <v>3</v>
       </c>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD99166D-C4FD-AA44-B306-A3DFF8FDB8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FFB3D3-B5A1-9F46-BB51-4403D69FE1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39580" yWindow="0" windowWidth="23920" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="238">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -705,9 +705,6 @@
   </si>
   <si>
     <t>60d0a4fa9e6e2189f489ab48</t>
-  </si>
-  <si>
-    <t>getting more experiences</t>
   </si>
   <si>
     <t>x</t>
@@ -875,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -917,10 +914,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1147,10 +1142,10 @@
   <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2678,7 +2673,7 @@
       <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="26" t="s">
         <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -2957,7 +2952,7 @@
       <c r="K50" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="31" t="s">
+      <c r="M50" s="29" t="s">
         <v>189</v>
       </c>
       <c r="R50" t="s">
@@ -2980,7 +2975,7 @@
       <c r="D51" t="s">
         <v>205</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" t="s">
         <v>201</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -3009,7 +3004,7 @@
       <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" t="s">
         <v>202</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -3047,8 +3042,8 @@
       <c r="K53" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="32" t="s">
-        <v>224</v>
+      <c r="M53" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3056,15 +3051,15 @@
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C54" s="5">
         <v>45524</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
-      </c>
-      <c r="E54" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="30" t="s">
         <v>216</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -3073,22 +3068,24 @@
       <c r="K54" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="4"/>
+      <c r="M54" s="25" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C55" s="5">
         <v>45524</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="28" t="s">
         <v>217</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -3104,13 +3101,13 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C56" s="5">
         <v>45524</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E56" t="s">
         <v>218</v>
@@ -3127,13 +3124,13 @@
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C57" s="5">
         <v>45524</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
         <v>219</v>
@@ -3150,13 +3147,13 @@
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C58" s="5">
         <v>45524</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
         <v>220</v>
@@ -3173,13 +3170,13 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C59" s="5">
         <v>45524</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
         <v>221</v>
@@ -3188,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3196,13 +3193,13 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C60" s="5">
         <v>45524</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
         <v>222</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FFB3D3-B5A1-9F46-BB51-4403D69FE1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E167439D-F7E1-4A43-B253-E48286FCF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="239">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -750,6 +750,9 @@
   </si>
   <si>
     <t>R_1jkVda9h2Cm7dPw</t>
+  </si>
+  <si>
+    <t>Blank Data File</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1145,10 @@
   <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3059,7 +3062,7 @@
       <c r="D54" t="s">
         <v>231</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" t="s">
         <v>216</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -3085,7 +3088,7 @@
       <c r="D55" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="30" t="s">
         <v>217</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -3094,7 +3097,9 @@
       <c r="K55" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="4"/>
+      <c r="M55" s="24" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
@@ -3109,7 +3114,7 @@
       <c r="D56" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="30" t="s">
         <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -3117,6 +3122,9 @@
       </c>
       <c r="K56" s="23" t="s">
         <v>3</v>
+      </c>
+      <c r="M56" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3132,7 +3140,7 @@
       <c r="D57" t="s">
         <v>234</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="28" t="s">
         <v>219</v>
       </c>
       <c r="I57" s="4" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E167439D-F7E1-4A43-B253-E48286FCF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA56D8-0A65-DA4D-927C-7762D73F8CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="239">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1148,7 +1148,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3088,7 +3088,7 @@
       <c r="D55" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" t="s">
         <v>217</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -3114,7 +3114,7 @@
       <c r="D56" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" t="s">
         <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -3140,7 +3140,7 @@
       <c r="D57" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="30" t="s">
         <v>219</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -3148,6 +3148,9 @@
       </c>
       <c r="K57" s="23" t="s">
         <v>3</v>
+      </c>
+      <c r="M57" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3186,14 +3189,14 @@
       <c r="D59" t="s">
         <v>236</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="28" t="s">
         <v>221</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA56D8-0A65-DA4D-927C-7762D73F8CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936E2BAE-701C-3842-800E-84A1390D0082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10520" yWindow="0" windowWidth="18280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="252">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -753,6 +753,45 @@
   </si>
   <si>
     <t>Blank Data File</t>
+  </si>
+  <si>
+    <t>669d8f03a8742ea4d11b35d8</t>
+  </si>
+  <si>
+    <t>66800683809f48e85f663f86</t>
+  </si>
+  <si>
+    <t>66463e4efb99fba5a67a010a</t>
+  </si>
+  <si>
+    <t>65bfa888853e3415ea344885</t>
+  </si>
+  <si>
+    <t>65fb2f8291cf16104e63effc</t>
+  </si>
+  <si>
+    <t>65e4124826438fd6dc97bd7e</t>
+  </si>
+  <si>
+    <t>59603d41604aac0001210da1</t>
+  </si>
+  <si>
+    <t>663a27bfa1e92a6df3aa5a29</t>
+  </si>
+  <si>
+    <t>66b8ab28f2c4f834497d7a73</t>
+  </si>
+  <si>
+    <t>669802cf14276986c0fc13bf</t>
+  </si>
+  <si>
+    <t>60fdc3ada5f9d93d7976cc0c</t>
+  </si>
+  <si>
+    <t>669ce242ca3a8872c5816a30</t>
+  </si>
+  <si>
+    <t>66a3d4b8b4bf84ae5d959a60</t>
   </si>
 </sst>
 </file>
@@ -858,7 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -916,9 +955,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,13 +1190,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2955,7 +3003,7 @@
       <c r="K50" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="M50" s="28" t="s">
         <v>189</v>
       </c>
       <c r="R50" t="s">
@@ -3140,7 +3188,7 @@
       <c r="D57" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" t="s">
         <v>219</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -3175,6 +3223,9 @@
       <c r="K58" s="23" t="s">
         <v>3</v>
       </c>
+      <c r="M58" s="25" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
@@ -3189,7 +3240,7 @@
       <c r="D59" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" t="s">
         <v>221</v>
       </c>
       <c r="I59" s="4" t="s">
@@ -3197,6 +3248,9 @@
       </c>
       <c r="K59" s="23" t="s">
         <v>3</v>
+      </c>
+      <c r="M59" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3212,7 +3266,7 @@
       <c r="D60" t="s">
         <v>237</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="29" t="s">
         <v>222</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -3220,6 +3274,117 @@
       </c>
       <c r="K60" s="23" t="s">
         <v>3</v>
+      </c>
+      <c r="M60" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="31">
+        <v>45532</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="33"/>
+      <c r="K61" s="34"/>
+      <c r="P61" s="33"/>
+      <c r="T61" s="35"/>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="5">
+        <v>45533</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="5">
+        <v>45534</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="5">
+        <v>45535</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="5">
+        <v>45536</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="5">
+        <v>45537</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="5">
+        <v>45538</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="5">
+        <v>45539</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="5">
+        <v>45540</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="5">
+        <v>45541</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="5">
+        <v>45542</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="5">
+        <v>45543</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="5">
+        <v>45544</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936E2BAE-701C-3842-800E-84A1390D0082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C9948-6FF1-AB47-81CB-29BCDD05DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="0" windowWidth="18280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36000" yWindow="1320" windowWidth="31660" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="267">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -792,6 +792,51 @@
   </si>
   <si>
     <t>66a3d4b8b4bf84ae5d959a60</t>
+  </si>
+  <si>
+    <t>same three photos uploaded repeatedly</t>
+  </si>
+  <si>
+    <t>getting more experiences</t>
+  </si>
+  <si>
+    <t>R_6gMjVl9t9zu4FlQ</t>
+  </si>
+  <si>
+    <t>R_7PdfSuIv2y0ddXn</t>
+  </si>
+  <si>
+    <t>R_7sWIX8AfONj0gb4</t>
+  </si>
+  <si>
+    <t>R_1VQIRT1fJiTq7DT</t>
+  </si>
+  <si>
+    <t>R_77qTuzoricolTKh</t>
+  </si>
+  <si>
+    <t>R_6S6gN1AXxO0jxtv</t>
+  </si>
+  <si>
+    <t>R_6FRv9GDa7rfUTRn</t>
+  </si>
+  <si>
+    <t>R_5rywsk4DFk9WFkl</t>
+  </si>
+  <si>
+    <t>R_3uy79qVI4ltgpSV</t>
+  </si>
+  <si>
+    <t>R_57It8gecMSUMkoN</t>
+  </si>
+  <si>
+    <t>R_2Fdnk2NDYTGNQJz</t>
+  </si>
+  <si>
+    <t>R_5UZf0FoDQ6YlrKF</t>
+  </si>
+  <si>
+    <t>R_1qt9k2mBEbrW3Zz</t>
   </si>
 </sst>
 </file>
@@ -956,15 +1001,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1193,10 +1238,10 @@
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3266,7 +3311,7 @@
       <c r="D60" t="s">
         <v>237</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" t="s">
         <v>222</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -3279,112 +3324,231 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="31">
+    <row r="61" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="30">
         <v>45532</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="K61" s="34"/>
-      <c r="P61" s="33"/>
-      <c r="T61" s="35"/>
+      <c r="F61" s="32"/>
+      <c r="I61" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="34"/>
+      <c r="K61" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P61" s="32"/>
+      <c r="T61" s="35" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
       <c r="C62" s="5">
         <v>45533</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="I62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>254</v>
+      </c>
       <c r="C63" s="5">
         <v>45534</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="I63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>258</v>
+      </c>
       <c r="C64" s="5">
         <v>45535</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>255</v>
+      </c>
       <c r="C65" s="5">
         <v>45536</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>259</v>
+      </c>
       <c r="C66" s="5">
         <v>45537</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="67" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>261</v>
+      </c>
       <c r="C67" s="5">
         <v>45538</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="68" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>266</v>
+      </c>
       <c r="C68" s="5">
         <v>45539</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>263</v>
+      </c>
       <c r="C69" s="5">
         <v>45540</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="70" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>264</v>
+      </c>
       <c r="C70" s="5">
         <v>45541</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="71" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
       <c r="C71" s="5">
         <v>45542</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>260</v>
+      </c>
       <c r="C72" s="5">
         <v>45543</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="73" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>262</v>
+      </c>
       <c r="C73" s="5">
         <v>45544</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>251</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C9948-6FF1-AB47-81CB-29BCDD05DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E87053-A58D-5746-94D4-D177F2C5E48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36000" yWindow="1320" windowWidth="31660" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="266">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>same three photos uploaded repeatedly</t>
-  </si>
-  <si>
-    <t>getting more experiences</t>
   </si>
   <si>
     <t>R_6gMjVl9t9zu4FlQ</t>
@@ -1241,7 +1238,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="61" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C61" s="30">
         <v>45532</v>
@@ -3349,7 +3346,7 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" s="5">
         <v>45533</v>
@@ -3361,12 +3358,12 @@
         <v>3</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C63" s="5">
         <v>45534</v>
@@ -3378,12 +3375,12 @@
         <v>3</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C64" s="5">
         <v>45535</v>
@@ -3395,12 +3392,12 @@
         <v>3</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65" s="5">
         <v>45536</v>
@@ -3412,12 +3409,12 @@
         <v>3</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C66" s="5">
         <v>45537</v>
@@ -3429,12 +3426,12 @@
         <v>3</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C67" s="5">
         <v>45538</v>
@@ -3446,12 +3443,12 @@
         <v>3</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C68" s="5">
         <v>45539</v>
@@ -3463,12 +3460,12 @@
         <v>3</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" s="5">
         <v>45540</v>
@@ -3480,12 +3477,12 @@
         <v>3</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" s="5">
         <v>45541</v>
@@ -3497,12 +3494,12 @@
         <v>3</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C71" s="5">
         <v>45542</v>
@@ -3514,12 +3511,12 @@
         <v>3</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C72" s="5">
         <v>45543</v>
@@ -3531,12 +3528,12 @@
         <v>3</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73" s="5">
         <v>45544</v>
@@ -3548,7 +3545,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E87053-A58D-5746-94D4-D177F2C5E48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4665F8FD-0A39-5C42-BF52-AE051E90C9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36000" yWindow="1320" windowWidth="31660" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1238,7 +1238,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3426,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3511,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4665F8FD-0A39-5C42-BF52-AE051E90C9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A69EF4-54DF-BF44-8BF0-D6ADA7555A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="1320" windowWidth="31660" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2600" yWindow="20" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="267">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>R_1qt9k2mBEbrW3Zz</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,6 +946,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -956,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,6 +1018,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,10 +1246,10 @@
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3351,7 +3362,7 @@
       <c r="C62" s="5">
         <v>45533</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="37" t="s">
         <v>240</v>
       </c>
       <c r="I62" s="4" t="s">
@@ -3359,6 +3370,9 @@
       </c>
       <c r="K62" s="23" t="s">
         <v>3</v>
+      </c>
+      <c r="M62" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3368,7 +3382,7 @@
       <c r="C63" s="5">
         <v>45534</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="37" t="s">
         <v>241</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -3376,6 +3390,9 @@
       </c>
       <c r="K63" s="23" t="s">
         <v>3</v>
+      </c>
+      <c r="M63" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3385,7 +3402,7 @@
       <c r="C64" s="5">
         <v>45535</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="37" t="s">
         <v>242</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -3393,6 +3410,9 @@
       </c>
       <c r="K64" s="23" t="s">
         <v>3</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3402,7 +3422,7 @@
       <c r="C65" s="5">
         <v>45536</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="36" t="s">
         <v>243</v>
       </c>
       <c r="I65" s="4" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A69EF4-54DF-BF44-8BF0-D6ADA7555A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE95183-3142-824F-AA54-B30143B77A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2600" yWindow="20" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="17080" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="278">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -785,9 +785,6 @@
     <t>669802cf14276986c0fc13bf</t>
   </si>
   <si>
-    <t>60fdc3ada5f9d93d7976cc0c</t>
-  </si>
-  <si>
     <t>669ce242ca3a8872c5816a30</t>
   </si>
   <si>
@@ -837,6 +834,42 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>60fdc3ada5f9d93d7976cc0c (TESTED)</t>
+  </si>
+  <si>
+    <t>66d1c31af69e6526d2e16b8a</t>
+  </si>
+  <si>
+    <t>6657347ef0b4955605d003b9</t>
+  </si>
+  <si>
+    <t>66d37eb06bdceba4904b950f</t>
+  </si>
+  <si>
+    <t>66ba909954ae8842a7c369a4</t>
+  </si>
+  <si>
+    <t>66ce33a40ac4984adc2e18c8</t>
+  </si>
+  <si>
+    <t>666e123eb6aff45cf5be575e</t>
+  </si>
+  <si>
+    <t>66d7d94ecf4c9082e82203be</t>
+  </si>
+  <si>
+    <t>66d9609fbac7758ed890cece</t>
+  </si>
+  <si>
+    <t>66bf33a4511b666d9a6faf5e</t>
+  </si>
+  <si>
+    <t>668d5a454e51f2df12027e26</t>
+  </si>
+  <si>
+    <t>66c06f3c57bd4b8a294846e5</t>
   </si>
 </sst>
 </file>
@@ -915,18 +948,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -946,12 +973,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -965,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -987,39 +1008,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,13 +1266,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1258,8 +1281,8 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
@@ -1287,7 +1310,7 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1364,7 +1387,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="25" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="10">
@@ -1386,7 +1409,7 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="23" t="s">
         <v>187</v>
       </c>
       <c r="O2">
@@ -1437,7 +1460,7 @@
       <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="10">
@@ -1453,7 +1476,7 @@
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="20" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1470,7 +1493,7 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="10">
@@ -1486,7 +1509,7 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1503,7 +1526,7 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="10">
@@ -1519,7 +1542,7 @@
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="20" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1536,7 +1559,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="10">
@@ -1552,7 +1575,7 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="20" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1569,7 +1592,7 @@
       <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="10">
@@ -1585,7 +1608,7 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1599,10 +1622,10 @@
       <c r="C8" s="5">
         <v>45394</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="10">
@@ -1618,7 +1641,7 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1635,7 +1658,7 @@
       <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="10">
@@ -1651,7 +1674,7 @@
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1668,7 +1691,7 @@
       <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="25" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="10">
@@ -1684,7 +1707,7 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="20" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1701,7 +1724,7 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="10">
@@ -1717,10 +1740,10 @@
       <c r="K11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1737,7 +1760,7 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="28" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="10">
@@ -1753,10 +1776,10 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="14" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1773,7 +1796,7 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="28" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="10">
@@ -1791,7 +1814,7 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="20" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1808,7 +1831,7 @@
       <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="28" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="10">
@@ -1826,7 +1849,7 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="20" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1840,7 +1863,7 @@
       <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="28" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="10">
@@ -1878,7 +1901,7 @@
       <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="10">
@@ -1896,10 +1919,10 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="T16" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1916,7 +1939,7 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="29" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="10">
@@ -1937,7 +1960,7 @@
       <c r="L17" s="5">
         <v>45469</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="21" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1945,16 +1968,16 @@
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>45467</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>45466</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1972,7 +1995,7 @@
       <c r="M18" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P18" s="18"/>
+      <c r="P18" s="16"/>
       <c r="T18" s="12" t="s">
         <v>87</v>
       </c>
@@ -1990,7 +2013,7 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="10">
@@ -2011,7 +2034,7 @@
       <c r="M19" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2028,7 +2051,7 @@
       <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="28" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="10">
@@ -2046,7 +2069,7 @@
       <c r="K20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2060,7 +2083,7 @@
       <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="28" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="10">
@@ -2098,7 +2121,7 @@
       <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="28" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="10">
@@ -2116,7 +2139,7 @@
       <c r="K22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="20" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2133,7 +2156,7 @@
       <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="25" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="10">
@@ -2151,8 +2174,8 @@
       <c r="K23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="25" t="s">
-        <v>190</v>
+      <c r="M23" s="20" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2168,7 +2191,7 @@
       <c r="D24" t="s">
         <v>97</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="28" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="10">
@@ -2186,7 +2209,7 @@
       <c r="K24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="21" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2201,10 +2224,10 @@
       <c r="D25" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="18">
         <v>45475.893946759257</v>
       </c>
       <c r="G25" t="s">
@@ -2216,11 +2239,14 @@
       <c r="I25" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="24" t="s">
+      <c r="K25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="20" t="s">
         <v>187</v>
+      </c>
+      <c r="N25">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2236,10 +2262,10 @@
       <c r="D26" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="18">
         <v>45475.933194444442</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -2251,10 +2277,10 @@
       <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="25" t="s">
+      <c r="K26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="21" t="s">
         <v>190</v>
       </c>
       <c r="T26" s="12" t="s">
@@ -2274,10 +2300,10 @@
       <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="18">
         <v>45475.898773148147</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -2289,10 +2315,10 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="24" t="s">
+      <c r="K27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2309,10 +2335,10 @@
       <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="18">
         <v>45475.899189814816</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -2324,10 +2350,10 @@
       <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="25" t="s">
+      <c r="K28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="21" t="s">
         <v>190</v>
       </c>
       <c r="T28" s="12" t="s">
@@ -2347,10 +2373,10 @@
       <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="18">
         <v>45475.907094907408</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -2362,10 +2388,10 @@
       <c r="I29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="24" t="s">
+      <c r="K29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2382,10 +2408,10 @@
       <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="18">
         <v>45475.912314814814</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -2395,10 +2421,10 @@
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="25" t="s">
+      <c r="K30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="21" t="s">
         <v>190</v>
       </c>
       <c r="T30" s="12" t="s">
@@ -2418,10 +2444,10 @@
       <c r="D31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="18">
         <v>45475.918715277781</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -2433,10 +2459,10 @@
       <c r="I31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M31" s="25" t="s">
+      <c r="K31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="21" t="s">
         <v>190</v>
       </c>
       <c r="R31" t="s">
@@ -2459,10 +2485,10 @@
       <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="18">
         <v>45475.990833333337</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -2497,10 +2523,10 @@
       <c r="D33" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="18">
         <v>45476.090590277781</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2512,10 +2538,10 @@
       <c r="I33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="25" t="s">
+      <c r="K33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="21" t="s">
         <v>190</v>
       </c>
       <c r="R33" t="s">
@@ -2535,10 +2561,10 @@
       <c r="D34" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="18">
         <v>45476.23265046296</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -2550,10 +2576,10 @@
       <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M34" s="25" t="s">
+      <c r="K34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="21" t="s">
         <v>190</v>
       </c>
       <c r="R34" t="s">
@@ -2573,10 +2599,10 @@
       <c r="D35" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="18">
         <v>45475.935532407406</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2588,10 +2614,10 @@
       <c r="I35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="24" t="s">
+      <c r="K35" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="20" t="s">
         <v>186</v>
       </c>
       <c r="R35" t="s">
@@ -2611,10 +2637,10 @@
       <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="18">
         <v>45475.923344907409</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2626,10 +2652,10 @@
       <c r="I36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M36" s="24" t="s">
+      <c r="K36" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="20" t="s">
         <v>187</v>
       </c>
       <c r="R36" t="s">
@@ -2649,10 +2675,10 @@
       <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="18">
         <v>45476.044374999998</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -2664,10 +2690,10 @@
       <c r="I37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="24" t="s">
+      <c r="K37" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="20" t="s">
         <v>186</v>
       </c>
       <c r="R37" t="s">
@@ -2684,25 +2710,25 @@
       <c r="C38" s="5">
         <v>45490</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="31" t="s">
         <v>148</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="25" t="s">
+      <c r="K38" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="21" t="s">
         <v>184</v>
       </c>
       <c r="R38" t="s">
         <v>3</v>
       </c>
-      <c r="T38" s="16" t="s">
+      <c r="T38" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2719,16 +2745,16 @@
       <c r="D39" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="32" t="s">
         <v>149</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M39" s="24" t="s">
+      <c r="K39" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="20" t="s">
         <v>186</v>
       </c>
       <c r="R39" t="s">
@@ -2748,16 +2774,16 @@
       <c r="D40" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="31" t="s">
         <v>150</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M40" s="25" t="s">
+      <c r="K40" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="21" t="s">
         <v>184</v>
       </c>
       <c r="R40" t="s">
@@ -2777,22 +2803,22 @@
       <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="32" t="s">
         <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="25" t="s">
+      <c r="K41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="21" t="s">
         <v>215</v>
       </c>
       <c r="R41" t="s">
         <v>3</v>
       </c>
-      <c r="T41" s="16" t="s">
+      <c r="T41" s="14" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2809,22 +2835,22 @@
       <c r="D42" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="32" t="s">
         <v>152</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="24" t="s">
+      <c r="K42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="20" t="s">
         <v>186</v>
       </c>
       <c r="R42" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="16" t="s">
+      <c r="T42" s="14" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2841,16 +2867,16 @@
       <c r="D43" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="32" t="s">
         <v>153</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="25" t="s">
+      <c r="K43" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="21" t="s">
         <v>183</v>
       </c>
       <c r="R43" t="s">
@@ -2870,16 +2896,16 @@
       <c r="D44" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="32" t="s">
         <v>154</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="24" t="s">
+      <c r="K44" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="20" t="s">
         <v>186</v>
       </c>
       <c r="R44" t="s">
@@ -2899,16 +2925,16 @@
       <c r="D45" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="32" t="s">
         <v>155</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="24" t="s">
+      <c r="K45" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="20" t="s">
         <v>185</v>
       </c>
       <c r="R45" t="s">
@@ -2928,22 +2954,25 @@
       <c r="D46" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="32" t="s">
         <v>156</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="24" t="s">
+      <c r="K46" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="20" t="s">
         <v>186</v>
       </c>
+      <c r="N46">
+        <v>20</v>
+      </c>
       <c r="R46" t="s">
         <v>3</v>
       </c>
-      <c r="T46" s="16" t="s">
+      <c r="T46" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2960,16 +2989,16 @@
       <c r="D47" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="33" t="s">
         <v>157</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="24" t="s">
+      <c r="K47" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="20" t="s">
         <v>186</v>
       </c>
       <c r="R47" t="s">
@@ -2989,7 +3018,7 @@
       <c r="D48" t="s">
         <v>196</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="28" t="s">
         <v>194</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -2998,7 +3027,7 @@
       <c r="K48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="25" t="s">
+      <c r="M48" s="21" t="s">
         <v>189</v>
       </c>
       <c r="R48" t="s">
@@ -3018,7 +3047,7 @@
       <c r="D49" t="s">
         <v>197</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="28" t="s">
         <v>195</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -3027,8 +3056,11 @@
       <c r="K49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="25" t="s">
+      <c r="M49" s="21" t="s">
         <v>189</v>
+      </c>
+      <c r="N49" s="2">
+        <v>20</v>
       </c>
       <c r="R49" t="s">
         <v>3</v>
@@ -3047,22 +3079,22 @@
       <c r="D50" t="s">
         <v>204</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="28" t="s">
         <v>200</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M50" s="28" t="s">
+      <c r="K50" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M50" s="22" t="s">
         <v>189</v>
       </c>
       <c r="R50" t="s">
         <v>3</v>
       </c>
-      <c r="T50" s="16" t="s">
+      <c r="T50" s="14" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3079,19 +3111,19 @@
       <c r="D51" t="s">
         <v>205</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="28" t="s">
         <v>201</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K51" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M51" s="25" t="s">
+      <c r="K51" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="T51" s="16" t="s">
+      <c r="T51" s="14" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3108,19 +3140,19 @@
       <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="28" t="s">
         <v>202</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="25" t="s">
+      <c r="K52" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="T52" s="16" t="s">
+      <c r="T52" s="14" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3137,13 +3169,13 @@
       <c r="D53" t="s">
         <v>207</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="28" t="s">
         <v>203</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="K53" s="19" t="s">
         <v>92</v>
       </c>
       <c r="M53" s="4" t="s">
@@ -3163,16 +3195,16 @@
       <c r="D54" t="s">
         <v>231</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="28" t="s">
         <v>216</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="25" t="s">
+      <c r="K54" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3189,16 +3221,16 @@
       <c r="D55" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="28" t="s">
         <v>217</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M55" s="24" t="s">
+      <c r="K55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M55" s="20" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3215,16 +3247,16 @@
       <c r="D56" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="28" t="s">
         <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K56" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M56" s="25" t="s">
+      <c r="K56" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M56" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3241,16 +3273,16 @@
       <c r="D57" t="s">
         <v>234</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="28" t="s">
         <v>219</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="25" t="s">
+      <c r="K57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3267,16 +3299,16 @@
       <c r="D58" t="s">
         <v>235</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="28" t="s">
         <v>220</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="25" t="s">
+      <c r="K58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3293,16 +3325,16 @@
       <c r="D59" t="s">
         <v>236</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="28" t="s">
         <v>221</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="25" t="s">
+      <c r="K59" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3319,139 +3351,149 @@
       <c r="D60" t="s">
         <v>237</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="28" t="s">
         <v>222</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="24" t="s">
+      <c r="K60" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="30">
+        <v>254</v>
+      </c>
+      <c r="C61" s="5">
         <v>45532</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="F61" s="32"/>
-      <c r="I61" s="34" t="s">
+      <c r="I61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="34"/>
-      <c r="K61" s="33" t="s">
+      <c r="J61" s="4"/>
+      <c r="K61" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="P61" s="32"/>
-      <c r="T61" s="35" t="s">
-        <v>252</v>
+      <c r="M61" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T61" s="14" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C62" s="5">
         <v>45533</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="30" t="s">
         <v>240</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="25" t="s">
+      <c r="K62" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63" s="5">
         <v>45534</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="30" t="s">
         <v>241</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K63" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M63" s="25" t="s">
+      <c r="K63" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M63" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C64" s="5">
         <v>45535</v>
       </c>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="30" t="s">
         <v>242</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M64" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K64" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C65" s="5">
         <v>45536</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="31" t="s">
         <v>243</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K65" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C66" s="5">
         <v>45537</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="30" t="s">
         <v>244</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K66" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="N66" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C67" s="5">
         <v>45538</v>
@@ -3462,13 +3504,16 @@
       <c r="I67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K67" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K67" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M67" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C68" s="5">
         <v>45539</v>
@@ -3479,13 +3524,19 @@
       <c r="I68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K68" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K68" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M68" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="N68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C69" s="5">
         <v>45540</v>
@@ -3496,13 +3547,16 @@
       <c r="I69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K69" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M69" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C70" s="5">
         <v>45541</v>
@@ -3513,59 +3567,134 @@
       <c r="I70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K70" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K70" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C71" s="5">
         <v>45542</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K71" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M71" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C72" s="5">
         <v>45543</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K72" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C73" s="5">
         <v>45544</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K73" s="23" t="s">
-        <v>3</v>
+      <c r="K73" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M73" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="K74" s="36"/>
+      <c r="M74" s="37"/>
+      <c r="P74" s="35"/>
+      <c r="T74" s="38"/>
+    </row>
+    <row r="75" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E81" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E82" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E83" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E84" s="17" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE95183-3142-824F-AA54-B30143B77A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D61651-8D9A-134B-A89E-38D4A4EFF996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="17080" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="20240" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="302">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -845,9 +844,6 @@
     <t>6657347ef0b4955605d003b9</t>
   </si>
   <si>
-    <t>66d37eb06bdceba4904b950f</t>
-  </si>
-  <si>
     <t>66ba909954ae8842a7c369a4</t>
   </si>
   <si>
@@ -870,6 +866,81 @@
   </si>
   <si>
     <t>66c06f3c57bd4b8a294846e5</t>
+  </si>
+  <si>
+    <t>R_6IMpMivRVv57H53</t>
+  </si>
+  <si>
+    <t>R_5NiPZLDgBnZDL3z</t>
+  </si>
+  <si>
+    <t>R_6NrFgBKTyT6mqKR</t>
+  </si>
+  <si>
+    <t>R_31ZwFH5LxX31O2h</t>
+  </si>
+  <si>
+    <t>R_31ix5fwDFeEDiLJ</t>
+  </si>
+  <si>
+    <t>R_3Qfle22ibw9mJno</t>
+  </si>
+  <si>
+    <t>R_5xAaaNrkc9oSXSA</t>
+  </si>
+  <si>
+    <t>R_1AGcOv1VAFthgat</t>
+  </si>
+  <si>
+    <t>R_1eamRqqys2PUpk5</t>
+  </si>
+  <si>
+    <t>R_3XaLIrQ5KDhs0rQ</t>
+  </si>
+  <si>
+    <t>R_3Be4BPArx9UAly1</t>
+  </si>
+  <si>
+    <t>R_1yaJgRqRcDZpVND</t>
+  </si>
+  <si>
+    <t>R_3NPQEBKqqjngdX3</t>
+  </si>
+  <si>
+    <t>R_1JJbOlWonjVieOF</t>
+  </si>
+  <si>
+    <t>R_3jHXDaYZroRrLJU</t>
+  </si>
+  <si>
+    <t>R_5lWudo7iqri1Fjr</t>
+  </si>
+  <si>
+    <t>R_531r5UyPENeMpsG</t>
+  </si>
+  <si>
+    <t>R_1H4tC7EVgZgWH3r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do not use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">replaced photo 11 with 26 duplicate, replaced 13 with 27, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI photos - do not use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">needs one more photo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no experiences </t>
+  </si>
+  <si>
+    <t>R_7HGj8avDZv8RXni</t>
+  </si>
+  <si>
+    <t>R_72bRN6zrzg5FrLG</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1023,26 +1094,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,13 +1335,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1310,7 +1379,7 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1387,7 +1456,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="10">
@@ -1460,7 +1529,7 @@
       <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="10">
@@ -1493,7 +1562,7 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="10">
@@ -1526,7 +1595,7 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="10">
@@ -1559,7 +1628,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="10">
@@ -1592,7 +1661,7 @@
       <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="10">
@@ -1625,7 +1694,7 @@
       <c r="D8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="10">
@@ -1658,7 +1727,7 @@
       <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="10">
@@ -1691,7 +1760,7 @@
       <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="10">
@@ -1724,7 +1793,7 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="10">
@@ -1760,7 +1829,7 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="10">
@@ -1796,7 +1865,7 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="10">
@@ -1831,7 +1900,7 @@
       <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="10">
@@ -1863,7 +1932,7 @@
       <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="10">
@@ -1901,7 +1970,7 @@
       <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="10">
@@ -1939,7 +2008,7 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="26" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="10">
@@ -1974,7 +2043,7 @@
       <c r="D18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="16">
@@ -2013,7 +2082,7 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="10">
@@ -2051,7 +2120,7 @@
       <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="10">
@@ -2083,7 +2152,7 @@
       <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="10">
@@ -2121,7 +2190,7 @@
       <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="10">
@@ -2156,7 +2225,7 @@
       <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="10">
@@ -2191,7 +2260,7 @@
       <c r="D24" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="10">
@@ -2224,7 +2293,7 @@
       <c r="D25" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="17" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="18">
@@ -2262,7 +2331,7 @@
       <c r="D26" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="17" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="18">
@@ -2300,7 +2369,7 @@
       <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="18">
@@ -2335,7 +2404,7 @@
       <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="17" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="18">
@@ -2373,7 +2442,7 @@
       <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="17" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="18">
@@ -2408,7 +2477,7 @@
       <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="17" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="18">
@@ -2444,7 +2513,7 @@
       <c r="D31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="17" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="18">
@@ -2485,7 +2554,7 @@
       <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="17" t="s">
         <v>110</v>
       </c>
       <c r="F32" s="18">
@@ -2523,7 +2592,7 @@
       <c r="D33" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="17" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="18">
@@ -2561,7 +2630,7 @@
       <c r="D34" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="18">
@@ -2599,7 +2668,7 @@
       <c r="D35" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="17" t="s">
         <v>113</v>
       </c>
       <c r="F35" s="18">
@@ -2637,7 +2706,7 @@
       <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="17" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="18">
@@ -2675,7 +2744,7 @@
       <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="17" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="18">
@@ -2713,7 +2782,7 @@
       <c r="D38" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="17" t="s">
         <v>148</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -2745,7 +2814,7 @@
       <c r="D39" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="27" t="s">
         <v>149</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -2774,7 +2843,7 @@
       <c r="D40" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="17" t="s">
         <v>150</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -2803,7 +2872,7 @@
       <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="27" t="s">
         <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -2835,7 +2904,7 @@
       <c r="D42" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="27" t="s">
         <v>152</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -2867,7 +2936,7 @@
       <c r="D43" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="27" t="s">
         <v>153</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -2896,7 +2965,7 @@
       <c r="D44" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="27" t="s">
         <v>154</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -2925,7 +2994,7 @@
       <c r="D45" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="27" t="s">
         <v>155</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -2954,7 +3023,7 @@
       <c r="D46" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="27" t="s">
         <v>156</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -2989,7 +3058,7 @@
       <c r="D47" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="28" t="s">
         <v>157</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -3018,7 +3087,7 @@
       <c r="D48" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" t="s">
         <v>194</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -3047,7 +3116,7 @@
       <c r="D49" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" t="s">
         <v>195</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -3079,7 +3148,7 @@
       <c r="D50" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" t="s">
         <v>200</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -3111,7 +3180,7 @@
       <c r="D51" t="s">
         <v>205</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" t="s">
         <v>201</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -3140,7 +3209,7 @@
       <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" t="s">
         <v>202</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -3169,7 +3238,7 @@
       <c r="D53" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" t="s">
         <v>203</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -3195,7 +3264,7 @@
       <c r="D54" t="s">
         <v>231</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" t="s">
         <v>216</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -3221,7 +3290,7 @@
       <c r="D55" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" t="s">
         <v>217</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -3247,7 +3316,7 @@
       <c r="D56" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" t="s">
         <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -3273,7 +3342,7 @@
       <c r="D57" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" t="s">
         <v>219</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -3299,7 +3368,7 @@
       <c r="D58" t="s">
         <v>235</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" t="s">
         <v>220</v>
       </c>
       <c r="I58" s="4" t="s">
@@ -3325,7 +3394,7 @@
       <c r="D59" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" t="s">
         <v>221</v>
       </c>
       <c r="I59" s="4" t="s">
@@ -3351,7 +3420,7 @@
       <c r="D60" t="s">
         <v>237</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" t="s">
         <v>222</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -3371,7 +3440,7 @@
       <c r="C61" s="5">
         <v>45532</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="1" t="s">
         <v>239</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -3395,7 +3464,7 @@
       <c r="C62" s="5">
         <v>45533</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="1" t="s">
         <v>240</v>
       </c>
       <c r="I62" s="4" t="s">
@@ -3415,7 +3484,7 @@
       <c r="C63" s="5">
         <v>45534</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -3435,7 +3504,7 @@
       <c r="C64" s="5">
         <v>45535</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -3448,14 +3517,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>253</v>
       </c>
       <c r="C65" s="5">
         <v>45536</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="17" t="s">
         <v>243</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -3468,14 +3537,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>257</v>
       </c>
       <c r="C66" s="5">
         <v>45537</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="1" t="s">
         <v>244</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -3491,7 +3560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>259</v>
       </c>
@@ -3511,7 +3580,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>264</v>
       </c>
@@ -3534,7 +3603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>261</v>
       </c>
@@ -3554,7 +3623,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>262</v>
       </c>
@@ -3574,7 +3643,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>263</v>
       </c>
@@ -3594,7 +3663,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>258</v>
       </c>
@@ -3617,7 +3686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>260</v>
       </c>
@@ -3637,65 +3706,258 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="2:20" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="39" t="s">
+    <row r="74" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" s="34">
+        <v>45552</v>
+      </c>
+      <c r="D74" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="35"/>
-      <c r="K74" s="36"/>
-      <c r="M74" s="37"/>
-      <c r="P74" s="35"/>
-      <c r="T74" s="38"/>
-    </row>
-    <row r="75" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="30"/>
+      <c r="I74" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="31"/>
+      <c r="P74" s="30"/>
+      <c r="T74" s="32"/>
+    </row>
+    <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
+        <v>293</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D75" t="s">
+        <v>284</v>
+      </c>
       <c r="E75" s="17" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D76" t="s">
+        <v>283</v>
+      </c>
       <c r="E76" s="17" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T76" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D77" t="s">
+        <v>281</v>
+      </c>
       <c r="E77" s="17" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="78" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D78" t="s">
+        <v>282</v>
+      </c>
       <c r="E78" s="17" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D79" t="s">
+        <v>280</v>
+      </c>
       <c r="E79" s="17" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="80" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T79" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D80" t="s">
+        <v>279</v>
+      </c>
       <c r="E80" s="17" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D81" t="s">
+        <v>300</v>
+      </c>
       <c r="E81" s="17" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="36"/>
+      <c r="I81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T81" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D82" t="s">
+        <v>278</v>
+      </c>
       <c r="E82" s="17" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I82" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D83" t="s">
+        <v>277</v>
+      </c>
       <c r="E83" s="17" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E84" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="I83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="T83" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="35"/>
+    </row>
+    <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1048575" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="K1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D61651-8D9A-134B-A89E-38D4A4EFF996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA5A2D-1D07-0A42-B99A-20ADC028B30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="20240" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35260" yWindow="2100" windowWidth="28820" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="307">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -941,6 +941,21 @@
   </si>
   <si>
     <t>R_72bRN6zrzg5FrLG</t>
+  </si>
+  <si>
+    <t>why?</t>
+  </si>
+  <si>
+    <t>(need to get relationship specifics)</t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t>(needs manual link)</t>
+  </si>
+  <si>
+    <t>messaged, no response</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1112,6 +1127,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,10 +1354,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3657,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M71" s="20" t="s">
         <v>265</v>
@@ -3727,9 +3743,11 @@
         <v>27</v>
       </c>
       <c r="K74" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>303</v>
+      </c>
       <c r="P74" s="30"/>
       <c r="T74" s="32"/>
     </row>
@@ -3755,6 +3773,12 @@
       <c r="K75" s="19" t="s">
         <v>295</v>
       </c>
+      <c r="M75" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="T75" s="14" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
@@ -3776,7 +3800,10 @@
         <v>27</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M76" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="T76" s="14" t="s">
         <v>296</v>
@@ -3802,7 +3829,10 @@
         <v>27</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3825,7 +3855,10 @@
         <v>27</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3850,6 +3883,9 @@
       <c r="K79" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="M79" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="T79" s="14" t="s">
         <v>298</v>
       </c>
@@ -3874,7 +3910,10 @@
         <v>27</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3900,6 +3939,9 @@
       <c r="K81" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="M81" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="T81" s="14" t="s">
         <v>299</v>
       </c>
@@ -3924,7 +3966,10 @@
         <v>27</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3948,6 +3993,9 @@
       </c>
       <c r="K83" s="19" t="s">
         <v>295</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="T83" s="14" t="s">
         <v>297</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA5A2D-1D07-0A42-B99A-20ADC028B30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E2EA25-0A2D-2D43-A4B3-7597574DB49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35260" yWindow="2100" windowWidth="28820" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27000" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="321">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -946,16 +946,58 @@
     <t>why?</t>
   </si>
   <si>
-    <t>(need to get relationship specifics)</t>
-  </si>
-  <si>
-    <t>eligible</t>
-  </si>
-  <si>
-    <t>(needs manual link)</t>
-  </si>
-  <si>
-    <t>messaged, no response</t>
+    <t>messaged to see if willing to provide additional info</t>
+  </si>
+  <si>
+    <t>66a08dccc5cc029fc23a96a8</t>
+  </si>
+  <si>
+    <t>60fd83ff5af11073b7d1ed62</t>
+  </si>
+  <si>
+    <t>66c0f86657bd4b8a294856a0</t>
+  </si>
+  <si>
+    <t>6560aa71bf5cc31f1c99ca34</t>
+  </si>
+  <si>
+    <t>6665fb9d3202800c8227cde5</t>
+  </si>
+  <si>
+    <t>662a754842502c24dbb45384</t>
+  </si>
+  <si>
+    <t>66f16ff603404dbb816cc517</t>
+  </si>
+  <si>
+    <t>655e0b698915e40faa8002f2</t>
+  </si>
+  <si>
+    <t>6111216b74cfd482d05ac02b</t>
+  </si>
+  <si>
+    <t>66c0df311f98d7c9661669d9</t>
+  </si>
+  <si>
+    <t>63d161e70272bba9f3f70980</t>
+  </si>
+  <si>
+    <t>66d83fb0c75a948077515b49</t>
+  </si>
+  <si>
+    <t>62865af5a1e349260f58cdf7</t>
+  </si>
+  <si>
+    <t>66ed6bba745fee41cbe32310</t>
+  </si>
+  <si>
+    <t>5f4a835e9e84256238129995</t>
+  </si>
+  <si>
+    <t>66946e3054a30a2bf5b1be40</t>
+  </si>
+  <si>
+    <t>66a049748b57caf868c3179d</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1007,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1033,6 +1075,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF191D22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1072,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1116,18 +1164,28 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,10 +1412,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1367,7 +1425,7 @@
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="10" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
@@ -3722,34 +3780,34 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="31" t="s">
+    <row r="74" spans="1:20" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="34">
+      <c r="C74" s="35">
         <v>45552</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="30"/>
-      <c r="I74" s="31" t="s">
+      <c r="F74" s="37"/>
+      <c r="I74" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K74" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="M74" s="31" t="s">
+      <c r="K74" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="P74" s="30"/>
-      <c r="T74" s="32"/>
+      <c r="P74" s="37"/>
+      <c r="T74" s="39"/>
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
@@ -3773,7 +3831,7 @@
       <c r="K75" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="M75" s="20" t="s">
+      <c r="M75" s="4" t="s">
         <v>188</v>
       </c>
       <c r="T75" s="14" t="s">
@@ -3802,8 +3860,8 @@
       <c r="K76" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="38" t="s">
-        <v>304</v>
+      <c r="M76" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="T76" s="14" t="s">
         <v>296</v>
@@ -3831,8 +3889,8 @@
       <c r="K77" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>306</v>
+      <c r="M77" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3857,8 +3915,8 @@
       <c r="K78" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M78" s="4" t="s">
-        <v>305</v>
+      <c r="M78" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3912,8 +3970,8 @@
       <c r="K80" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>3</v>
+      <c r="M80" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3932,7 +3990,7 @@
       <c r="E81" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="36"/>
+      <c r="F81" s="32"/>
       <c r="I81" s="4" t="s">
         <v>27</v>
       </c>
@@ -3968,8 +4026,8 @@
       <c r="K82" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>304</v>
+      <c r="M82" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4001,8 +4059,145 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="35"/>
+    <row r="84" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="43">
+        <v>45567</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="F84" s="30"/>
+      <c r="K84" s="40"/>
+      <c r="P84" s="30"/>
+      <c r="T84" s="31"/>
+    </row>
+    <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="44">
+        <v>45567</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1048575" s="5"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D61651-8D9A-134B-A89E-38D4A4EFF996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123CAF2-1926-6542-9AC3-71C6D703A2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="20240" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15960" yWindow="500" windowWidth="20240" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="303">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t>R_72bRN6zrzg5FrLG</t>
+  </si>
+  <si>
+    <t>dom testing 9_24 changed upload to y from n</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1341,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3656,8 +3659,11 @@
       <c r="I71" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="J71" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="K71" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M71" s="20" t="s">
         <v>265</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E2EA25-0A2D-2D43-A4B3-7597574DB49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5863A7AE-A413-5C40-B802-A433588AF852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27000" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1168,24 +1168,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,10 +1401,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1424,12 +1413,12 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="10" customWidth="1"/>
@@ -3780,34 +3769,31 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="33" t="s">
+    <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="5">
         <v>45552</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" t="s">
         <v>285</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="37"/>
-      <c r="I74" s="33" t="s">
+      <c r="I74" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K74" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="M74" s="33" t="s">
+      <c r="K74" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="P74" s="37"/>
-      <c r="T74" s="39"/>
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
@@ -4060,19 +4046,19 @@
       </c>
     </row>
     <row r="84" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="43">
+      <c r="C84" s="36">
         <v>45567</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>304</v>
       </c>
       <c r="F84" s="30"/>
-      <c r="K84" s="40"/>
+      <c r="K84" s="33"/>
       <c r="P84" s="30"/>
       <c r="T84" s="31"/>
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="44">
+      <c r="C85" s="37">
         <v>45567</v>
       </c>
       <c r="E85" s="17" t="s">
@@ -4080,7 +4066,7 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="44">
+      <c r="C86" s="37">
         <v>45567</v>
       </c>
       <c r="E86" s="17" t="s">
@@ -4088,7 +4074,7 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="44">
+      <c r="C87" s="37">
         <v>45567</v>
       </c>
       <c r="E87" s="17" t="s">
@@ -4096,7 +4082,7 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="44">
+      <c r="C88" s="37">
         <v>45567</v>
       </c>
       <c r="E88" s="17" t="s">
@@ -4104,7 +4090,7 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="44">
+      <c r="C89" s="37">
         <v>45567</v>
       </c>
       <c r="E89" s="17" t="s">
@@ -4112,7 +4098,7 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="44">
+      <c r="C90" s="37">
         <v>45567</v>
       </c>
       <c r="E90" s="17" t="s">
@@ -4120,7 +4106,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="44">
+      <c r="C91" s="37">
         <v>45567</v>
       </c>
       <c r="E91" s="17" t="s">
@@ -4128,7 +4114,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="44">
+      <c r="C92" s="37">
         <v>45567</v>
       </c>
       <c r="E92" s="17" t="s">
@@ -4136,7 +4122,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="44">
+      <c r="C93" s="37">
         <v>45567</v>
       </c>
       <c r="E93" s="17" t="s">
@@ -4144,7 +4130,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="44">
+      <c r="C94" s="37">
         <v>45567</v>
       </c>
       <c r="E94" s="17" t="s">
@@ -4152,7 +4138,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="44">
+      <c r="C95" s="37">
         <v>45567</v>
       </c>
       <c r="E95" s="17" t="s">
@@ -4160,7 +4146,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="44">
+      <c r="C96" s="37">
         <v>45567</v>
       </c>
       <c r="E96" s="17" t="s">
@@ -4168,7 +4154,7 @@
       </c>
     </row>
     <row r="97" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="44">
+      <c r="C97" s="37">
         <v>45567</v>
       </c>
       <c r="E97" s="17" t="s">
@@ -4176,7 +4162,7 @@
       </c>
     </row>
     <row r="98" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="44">
+      <c r="C98" s="37">
         <v>45567</v>
       </c>
       <c r="E98" s="17" t="s">
@@ -4184,18 +4170,18 @@
       </c>
     </row>
     <row r="99" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="44">
+      <c r="C99" s="37">
         <v>45567</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="34" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="100" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="44">
+      <c r="C100" s="37">
         <v>45567</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="35" t="s">
         <v>320</v>
       </c>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123CAF2-1926-6542-9AC3-71C6D703A2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5863A7AE-A413-5C40-B802-A433588AF852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="500" windowWidth="20240" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="321">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -943,7 +943,61 @@
     <t>R_72bRN6zrzg5FrLG</t>
   </si>
   <si>
-    <t>dom testing 9_24 changed upload to y from n</t>
+    <t>why?</t>
+  </si>
+  <si>
+    <t>messaged to see if willing to provide additional info</t>
+  </si>
+  <si>
+    <t>66a08dccc5cc029fc23a96a8</t>
+  </si>
+  <si>
+    <t>60fd83ff5af11073b7d1ed62</t>
+  </si>
+  <si>
+    <t>66c0f86657bd4b8a294856a0</t>
+  </si>
+  <si>
+    <t>6560aa71bf5cc31f1c99ca34</t>
+  </si>
+  <si>
+    <t>6665fb9d3202800c8227cde5</t>
+  </si>
+  <si>
+    <t>662a754842502c24dbb45384</t>
+  </si>
+  <si>
+    <t>66f16ff603404dbb816cc517</t>
+  </si>
+  <si>
+    <t>655e0b698915e40faa8002f2</t>
+  </si>
+  <si>
+    <t>6111216b74cfd482d05ac02b</t>
+  </si>
+  <si>
+    <t>66c0df311f98d7c9661669d9</t>
+  </si>
+  <si>
+    <t>63d161e70272bba9f3f70980</t>
+  </si>
+  <si>
+    <t>66d83fb0c75a948077515b49</t>
+  </si>
+  <si>
+    <t>62865af5a1e349260f58cdf7</t>
+  </si>
+  <si>
+    <t>66ed6bba745fee41cbe32310</t>
+  </si>
+  <si>
+    <t>5f4a835e9e84256238129995</t>
+  </si>
+  <si>
+    <t>66946e3054a30a2bf5b1be40</t>
+  </si>
+  <si>
+    <t>66a049748b57caf868c3179d</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1007,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1020,6 +1074,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF191D22"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1104,17 +1164,17 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,10 +1401,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1353,12 +1413,12 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="10" customWidth="1"/>
@@ -3659,9 +3719,6 @@
       <c r="I71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="K71" s="19" t="s">
         <v>3</v>
       </c>
@@ -3712,32 +3769,31 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="31" t="s">
+    <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B74" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="34">
+      <c r="C74" s="5">
         <v>45552</v>
       </c>
       <c r="D74" t="s">
         <v>285</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="30"/>
-      <c r="I74" s="31" t="s">
+      <c r="I74" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K74" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" s="31"/>
-      <c r="P74" s="30"/>
-      <c r="T74" s="32"/>
+      <c r="K74" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
@@ -3761,6 +3817,12 @@
       <c r="K75" s="19" t="s">
         <v>295</v>
       </c>
+      <c r="M75" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T75" s="14" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
@@ -3782,7 +3844,10 @@
         <v>27</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M76" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="T76" s="14" t="s">
         <v>296</v>
@@ -3808,7 +3873,10 @@
         <v>27</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M77" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3831,7 +3899,10 @@
         <v>27</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M78" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3856,6 +3927,9 @@
       <c r="K79" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="M79" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="T79" s="14" t="s">
         <v>298</v>
       </c>
@@ -3880,7 +3954,10 @@
         <v>27</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M80" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3899,12 +3976,15 @@
       <c r="E81" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="36"/>
+      <c r="F81" s="32"/>
       <c r="I81" s="4" t="s">
         <v>27</v>
       </c>
       <c r="K81" s="19" t="s">
         <v>92</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="T81" s="14" t="s">
         <v>299</v>
@@ -3930,7 +4010,10 @@
         <v>27</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M82" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3955,12 +4038,152 @@
       <c r="K83" s="19" t="s">
         <v>295</v>
       </c>
+      <c r="M83" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="T83" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="35"/>
+    <row r="84" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="36">
+        <v>45567</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="F84" s="30"/>
+      <c r="K84" s="33"/>
+      <c r="P84" s="30"/>
+      <c r="T84" s="31"/>
+    </row>
+    <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="37">
+        <v>45567</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1048575" s="5"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5863A7AE-A413-5C40-B802-A433588AF852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D4000-3C1B-914B-97AE-986A5E88101D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="358">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -998,6 +998,117 @@
   </si>
   <si>
     <t>66a049748b57caf868c3179d</t>
+  </si>
+  <si>
+    <t>R_5Oqv5OkHuU1w5PW</t>
+  </si>
+  <si>
+    <t>R_6QHkRhxhrXS4mcN</t>
+  </si>
+  <si>
+    <t>R_7K3eWOwv9WJu0lo</t>
+  </si>
+  <si>
+    <t>R_1FX4kCDTkxFCS1b</t>
+  </si>
+  <si>
+    <t>R_6diVVGpC0Gh2Auj</t>
+  </si>
+  <si>
+    <t>R_5FnWDP51GMyhvCS</t>
+  </si>
+  <si>
+    <t>R_7qiRqWRBiuMo04p</t>
+  </si>
+  <si>
+    <t>R_3UfKAdoeU6VzhEA</t>
+  </si>
+  <si>
+    <t>R_3qf9kCSiep23rub</t>
+  </si>
+  <si>
+    <t>R_3j1LIagq4BkNT0T</t>
+  </si>
+  <si>
+    <t>R_1rP9GA5VFVrKeUN</t>
+  </si>
+  <si>
+    <t>R_3Zvzc3E0iTgravv</t>
+  </si>
+  <si>
+    <t>R_5p4jGk88ou23sao</t>
+  </si>
+  <si>
+    <t>R_7M6zL4l5RgI4Eu8</t>
+  </si>
+  <si>
+    <t>R_17qliX4L81GuVys</t>
+  </si>
+  <si>
+    <t>R_1fDKg8ljynDKF8B</t>
+  </si>
+  <si>
+    <t>R_1ZCQFgVnx0miJXh</t>
+  </si>
+  <si>
+    <t>R_7ZlqKnhHPI5LRpn</t>
+  </si>
+  <si>
+    <t>R_5KzkP8FmhW5Ku0V</t>
+  </si>
+  <si>
+    <t>R_6FUHRWq2HYYszbf</t>
+  </si>
+  <si>
+    <t>R_6r1auUrefyeJ25u</t>
+  </si>
+  <si>
+    <t>R_1WVhyVz8rEAhz2m</t>
+  </si>
+  <si>
+    <t>R_3f1tGuSUGjo1PDA</t>
+  </si>
+  <si>
+    <t>R_7jcBxPMSI1tmDkP</t>
+  </si>
+  <si>
+    <t>R_7oRY5hBf4vdw6Kc</t>
+  </si>
+  <si>
+    <t>R_1lz8BtIEGZEJXr7</t>
+  </si>
+  <si>
+    <t>R_7gcq4gO28cXtP69</t>
+  </si>
+  <si>
+    <t>R_3D7xHMqVfdFK1VS</t>
+  </si>
+  <si>
+    <t>R_1aueXVNxGwxAGoF</t>
+  </si>
+  <si>
+    <t>R_54GyywgyXsQJzhL</t>
+  </si>
+  <si>
+    <t>R_1qUNjpJ0sJbHQHV</t>
+  </si>
+  <si>
+    <t>R_1iSrH1z3sc9zsjf</t>
+  </si>
+  <si>
+    <t>R_59mPlYErUHGBwXL</t>
+  </si>
+  <si>
+    <t>R_6AQNauuyJnhZP57</t>
+  </si>
+  <si>
+    <t>replaced photo 4 w photo 26 (alcohol), replaced photo 6 with 27 (alcohool)</t>
+  </si>
+  <si>
+    <t>getting more experience</t>
+  </si>
+  <si>
+    <t>replaced photo 2 with photo 26, getting more experience</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1168,13 +1279,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,10 +1513,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomRight" activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1413,12 +1525,12 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="10" customWidth="1"/>
@@ -4046,143 +4158,358 @@
       </c>
     </row>
     <row r="84" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="36">
+      <c r="A84" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" s="35">
         <v>45567</v>
+      </c>
+      <c r="D84" t="s">
+        <v>321</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>304</v>
       </c>
       <c r="F84" s="30"/>
-      <c r="K84" s="33"/>
+      <c r="K84" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="P84" s="30"/>
       <c r="T84" s="31"/>
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="37">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" s="36">
         <v>45567</v>
+      </c>
+      <c r="D85" t="s">
+        <v>324</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>305</v>
       </c>
+      <c r="K85" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T85" s="14" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="37">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" s="36">
         <v>45567</v>
+      </c>
+      <c r="D86" t="s">
+        <v>325</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>306</v>
       </c>
+      <c r="K86" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T86" s="14" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="37">
+      <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" s="36">
         <v>45567</v>
+      </c>
+      <c r="D87" t="s">
+        <v>322</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>307</v>
       </c>
+      <c r="K87" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T87" s="12" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="37">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" t="s">
+        <v>344</v>
+      </c>
+      <c r="C88" s="36">
         <v>45567</v>
+      </c>
+      <c r="D88" t="s">
+        <v>326</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>308</v>
       </c>
+      <c r="K88" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="37">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C89" s="36">
         <v>45567</v>
+      </c>
+      <c r="D89" t="s">
+        <v>330</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>309</v>
       </c>
+      <c r="K89" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="37">
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
+        <v>338</v>
+      </c>
+      <c r="C90" s="36">
         <v>45567</v>
+      </c>
+      <c r="D90" t="s">
+        <v>323</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>310</v>
       </c>
+      <c r="K90" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="37">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>341</v>
+      </c>
+      <c r="C91" s="36">
         <v>45567</v>
+      </c>
+      <c r="D91" t="s">
+        <v>329</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>311</v>
       </c>
+      <c r="K91" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="37">
+      <c r="A92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" t="s">
+        <v>340</v>
+      </c>
+      <c r="C92" s="36">
         <v>45567</v>
+      </c>
+      <c r="D92" t="s">
+        <v>328</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>312</v>
       </c>
+      <c r="K92" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="37">
+      <c r="A93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C93" s="36">
         <v>45567</v>
+      </c>
+      <c r="D93" t="s">
+        <v>331</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>313</v>
       </c>
+      <c r="K93" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="37">
+      <c r="A94" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" t="s">
+        <v>347</v>
+      </c>
+      <c r="C94" s="36">
         <v>45567</v>
+      </c>
+      <c r="D94" t="s">
+        <v>332</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>314</v>
       </c>
+      <c r="K94" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T94" s="12" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="37">
+      <c r="A95" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" t="s">
+        <v>348</v>
+      </c>
+      <c r="C95" s="36">
         <v>45567</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>315</v>
       </c>
+      <c r="K95" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="37">
+      <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" s="36">
         <v>45567</v>
+      </c>
+      <c r="D96" t="s">
+        <v>334</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="97" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="37">
+      <c r="K96" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" s="36">
         <v>45567</v>
+      </c>
+      <c r="D97" t="s">
+        <v>337</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="98" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="37">
+      <c r="K97" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" s="36">
         <v>45567</v>
+      </c>
+      <c r="D98" t="s">
+        <v>336</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="99" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="37">
+      <c r="K98" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>352</v>
+      </c>
+      <c r="C99" s="36">
         <v>45567</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="D99" t="s">
+        <v>335</v>
+      </c>
+      <c r="E99" s="33" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="100" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="37">
+      <c r="K99" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>353</v>
+      </c>
+      <c r="C100" s="36">
         <v>45567</v>
       </c>
-      <c r="E100" s="35" t="s">
+      <c r="D100" t="s">
+        <v>327</v>
+      </c>
+      <c r="E100" s="34" t="s">
         <v>320</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D4000-3C1B-914B-97AE-986A5E88101D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0148648-38D7-6848-A903-BEE122EF0EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1279,7 +1279,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1287,6 +1286,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,10 +1514,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A99:XFD99"/>
+      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4158,13 +4159,13 @@
       </c>
     </row>
     <row r="84" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="36" t="s">
         <v>158</v>
       </c>
       <c r="B84" t="s">
         <v>343</v>
       </c>
-      <c r="C84" s="35">
+      <c r="C84" s="34">
         <v>45567</v>
       </c>
       <c r="D84" t="s">
@@ -4174,7 +4175,7 @@
         <v>304</v>
       </c>
       <c r="F84" s="30"/>
-      <c r="K84" s="38" t="s">
+      <c r="K84" s="37" t="s">
         <v>27</v>
       </c>
       <c r="P84" s="30"/>
@@ -4187,7 +4188,7 @@
       <c r="B85" t="s">
         <v>342</v>
       </c>
-      <c r="C85" s="36">
+      <c r="C85" s="35">
         <v>45567</v>
       </c>
       <c r="D85" t="s">
@@ -4210,7 +4211,7 @@
       <c r="B86" t="s">
         <v>354</v>
       </c>
-      <c r="C86" s="36">
+      <c r="C86" s="35">
         <v>45567</v>
       </c>
       <c r="D86" t="s">
@@ -4219,8 +4220,8 @@
       <c r="E86" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="K86" s="19" t="s">
-        <v>27</v>
+      <c r="K86" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="T86" s="14" t="s">
         <v>357</v>
@@ -4233,7 +4234,7 @@
       <c r="B87" t="s">
         <v>339</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C87" s="35">
         <v>45567</v>
       </c>
       <c r="D87" t="s">
@@ -4242,8 +4243,8 @@
       <c r="E87" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="K87" s="19" t="s">
-        <v>27</v>
+      <c r="K87" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="T87" s="12" t="s">
         <v>356</v>
@@ -4256,7 +4257,7 @@
       <c r="B88" t="s">
         <v>344</v>
       </c>
-      <c r="C88" s="36">
+      <c r="C88" s="35">
         <v>45567</v>
       </c>
       <c r="D88" t="s">
@@ -4276,7 +4277,7 @@
       <c r="B89" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C89" s="36">
+      <c r="C89" s="35">
         <v>45567</v>
       </c>
       <c r="D89" t="s">
@@ -4296,7 +4297,7 @@
       <c r="B90" t="s">
         <v>338</v>
       </c>
-      <c r="C90" s="36">
+      <c r="C90" s="35">
         <v>45567</v>
       </c>
       <c r="D90" t="s">
@@ -4316,7 +4317,7 @@
       <c r="B91" t="s">
         <v>341</v>
       </c>
-      <c r="C91" s="36">
+      <c r="C91" s="35">
         <v>45567</v>
       </c>
       <c r="D91" t="s">
@@ -4336,7 +4337,7 @@
       <c r="B92" t="s">
         <v>340</v>
       </c>
-      <c r="C92" s="36">
+      <c r="C92" s="35">
         <v>45567</v>
       </c>
       <c r="D92" t="s">
@@ -4356,13 +4357,13 @@
       <c r="B93" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="36">
+      <c r="C93" s="35">
         <v>45567</v>
       </c>
       <c r="D93" t="s">
         <v>331</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="38" t="s">
         <v>313</v>
       </c>
       <c r="K93" s="19" t="s">
@@ -4376,17 +4377,17 @@
       <c r="B94" t="s">
         <v>347</v>
       </c>
-      <c r="C94" s="36">
+      <c r="C94" s="35">
         <v>45567</v>
       </c>
       <c r="D94" t="s">
         <v>332</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="K94" s="19" t="s">
-        <v>27</v>
+      <c r="K94" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="T94" s="12" t="s">
         <v>356</v>
@@ -4399,13 +4400,13 @@
       <c r="B95" t="s">
         <v>348</v>
       </c>
-      <c r="C95" s="36">
+      <c r="C95" s="35">
         <v>45567</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="38" t="s">
         <v>315</v>
       </c>
       <c r="K95" s="19" t="s">
@@ -4419,13 +4420,13 @@
       <c r="B96" t="s">
         <v>349</v>
       </c>
-      <c r="C96" s="36">
+      <c r="C96" s="35">
         <v>45567</v>
       </c>
       <c r="D96" t="s">
         <v>334</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="38" t="s">
         <v>316</v>
       </c>
       <c r="K96" s="19" t="s">
@@ -4439,13 +4440,13 @@
       <c r="B97" t="s">
         <v>350</v>
       </c>
-      <c r="C97" s="36">
+      <c r="C97" s="35">
         <v>45567</v>
       </c>
       <c r="D97" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="38" t="s">
         <v>317</v>
       </c>
       <c r="K97" s="19" t="s">
@@ -4459,13 +4460,13 @@
       <c r="B98" t="s">
         <v>351</v>
       </c>
-      <c r="C98" s="36">
+      <c r="C98" s="35">
         <v>45567</v>
       </c>
       <c r="D98" t="s">
         <v>336</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="38" t="s">
         <v>318</v>
       </c>
       <c r="K98" s="19" t="s">
@@ -4479,13 +4480,13 @@
       <c r="B99" t="s">
         <v>352</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="35">
         <v>45567</v>
       </c>
       <c r="D99" t="s">
         <v>335</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="39" t="s">
         <v>319</v>
       </c>
       <c r="K99" s="19" t="s">
@@ -4499,13 +4500,13 @@
       <c r="B100" t="s">
         <v>353</v>
       </c>
-      <c r="C100" s="36">
+      <c r="C100" s="35">
         <v>45567</v>
       </c>
       <c r="D100" t="s">
         <v>327</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E100" s="33" t="s">
         <v>320</v>
       </c>
       <c r="K100" s="19" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0148648-38D7-6848-A903-BEE122EF0EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B9156-F098-CC44-9874-6E3220F9B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="400" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1514,10 +1514,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="F84" s="30"/>
       <c r="K84" s="37" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="P84" s="30"/>
       <c r="T84" s="31"/>
@@ -4198,7 +4198,7 @@
         <v>305</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T85" s="14" t="s">
         <v>355</v>
@@ -4243,8 +4243,8 @@
       <c r="E87" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="K87" s="12" t="s">
-        <v>356</v>
+      <c r="K87" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="T87" s="12" t="s">
         <v>356</v>
@@ -4267,7 +4267,7 @@
         <v>308</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4287,7 +4287,7 @@
         <v>309</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4307,7 +4307,7 @@
         <v>310</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4327,7 +4327,7 @@
         <v>311</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4347,7 +4347,7 @@
         <v>312</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4367,7 +4367,7 @@
         <v>313</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4410,7 +4410,7 @@
         <v>315</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4430,7 +4430,7 @@
         <v>316</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4450,7 +4450,7 @@
         <v>317</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4470,7 +4470,7 @@
         <v>318</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4490,7 +4490,7 @@
         <v>319</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4510,7 +4510,7 @@
         <v>320</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B9156-F098-CC44-9874-6E3220F9B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521D47A-6393-654D-B174-696F8A076A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="400" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="820" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="358">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1193,7 +1193,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,6 +1218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1231,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1288,6 +1294,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1514,10 +1521,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4178,6 +4185,9 @@
       <c r="K84" s="37" t="s">
         <v>3</v>
       </c>
+      <c r="M84" s="36" t="s">
+        <v>183</v>
+      </c>
       <c r="P84" s="30"/>
       <c r="T84" s="31"/>
     </row>
@@ -4200,6 +4210,9 @@
       <c r="K85" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M85" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="T85" s="14" t="s">
         <v>355</v>
       </c>
@@ -4240,11 +4253,11 @@
       <c r="D87" t="s">
         <v>322</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="40" t="s">
         <v>307</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T87" s="12" t="s">
         <v>356</v>
@@ -4343,7 +4356,7 @@
       <c r="D92" t="s">
         <v>328</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="40" t="s">
         <v>312</v>
       </c>
       <c r="K92" s="19" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521D47A-6393-654D-B174-696F8A076A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E8158-57F5-7B43-9BAF-5C48E90D88D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="820" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1200" yWindow="0" windowWidth="23320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="358">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1220,7 +1220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,9 +1292,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,10 +1521,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4253,11 +4253,14 @@
       <c r="D87" t="s">
         <v>322</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="17" t="s">
         <v>307</v>
       </c>
       <c r="K87" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="T87" s="12" t="s">
         <v>356</v>
@@ -4282,6 +4285,9 @@
       <c r="K88" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M88" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
@@ -4302,6 +4308,9 @@
       <c r="K89" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M89" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
@@ -4316,11 +4325,14 @@
       <c r="D90" t="s">
         <v>323</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="40" t="s">
         <v>310</v>
       </c>
       <c r="K90" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4336,7 +4348,7 @@
       <c r="D91" t="s">
         <v>329</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="39" t="s">
         <v>311</v>
       </c>
       <c r="K91" s="19" t="s">
@@ -4356,11 +4368,14 @@
       <c r="D92" t="s">
         <v>328</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="E92" s="17" t="s">
         <v>312</v>
       </c>
       <c r="K92" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4376,7 +4391,7 @@
       <c r="D93" t="s">
         <v>331</v>
       </c>
-      <c r="E93" s="38" t="s">
+      <c r="E93" s="39" t="s">
         <v>313</v>
       </c>
       <c r="K93" s="19" t="s">
@@ -4396,7 +4411,7 @@
       <c r="D94" t="s">
         <v>332</v>
       </c>
-      <c r="E94" s="38" t="s">
+      <c r="E94" s="17" t="s">
         <v>314</v>
       </c>
       <c r="K94" s="12" t="s">
@@ -4419,7 +4434,7 @@
       <c r="D95" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="38" t="s">
+      <c r="E95" s="39" t="s">
         <v>315</v>
       </c>
       <c r="K95" s="19" t="s">
@@ -4439,7 +4454,7 @@
       <c r="D96" t="s">
         <v>334</v>
       </c>
-      <c r="E96" s="38" t="s">
+      <c r="E96" s="39" t="s">
         <v>316</v>
       </c>
       <c r="K96" s="19" t="s">
@@ -4459,7 +4474,7 @@
       <c r="D97" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="38" t="s">
+      <c r="E97" s="39" t="s">
         <v>317</v>
       </c>
       <c r="K97" s="19" t="s">
@@ -4479,7 +4494,7 @@
       <c r="D98" t="s">
         <v>336</v>
       </c>
-      <c r="E98" s="38" t="s">
+      <c r="E98" s="17" t="s">
         <v>318</v>
       </c>
       <c r="K98" s="19" t="s">
@@ -4499,7 +4514,7 @@
       <c r="D99" t="s">
         <v>335</v>
       </c>
-      <c r="E99" s="39" t="s">
+      <c r="E99" s="38" t="s">
         <v>319</v>
       </c>
       <c r="K99" s="19" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E8158-57F5-7B43-9BAF-5C48E90D88D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD5D4F7-C430-354B-8F6F-46DB3A2BC41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1200" yWindow="0" windowWidth="23320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4060" windowWidth="23320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1237,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1294,7 +1294,6 @@
     </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,7 +1523,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M91" sqref="M91"/>
+      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4233,8 +4232,8 @@
       <c r="E86" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="K86" s="12" t="s">
-        <v>356</v>
+      <c r="K86" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="T86" s="14" t="s">
         <v>357</v>
@@ -4325,7 +4324,7 @@
       <c r="D90" t="s">
         <v>323</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="17" t="s">
         <v>310</v>
       </c>
       <c r="K90" s="19" t="s">
@@ -4414,8 +4413,8 @@
       <c r="E94" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="K94" s="12" t="s">
-        <v>356</v>
+      <c r="K94" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="T94" s="12" t="s">
         <v>356</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD5D4F7-C430-354B-8F6F-46DB3A2BC41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB2CE4-917A-404F-921F-B61089C51927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4060" windowWidth="23320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="23320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="357">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -986,9 +986,6 @@
   </si>
   <si>
     <t>62865af5a1e349260f58cdf7</t>
-  </si>
-  <si>
-    <t>66ed6bba745fee41cbe32310</t>
   </si>
   <si>
     <t>5f4a835e9e84256238129995</t>
@@ -1193,7 +1190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1221,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1237,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1285,15 +1288,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1520,10 +1525,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E99:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4165,26 +4170,26 @@
       </c>
     </row>
     <row r="84" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="35" t="s">
         <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
-      </c>
-      <c r="C84" s="34">
+        <v>342</v>
+      </c>
+      <c r="C84" s="33">
         <v>45567</v>
       </c>
       <c r="D84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>304</v>
       </c>
       <c r="F84" s="30"/>
-      <c r="K84" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="M84" s="36" t="s">
+      <c r="K84" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M84" s="35" t="s">
         <v>183</v>
       </c>
       <c r="P84" s="30"/>
@@ -4195,13 +4200,13 @@
         <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
-      </c>
-      <c r="C85" s="35">
+        <v>341</v>
+      </c>
+      <c r="C85" s="34">
         <v>45567</v>
       </c>
       <c r="D85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>305</v>
@@ -4213,7 +4218,7 @@
         <v>215</v>
       </c>
       <c r="T85" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4221,22 +4226,22 @@
         <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
-      </c>
-      <c r="C86" s="35">
+        <v>353</v>
+      </c>
+      <c r="C86" s="34">
         <v>45567</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
-      </c>
-      <c r="E86" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E86" s="37" t="s">
         <v>306</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T86" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4244,13 +4249,13 @@
         <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>339</v>
-      </c>
-      <c r="C87" s="35">
+        <v>338</v>
+      </c>
+      <c r="C87" s="34">
         <v>45567</v>
       </c>
       <c r="D87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>307</v>
@@ -4262,7 +4267,7 @@
         <v>215</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4270,13 +4275,13 @@
         <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
-      </c>
-      <c r="C88" s="35">
+        <v>343</v>
+      </c>
+      <c r="C88" s="34">
         <v>45567</v>
       </c>
       <c r="D88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>308</v>
@@ -4293,13 +4298,13 @@
         <v>158</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" s="35">
+        <v>344</v>
+      </c>
+      <c r="C89" s="34">
         <v>45567</v>
       </c>
       <c r="D89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>309</v>
@@ -4316,13 +4321,13 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
-      </c>
-      <c r="C90" s="35">
+        <v>337</v>
+      </c>
+      <c r="C90" s="34">
         <v>45567</v>
       </c>
       <c r="D90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>310</v>
@@ -4339,13 +4344,13 @@
         <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>341</v>
-      </c>
-      <c r="C91" s="35">
+        <v>340</v>
+      </c>
+      <c r="C91" s="34">
         <v>45567</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E91" s="39" t="s">
         <v>311</v>
@@ -4359,13 +4364,13 @@
         <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
-      </c>
-      <c r="C92" s="35">
+        <v>339</v>
+      </c>
+      <c r="C92" s="34">
         <v>45567</v>
       </c>
       <c r="D92" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>312</v>
@@ -4382,19 +4387,22 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C93" s="35">
+        <v>345</v>
+      </c>
+      <c r="C93" s="34">
         <v>45567</v>
       </c>
       <c r="D93" t="s">
-        <v>331</v>
-      </c>
-      <c r="E93" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E93" s="38" t="s">
         <v>313</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4402,22 +4410,22 @@
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
-      </c>
-      <c r="C94" s="35">
+        <v>346</v>
+      </c>
+      <c r="C94" s="34">
         <v>45567</v>
       </c>
       <c r="D94" t="s">
-        <v>332</v>
-      </c>
-      <c r="E94" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E94" s="37" t="s">
         <v>314</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4425,13 +4433,13 @@
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
-      </c>
-      <c r="C95" s="35">
+        <v>347</v>
+      </c>
+      <c r="C95" s="34">
         <v>45567</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E95" s="39" t="s">
         <v>315</v>
@@ -4445,96 +4453,102 @@
         <v>158</v>
       </c>
       <c r="B96" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" s="34">
+        <v>45567</v>
+      </c>
+      <c r="D96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
         <v>349</v>
       </c>
-      <c r="C96" s="35">
+      <c r="C97" s="34">
         <v>45567</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
+        <v>336</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>350</v>
+      </c>
+      <c r="C98" s="34">
+        <v>45567</v>
+      </c>
+      <c r="D98" t="s">
+        <v>335</v>
+      </c>
+      <c r="E98" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>351</v>
+      </c>
+      <c r="C99" s="34">
+        <v>45567</v>
+      </c>
+      <c r="D99" t="s">
         <v>334</v>
       </c>
-      <c r="E96" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="K96" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>158</v>
-      </c>
-      <c r="B97" t="s">
-        <v>350</v>
-      </c>
-      <c r="C97" s="35">
+      <c r="E99" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="K99" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>352</v>
+      </c>
+      <c r="C100" s="34">
         <v>45567</v>
       </c>
-      <c r="D97" t="s">
-        <v>337</v>
-      </c>
-      <c r="E97" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="K97" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" t="s">
-        <v>351</v>
-      </c>
-      <c r="C98" s="35">
-        <v>45567</v>
-      </c>
-      <c r="D98" t="s">
-        <v>336</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>158</v>
-      </c>
-      <c r="B99" t="s">
-        <v>352</v>
-      </c>
-      <c r="C99" s="35">
-        <v>45567</v>
-      </c>
-      <c r="D99" t="s">
-        <v>335</v>
-      </c>
-      <c r="E99" s="38" t="s">
+      <c r="D100" t="s">
+        <v>326</v>
+      </c>
+      <c r="E100" s="41" t="s">
         <v>319</v>
-      </c>
-      <c r="K99" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100" t="s">
-        <v>353</v>
-      </c>
-      <c r="C100" s="35">
-        <v>45567</v>
-      </c>
-      <c r="D100" t="s">
-        <v>327</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>320</v>
       </c>
       <c r="K100" s="19" t="s">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB2CE4-917A-404F-921F-B61089C51927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1220A22-4DD7-5B4B-A258-66B6FFF38CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="23320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="1620" windowWidth="23320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="358">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>62865af5a1e349260f58cdf7</t>
+  </si>
+  <si>
+    <t>66ed6bba745fee41cbe32310</t>
   </si>
   <si>
     <t>5f4a835e9e84256238129995</t>
@@ -1190,7 +1193,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1206,12 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1273,32 +1270,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1525,10 +1532,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E99" sqref="E99:E100"/>
+      <selection pane="bottomRight" activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1537,12 +1544,13 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="37"/>
     <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="10" customWidth="1"/>
@@ -1590,7 +1598,7 @@
       <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="30" t="s">
         <v>147</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1665,7 +1673,7 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="31" t="s">
         <v>187</v>
       </c>
       <c r="O2">
@@ -1716,7 +1724,7 @@
       <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="10">
@@ -1732,7 +1740,7 @@
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1765,7 +1773,7 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1798,7 +1806,7 @@
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1831,7 +1839,7 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1864,7 +1872,7 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1897,7 +1905,7 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1930,7 +1938,7 @@
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1963,7 +1971,7 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1980,7 +1988,7 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="10">
@@ -1996,7 +2004,7 @@
       <c r="K11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="32" t="s">
         <v>187</v>
       </c>
       <c r="T11" s="14" t="s">
@@ -2032,7 +2040,7 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="33" t="s">
         <v>190</v>
       </c>
       <c r="T12" s="14" t="s">
@@ -2070,7 +2078,7 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="32" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2105,7 +2113,7 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2137,7 +2145,7 @@
       <c r="K15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="34" t="s">
         <v>188</v>
       </c>
       <c r="T15" s="12" t="s">
@@ -2175,7 +2183,7 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="32" t="s">
         <v>193</v>
       </c>
       <c r="T16" s="14" t="s">
@@ -2195,7 +2203,7 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="22" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="10">
@@ -2216,7 +2224,7 @@
       <c r="L17" s="5">
         <v>45469</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="33" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2248,7 +2256,7 @@
       <c r="K18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="35" t="s">
         <v>188</v>
       </c>
       <c r="P18" s="16"/>
@@ -2287,7 +2295,7 @@
       <c r="K19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="34" t="s">
         <v>188</v>
       </c>
       <c r="T19" s="14" t="s">
@@ -2325,7 +2333,7 @@
       <c r="K20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="32" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2357,7 +2365,7 @@
       <c r="K21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="34" t="s">
         <v>188</v>
       </c>
       <c r="T21" s="12" t="s">
@@ -2395,7 +2403,7 @@
       <c r="K22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2430,7 +2438,7 @@
       <c r="K23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="32" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2465,7 +2473,7 @@
       <c r="K24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="33" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2498,7 +2506,7 @@
       <c r="K25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="32" t="s">
         <v>187</v>
       </c>
       <c r="N25">
@@ -2536,7 +2544,7 @@
       <c r="K26" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="33" t="s">
         <v>190</v>
       </c>
       <c r="T26" s="12" t="s">
@@ -2574,7 +2582,7 @@
       <c r="K27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="32" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2609,7 +2617,7 @@
       <c r="K28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="33" t="s">
         <v>190</v>
       </c>
       <c r="T28" s="12" t="s">
@@ -2647,7 +2655,7 @@
       <c r="K29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="32" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2680,7 +2688,7 @@
       <c r="K30" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="33" t="s">
         <v>190</v>
       </c>
       <c r="T30" s="12" t="s">
@@ -2718,7 +2726,7 @@
       <c r="K31" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="M31" s="33" t="s">
         <v>190</v>
       </c>
       <c r="R31" t="s">
@@ -2756,7 +2764,7 @@
       <c r="K32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="34" t="s">
         <v>188</v>
       </c>
       <c r="R32" t="s">
@@ -2797,7 +2805,7 @@
       <c r="K33" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="21" t="s">
+      <c r="M33" s="33" t="s">
         <v>190</v>
       </c>
       <c r="R33" t="s">
@@ -2835,7 +2843,7 @@
       <c r="K34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="33" t="s">
         <v>190</v>
       </c>
       <c r="R34" t="s">
@@ -2873,7 +2881,7 @@
       <c r="K35" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="32" t="s">
         <v>186</v>
       </c>
       <c r="R35" t="s">
@@ -2911,7 +2919,7 @@
       <c r="K36" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="32" t="s">
         <v>187</v>
       </c>
       <c r="R36" t="s">
@@ -2949,7 +2957,7 @@
       <c r="K37" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="32" t="s">
         <v>186</v>
       </c>
       <c r="R37" t="s">
@@ -2978,7 +2986,7 @@
       <c r="K38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="21" t="s">
+      <c r="M38" s="33" t="s">
         <v>184</v>
       </c>
       <c r="R38" t="s">
@@ -3001,7 +3009,7 @@
       <c r="D39" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="23" t="s">
         <v>149</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -3010,7 +3018,7 @@
       <c r="K39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="32" t="s">
         <v>186</v>
       </c>
       <c r="R39" t="s">
@@ -3039,7 +3047,7 @@
       <c r="K40" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="21" t="s">
+      <c r="M40" s="33" t="s">
         <v>184</v>
       </c>
       <c r="R40" t="s">
@@ -3059,7 +3067,7 @@
       <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="23" t="s">
         <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -3068,7 +3076,7 @@
       <c r="K41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="33" t="s">
         <v>215</v>
       </c>
       <c r="R41" t="s">
@@ -3091,7 +3099,7 @@
       <c r="D42" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="23" t="s">
         <v>152</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -3100,7 +3108,7 @@
       <c r="K42" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="32" t="s">
         <v>186</v>
       </c>
       <c r="R42" t="s">
@@ -3123,7 +3131,7 @@
       <c r="D43" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="23" t="s">
         <v>153</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -3132,7 +3140,7 @@
       <c r="K43" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="21" t="s">
+      <c r="M43" s="33" t="s">
         <v>183</v>
       </c>
       <c r="R43" t="s">
@@ -3152,7 +3160,7 @@
       <c r="D44" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="23" t="s">
         <v>154</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -3161,7 +3169,7 @@
       <c r="K44" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="32" t="s">
         <v>186</v>
       </c>
       <c r="R44" t="s">
@@ -3181,7 +3189,7 @@
       <c r="D45" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="23" t="s">
         <v>155</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -3190,7 +3198,7 @@
       <c r="K45" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="20" t="s">
+      <c r="M45" s="32" t="s">
         <v>185</v>
       </c>
       <c r="R45" t="s">
@@ -3210,7 +3218,7 @@
       <c r="D46" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="23" t="s">
         <v>156</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -3219,7 +3227,7 @@
       <c r="K46" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="20" t="s">
+      <c r="M46" s="32" t="s">
         <v>186</v>
       </c>
       <c r="N46">
@@ -3245,7 +3253,7 @@
       <c r="D47" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="24" t="s">
         <v>157</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -3254,7 +3262,7 @@
       <c r="K47" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="20" t="s">
+      <c r="M47" s="32" t="s">
         <v>186</v>
       </c>
       <c r="R47" t="s">
@@ -3283,7 +3291,7 @@
       <c r="K48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="21" t="s">
+      <c r="M48" s="33" t="s">
         <v>189</v>
       </c>
       <c r="R48" t="s">
@@ -3312,7 +3320,7 @@
       <c r="K49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="21" t="s">
+      <c r="M49" s="33" t="s">
         <v>189</v>
       </c>
       <c r="N49" s="2">
@@ -3344,7 +3352,7 @@
       <c r="K50" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="22" t="s">
+      <c r="M50" s="36" t="s">
         <v>189</v>
       </c>
       <c r="R50" t="s">
@@ -3376,7 +3384,7 @@
       <c r="K51" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="33" t="s">
         <v>189</v>
       </c>
       <c r="T51" s="14" t="s">
@@ -3405,7 +3413,7 @@
       <c r="K52" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="21" t="s">
+      <c r="M52" s="33" t="s">
         <v>189</v>
       </c>
       <c r="T52" s="14" t="s">
@@ -3434,7 +3442,7 @@
       <c r="K53" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="34" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3460,7 +3468,7 @@
       <c r="K54" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="21" t="s">
+      <c r="M54" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3486,7 +3494,7 @@
       <c r="K55" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="20" t="s">
+      <c r="M55" s="32" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3512,7 +3520,7 @@
       <c r="K56" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M56" s="21" t="s">
+      <c r="M56" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3538,7 +3546,7 @@
       <c r="K57" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="21" t="s">
+      <c r="M57" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3564,7 +3572,7 @@
       <c r="K58" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="21" t="s">
+      <c r="M58" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3590,7 +3598,7 @@
       <c r="K59" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="21" t="s">
+      <c r="M59" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3616,7 +3624,7 @@
       <c r="K60" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="20" t="s">
+      <c r="M60" s="32" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3637,7 +3645,7 @@
       <c r="K61" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="M61" s="34" t="s">
         <v>188</v>
       </c>
       <c r="T61" s="14" t="s">
@@ -3660,7 +3668,7 @@
       <c r="K62" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="21" t="s">
+      <c r="M62" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3680,7 +3688,7 @@
       <c r="K63" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M63" s="21" t="s">
+      <c r="M63" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3700,7 +3708,7 @@
       <c r="K64" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M64" s="20" t="s">
+      <c r="M64" s="32" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3720,7 +3728,7 @@
       <c r="K65" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M65" s="21" t="s">
+      <c r="M65" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3740,7 +3748,7 @@
       <c r="K66" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="21" t="s">
+      <c r="M66" s="33" t="s">
         <v>189</v>
       </c>
       <c r="N66" s="2">
@@ -3763,7 +3771,7 @@
       <c r="K67" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M67" s="20" t="s">
+      <c r="M67" s="32" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3783,7 +3791,7 @@
       <c r="K68" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M68" s="20" t="s">
+      <c r="M68" s="32" t="s">
         <v>265</v>
       </c>
       <c r="N68">
@@ -3806,7 +3814,7 @@
       <c r="K69" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M69" s="20" t="s">
+      <c r="M69" s="32" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3826,7 +3834,7 @@
       <c r="K70" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M70" s="20" t="s">
+      <c r="M70" s="32" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3846,7 +3854,7 @@
       <c r="K71" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M71" s="20" t="s">
+      <c r="M71" s="32" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3866,7 +3874,7 @@
       <c r="K72" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="20" t="s">
+      <c r="M72" s="32" t="s">
         <v>265</v>
       </c>
       <c r="N72">
@@ -3889,7 +3897,7 @@
       <c r="K73" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M73" s="20" t="s">
+      <c r="M73" s="32" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3915,7 +3923,7 @@
       <c r="K74" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="M74" s="34" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3941,7 +3949,7 @@
       <c r="K75" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="M75" s="34" t="s">
         <v>188</v>
       </c>
       <c r="T75" s="14" t="s">
@@ -3970,7 +3978,7 @@
       <c r="K76" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="21" t="s">
+      <c r="M76" s="33" t="s">
         <v>215</v>
       </c>
       <c r="T76" s="14" t="s">
@@ -3999,7 +4007,7 @@
       <c r="K77" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M77" s="21" t="s">
+      <c r="M77" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4025,7 +4033,7 @@
       <c r="K78" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M78" s="21" t="s">
+      <c r="M78" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4051,7 +4059,7 @@
       <c r="K79" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="M79" s="34" t="s">
         <v>188</v>
       </c>
       <c r="T79" s="14" t="s">
@@ -4080,7 +4088,7 @@
       <c r="K80" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="21" t="s">
+      <c r="M80" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4100,14 +4108,14 @@
       <c r="E81" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="32"/>
+      <c r="F81" s="25"/>
       <c r="I81" s="4" t="s">
         <v>27</v>
       </c>
       <c r="K81" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="M81" s="34" t="s">
         <v>188</v>
       </c>
       <c r="T81" s="14" t="s">
@@ -4136,7 +4144,7 @@
       <c r="K82" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M82" s="21" t="s">
+      <c r="M82" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4162,51 +4170,48 @@
       <c r="K83" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="M83" s="4" t="s">
+      <c r="M83" s="34" t="s">
         <v>188</v>
       </c>
       <c r="T83" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="35" t="s">
+    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
-      </c>
-      <c r="C84" s="33">
+        <v>343</v>
+      </c>
+      <c r="C84" s="26">
         <v>45567</v>
       </c>
       <c r="D84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="F84" s="30"/>
-      <c r="K84" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M84" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="P84" s="30"/>
-      <c r="T84" s="31"/>
+      <c r="K84" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M84" s="33" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>341</v>
-      </c>
-      <c r="C85" s="34">
+        <v>342</v>
+      </c>
+      <c r="C85" s="26">
         <v>45567</v>
       </c>
       <c r="D85" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>305</v>
@@ -4214,11 +4219,11 @@
       <c r="K85" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="M85" s="33" t="s">
         <v>215</v>
       </c>
       <c r="T85" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4226,22 +4231,22 @@
         <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>353</v>
-      </c>
-      <c r="C86" s="34">
+        <v>354</v>
+      </c>
+      <c r="C86" s="26">
         <v>45567</v>
       </c>
       <c r="D86" t="s">
-        <v>324</v>
-      </c>
-      <c r="E86" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="E86" s="27" t="s">
         <v>306</v>
       </c>
       <c r="K86" s="14" t="s">
         <v>3</v>
       </c>
       <c r="T86" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4249,13 +4254,13 @@
         <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>338</v>
-      </c>
-      <c r="C87" s="34">
+        <v>339</v>
+      </c>
+      <c r="C87" s="26">
         <v>45567</v>
       </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>307</v>
@@ -4263,11 +4268,11 @@
       <c r="K87" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="M87" s="33" t="s">
         <v>215</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4275,13 +4280,13 @@
         <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
-      </c>
-      <c r="C88" s="34">
+        <v>344</v>
+      </c>
+      <c r="C88" s="26">
         <v>45567</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>308</v>
@@ -4289,7 +4294,7 @@
       <c r="K88" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="M88" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4298,13 +4303,13 @@
         <v>158</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C89" s="34">
+        <v>345</v>
+      </c>
+      <c r="C89" s="26">
         <v>45567</v>
       </c>
       <c r="D89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>309</v>
@@ -4312,7 +4317,7 @@
       <c r="K89" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="4" t="s">
+      <c r="M89" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4321,13 +4326,13 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
-      </c>
-      <c r="C90" s="34">
+        <v>338</v>
+      </c>
+      <c r="C90" s="26">
         <v>45567</v>
       </c>
       <c r="D90" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>310</v>
@@ -4335,7 +4340,7 @@
       <c r="K90" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="M90" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4344,15 +4349,15 @@
         <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>340</v>
-      </c>
-      <c r="C91" s="34">
+        <v>341</v>
+      </c>
+      <c r="C91" s="26">
         <v>45567</v>
       </c>
       <c r="D91" t="s">
-        <v>328</v>
-      </c>
-      <c r="E91" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="E91" s="27" t="s">
         <v>311</v>
       </c>
       <c r="K91" s="19" t="s">
@@ -4364,13 +4369,13 @@
         <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>339</v>
-      </c>
-      <c r="C92" s="34">
+        <v>340</v>
+      </c>
+      <c r="C92" s="26">
         <v>45567</v>
       </c>
       <c r="D92" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>312</v>
@@ -4378,7 +4383,7 @@
       <c r="K92" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="M92" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4387,21 +4392,21 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
-      </c>
-      <c r="C93" s="34">
+        <v>346</v>
+      </c>
+      <c r="C93" s="26">
         <v>45567</v>
       </c>
       <c r="D93" t="s">
-        <v>330</v>
-      </c>
-      <c r="E93" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" s="17" t="s">
         <v>313</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="M93" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4410,22 +4415,25 @@
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>346</v>
-      </c>
-      <c r="C94" s="34">
+        <v>347</v>
+      </c>
+      <c r="C94" s="26">
         <v>45567</v>
       </c>
       <c r="D94" t="s">
-        <v>331</v>
-      </c>
-      <c r="E94" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="E94" s="17" t="s">
         <v>314</v>
       </c>
       <c r="K94" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="M94" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="T94" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4433,15 +4441,15 @@
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>347</v>
-      </c>
-      <c r="C95" s="34">
+        <v>348</v>
+      </c>
+      <c r="C95" s="26">
         <v>45567</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E95" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="E95" s="28" t="s">
         <v>315</v>
       </c>
       <c r="K95" s="19" t="s">
@@ -4453,21 +4461,21 @@
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>348</v>
-      </c>
-      <c r="C96" s="34">
+        <v>349</v>
+      </c>
+      <c r="C96" s="26">
         <v>45567</v>
       </c>
       <c r="D96" t="s">
-        <v>333</v>
-      </c>
-      <c r="E96" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="E96" s="17" t="s">
         <v>316</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="M96" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4476,21 +4484,21 @@
         <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>349</v>
-      </c>
-      <c r="C97" s="34">
+        <v>350</v>
+      </c>
+      <c r="C97" s="26">
         <v>45567</v>
       </c>
       <c r="D97" t="s">
-        <v>336</v>
-      </c>
-      <c r="E97" s="38" t="s">
-        <v>316</v>
+        <v>337</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M97" s="4" t="s">
+      <c r="M97" s="33" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4499,16 +4507,16 @@
         <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
-      </c>
-      <c r="C98" s="34">
+        <v>351</v>
+      </c>
+      <c r="C98" s="26">
         <v>45567</v>
       </c>
       <c r="D98" t="s">
-        <v>335</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>317</v>
+        <v>336</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>318</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>3</v>
@@ -4519,19 +4527,22 @@
         <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>351</v>
-      </c>
-      <c r="C99" s="34">
+        <v>352</v>
+      </c>
+      <c r="C99" s="26">
         <v>45567</v>
       </c>
       <c r="D99" t="s">
-        <v>334</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>318</v>
+        <v>335</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>319</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M99" s="33" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4539,19 +4550,22 @@
         <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
-      </c>
-      <c r="C100" s="34">
+        <v>353</v>
+      </c>
+      <c r="C100" s="26">
         <v>45567</v>
       </c>
       <c r="D100" t="s">
-        <v>326</v>
-      </c>
-      <c r="E100" s="41" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>320</v>
       </c>
       <c r="K100" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M100" s="33" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1220A22-4DD7-5B4B-A258-66B6FFF38CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4E77A-C9A1-F543-A678-F18E24818733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1620" windowWidth="23320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="17640" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="374">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1108,7 +1108,55 @@
     <t>getting more experience</t>
   </si>
   <si>
-    <t>replaced photo 2 with photo 26, getting more experience</t>
+    <t>computer froze during third partner, could not collect data but compensated participant</t>
+  </si>
+  <si>
+    <t>replaced photo 2 with photo 26, getting more experiences, weird error message that participant got then seemed they were trying to get info from us, after many attempts to problem solve error participant declined participation</t>
+  </si>
+  <si>
+    <t>5de8613ddf86d37c8a8ab294</t>
+  </si>
+  <si>
+    <t>60c8467d9872c0d83f695499</t>
+  </si>
+  <si>
+    <t>5d27e4e24ea8d100170b3c61</t>
+  </si>
+  <si>
+    <t>66afda246e3de817bb34c5eb</t>
+  </si>
+  <si>
+    <t>5c9d004ee3b6c40015254526</t>
+  </si>
+  <si>
+    <t>65216acf7bfd070f6ac40717</t>
+  </si>
+  <si>
+    <t>66f899c9525316803c5d75c0</t>
+  </si>
+  <si>
+    <t>5f0f5df48a1b1a114c3dacc5</t>
+  </si>
+  <si>
+    <t>6687e7ab774852dc74bdca19</t>
+  </si>
+  <si>
+    <t>66ada0d8b8ddd62c65d39bfe</t>
+  </si>
+  <si>
+    <t>5f32e865bd94490a64d9c9f5</t>
+  </si>
+  <si>
+    <t>6637ca249e9c662fac63cfcb</t>
+  </si>
+  <si>
+    <t>66757cddd8d92a5cbfda353f</t>
+  </si>
+  <si>
+    <t>5ddce9f0f85b50c4fc1515a4</t>
+  </si>
+  <si>
+    <t>59d5888d21977e0001d630f3</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1192,8 +1240,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,13 +1267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1277,8 +1324,6 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1306,6 +1351,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1532,10 +1592,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M100" sqref="M100"/>
+      <selection pane="bottomRight" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1550,7 +1610,7 @@
     <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="37"/>
+    <col min="13" max="13" width="12.6640625" style="35"/>
     <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="10" customWidth="1"/>
@@ -1598,7 +1658,7 @@
       <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="28" t="s">
         <v>147</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1673,7 +1733,7 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="29" t="s">
         <v>187</v>
       </c>
       <c r="O2">
@@ -1740,7 +1800,7 @@
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="30" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1773,7 +1833,7 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1806,7 +1866,7 @@
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="30" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1839,7 +1899,7 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="30" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1872,7 +1932,7 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1905,7 +1965,7 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1938,7 +1998,7 @@
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1971,7 +2031,7 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="30" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2004,7 +2064,7 @@
       <c r="K11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="30" t="s">
         <v>187</v>
       </c>
       <c r="T11" s="14" t="s">
@@ -2040,7 +2100,7 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="31" t="s">
         <v>190</v>
       </c>
       <c r="T12" s="14" t="s">
@@ -2078,7 +2138,7 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="30" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2113,7 +2173,7 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="30" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2145,7 +2205,7 @@
       <c r="K15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="32" t="s">
         <v>188</v>
       </c>
       <c r="T15" s="12" t="s">
@@ -2183,7 +2243,7 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="30" t="s">
         <v>193</v>
       </c>
       <c r="T16" s="14" t="s">
@@ -2224,7 +2284,7 @@
       <c r="L17" s="5">
         <v>45469</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="31" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2256,7 +2316,7 @@
       <c r="K18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="35" t="s">
+      <c r="M18" s="33" t="s">
         <v>188</v>
       </c>
       <c r="P18" s="16"/>
@@ -2295,7 +2355,7 @@
       <c r="K19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="34" t="s">
+      <c r="M19" s="32" t="s">
         <v>188</v>
       </c>
       <c r="T19" s="14" t="s">
@@ -2333,7 +2393,7 @@
       <c r="K20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="32" t="s">
+      <c r="M20" s="30" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2365,7 +2425,7 @@
       <c r="K21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="32" t="s">
         <v>188</v>
       </c>
       <c r="T21" s="12" t="s">
@@ -2403,7 +2463,7 @@
       <c r="K22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="30" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2438,7 +2498,7 @@
       <c r="K23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2473,7 +2533,7 @@
       <c r="K24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="33" t="s">
+      <c r="M24" s="31" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2506,7 +2566,7 @@
       <c r="K25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="32" t="s">
+      <c r="M25" s="30" t="s">
         <v>187</v>
       </c>
       <c r="N25">
@@ -2544,7 +2604,7 @@
       <c r="K26" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M26" s="31" t="s">
         <v>190</v>
       </c>
       <c r="T26" s="12" t="s">
@@ -2582,7 +2642,7 @@
       <c r="K27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="30" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2617,7 +2677,7 @@
       <c r="K28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="31" t="s">
         <v>190</v>
       </c>
       <c r="T28" s="12" t="s">
@@ -2655,7 +2715,7 @@
       <c r="K29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="32" t="s">
+      <c r="M29" s="30" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2688,7 +2748,7 @@
       <c r="K30" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="33" t="s">
+      <c r="M30" s="31" t="s">
         <v>190</v>
       </c>
       <c r="T30" s="12" t="s">
@@ -2726,7 +2786,7 @@
       <c r="K31" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="33" t="s">
+      <c r="M31" s="31" t="s">
         <v>190</v>
       </c>
       <c r="R31" t="s">
@@ -2764,7 +2824,7 @@
       <c r="K32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="M32" s="32" t="s">
         <v>188</v>
       </c>
       <c r="R32" t="s">
@@ -2805,7 +2865,7 @@
       <c r="K33" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="31" t="s">
         <v>190</v>
       </c>
       <c r="R33" t="s">
@@ -2843,7 +2903,7 @@
       <c r="K34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="33" t="s">
+      <c r="M34" s="31" t="s">
         <v>190</v>
       </c>
       <c r="R34" t="s">
@@ -2881,7 +2941,7 @@
       <c r="K35" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="30" t="s">
         <v>186</v>
       </c>
       <c r="R35" t="s">
@@ -2919,7 +2979,7 @@
       <c r="K36" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M36" s="32" t="s">
+      <c r="M36" s="30" t="s">
         <v>187</v>
       </c>
       <c r="R36" t="s">
@@ -2957,7 +3017,7 @@
       <c r="K37" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="32" t="s">
+      <c r="M37" s="30" t="s">
         <v>186</v>
       </c>
       <c r="R37" t="s">
@@ -2986,7 +3046,7 @@
       <c r="K38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M38" s="31" t="s">
         <v>184</v>
       </c>
       <c r="R38" t="s">
@@ -3018,7 +3078,7 @@
       <c r="K39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M39" s="32" t="s">
+      <c r="M39" s="30" t="s">
         <v>186</v>
       </c>
       <c r="R39" t="s">
@@ -3047,7 +3107,7 @@
       <c r="K40" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="33" t="s">
+      <c r="M40" s="31" t="s">
         <v>184</v>
       </c>
       <c r="R40" t="s">
@@ -3076,7 +3136,7 @@
       <c r="K41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="31" t="s">
         <v>215</v>
       </c>
       <c r="R41" t="s">
@@ -3108,7 +3168,7 @@
       <c r="K42" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="32" t="s">
+      <c r="M42" s="30" t="s">
         <v>186</v>
       </c>
       <c r="R42" t="s">
@@ -3140,7 +3200,7 @@
       <c r="K43" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="33" t="s">
+      <c r="M43" s="31" t="s">
         <v>183</v>
       </c>
       <c r="R43" t="s">
@@ -3169,7 +3229,7 @@
       <c r="K44" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="32" t="s">
+      <c r="M44" s="30" t="s">
         <v>186</v>
       </c>
       <c r="R44" t="s">
@@ -3198,7 +3258,7 @@
       <c r="K45" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="32" t="s">
+      <c r="M45" s="30" t="s">
         <v>185</v>
       </c>
       <c r="R45" t="s">
@@ -3227,7 +3287,7 @@
       <c r="K46" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="32" t="s">
+      <c r="M46" s="30" t="s">
         <v>186</v>
       </c>
       <c r="N46">
@@ -3262,7 +3322,7 @@
       <c r="K47" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="32" t="s">
+      <c r="M47" s="30" t="s">
         <v>186</v>
       </c>
       <c r="R47" t="s">
@@ -3291,7 +3351,7 @@
       <c r="K48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="33" t="s">
+      <c r="M48" s="31" t="s">
         <v>189</v>
       </c>
       <c r="R48" t="s">
@@ -3320,7 +3380,7 @@
       <c r="K49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="33" t="s">
+      <c r="M49" s="31" t="s">
         <v>189</v>
       </c>
       <c r="N49" s="2">
@@ -3352,7 +3412,7 @@
       <c r="K50" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="36" t="s">
+      <c r="M50" s="34" t="s">
         <v>189</v>
       </c>
       <c r="R50" t="s">
@@ -3384,7 +3444,7 @@
       <c r="K51" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M51" s="33" t="s">
+      <c r="M51" s="31" t="s">
         <v>189</v>
       </c>
       <c r="T51" s="14" t="s">
@@ -3413,7 +3473,7 @@
       <c r="K52" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="33" t="s">
+      <c r="M52" s="31" t="s">
         <v>189</v>
       </c>
       <c r="T52" s="14" t="s">
@@ -3442,7 +3502,7 @@
       <c r="K53" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="34" t="s">
+      <c r="M53" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3468,7 +3528,7 @@
       <c r="K54" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="33" t="s">
+      <c r="M54" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3494,7 +3554,7 @@
       <c r="K55" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="32" t="s">
+      <c r="M55" s="30" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3520,7 +3580,7 @@
       <c r="K56" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M56" s="33" t="s">
+      <c r="M56" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3546,7 +3606,7 @@
       <c r="K57" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="33" t="s">
+      <c r="M57" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3572,7 +3632,7 @@
       <c r="K58" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="33" t="s">
+      <c r="M58" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3598,7 +3658,7 @@
       <c r="K59" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="33" t="s">
+      <c r="M59" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3624,7 +3684,7 @@
       <c r="K60" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="32" t="s">
+      <c r="M60" s="30" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3645,7 +3705,7 @@
       <c r="K61" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M61" s="34" t="s">
+      <c r="M61" s="32" t="s">
         <v>188</v>
       </c>
       <c r="T61" s="14" t="s">
@@ -3668,7 +3728,7 @@
       <c r="K62" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="33" t="s">
+      <c r="M62" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3688,7 +3748,7 @@
       <c r="K63" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M63" s="33" t="s">
+      <c r="M63" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3708,7 +3768,7 @@
       <c r="K64" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M64" s="32" t="s">
+      <c r="M64" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3728,7 +3788,7 @@
       <c r="K65" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M65" s="33" t="s">
+      <c r="M65" s="31" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3748,7 +3808,7 @@
       <c r="K66" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="33" t="s">
+      <c r="M66" s="31" t="s">
         <v>189</v>
       </c>
       <c r="N66" s="2">
@@ -3771,7 +3831,7 @@
       <c r="K67" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M67" s="32" t="s">
+      <c r="M67" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3791,7 +3851,7 @@
       <c r="K68" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M68" s="32" t="s">
+      <c r="M68" s="30" t="s">
         <v>265</v>
       </c>
       <c r="N68">
@@ -3814,7 +3874,7 @@
       <c r="K69" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M69" s="32" t="s">
+      <c r="M69" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3834,7 +3894,7 @@
       <c r="K70" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M70" s="32" t="s">
+      <c r="M70" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3854,7 +3914,7 @@
       <c r="K71" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M71" s="32" t="s">
+      <c r="M71" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3874,7 +3934,7 @@
       <c r="K72" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="32" t="s">
+      <c r="M72" s="30" t="s">
         <v>265</v>
       </c>
       <c r="N72">
@@ -3897,7 +3957,7 @@
       <c r="K73" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M73" s="32" t="s">
+      <c r="M73" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3923,7 +3983,7 @@
       <c r="K74" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="34" t="s">
+      <c r="M74" s="32" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3949,7 +4009,7 @@
       <c r="K75" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="M75" s="34" t="s">
+      <c r="M75" s="32" t="s">
         <v>188</v>
       </c>
       <c r="T75" s="14" t="s">
@@ -3978,7 +4038,7 @@
       <c r="K76" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="33" t="s">
+      <c r="M76" s="31" t="s">
         <v>215</v>
       </c>
       <c r="T76" s="14" t="s">
@@ -4007,7 +4067,7 @@
       <c r="K77" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M77" s="33" t="s">
+      <c r="M77" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4033,7 +4093,7 @@
       <c r="K78" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M78" s="33" t="s">
+      <c r="M78" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4059,7 +4119,7 @@
       <c r="K79" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M79" s="34" t="s">
+      <c r="M79" s="32" t="s">
         <v>188</v>
       </c>
       <c r="T79" s="14" t="s">
@@ -4088,7 +4148,7 @@
       <c r="K80" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="33" t="s">
+      <c r="M80" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4115,7 +4175,7 @@
       <c r="K81" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M81" s="34" t="s">
+      <c r="M81" s="32" t="s">
         <v>188</v>
       </c>
       <c r="T81" s="14" t="s">
@@ -4144,7 +4204,7 @@
       <c r="K82" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M82" s="33" t="s">
+      <c r="M82" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4170,7 +4230,7 @@
       <c r="K83" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="M83" s="34" t="s">
+      <c r="M83" s="32" t="s">
         <v>188</v>
       </c>
       <c r="T83" s="14" t="s">
@@ -4196,7 +4256,7 @@
       <c r="K84" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M84" s="33" t="s">
+      <c r="M84" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4219,7 +4279,7 @@
       <c r="K85" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M85" s="33" t="s">
+      <c r="M85" s="31" t="s">
         <v>215</v>
       </c>
       <c r="T85" s="14" t="s">
@@ -4239,14 +4299,17 @@
       <c r="D86" t="s">
         <v>325</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E86" s="38" t="s">
         <v>306</v>
       </c>
       <c r="K86" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="M86" s="32" t="s">
+        <v>265</v>
+      </c>
       <c r="T86" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4268,7 +4331,7 @@
       <c r="K87" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M87" s="33" t="s">
+      <c r="M87" s="31" t="s">
         <v>215</v>
       </c>
       <c r="T87" s="12" t="s">
@@ -4294,7 +4357,7 @@
       <c r="K88" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M88" s="33" t="s">
+      <c r="M88" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4317,7 +4380,7 @@
       <c r="K89" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="33" t="s">
+      <c r="M89" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4340,7 +4403,7 @@
       <c r="K90" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M90" s="33" t="s">
+      <c r="M90" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4357,11 +4420,14 @@
       <c r="D91" t="s">
         <v>329</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E91" s="38" t="s">
         <v>311</v>
       </c>
       <c r="K91" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M91" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4383,7 +4449,7 @@
       <c r="K92" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M92" s="33" t="s">
+      <c r="M92" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4406,7 +4472,7 @@
       <c r="K93" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M93" s="33" t="s">
+      <c r="M93" s="31" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4429,7 +4495,7 @@
       <c r="K94" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="33" t="s">
+      <c r="M94" s="31" t="s">
         <v>215</v>
       </c>
       <c r="T94" s="12" t="s">
@@ -4449,11 +4515,17 @@
       <c r="D95" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="28" t="s">
+      <c r="E95" s="38" t="s">
         <v>315</v>
       </c>
       <c r="K95" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M95" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="T95" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4475,11 +4547,11 @@
       <c r="K96" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M96" s="33" t="s">
+      <c r="M96" s="31" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -4492,17 +4564,17 @@
       <c r="D97" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="37" t="s">
         <v>317</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M97" s="33" t="s">
+      <c r="M97" s="31" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -4515,14 +4587,17 @@
       <c r="D98" t="s">
         <v>336</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="E98" s="38" t="s">
         <v>318</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M98" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -4535,17 +4610,17 @@
       <c r="D99" t="s">
         <v>335</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="27" t="s">
         <v>319</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M99" s="33" t="s">
+      <c r="M99" s="31" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>158</v>
       </c>
@@ -4558,14 +4633,97 @@
       <c r="D100" t="s">
         <v>327</v>
       </c>
-      <c r="E100" s="38" t="s">
+      <c r="E100" s="36" t="s">
         <v>320</v>
       </c>
       <c r="K100" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="33" t="s">
+      <c r="M100" s="31" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="41">
+        <v>45574</v>
+      </c>
+      <c r="E101" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="F101" s="43"/>
+      <c r="K101" s="44"/>
+      <c r="M101" s="45"/>
+      <c r="P101" s="43"/>
+      <c r="T101" s="46"/>
+    </row>
+    <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E102" s="39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E103" s="39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E104" s="39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E105" s="39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E106" s="39" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E107" s="39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E108" s="39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E109" s="39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E110" s="39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E111" s="39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E112" s="39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E113" s="39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E114" s="39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E115" s="39" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4E77A-C9A1-F543-A678-F18E24818733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C867A2-D281-D246-985B-7E00476055F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="0" windowWidth="17640" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C867A2-D281-D246-985B-7E00476055F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C5A159-1043-B341-AEC3-B70E3D3FD1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="17640" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="7400" windowWidth="22820" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="413">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1157,6 +1157,123 @@
   </si>
   <si>
     <t>59d5888d21977e0001d630f3</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>R_1mebnnRkDKTGokV</t>
+  </si>
+  <si>
+    <t>R_7sddd1KFtXcq2tP</t>
+  </si>
+  <si>
+    <t>R_5PNXAto9DvmdAG7</t>
+  </si>
+  <si>
+    <t>R_16gt5TJAzIr40Dz</t>
+  </si>
+  <si>
+    <t>R_5dZkaARjosB2nJf</t>
+  </si>
+  <si>
+    <t>R_16rmY29cxDoS3m1</t>
+  </si>
+  <si>
+    <t>R_7HkRXjgc19M1xxS</t>
+  </si>
+  <si>
+    <t>R_6pJLNlxNKuNdM7A</t>
+  </si>
+  <si>
+    <t>R_6D1Xa3ptojAnK6K</t>
+  </si>
+  <si>
+    <t>R_5KjPFsFxtIfgsWE</t>
+  </si>
+  <si>
+    <t>R_50FMFSBrSOyXf5n</t>
+  </si>
+  <si>
+    <t>R_1gOYHyEuW7EfYQR</t>
+  </si>
+  <si>
+    <t>R_1JVEx1GmoaK7DKR</t>
+  </si>
+  <si>
+    <t>R_7Op0Lfhqgz6YS1L</t>
+  </si>
+  <si>
+    <t>R_5tYhoC3Wv7mQ8Ex</t>
+  </si>
+  <si>
+    <t>R_5LesTl7SJ1zr5aX</t>
+  </si>
+  <si>
+    <t>R_6EKCVbcS6V7uSdj</t>
+  </si>
+  <si>
+    <t>R_5DRYHq6sXWvalYm</t>
+  </si>
+  <si>
+    <t>R_3ddatKEAemirPp7</t>
+  </si>
+  <si>
+    <t>R_1lLm8eQOTklBeCt</t>
+  </si>
+  <si>
+    <t>R_5LRmfWVXnMliQbs</t>
+  </si>
+  <si>
+    <t>R_1K1vI65aqm7mIP7</t>
+  </si>
+  <si>
+    <t>R_5dH51nGVBohuePJ</t>
+  </si>
+  <si>
+    <t>R_3aIBEUn8dYyUWHs</t>
+  </si>
+  <si>
+    <t>R_6jjgd0Edr9ph5h3</t>
+  </si>
+  <si>
+    <t>R_7dmPFX8iYhphEKc</t>
+  </si>
+  <si>
+    <t>R_3xXjOA5bIC78ZMQ</t>
+  </si>
+  <si>
+    <t>R_5FQ0L4UsFEhiU13</t>
+  </si>
+  <si>
+    <t>R_7QET15RHczzu2Rv</t>
+  </si>
+  <si>
+    <t>R_6GjkZb8FwB7OMYH</t>
+  </si>
+  <si>
+    <t>none of photos from their instagram account</t>
+  </si>
+  <si>
+    <t>webp, photos came up N/A</t>
+  </si>
+  <si>
+    <t>duplicate photo, swapped photo 5 (4.png) with 26 (25.png)</t>
+  </si>
+  <si>
+    <t>curse word, swapped photo 13 with 26, getting more experiences</t>
+  </si>
+  <si>
+    <t>duplicate photo, swapped photo 13 with 26, getting more experiences</t>
+  </si>
+  <si>
+    <t>guns, swpapped photo 11 with 26, getting more experiences</t>
+  </si>
+  <si>
+    <t>blood, swapped phot 18 with 27, getting more experiences</t>
+  </si>
+  <si>
+    <t>getting more experiences</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1363,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,6 +1386,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E7FD"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1350,21 +1473,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,10 +1715,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1604,10 +1727,10 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="35"/>
@@ -4299,7 +4422,7 @@
       <c r="D86" t="s">
         <v>325</v>
       </c>
-      <c r="E86" s="38" t="s">
+      <c r="E86" s="17" t="s">
         <v>306</v>
       </c>
       <c r="K86" s="14" t="s">
@@ -4420,7 +4543,7 @@
       <c r="D91" t="s">
         <v>329</v>
       </c>
-      <c r="E91" s="38" t="s">
+      <c r="E91" s="17" t="s">
         <v>311</v>
       </c>
       <c r="K91" s="19" t="s">
@@ -4515,7 +4638,7 @@
       <c r="D95" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="38" t="s">
+      <c r="E95" s="17" t="s">
         <v>315</v>
       </c>
       <c r="K95" s="19" t="s">
@@ -4564,7 +4687,7 @@
       <c r="D97" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="37" t="s">
+      <c r="E97" t="s">
         <v>317</v>
       </c>
       <c r="K97" s="19" t="s">
@@ -4587,7 +4710,7 @@
       <c r="D98" t="s">
         <v>336</v>
       </c>
-      <c r="E98" s="38" t="s">
+      <c r="E98" s="17" t="s">
         <v>318</v>
       </c>
       <c r="K98" s="19" t="s">
@@ -4643,87 +4766,331 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="41">
+    <row r="101" spans="1:20" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" t="s">
+        <v>390</v>
+      </c>
+      <c r="C101" s="39">
         <v>45574</v>
       </c>
-      <c r="E101" s="42" t="s">
+      <c r="D101" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="E101" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="F101" s="43"/>
-      <c r="K101" s="44"/>
-      <c r="M101" s="45"/>
-      <c r="P101" s="43"/>
-      <c r="T101" s="46"/>
+      <c r="F101" s="41"/>
+      <c r="K101" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M101" s="42"/>
+      <c r="P101" s="41"/>
+      <c r="T101" s="45" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E102" s="39" t="s">
+      <c r="A102" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B102" t="s">
+        <v>391</v>
+      </c>
+      <c r="C102" s="39">
+        <v>45574</v>
+      </c>
+      <c r="D102" t="s">
+        <v>376</v>
+      </c>
+      <c r="E102" s="37" t="s">
         <v>360</v>
       </c>
+      <c r="K102" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E103" s="39" t="s">
+      <c r="A103" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B103" t="s">
+        <v>392</v>
+      </c>
+      <c r="C103" s="39">
+        <v>45574</v>
+      </c>
+      <c r="D103" t="s">
+        <v>377</v>
+      </c>
+      <c r="E103" s="37" t="s">
         <v>361</v>
       </c>
+      <c r="K103" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="T103" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E104" s="39" t="s">
+      <c r="A104" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B104" t="s">
+        <v>393</v>
+      </c>
+      <c r="C104" s="39">
+        <v>45574</v>
+      </c>
+      <c r="D104" t="s">
+        <v>378</v>
+      </c>
+      <c r="E104" s="37" t="s">
         <v>362</v>
       </c>
+      <c r="K104" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T104" s="14" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E105" s="39" t="s">
+      <c r="A105" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B105" t="s">
+        <v>394</v>
+      </c>
+      <c r="C105" s="39">
+        <v>45574</v>
+      </c>
+      <c r="D105" t="s">
+        <v>379</v>
+      </c>
+      <c r="E105" s="37" t="s">
         <v>363</v>
       </c>
+      <c r="K105" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="T105" s="14" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E106" s="39" t="s">
+      <c r="A106" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B106" t="s">
+        <v>395</v>
+      </c>
+      <c r="C106" s="5">
+        <v>45574</v>
+      </c>
+      <c r="D106" t="s">
+        <v>380</v>
+      </c>
+      <c r="E106" s="37" t="s">
         <v>364</v>
       </c>
+      <c r="K106" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T106" s="14" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E107" s="39" t="s">
+      <c r="A107" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B107" t="s">
+        <v>396</v>
+      </c>
+      <c r="C107" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D107" t="s">
+        <v>381</v>
+      </c>
+      <c r="E107" s="37" t="s">
         <v>365</v>
       </c>
+      <c r="K107" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="T107" s="14" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="39" t="s">
+      <c r="A108" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" t="s">
+        <v>397</v>
+      </c>
+      <c r="C108" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D108" t="s">
+        <v>382</v>
+      </c>
+      <c r="E108" s="37" t="s">
         <v>366</v>
       </c>
+      <c r="K108" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="T108" s="14" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E109" s="39" t="s">
+      <c r="A109" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C109" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D109" t="s">
+        <v>383</v>
+      </c>
+      <c r="E109" s="37" t="s">
         <v>367</v>
       </c>
+      <c r="K109" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T109" s="14" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E110" s="39" t="s">
+      <c r="A110" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B110" t="s">
+        <v>399</v>
+      </c>
+      <c r="C110" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D110" t="s">
+        <v>384</v>
+      </c>
+      <c r="E110" s="37" t="s">
         <v>368</v>
       </c>
+      <c r="K110" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E111" s="39" t="s">
+      <c r="A111" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B111" t="s">
+        <v>400</v>
+      </c>
+      <c r="C111" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D111" t="s">
+        <v>385</v>
+      </c>
+      <c r="E111" s="37" t="s">
         <v>369</v>
       </c>
+      <c r="K111" s="19" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E112" s="39" t="s">
+      <c r="A112" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" t="s">
+        <v>401</v>
+      </c>
+      <c r="C112" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D112" t="s">
+        <v>386</v>
+      </c>
+      <c r="E112" s="37" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="113" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E113" s="39" t="s">
+      <c r="K112" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" t="s">
+        <v>402</v>
+      </c>
+      <c r="C113" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D113" t="s">
+        <v>387</v>
+      </c>
+      <c r="E113" s="37" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="114" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E114" s="39" t="s">
+      <c r="K113" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" t="s">
+        <v>403</v>
+      </c>
+      <c r="C114" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D114" t="s">
+        <v>388</v>
+      </c>
+      <c r="E114" s="37" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="115" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E115" s="39" t="s">
+      <c r="K114" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" t="s">
+        <v>404</v>
+      </c>
+      <c r="C115" s="44">
+        <v>45574</v>
+      </c>
+      <c r="D115" t="s">
+        <v>389</v>
+      </c>
+      <c r="E115" s="37" t="s">
         <v>373</v>
+      </c>
+      <c r="K115" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C5A159-1043-B341-AEC3-B70E3D3FD1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436BCCA4-BBC3-B94E-92E1-BB7009BBB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="7400" windowWidth="22820" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25140" yWindow="0" windowWidth="25140" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="414">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1273,7 +1273,10 @@
     <t>blood, swapped phot 18 with 27, getting more experiences</t>
   </si>
   <si>
-    <t>getting more experiences</t>
+    <t>getting more experiences (messaged)</t>
+  </si>
+  <si>
+    <t>X (messaged)</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1488,6 +1491,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,10 +1721,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
+      <selection pane="bottomRight" activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1727,10 +1733,10 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="10" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="20" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="35"/>
@@ -4784,7 +4790,7 @@
       </c>
       <c r="F101" s="41"/>
       <c r="K101" s="46" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M101" s="42"/>
       <c r="P101" s="41"/>
@@ -4809,7 +4815,10 @@
         <v>360</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M102" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4854,6 +4863,9 @@
       <c r="K104" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="M104" s="47" t="s">
+        <v>413</v>
+      </c>
       <c r="T104" s="14" t="s">
         <v>405</v>
       </c>
@@ -4900,6 +4912,9 @@
       <c r="K106" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="M106" s="32" t="s">
+        <v>413</v>
+      </c>
       <c r="T106" s="14" t="s">
         <v>406</v>
       </c>
@@ -4921,7 +4936,7 @@
         <v>365</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="T107" s="14" t="s">
         <v>409</v>
@@ -4969,6 +4984,9 @@
       <c r="K109" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="M109" s="32" t="s">
+        <v>413</v>
+      </c>
       <c r="T109" s="14" t="s">
         <v>405</v>
       </c>
@@ -4990,7 +5008,10 @@
         <v>368</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M110" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5010,7 +5031,7 @@
         <v>369</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5033,7 +5054,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="43" t="s">
         <v>374</v>
       </c>
@@ -5050,10 +5071,10 @@
         <v>371</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="43" t="s">
         <v>374</v>
       </c>
@@ -5070,10 +5091,10 @@
         <v>372</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="43" t="s">
         <v>374</v>
       </c>
@@ -5090,7 +5111,10 @@
         <v>373</v>
       </c>
       <c r="K115" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M115" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436BCCA4-BBC3-B94E-92E1-BB7009BBB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB377B-8527-4B4A-BDFA-E5AA1581E0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25140" yWindow="0" windowWidth="25140" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="414">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1410,7 +1410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1481,9 +1481,6 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1491,9 +1488,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1724,7 +1718,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K107" sqref="K107"/>
+      <selection pane="bottomRight" activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4773,7 +4767,7 @@
       </c>
     </row>
     <row r="101" spans="1:20" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="43" t="s">
+      <c r="A101" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B101" t="s">
@@ -4789,17 +4783,19 @@
         <v>359</v>
       </c>
       <c r="F101" s="41"/>
-      <c r="K101" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="42"/>
+      <c r="K101" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="P101" s="41"/>
-      <c r="T101" s="45" t="s">
+      <c r="T101" s="44" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B102" t="s">
@@ -4822,7 +4818,7 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="43" t="s">
+      <c r="A103" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B103" t="s">
@@ -4845,7 +4841,7 @@
       </c>
     </row>
     <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B104" t="s">
@@ -4863,7 +4859,7 @@
       <c r="K104" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M104" s="47" t="s">
+      <c r="M104" s="32" t="s">
         <v>413</v>
       </c>
       <c r="T104" s="14" t="s">
@@ -4871,7 +4867,7 @@
       </c>
     </row>
     <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B105" t="s">
@@ -4887,14 +4883,14 @@
         <v>363</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="T105" s="14" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="43" t="s">
+      <c r="A106" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B106" t="s">
@@ -4920,13 +4916,13 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B107" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="44">
+      <c r="C107" s="43">
         <v>45574</v>
       </c>
       <c r="D107" t="s">
@@ -4936,20 +4932,20 @@
         <v>365</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T107" s="14" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="43" t="s">
+      <c r="A108" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B108" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="44">
+      <c r="C108" s="43">
         <v>45574</v>
       </c>
       <c r="D108" t="s">
@@ -4959,20 +4955,20 @@
         <v>366</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="T108" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="43" t="s">
+      <c r="A109" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C109" s="44">
+      <c r="C109" s="43">
         <v>45574</v>
       </c>
       <c r="D109" t="s">
@@ -4992,13 +4988,13 @@
       </c>
     </row>
     <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="43" t="s">
+      <c r="A110" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B110" t="s">
         <v>399</v>
       </c>
-      <c r="C110" s="44">
+      <c r="C110" s="43">
         <v>45574</v>
       </c>
       <c r="D110" t="s">
@@ -5015,13 +5011,13 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="43" t="s">
+      <c r="A111" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B111" t="s">
         <v>400</v>
       </c>
-      <c r="C111" s="44">
+      <c r="C111" s="43">
         <v>45574</v>
       </c>
       <c r="D111" t="s">
@@ -5031,17 +5027,20 @@
         <v>369</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M111" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="43" t="s">
+      <c r="A112" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B112" t="s">
         <v>401</v>
       </c>
-      <c r="C112" s="44">
+      <c r="C112" s="43">
         <v>45574</v>
       </c>
       <c r="D112" t="s">
@@ -5055,13 +5054,13 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="43" t="s">
+      <c r="A113" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B113" t="s">
         <v>402</v>
       </c>
-      <c r="C113" s="44">
+      <c r="C113" s="43">
         <v>45574</v>
       </c>
       <c r="D113" t="s">
@@ -5075,13 +5074,13 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="43" t="s">
+      <c r="A114" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B114" t="s">
         <v>403</v>
       </c>
-      <c r="C114" s="44">
+      <c r="C114" s="43">
         <v>45574</v>
       </c>
       <c r="D114" t="s">
@@ -5091,17 +5090,20 @@
         <v>372</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M114" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B115" t="s">
         <v>404</v>
       </c>
-      <c r="C115" s="44">
+      <c r="C115" s="43">
         <v>45574</v>
       </c>
       <c r="D115" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB377B-8527-4B4A-BDFA-E5AA1581E0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B4FDF-2F03-F541-A1DC-89C4177C9641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25140" yWindow="0" windowWidth="25140" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33320" yWindow="2560" windowWidth="25140" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="414">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1718,7 +1718,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K109" sqref="K109"/>
+      <selection pane="bottomRight" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4883,7 +4883,7 @@
         <v>363</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T105" s="14" t="s">
         <v>408</v>
@@ -4934,6 +4934,9 @@
       <c r="K107" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M107" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T107" s="14" t="s">
         <v>409</v>
       </c>
@@ -4955,7 +4958,10 @@
         <v>366</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M108" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="T108" s="14" t="s">
         <v>411</v>
@@ -5050,7 +5056,7 @@
         <v>370</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B4FDF-2F03-F541-A1DC-89C4177C9641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353CD75C-BFC4-7149-A6A2-FDBD906BD2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33320" yWindow="2560" windowWidth="25140" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="413">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1271,9 +1271,6 @@
   </si>
   <si>
     <t>blood, swapped phot 18 with 27, getting more experiences</t>
-  </si>
-  <si>
-    <t>getting more experiences (messaged)</t>
   </si>
   <si>
     <t>X (messaged)</t>
@@ -1366,7 +1363,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,6 +1394,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1410,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1489,6 +1498,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,7 +1730,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K113" sqref="K113"/>
+      <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4830,11 +4842,11 @@
       <c r="D103" t="s">
         <v>377</v>
       </c>
-      <c r="E103" s="37" t="s">
+      <c r="E103" s="46" t="s">
         <v>361</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="T103" s="14" t="s">
         <v>410</v>
@@ -4860,7 +4872,7 @@
         <v>92</v>
       </c>
       <c r="M104" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T104" s="14" t="s">
         <v>405</v>
@@ -4885,6 +4897,9 @@
       <c r="K105" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M105" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T105" s="14" t="s">
         <v>408</v>
       </c>
@@ -4909,7 +4924,7 @@
         <v>92</v>
       </c>
       <c r="M106" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T106" s="14" t="s">
         <v>406</v>
@@ -4987,7 +5002,7 @@
         <v>92</v>
       </c>
       <c r="M109" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T109" s="14" t="s">
         <v>405</v>
@@ -5052,11 +5067,14 @@
       <c r="D112" t="s">
         <v>386</v>
       </c>
-      <c r="E112" s="37" t="s">
+      <c r="E112" s="48" t="s">
         <v>370</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M112" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5072,7 +5090,7 @@
       <c r="D113" t="s">
         <v>387</v>
       </c>
-      <c r="E113" s="37" t="s">
+      <c r="E113" s="47" t="s">
         <v>371</v>
       </c>
       <c r="K113" s="19" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353CD75C-BFC4-7149-A6A2-FDBD906BD2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D651BE43-1A4F-EE43-8EDC-7AFC6536A7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1500,7 +1500,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,7 +1726,7 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
@@ -5067,7 +5066,7 @@
       <c r="D112" t="s">
         <v>386</v>
       </c>
-      <c r="E112" s="48" t="s">
+      <c r="E112" s="37" t="s">
         <v>370</v>
       </c>
       <c r="K112" s="19" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353CD75C-BFC4-7149-A6A2-FDBD906BD2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720940EE-530D-3940-A576-0DC5569C6F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="422">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1274,6 +1274,33 @@
   </si>
   <si>
     <t>X (messaged)</t>
+  </si>
+  <si>
+    <t>66c95504723c57c900715764</t>
+  </si>
+  <si>
+    <t>66678306aff08da8a359a39c</t>
+  </si>
+  <si>
+    <t>66b6da89f02edac5f7c4963d</t>
+  </si>
+  <si>
+    <t>5efe8c25e921d23a9daec079</t>
+  </si>
+  <si>
+    <t>66f345d99f77fd011b0d1e10</t>
+  </si>
+  <si>
+    <t>65d659edd2fb402f9170d123</t>
+  </si>
+  <si>
+    <t>66661b49621ea96feaf4f6f3</t>
+  </si>
+  <si>
+    <t>66f0bbf2ad2ccf85f492cbcb</t>
+  </si>
+  <si>
+    <t>66dc48cea9a85fe230c06b5f</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1390,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,30 +1409,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E7FD"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1419,7 +1422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1486,21 +1489,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,10 +1730,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
+      <selection pane="bottomRight" activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4778,42 +4781,42 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="42" t="s">
+    <row r="101" spans="1:20" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="C101" s="39">
+      <c r="C101" s="40">
         <v>45574</v>
       </c>
-      <c r="D101" s="38" t="s">
+      <c r="D101" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="E101" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="F101" s="41"/>
-      <c r="K101" s="45" t="s">
+      <c r="F101" s="42"/>
+      <c r="K101" s="43" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="P101" s="41"/>
-      <c r="T101" s="44" t="s">
+      <c r="P101" s="42"/>
+      <c r="T101" s="45" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="C102" s="39">
+      <c r="C102" s="40">
         <v>45574</v>
       </c>
       <c r="D102" t="s">
@@ -4830,36 +4833,37 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="C103" s="39">
+      <c r="C103" s="40">
         <v>45574</v>
       </c>
       <c r="D103" t="s">
         <v>377</v>
       </c>
-      <c r="E103" s="46" t="s">
+      <c r="E103" s="41" t="s">
         <v>361</v>
       </c>
       <c r="K103" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="M103" s="44"/>
       <c r="T103" s="14" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="C104" s="39">
+      <c r="C104" s="40">
         <v>45574</v>
       </c>
       <c r="D104" t="s">
@@ -4879,13 +4883,13 @@
       </c>
     </row>
     <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C105" s="40">
         <v>45574</v>
       </c>
       <c r="D105" t="s">
@@ -4905,13 +4909,13 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="40">
         <v>45574</v>
       </c>
       <c r="D106" t="s">
@@ -4931,13 +4935,13 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="43">
+      <c r="C107" s="46">
         <v>45574</v>
       </c>
       <c r="D107" t="s">
@@ -4957,13 +4961,13 @@
       </c>
     </row>
     <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="43">
+      <c r="C108" s="46">
         <v>45574</v>
       </c>
       <c r="D108" t="s">
@@ -4983,13 +4987,13 @@
       </c>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="C109" s="43">
+      <c r="C109" s="46">
         <v>45574</v>
       </c>
       <c r="D109" t="s">
@@ -5009,13 +5013,13 @@
       </c>
     </row>
     <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="42" t="s">
+      <c r="A110" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="C110" s="43">
+      <c r="C110" s="46">
         <v>45574</v>
       </c>
       <c r="D110" t="s">
@@ -5032,13 +5036,13 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="C111" s="43">
+      <c r="C111" s="46">
         <v>45574</v>
       </c>
       <c r="D111" t="s">
@@ -5055,19 +5059,19 @@
       </c>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="C112" s="43">
+      <c r="C112" s="46">
         <v>45574</v>
       </c>
       <c r="D112" t="s">
         <v>386</v>
       </c>
-      <c r="E112" s="48" t="s">
+      <c r="E112" s="37" t="s">
         <v>370</v>
       </c>
       <c r="K112" s="19" t="s">
@@ -5078,33 +5082,36 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="C113" s="43">
+      <c r="C113" s="46">
         <v>45574</v>
       </c>
       <c r="D113" t="s">
         <v>387</v>
       </c>
-      <c r="E113" s="47" t="s">
+      <c r="E113" s="41" t="s">
         <v>371</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M113" s="31" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="C114" s="43">
+      <c r="C114" s="46">
         <v>45574</v>
       </c>
       <c r="D114" t="s">
@@ -5121,13 +5128,13 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="C115" s="43">
+      <c r="C115" s="46">
         <v>45574</v>
       </c>
       <c r="D115" t="s">
@@ -5141,6 +5148,51 @@
       </c>
       <c r="M115" s="31" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E116" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E118" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E120" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E121" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E122" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E123" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D651BE43-1A4F-EE43-8EDC-7AFC6536A7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4647680D-CE4B-994B-BDE2-0F1AB5884988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="422">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1274,6 +1274,33 @@
   </si>
   <si>
     <t>X (messaged)</t>
+  </si>
+  <si>
+    <t>66c95504723c57c900715764</t>
+  </si>
+  <si>
+    <t>66678306aff08da8a359a39c</t>
+  </si>
+  <si>
+    <t>66b6da89f02edac5f7c4963d</t>
+  </si>
+  <si>
+    <t>5efe8c25e921d23a9daec079</t>
+  </si>
+  <si>
+    <t>66f345d99f77fd011b0d1e10</t>
+  </si>
+  <si>
+    <t>65d659edd2fb402f9170d123</t>
+  </si>
+  <si>
+    <t>66661b49621ea96feaf4f6f3</t>
+  </si>
+  <si>
+    <t>66f0bbf2ad2ccf85f492cbcb</t>
+  </si>
+  <si>
+    <t>66dc48cea9a85fe230c06b5f</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1390,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,25 +1411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E7FD"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,20 +1495,22 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,7 +1737,7 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
@@ -4777,42 +4788,42 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="42" t="s">
+    <row r="101" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="C101" s="39">
+      <c r="C101" s="41">
         <v>45574</v>
       </c>
-      <c r="D101" s="38" t="s">
+      <c r="D101" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="E101" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="F101" s="41"/>
+      <c r="F101" s="44"/>
       <c r="K101" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="31" t="s">
+      <c r="M101" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="P101" s="41"/>
-      <c r="T101" s="44" t="s">
+      <c r="P101" s="44"/>
+      <c r="T101" s="47" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="C102" s="39">
+      <c r="C102" s="41">
         <v>45574</v>
       </c>
       <c r="D102" t="s">
@@ -4829,36 +4840,36 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="C103" s="39">
+      <c r="C103" s="41">
         <v>45574</v>
       </c>
       <c r="D103" t="s">
         <v>377</v>
       </c>
-      <c r="E103" s="46" t="s">
+      <c r="E103" s="38" t="s">
         <v>361</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T103" s="14" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="C104" s="39">
+      <c r="C104" s="41">
         <v>45574</v>
       </c>
       <c r="D104" t="s">
@@ -4878,13 +4889,13 @@
       </c>
     </row>
     <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C105" s="41">
         <v>45574</v>
       </c>
       <c r="D105" t="s">
@@ -4904,13 +4915,13 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="41">
         <v>45574</v>
       </c>
       <c r="D106" t="s">
@@ -4930,13 +4941,13 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="43">
+      <c r="C107" s="42">
         <v>45574</v>
       </c>
       <c r="D107" t="s">
@@ -4956,13 +4967,13 @@
       </c>
     </row>
     <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="43">
+      <c r="C108" s="42">
         <v>45574</v>
       </c>
       <c r="D108" t="s">
@@ -4982,13 +4993,13 @@
       </c>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="C109" s="43">
+      <c r="C109" s="42">
         <v>45574</v>
       </c>
       <c r="D109" t="s">
@@ -5008,13 +5019,13 @@
       </c>
     </row>
     <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="42" t="s">
+      <c r="A110" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="C110" s="43">
+      <c r="C110" s="42">
         <v>45574</v>
       </c>
       <c r="D110" t="s">
@@ -5031,13 +5042,13 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="C111" s="43">
+      <c r="C111" s="42">
         <v>45574</v>
       </c>
       <c r="D111" t="s">
@@ -5054,13 +5065,13 @@
       </c>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="C112" s="43">
+      <c r="C112" s="42">
         <v>45574</v>
       </c>
       <c r="D112" t="s">
@@ -5077,33 +5088,36 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="C113" s="43">
+      <c r="C113" s="42">
         <v>45574</v>
       </c>
       <c r="D113" t="s">
         <v>387</v>
       </c>
-      <c r="E113" s="47" t="s">
+      <c r="E113" s="43" t="s">
         <v>371</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M113" s="31" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="C114" s="43">
+      <c r="C114" s="42">
         <v>45574</v>
       </c>
       <c r="D114" t="s">
@@ -5120,13 +5134,13 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="C115" s="43">
+      <c r="C115" s="42">
         <v>45574</v>
       </c>
       <c r="D115" t="s">
@@ -5140,6 +5154,51 @@
       </c>
       <c r="M115" s="31" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E116" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E118" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E120" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E121" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E122" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E123" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4647680D-CE4B-994B-BDE2-0F1AB5884988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96002DD-C536-2A48-9C23-B6B5D5523BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12260" yWindow="1200" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="446">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1301,6 +1301,78 @@
   </si>
   <si>
     <t>66dc48cea9a85fe230c06b5f</t>
+  </si>
+  <si>
+    <t>LL/SB</t>
+  </si>
+  <si>
+    <t>R_5lrW4urx38HZ8c2</t>
+  </si>
+  <si>
+    <t>R_5GtqZUBY3ELLpVD</t>
+  </si>
+  <si>
+    <t>R_5Vx4QPBjC0dZvhf</t>
+  </si>
+  <si>
+    <t>R_6awrHHAetGlhQkx</t>
+  </si>
+  <si>
+    <t>R_32EXtjZapiCOzG6</t>
+  </si>
+  <si>
+    <t>R_3Baf4ZW0ZGGtb2K</t>
+  </si>
+  <si>
+    <t>R_7Gs8CBc6BwPEnKN</t>
+  </si>
+  <si>
+    <t>R_1CVLHWtLxAx5GbJ</t>
+  </si>
+  <si>
+    <t>R_6Q414HG2boLX4In</t>
+  </si>
+  <si>
+    <t>R_3rB0fgXlsImHn4W</t>
+  </si>
+  <si>
+    <t>R_3as6qJpHH08p3Y5</t>
+  </si>
+  <si>
+    <t>R_3CCnLQQRNsvoWPL</t>
+  </si>
+  <si>
+    <t>R_3wGllbGCCY0X4QO</t>
+  </si>
+  <si>
+    <t>R_76TTAr0MISw3sRz</t>
+  </si>
+  <si>
+    <t>R_5yTAGiWUs2nt7BT</t>
+  </si>
+  <si>
+    <t>R_3330ZX4dpWGemlu</t>
+  </si>
+  <si>
+    <t>R_5ByP8v0cAvJKkUN</t>
+  </si>
+  <si>
+    <t>R_5DnaHAeW4RTLyE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check photo names- duplicate photos </t>
+  </si>
+  <si>
+    <t>do not use - uploaded same picture all 32 submissions</t>
+  </si>
+  <si>
+    <t>alcohol, replaced 6 with 26</t>
+  </si>
+  <si>
+    <t>getting more experiences</t>
+  </si>
+  <si>
+    <t>profanity - replaced 12 with 26, getting more experiences</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1496,21 +1568,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1737,10 +1795,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
+      <selection pane="bottomRight" activeCell="N124" sqref="N124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4788,42 +4846,40 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="39" t="s">
+    <row r="101" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B101" s="40" t="s">
+      <c r="B101" t="s">
         <v>390</v>
       </c>
-      <c r="C101" s="41">
+      <c r="C101" s="5">
         <v>45574</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D101" t="s">
         <v>375</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="F101" s="44"/>
-      <c r="K101" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="46" t="s">
+      <c r="K101" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="P101" s="44"/>
-      <c r="T101" s="47" t="s">
+      <c r="T101" s="14" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="39" t="s">
+      <c r="A102" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" t="s">
         <v>391</v>
       </c>
-      <c r="C102" s="41">
+      <c r="C102" s="5">
         <v>45574</v>
       </c>
       <c r="D102" t="s">
@@ -4840,13 +4896,13 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="39" t="s">
+      <c r="A103" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B103" s="40" t="s">
+      <c r="B103" t="s">
         <v>392</v>
       </c>
-      <c r="C103" s="41">
+      <c r="C103" s="5">
         <v>45574</v>
       </c>
       <c r="D103" t="s">
@@ -4863,13 +4919,13 @@
       </c>
     </row>
     <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B104" s="40" t="s">
+      <c r="B104" t="s">
         <v>393</v>
       </c>
-      <c r="C104" s="41">
+      <c r="C104" s="5">
         <v>45574</v>
       </c>
       <c r="D104" t="s">
@@ -4889,13 +4945,13 @@
       </c>
     </row>
     <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B105" s="40" t="s">
+      <c r="B105" t="s">
         <v>394</v>
       </c>
-      <c r="C105" s="41">
+      <c r="C105" s="5">
         <v>45574</v>
       </c>
       <c r="D105" t="s">
@@ -4915,13 +4971,13 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" t="s">
         <v>395</v>
       </c>
-      <c r="C106" s="41">
+      <c r="C106" s="5">
         <v>45574</v>
       </c>
       <c r="D106" t="s">
@@ -4941,13 +4997,13 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B107" s="40" t="s">
+      <c r="B107" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="42">
+      <c r="C107" s="26">
         <v>45574</v>
       </c>
       <c r="D107" t="s">
@@ -4967,13 +5023,13 @@
       </c>
     </row>
     <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="39" t="s">
+      <c r="A108" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="42">
+      <c r="C108" s="26">
         <v>45574</v>
       </c>
       <c r="D108" t="s">
@@ -4993,13 +5049,13 @@
       </c>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="39" t="s">
+      <c r="A109" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C109" s="42">
+      <c r="C109" s="26">
         <v>45574</v>
       </c>
       <c r="D109" t="s">
@@ -5019,13 +5075,13 @@
       </c>
     </row>
     <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B110" t="s">
         <v>399</v>
       </c>
-      <c r="C110" s="42">
+      <c r="C110" s="26">
         <v>45574</v>
       </c>
       <c r="D110" t="s">
@@ -5042,13 +5098,13 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B111" t="s">
         <v>400</v>
       </c>
-      <c r="C111" s="42">
+      <c r="C111" s="26">
         <v>45574</v>
       </c>
       <c r="D111" t="s">
@@ -5065,13 +5121,13 @@
       </c>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="39" t="s">
+      <c r="A112" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B112" s="40" t="s">
+      <c r="B112" t="s">
         <v>401</v>
       </c>
-      <c r="C112" s="42">
+      <c r="C112" s="26">
         <v>45574</v>
       </c>
       <c r="D112" t="s">
@@ -5087,20 +5143,20 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="39" t="s">
+    <row r="113" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" t="s">
         <v>402</v>
       </c>
-      <c r="C113" s="42">
+      <c r="C113" s="26">
         <v>45574</v>
       </c>
       <c r="D113" t="s">
         <v>387</v>
       </c>
-      <c r="E113" s="43" t="s">
+      <c r="E113" s="37" t="s">
         <v>371</v>
       </c>
       <c r="K113" s="19" t="s">
@@ -5110,14 +5166,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="39" t="s">
+    <row r="114" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B114" s="40" t="s">
+      <c r="B114" t="s">
         <v>403</v>
       </c>
-      <c r="C114" s="42">
+      <c r="C114" s="26">
         <v>45574</v>
       </c>
       <c r="D114" t="s">
@@ -5133,14 +5189,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="39" t="s">
+    <row r="115" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B115" s="40" t="s">
+      <c r="B115" t="s">
         <v>404</v>
       </c>
-      <c r="C115" s="42">
+      <c r="C115" s="26">
         <v>45574</v>
       </c>
       <c r="D115" t="s">
@@ -5156,49 +5212,205 @@
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E116" t="s">
+    <row r="116" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B116" t="s">
+        <v>432</v>
+      </c>
+      <c r="C116" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D116" t="s">
+        <v>423</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E117" t="s">
+      <c r="K116" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>422</v>
+      </c>
+      <c r="B117" t="s">
+        <v>433</v>
+      </c>
+      <c r="C117" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D117" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E118" t="s">
+      <c r="K117" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="T117" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>422</v>
+      </c>
+      <c r="B118" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D118" t="s">
+        <v>425</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" t="s">
+      <c r="K118" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T118" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>422</v>
+      </c>
+      <c r="B119" t="s">
+        <v>435</v>
+      </c>
+      <c r="C119" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D119" t="s">
+        <v>426</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E120" t="s">
+      <c r="K119" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="T119" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>422</v>
+      </c>
+      <c r="B120" t="s">
+        <v>436</v>
+      </c>
+      <c r="C120" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D120" t="s">
+        <v>427</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E121" t="s">
+      <c r="K120" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="T120" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>422</v>
+      </c>
+      <c r="B121" t="s">
+        <v>437</v>
+      </c>
+      <c r="C121" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D121" t="s">
+        <v>428</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E122" t="s">
+      <c r="K121" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>422</v>
+      </c>
+      <c r="B122" t="s">
+        <v>438</v>
+      </c>
+      <c r="C122" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D122" t="s">
+        <v>429</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E123" t="s">
+      <c r="K122" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T122" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>422</v>
+      </c>
+      <c r="B123" t="s">
+        <v>439</v>
+      </c>
+      <c r="C123" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D123" t="s">
+        <v>430</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" t="s">
+      <c r="K123" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="T123" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>422</v>
+      </c>
+      <c r="B124" t="s">
+        <v>440</v>
+      </c>
+      <c r="C124" s="39">
+        <v>45581</v>
+      </c>
+      <c r="D124" t="s">
+        <v>431</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>421</v>
+      </c>
+      <c r="K124" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="T124" s="14" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96002DD-C536-2A48-9C23-B6B5D5523BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23A0FA-0BE6-A342-9220-7C37AE499250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="1200" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37860" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1798,7 +1798,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N124" sqref="N124"/>
+      <selection pane="bottomRight" activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5229,7 +5229,7 @@
         <v>413</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23A0FA-0BE6-A342-9220-7C37AE499250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E40126C-5727-E54A-8434-404A71B5748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37860" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="450">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1369,10 +1369,22 @@
     <t>alcohol, replaced 6 with 26</t>
   </si>
   <si>
-    <t>getting more experiences</t>
-  </si>
-  <si>
-    <t>profanity - replaced 12 with 26, getting more experiences</t>
+    <t>getting more experiences (Messaged)</t>
+  </si>
+  <si>
+    <t>getting more experiences, two non social activities included other people</t>
+  </si>
+  <si>
+    <t>getting more experiences (messaged)</t>
+  </si>
+  <si>
+    <t>profanity - replaced 12 with 26, getting more experiences, did not name people for social activities and submitted 4 unsure responses for social activities</t>
+  </si>
+  <si>
+    <t>getting more experiences, did not name specific relationships for social activities</t>
+  </si>
+  <si>
+    <t>getting more experiences, had dog for one social activity</t>
   </si>
 </sst>
 </file>
@@ -1795,10 +1807,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K123" sqref="K123"/>
+      <selection pane="bottomRight" activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5229,7 +5241,10 @@
         <v>413</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M116" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5251,8 +5266,8 @@
       <c r="K117" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="T117" s="12" t="s">
-        <v>444</v>
+      <c r="T117" s="14" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5295,10 +5310,10 @@
         <v>416</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="T119" s="14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5343,6 +5358,9 @@
       <c r="K121" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M121" s="31" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="122" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
@@ -5363,6 +5381,9 @@
       <c r="K122" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M122" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T122" s="14" t="s">
         <v>443</v>
       </c>
@@ -5384,10 +5405,10 @@
         <v>420</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="T123" s="12" t="s">
-        <v>444</v>
+        <v>446</v>
+      </c>
+      <c r="T123" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5407,10 +5428,10 @@
         <v>421</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="T124" s="14" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E40126C-5727-E54A-8434-404A71B5748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4A8C1-D2DB-B742-81FD-3849F63AB95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33500" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="449">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1373,9 +1373,6 @@
   </si>
   <si>
     <t>getting more experiences, two non social activities included other people</t>
-  </si>
-  <si>
-    <t>getting more experiences (messaged)</t>
   </si>
   <si>
     <t>profanity - replaced 12 with 26, getting more experiences, did not name people for social activities and submitted 4 unsure responses for social activities</t>
@@ -1810,7 +1807,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K120" sqref="K120"/>
+      <selection pane="bottomRight" activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5310,10 +5307,10 @@
         <v>416</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T119" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5405,10 +5402,10 @@
         <v>420</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>446</v>
+        <v>27</v>
       </c>
       <c r="T123" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5428,10 +5425,10 @@
         <v>421</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T124" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4A8C1-D2DB-B742-81FD-3849F63AB95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24295A52-6BA3-A04C-B3C5-92D36D7997BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33500" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="1280" windowWidth="19600" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="465">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1382,6 +1382,54 @@
   </si>
   <si>
     <t>getting more experiences, had dog for one social activity</t>
+  </si>
+  <si>
+    <t>65b7ba948f5c3052140c24f8</t>
+  </si>
+  <si>
+    <t>66f2946d0e3eeda7aa13eaa7</t>
+  </si>
+  <si>
+    <t>668beeeac6158723009d2b8a</t>
+  </si>
+  <si>
+    <t>5a09ebdf087f2e0001eae39f</t>
+  </si>
+  <si>
+    <t>67094d6215b6d0fe3e8c3e39</t>
+  </si>
+  <si>
+    <t>613aad30bcfed65155a026ec</t>
+  </si>
+  <si>
+    <t>6659a014d39aad32def7c40f</t>
+  </si>
+  <si>
+    <t>663a7379aca69d9c20130cd1</t>
+  </si>
+  <si>
+    <t>667981cd5ba91c2ae804e4f3</t>
+  </si>
+  <si>
+    <t>66bb5ad727c62d0960db333c</t>
+  </si>
+  <si>
+    <t>66ae04ef7d4137f123b130c2</t>
+  </si>
+  <si>
+    <t>66a51bbce6016ac7f7686885</t>
+  </si>
+  <si>
+    <t>5e923888c38d4a574e72d716</t>
+  </si>
+  <si>
+    <t>670d326c55fa3d6f10ebe253</t>
+  </si>
+  <si>
+    <t>65624dbc33b93e2696f06d1f</t>
+  </si>
+  <si>
+    <t>6600a119385d8631c41cd795</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1439,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1470,6 +1518,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1509,7 +1563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1578,6 +1632,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1804,10 +1861,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K124" sqref="K124"/>
+      <selection pane="bottomRight" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5309,6 +5366,9 @@
       <c r="K119" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M119" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T119" s="14" t="s">
         <v>446</v>
       </c>
@@ -5402,7 +5462,10 @@
         <v>420</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M123" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="T123" s="14" t="s">
         <v>447</v>
@@ -5427,8 +5490,91 @@
       <c r="K124" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M124" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T124" s="14" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="40" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E126" s="40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E127" s="40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E128" s="40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E130" s="40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E131" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E134" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E135" s="41" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E136" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E137" s="42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E138" s="40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E139" s="40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E140" s="40" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24295A52-6BA3-A04C-B3C5-92D36D7997BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA0B0CC-8622-9C45-B3E1-FFE065DF90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="1280" windowWidth="19600" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="500" windowWidth="38000" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="505">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1430,6 +1430,126 @@
   </si>
   <si>
     <t>6600a119385d8631c41cd795</t>
+  </si>
+  <si>
+    <t>R_3BYglCWuFjzsBrM</t>
+  </si>
+  <si>
+    <t>R_1Hk6vbhhSso7CYy</t>
+  </si>
+  <si>
+    <t>R_3G2FjQzfF0oyoJN</t>
+  </si>
+  <si>
+    <t>R_3h69l2bMTGB4YNj</t>
+  </si>
+  <si>
+    <t>R_72EnrDSn9JjzDrP</t>
+  </si>
+  <si>
+    <t>R_60Jant4BQ9dBgvf</t>
+  </si>
+  <si>
+    <t>R_7QJJh3XMdRpUrmZ</t>
+  </si>
+  <si>
+    <t>R_5rjz5ValshQpfYI</t>
+  </si>
+  <si>
+    <t>R_6qlmB7hqgWkCSvX</t>
+  </si>
+  <si>
+    <t>R_3O7gBr3Gxyq63s0</t>
+  </si>
+  <si>
+    <t>R_3IcVCYh8h7M5Uo9</t>
+  </si>
+  <si>
+    <t>R_3TZ3MiwlQliIUW5</t>
+  </si>
+  <si>
+    <t>R_15YMj4PbtqyKPZL</t>
+  </si>
+  <si>
+    <t>R_6feELbjMlLl7yDv</t>
+  </si>
+  <si>
+    <t>R_1oe3o4ctxwQai6B</t>
+  </si>
+  <si>
+    <t>R_7P85yewm3oIZ2GS</t>
+  </si>
+  <si>
+    <t>R_7jbgqmvgh793YEp</t>
+  </si>
+  <si>
+    <t>R_12EbD0VTT0CsLKV</t>
+  </si>
+  <si>
+    <t>R_5ebrwertyTH61JB</t>
+  </si>
+  <si>
+    <t>R_33780AvewrH5ABq</t>
+  </si>
+  <si>
+    <t>R_7U722EMlP5AyR7X</t>
+  </si>
+  <si>
+    <t>R_5ZHxOb4Sv2aRrhp</t>
+  </si>
+  <si>
+    <t>R_3n117gVPtfG6250</t>
+  </si>
+  <si>
+    <t>R_2eQmsE3lmI40F8Z</t>
+  </si>
+  <si>
+    <t>R_5CdbIEcHAfbbsa5</t>
+  </si>
+  <si>
+    <t>R_55TGY1u45eQJSTf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in photo upload </t>
+  </si>
+  <si>
+    <t>not in photo upload</t>
+  </si>
+  <si>
+    <t>getting more experiences, social activities did not name specific social relationships (row 17, cell AM)</t>
+  </si>
+  <si>
+    <t>getting more experiences, nonsocial activites named people they did the activity with (row 15, cells S-T, V-W) &amp; social activities did not specify people they did the activity with (row 15, cells AH-AI)</t>
+  </si>
+  <si>
+    <t>getting more experiences, social activities did not specify relationships for activity (row 6, cells AH-AI, AK-AQ)</t>
+  </si>
+  <si>
+    <t>getting more experiences, social activities did not name speific relationships with activity (row 14, cells AJ-AQ)</t>
+  </si>
+  <si>
+    <t>getting more experiences, Social activities did not name relationships for activity (row 10, cells AH-AQ)</t>
+  </si>
+  <si>
+    <t>getting more experiences, social activities did not name relationship with activity (row 13, cell AQ)</t>
+  </si>
+  <si>
+    <t>getting more experiences, nonsocial activites "chat with friends" (row 12, cell W) &amp; Social activities did not specify relationships for activities (row 12, cells AH-AQ), none of their pictures are from their instagram</t>
+  </si>
+  <si>
+    <t>R_5lsgQWp31tWzXrd</t>
+  </si>
+  <si>
+    <t>R_7BPgvqKDDWxcKxf</t>
+  </si>
+  <si>
+    <t>R_75HLfmz2VOjELcI</t>
+  </si>
+  <si>
+    <t>R_7U2Z3ZqN6bgFq1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getting more experiences </t>
   </si>
 </sst>
 </file>
@@ -1861,10 +1981,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomRight" activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5498,84 +5618,351 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B125" t="s">
+        <v>479</v>
+      </c>
+      <c r="C125" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D125" t="s">
+        <v>465</v>
+      </c>
       <c r="E125" s="40" t="s">
         <v>449</v>
       </c>
+      <c r="K125" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="T125" s="14" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="126" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B126" t="s">
+        <v>480</v>
+      </c>
+      <c r="C126" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D126" t="s">
+        <v>466</v>
+      </c>
       <c r="E126" s="40" t="s">
         <v>450</v>
       </c>
+      <c r="K126" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="T126" s="14" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="127" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" t="s">
+        <v>481</v>
+      </c>
+      <c r="C127" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D127" t="s">
+        <v>467</v>
+      </c>
       <c r="E127" s="40" t="s">
         <v>451</v>
       </c>
+      <c r="K127" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="T127" s="14" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="128" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B128" t="s">
+        <v>482</v>
+      </c>
+      <c r="C128" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D128" t="s">
+        <v>468</v>
+      </c>
       <c r="E128" s="40" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="129" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K128" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T128" s="14"/>
+    </row>
+    <row r="129" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B129" t="s">
+        <v>483</v>
+      </c>
+      <c r="C129" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D129" t="s">
+        <v>469</v>
+      </c>
       <c r="E129" s="40" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="130" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K129" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B130" t="s">
+        <v>484</v>
+      </c>
+      <c r="C130" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D130" t="s">
+        <v>470</v>
+      </c>
       <c r="E130" s="40" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="131" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K130" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B131" t="s">
+        <v>485</v>
+      </c>
+      <c r="C131" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D131" t="s">
+        <v>471</v>
+      </c>
       <c r="E131" s="17" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="132" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K131" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T131" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B132" t="s">
+        <v>486</v>
+      </c>
+      <c r="C132" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D132" t="s">
+        <v>472</v>
+      </c>
       <c r="E132" s="17" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="133" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K132" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B133" t="s">
+        <v>487</v>
+      </c>
+      <c r="C133" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D133" t="s">
+        <v>473</v>
+      </c>
       <c r="E133" s="17" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="134" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K133" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B134" t="s">
+        <v>488</v>
+      </c>
+      <c r="C134" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D134" t="s">
+        <v>474</v>
+      </c>
       <c r="E134" s="17" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="135" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K134" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="T134" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D135" t="s">
+        <v>475</v>
+      </c>
       <c r="E135" s="41" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="136" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K135" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T135" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C136" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D136" t="s">
+        <v>476</v>
+      </c>
       <c r="E136" s="41" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="137" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K136" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T136" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B137" t="s">
+        <v>489</v>
+      </c>
+      <c r="C137" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D137" t="s">
+        <v>477</v>
+      </c>
       <c r="E137" s="42" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="138" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K137" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B138" t="s">
+        <v>490</v>
+      </c>
+      <c r="C138" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D138" t="s">
+        <v>478</v>
+      </c>
       <c r="E138" s="40" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="139" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K138" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="T138" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B139" t="s">
+        <v>501</v>
+      </c>
+      <c r="C139" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D139" t="s">
+        <v>502</v>
+      </c>
       <c r="E139" s="40" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="140" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K139" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T139" s="14"/>
+    </row>
+    <row r="140" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B140" t="s">
+        <v>500</v>
+      </c>
+      <c r="C140" s="39">
+        <v>45588</v>
+      </c>
+      <c r="D140" t="s">
+        <v>503</v>
+      </c>
       <c r="E140" s="40" t="s">
         <v>464</v>
       </c>
+      <c r="K140" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T140" s="14"/>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1048575" s="5"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA0B0CC-8622-9C45-B3E1-FFE065DF90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955EEFA9-A124-714E-B4B3-8981F169C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="500" windowWidth="38000" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="240" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="507">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1531,9 +1531,6 @@
     <t>getting more experiences, Social activities did not name relationships for activity (row 10, cells AH-AQ)</t>
   </si>
   <si>
-    <t>getting more experiences, social activities did not name relationship with activity (row 13, cell AQ)</t>
-  </si>
-  <si>
     <t>getting more experiences, nonsocial activites "chat with friends" (row 12, cell W) &amp; Social activities did not specify relationships for activities (row 12, cells AH-AQ), none of their pictures are from their instagram</t>
   </si>
   <si>
@@ -1549,7 +1546,16 @@
     <t>R_7U2Z3ZqN6bgFq1k</t>
   </si>
   <si>
-    <t xml:space="preserve">getting more experiences </t>
+    <t>messaged - do not use</t>
+  </si>
+  <si>
+    <t>getting more experiences - messaged</t>
+  </si>
+  <si>
+    <t>getting more experiences -messaged</t>
+  </si>
+  <si>
+    <t>getting more experiences, social activities did not name relationship with activity (row 13, cell AQ), checked and experiences are ok</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1651,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1670,6 +1676,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1683,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1754,7 +1766,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1981,10 +1995,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K140" sqref="K140"/>
+      <selection pane="bottomRight" activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5461,7 +5475,7 @@
         <v>415</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>92</v>
+        <v>503</v>
       </c>
       <c r="T118" s="14" t="s">
         <v>442</v>
@@ -5510,7 +5524,7 @@
         <v>417</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
       <c r="T120" s="14" t="s">
         <v>441</v>
@@ -5634,7 +5648,7 @@
         <v>449</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>504</v>
+        <v>27</v>
       </c>
       <c r="T125" s="14" t="s">
         <v>493</v>
@@ -5699,11 +5713,11 @@
       <c r="D128" t="s">
         <v>468</v>
       </c>
-      <c r="E128" s="40" t="s">
+      <c r="E128" s="42" t="s">
         <v>452</v>
       </c>
       <c r="K128" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T128" s="14"/>
     </row>
@@ -5720,11 +5734,11 @@
       <c r="D129" t="s">
         <v>469</v>
       </c>
-      <c r="E129" s="40" t="s">
+      <c r="E129" s="42" t="s">
         <v>453</v>
       </c>
       <c r="K129" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5740,11 +5754,11 @@
       <c r="D130" t="s">
         <v>470</v>
       </c>
-      <c r="E130" s="40" t="s">
+      <c r="E130" s="42" t="s">
         <v>454</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5767,7 +5781,7 @@
         <v>92</v>
       </c>
       <c r="T131" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5787,7 +5801,7 @@
         <v>456</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -5809,11 +5823,11 @@
       <c r="D133" t="s">
         <v>473</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E133" s="44" t="s">
         <v>457</v>
       </c>
       <c r="K133" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5892,11 +5906,11 @@
       <c r="D137" t="s">
         <v>477</v>
       </c>
-      <c r="E137" s="42" t="s">
+      <c r="E137" s="43" t="s">
         <v>461</v>
       </c>
       <c r="K137" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5916,10 +5930,10 @@
         <v>462</v>
       </c>
       <c r="K138" s="19" t="s">
-        <v>504</v>
+        <v>27</v>
       </c>
       <c r="T138" s="14" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5927,19 +5941,19 @@
         <v>374</v>
       </c>
       <c r="B139" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C139" s="39">
         <v>45588</v>
       </c>
       <c r="D139" t="s">
-        <v>502</v>
-      </c>
-      <c r="E139" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="E139" s="42" t="s">
         <v>463</v>
       </c>
       <c r="K139" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T139" s="14"/>
     </row>
@@ -5948,19 +5962,19 @@
         <v>374</v>
       </c>
       <c r="B140" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C140" s="39">
         <v>45588</v>
       </c>
       <c r="D140" t="s">
-        <v>503</v>
-      </c>
-      <c r="E140" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="E140" s="42" t="s">
         <v>464</v>
       </c>
       <c r="K140" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T140" s="14"/>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955EEFA9-A124-714E-B4B3-8981F169C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DFA324-FBE2-034D-A85C-7D91F40C5B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="240" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1651,7 +1651,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,6 +1682,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1695,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1765,10 +1771,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1998,7 +2005,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K126" sqref="K126"/>
+      <selection pane="bottomRight" activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5644,11 +5651,11 @@
       <c r="D125" t="s">
         <v>465</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="41" t="s">
         <v>449</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T125" s="14" t="s">
         <v>493</v>
@@ -5671,7 +5678,7 @@
         <v>450</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>504</v>
+        <v>27</v>
       </c>
       <c r="T126" s="14" t="s">
         <v>494</v>
@@ -5713,7 +5720,7 @@
       <c r="D128" t="s">
         <v>468</v>
       </c>
-      <c r="E128" s="42" t="s">
+      <c r="E128" s="41" t="s">
         <v>452</v>
       </c>
       <c r="K128" s="19" t="s">
@@ -5734,7 +5741,7 @@
       <c r="D129" t="s">
         <v>469</v>
       </c>
-      <c r="E129" s="42" t="s">
+      <c r="E129" s="41" t="s">
         <v>453</v>
       </c>
       <c r="K129" s="19" t="s">
@@ -5754,7 +5761,7 @@
       <c r="D130" t="s">
         <v>470</v>
       </c>
-      <c r="E130" s="42" t="s">
+      <c r="E130" s="41" t="s">
         <v>454</v>
       </c>
       <c r="K130" s="19" t="s">
@@ -5823,7 +5830,7 @@
       <c r="D133" t="s">
         <v>473</v>
       </c>
-      <c r="E133" s="44" t="s">
+      <c r="E133" s="43" t="s">
         <v>457</v>
       </c>
       <c r="K133" s="19" t="s">
@@ -5847,7 +5854,7 @@
         <v>458</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>504</v>
+        <v>27</v>
       </c>
       <c r="T134" s="14" t="s">
         <v>495</v>
@@ -5863,7 +5870,7 @@
       <c r="D135" t="s">
         <v>475</v>
       </c>
-      <c r="E135" s="41" t="s">
+      <c r="E135" s="45" t="s">
         <v>459</v>
       </c>
       <c r="K135" s="19" t="s">
@@ -5883,7 +5890,7 @@
       <c r="D136" t="s">
         <v>476</v>
       </c>
-      <c r="E136" s="41" t="s">
+      <c r="E136" s="45" t="s">
         <v>460</v>
       </c>
       <c r="K136" s="19" t="s">
@@ -5906,7 +5913,7 @@
       <c r="D137" t="s">
         <v>477</v>
       </c>
-      <c r="E137" s="43" t="s">
+      <c r="E137" s="42" t="s">
         <v>461</v>
       </c>
       <c r="K137" s="19" t="s">
@@ -5926,11 +5933,11 @@
       <c r="D138" t="s">
         <v>478</v>
       </c>
-      <c r="E138" s="40" t="s">
+      <c r="E138" s="44" t="s">
         <v>462</v>
       </c>
       <c r="K138" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T138" s="14" t="s">
         <v>506</v>
@@ -5949,7 +5956,7 @@
       <c r="D139" t="s">
         <v>501</v>
       </c>
-      <c r="E139" s="42" t="s">
+      <c r="E139" s="41" t="s">
         <v>463</v>
       </c>
       <c r="K139" s="19" t="s">
@@ -5970,7 +5977,7 @@
       <c r="D140" t="s">
         <v>502</v>
       </c>
-      <c r="E140" s="42" t="s">
+      <c r="E140" s="41" t="s">
         <v>464</v>
       </c>
       <c r="K140" s="19" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DFA324-FBE2-034D-A85C-7D91F40C5B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E104D4D-A49F-6847-9664-F197038B3443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="507">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1549,13 +1549,13 @@
     <t>messaged - do not use</t>
   </si>
   <si>
-    <t>getting more experiences - messaged</t>
-  </si>
-  <si>
     <t>getting more experiences -messaged</t>
   </si>
   <si>
     <t>getting more experiences, social activities did not name relationship with activity (row 13, cell AQ), checked and experiences are ok</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1651,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,12 +1682,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1701,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1772,10 +1766,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2002,10 +1994,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K135" sqref="K135"/>
+      <selection pane="bottomRight" activeCell="K139" sqref="K139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5072,7 +5064,7 @@
       <c r="K101" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="32" t="s">
+      <c r="M101" s="31" t="s">
         <v>215</v>
       </c>
       <c r="T101" s="14" t="s">
@@ -5121,6 +5113,9 @@
       <c r="K103" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M103" s="32" t="s">
+        <v>188</v>
+      </c>
       <c r="T103" s="14" t="s">
         <v>410</v>
       </c>
@@ -5461,6 +5456,9 @@
       <c r="K117" s="19" t="s">
         <v>444</v>
       </c>
+      <c r="M117" s="32" t="s">
+        <v>506</v>
+      </c>
       <c r="T117" s="14" t="s">
         <v>445</v>
       </c>
@@ -5484,6 +5482,9 @@
       <c r="K118" s="19" t="s">
         <v>503</v>
       </c>
+      <c r="M118" s="32" t="s">
+        <v>188</v>
+      </c>
       <c r="T118" s="14" t="s">
         <v>442</v>
       </c>
@@ -5533,6 +5534,9 @@
       <c r="K120" s="19" t="s">
         <v>503</v>
       </c>
+      <c r="M120" s="32" t="s">
+        <v>188</v>
+      </c>
       <c r="T120" s="14" t="s">
         <v>441</v>
       </c>
@@ -5657,6 +5661,9 @@
       <c r="K125" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M125" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T125" s="14" t="s">
         <v>493</v>
       </c>
@@ -5674,11 +5681,14 @@
       <c r="D126" t="s">
         <v>466</v>
       </c>
-      <c r="E126" s="40" t="s">
+      <c r="E126" s="41" t="s">
         <v>450</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M126" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="T126" s="14" t="s">
         <v>494</v>
@@ -5701,7 +5711,10 @@
         <v>451</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>504</v>
+        <v>27</v>
+      </c>
+      <c r="M127" s="32" t="s">
+        <v>506</v>
       </c>
       <c r="T127" s="14" t="s">
         <v>496</v>
@@ -5726,6 +5739,9 @@
       <c r="K128" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M128" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T128" s="14"/>
     </row>
     <row r="129" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5741,11 +5757,14 @@
       <c r="D129" t="s">
         <v>469</v>
       </c>
-      <c r="E129" s="41" t="s">
+      <c r="E129" s="40" t="s">
         <v>453</v>
       </c>
       <c r="K129" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M129" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5761,11 +5780,14 @@
       <c r="D130" t="s">
         <v>470</v>
       </c>
-      <c r="E130" s="41" t="s">
+      <c r="E130" s="40" t="s">
         <v>454</v>
       </c>
       <c r="K130" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M130" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5787,6 +5809,9 @@
       <c r="K131" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="M131" s="32" t="s">
+        <v>188</v>
+      </c>
       <c r="T131" s="14" t="s">
         <v>498</v>
       </c>
@@ -5808,7 +5833,10 @@
         <v>456</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
+      </c>
+      <c r="M132" s="32" t="s">
+        <v>506</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -5830,11 +5858,14 @@
       <c r="D133" t="s">
         <v>473</v>
       </c>
-      <c r="E133" s="43" t="s">
+      <c r="E133" s="17" t="s">
         <v>457</v>
       </c>
       <c r="K133" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M133" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5850,11 +5881,11 @@
       <c r="D134" t="s">
         <v>474</v>
       </c>
-      <c r="E134" s="17" t="s">
+      <c r="E134" s="42" t="s">
         <v>458</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T134" s="14" t="s">
         <v>495</v>
@@ -5870,11 +5901,14 @@
       <c r="D135" t="s">
         <v>475</v>
       </c>
-      <c r="E135" s="45" t="s">
+      <c r="E135" s="17" t="s">
         <v>459</v>
       </c>
       <c r="K135" s="19" t="s">
         <v>92</v>
+      </c>
+      <c r="M135" s="32" t="s">
+        <v>188</v>
       </c>
       <c r="T135" s="14" t="s">
         <v>492</v>
@@ -5890,11 +5924,14 @@
       <c r="D136" t="s">
         <v>476</v>
       </c>
-      <c r="E136" s="45" t="s">
+      <c r="E136" s="17" t="s">
         <v>460</v>
       </c>
       <c r="K136" s="19" t="s">
         <v>92</v>
+      </c>
+      <c r="M136" s="32" t="s">
+        <v>188</v>
       </c>
       <c r="T136" s="14" t="s">
         <v>491</v>
@@ -5913,11 +5950,14 @@
       <c r="D137" t="s">
         <v>477</v>
       </c>
-      <c r="E137" s="42" t="s">
+      <c r="E137" s="43" t="s">
         <v>461</v>
       </c>
       <c r="K137" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M137" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5933,14 +5973,14 @@
       <c r="D138" t="s">
         <v>478</v>
       </c>
-      <c r="E138" s="44" t="s">
+      <c r="E138" s="41" t="s">
         <v>462</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>3</v>
       </c>
       <c r="T138" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5956,11 +5996,14 @@
       <c r="D139" t="s">
         <v>501</v>
       </c>
-      <c r="E139" s="41" t="s">
+      <c r="E139" s="40" t="s">
         <v>463</v>
       </c>
       <c r="K139" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M139" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="T139" s="14"/>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E104D4D-A49F-6847-9664-F197038B3443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3569FAF6-81E0-134B-88CA-3B732F25269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="507">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1549,13 +1549,13 @@
     <t>messaged - do not use</t>
   </si>
   <si>
-    <t>getting more experiences -messaged</t>
-  </si>
-  <si>
     <t>getting more experiences, social activities did not name relationship with activity (row 13, cell AQ), checked and experiences are ok</t>
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Timed Out</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1766,8 +1766,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1994,10 +1995,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K139" sqref="K139"/>
+      <selection pane="bottomRight" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5457,7 +5458,7 @@
         <v>444</v>
       </c>
       <c r="M117" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T117" s="14" t="s">
         <v>445</v>
@@ -5655,7 +5656,7 @@
       <c r="D125" t="s">
         <v>465</v>
       </c>
-      <c r="E125" s="41" t="s">
+      <c r="E125" s="43" t="s">
         <v>449</v>
       </c>
       <c r="K125" s="19" t="s">
@@ -5681,7 +5682,7 @@
       <c r="D126" t="s">
         <v>466</v>
       </c>
-      <c r="E126" s="41" t="s">
+      <c r="E126" s="43" t="s">
         <v>450</v>
       </c>
       <c r="K126" s="19" t="s">
@@ -5707,15 +5708,13 @@
       <c r="D127" t="s">
         <v>467</v>
       </c>
-      <c r="E127" s="40" t="s">
+      <c r="E127" s="41" t="s">
         <v>451</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M127" s="32" t="s">
-        <v>506</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M127" s="32"/>
       <c r="T127" s="14" t="s">
         <v>496</v>
       </c>
@@ -5733,7 +5732,7 @@
       <c r="D128" t="s">
         <v>468</v>
       </c>
-      <c r="E128" s="41" t="s">
+      <c r="E128" s="43" t="s">
         <v>452</v>
       </c>
       <c r="K128" s="19" t="s">
@@ -5833,10 +5832,10 @@
         <v>456</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>504</v>
+        <v>27</v>
       </c>
       <c r="M132" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -5881,11 +5880,14 @@
       <c r="D134" t="s">
         <v>474</v>
       </c>
-      <c r="E134" s="42" t="s">
+      <c r="E134" s="44" t="s">
         <v>458</v>
       </c>
       <c r="K134" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M134" s="32" t="s">
+        <v>506</v>
       </c>
       <c r="T134" s="14" t="s">
         <v>495</v>
@@ -5950,7 +5952,7 @@
       <c r="D137" t="s">
         <v>477</v>
       </c>
-      <c r="E137" s="43" t="s">
+      <c r="E137" s="42" t="s">
         <v>461</v>
       </c>
       <c r="K137" s="19" t="s">
@@ -5973,14 +5975,17 @@
       <c r="D138" t="s">
         <v>478</v>
       </c>
-      <c r="E138" s="41" t="s">
+      <c r="E138" s="43" t="s">
         <v>462</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M138" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T138" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5996,7 +6001,7 @@
       <c r="D139" t="s">
         <v>501</v>
       </c>
-      <c r="E139" s="40" t="s">
+      <c r="E139" s="43" t="s">
         <v>463</v>
       </c>
       <c r="K139" s="19" t="s">
@@ -6020,11 +6025,14 @@
       <c r="D140" t="s">
         <v>502</v>
       </c>
-      <c r="E140" s="41" t="s">
+      <c r="E140" s="43" t="s">
         <v>464</v>
       </c>
       <c r="K140" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M140" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="T140" s="14"/>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3569FAF6-81E0-134B-88CA-3B732F25269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B780F-2691-EB46-8911-FAC698628EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="0" windowWidth="25220" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="517">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1556,6 +1556,36 @@
   </si>
   <si>
     <t>Timed Out</t>
+  </si>
+  <si>
+    <t>65c243c37e0d77ca70ee030e</t>
+  </si>
+  <si>
+    <t>61528277afcb4906d01e0442</t>
+  </si>
+  <si>
+    <t>66d0991682c5019a8c090c15</t>
+  </si>
+  <si>
+    <t>5f247332e02337051dc208aa</t>
+  </si>
+  <si>
+    <t>670fcff53a883675b5f56df8</t>
+  </si>
+  <si>
+    <t>6661ae7acb19d6e73cbda6ad</t>
+  </si>
+  <si>
+    <t>659cc63ff59c72a20e2b7688</t>
+  </si>
+  <si>
+    <t>66442651e793b70cc0e9ff8d</t>
+  </si>
+  <si>
+    <t>61741ba984f258d5c6a1303c</t>
+  </si>
+  <si>
+    <t>6686247e6177b8b37bdd0463</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1681,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1672,13 +1702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,7 +1719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1762,13 +1786,23 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,10 +2029,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K133" sqref="K133"/>
+      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5108,7 +5142,7 @@
       <c r="D103" t="s">
         <v>377</v>
       </c>
-      <c r="E103" s="38" t="s">
+      <c r="E103" s="37" t="s">
         <v>361</v>
       </c>
       <c r="K103" s="19" t="s">
@@ -5422,7 +5456,7 @@
       <c r="B116" t="s">
         <v>432</v>
       </c>
-      <c r="C116" s="39">
+      <c r="C116" s="38">
         <v>45581</v>
       </c>
       <c r="D116" t="s">
@@ -5445,7 +5479,7 @@
       <c r="B117" t="s">
         <v>433</v>
       </c>
-      <c r="C117" s="39">
+      <c r="C117" s="38">
         <v>45581</v>
       </c>
       <c r="D117" t="s">
@@ -5471,7 +5505,7 @@
       <c r="B118" t="s">
         <v>434</v>
       </c>
-      <c r="C118" s="39">
+      <c r="C118" s="38">
         <v>45581</v>
       </c>
       <c r="D118" t="s">
@@ -5497,7 +5531,7 @@
       <c r="B119" t="s">
         <v>435</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="38">
         <v>45581</v>
       </c>
       <c r="D119" t="s">
@@ -5523,7 +5557,7 @@
       <c r="B120" t="s">
         <v>436</v>
       </c>
-      <c r="C120" s="39">
+      <c r="C120" s="38">
         <v>45581</v>
       </c>
       <c r="D120" t="s">
@@ -5549,7 +5583,7 @@
       <c r="B121" t="s">
         <v>437</v>
       </c>
-      <c r="C121" s="39">
+      <c r="C121" s="38">
         <v>45581</v>
       </c>
       <c r="D121" t="s">
@@ -5572,7 +5606,7 @@
       <c r="B122" t="s">
         <v>438</v>
       </c>
-      <c r="C122" s="39">
+      <c r="C122" s="38">
         <v>45581</v>
       </c>
       <c r="D122" t="s">
@@ -5598,7 +5632,7 @@
       <c r="B123" t="s">
         <v>439</v>
       </c>
-      <c r="C123" s="39">
+      <c r="C123" s="38">
         <v>45581</v>
       </c>
       <c r="D123" t="s">
@@ -5624,7 +5658,7 @@
       <c r="B124" t="s">
         <v>440</v>
       </c>
-      <c r="C124" s="39">
+      <c r="C124" s="38">
         <v>45581</v>
       </c>
       <c r="D124" t="s">
@@ -5650,13 +5684,13 @@
       <c r="B125" t="s">
         <v>479</v>
       </c>
-      <c r="C125" s="39">
+      <c r="C125" s="38">
         <v>45588</v>
       </c>
       <c r="D125" t="s">
         <v>465</v>
       </c>
-      <c r="E125" s="43" t="s">
+      <c r="E125" s="39" t="s">
         <v>449</v>
       </c>
       <c r="K125" s="19" t="s">
@@ -5676,13 +5710,13 @@
       <c r="B126" t="s">
         <v>480</v>
       </c>
-      <c r="C126" s="39">
+      <c r="C126" s="38">
         <v>45588</v>
       </c>
       <c r="D126" t="s">
         <v>466</v>
       </c>
-      <c r="E126" s="43" t="s">
+      <c r="E126" s="39" t="s">
         <v>450</v>
       </c>
       <c r="K126" s="19" t="s">
@@ -5702,19 +5736,21 @@
       <c r="B127" t="s">
         <v>481</v>
       </c>
-      <c r="C127" s="39">
+      <c r="C127" s="38">
         <v>45588</v>
       </c>
       <c r="D127" t="s">
         <v>467</v>
       </c>
-      <c r="E127" s="41" t="s">
+      <c r="E127" s="39" t="s">
         <v>451</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M127" s="32"/>
+      <c r="M127" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T127" s="14" t="s">
         <v>496</v>
       </c>
@@ -5726,13 +5762,13 @@
       <c r="B128" t="s">
         <v>482</v>
       </c>
-      <c r="C128" s="39">
+      <c r="C128" s="38">
         <v>45588</v>
       </c>
       <c r="D128" t="s">
         <v>468</v>
       </c>
-      <c r="E128" s="43" t="s">
+      <c r="E128" s="39" t="s">
         <v>452</v>
       </c>
       <c r="K128" s="19" t="s">
@@ -5750,13 +5786,13 @@
       <c r="B129" t="s">
         <v>483</v>
       </c>
-      <c r="C129" s="39">
+      <c r="C129" s="38">
         <v>45588</v>
       </c>
       <c r="D129" t="s">
         <v>469</v>
       </c>
-      <c r="E129" s="40" t="s">
+      <c r="E129" s="39" t="s">
         <v>453</v>
       </c>
       <c r="K129" s="19" t="s">
@@ -5773,13 +5809,13 @@
       <c r="B130" t="s">
         <v>484</v>
       </c>
-      <c r="C130" s="39">
+      <c r="C130" s="38">
         <v>45588</v>
       </c>
       <c r="D130" t="s">
         <v>470</v>
       </c>
-      <c r="E130" s="40" t="s">
+      <c r="E130" s="39" t="s">
         <v>454</v>
       </c>
       <c r="K130" s="19" t="s">
@@ -5796,7 +5832,7 @@
       <c r="B131" t="s">
         <v>485</v>
       </c>
-      <c r="C131" s="39">
+      <c r="C131" s="38">
         <v>45588</v>
       </c>
       <c r="D131" t="s">
@@ -5822,7 +5858,7 @@
       <c r="B132" t="s">
         <v>486</v>
       </c>
-      <c r="C132" s="39">
+      <c r="C132" s="38">
         <v>45588</v>
       </c>
       <c r="D132" t="s">
@@ -5832,10 +5868,10 @@
         <v>456</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M132" s="32" t="s">
-        <v>505</v>
+        <v>3</v>
+      </c>
+      <c r="M132" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -5851,7 +5887,7 @@
       <c r="B133" t="s">
         <v>487</v>
       </c>
-      <c r="C133" s="39">
+      <c r="C133" s="38">
         <v>45588</v>
       </c>
       <c r="D133" t="s">
@@ -5874,13 +5910,13 @@
       <c r="B134" t="s">
         <v>488</v>
       </c>
-      <c r="C134" s="39">
+      <c r="C134" s="38">
         <v>45588</v>
       </c>
       <c r="D134" t="s">
         <v>474</v>
       </c>
-      <c r="E134" s="44" t="s">
+      <c r="E134" s="17" t="s">
         <v>458</v>
       </c>
       <c r="K134" s="19" t="s">
@@ -5897,7 +5933,7 @@
       <c r="A135" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C135" s="39">
+      <c r="C135" s="38">
         <v>45588</v>
       </c>
       <c r="D135" t="s">
@@ -5920,7 +5956,7 @@
       <c r="A136" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C136" s="39">
+      <c r="C136" s="38">
         <v>45588</v>
       </c>
       <c r="D136" t="s">
@@ -5946,13 +5982,13 @@
       <c r="B137" t="s">
         <v>489</v>
       </c>
-      <c r="C137" s="39">
+      <c r="C137" s="38">
         <v>45588</v>
       </c>
       <c r="D137" t="s">
         <v>477</v>
       </c>
-      <c r="E137" s="42" t="s">
+      <c r="E137" s="40" t="s">
         <v>461</v>
       </c>
       <c r="K137" s="19" t="s">
@@ -5969,13 +6005,13 @@
       <c r="B138" t="s">
         <v>490</v>
       </c>
-      <c r="C138" s="39">
+      <c r="C138" s="38">
         <v>45588</v>
       </c>
       <c r="D138" t="s">
         <v>478</v>
       </c>
-      <c r="E138" s="43" t="s">
+      <c r="E138" s="39" t="s">
         <v>462</v>
       </c>
       <c r="K138" s="19" t="s">
@@ -5995,13 +6031,13 @@
       <c r="B139" t="s">
         <v>500</v>
       </c>
-      <c r="C139" s="39">
+      <c r="C139" s="38">
         <v>45588</v>
       </c>
       <c r="D139" t="s">
         <v>501</v>
       </c>
-      <c r="E139" s="43" t="s">
+      <c r="E139" s="39" t="s">
         <v>463</v>
       </c>
       <c r="K139" s="19" t="s">
@@ -6019,13 +6055,13 @@
       <c r="B140" t="s">
         <v>499</v>
       </c>
-      <c r="C140" s="39">
+      <c r="C140" s="38">
         <v>45588</v>
       </c>
       <c r="D140" t="s">
         <v>502</v>
       </c>
-      <c r="E140" s="43" t="s">
+      <c r="E140" s="39" t="s">
         <v>464</v>
       </c>
       <c r="K140" s="19" t="s">
@@ -6035,6 +6071,91 @@
         <v>215</v>
       </c>
       <c r="T140" s="14"/>
+    </row>
+    <row r="141" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="47">
+        <v>45595</v>
+      </c>
+      <c r="E141" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="F141" s="43"/>
+      <c r="K141" s="44"/>
+      <c r="M141" s="45"/>
+      <c r="P141" s="43"/>
+      <c r="T141" s="46"/>
+    </row>
+    <row r="142" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E148" s="27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="48">
+        <v>45595</v>
+      </c>
+      <c r="E150" s="27" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1048575" s="5"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B780F-2691-EB46-8911-FAC698628EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A45D22-0277-6C41-84C2-25BD91B82C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="0" windowWidth="25220" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="500" windowWidth="25680" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="534">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1586,6 +1586,57 @@
   </si>
   <si>
     <t>6686247e6177b8b37bdd0463</t>
+  </si>
+  <si>
+    <t>R_7gHqQltgkuLhtQB</t>
+  </si>
+  <si>
+    <t>R_74MMYP80IcmhEHL</t>
+  </si>
+  <si>
+    <t>R_1G6NA4TJ0HjeSbA</t>
+  </si>
+  <si>
+    <t>R_4QgmKzmCjU92bEM</t>
+  </si>
+  <si>
+    <t>R_7L1lgbbAL8CwLhV</t>
+  </si>
+  <si>
+    <t>R_1LIwQPAiJ15XG1j</t>
+  </si>
+  <si>
+    <t>R_62xSt1J9Yv3BH3K</t>
+  </si>
+  <si>
+    <t>R_30uXAGMVtt92Ma4</t>
+  </si>
+  <si>
+    <t>R_5p2GbJWE5YcHFAd</t>
+  </si>
+  <si>
+    <t>R_2LGYqgNAzzfRrK4</t>
+  </si>
+  <si>
+    <t>R_5E4fXvPhUsID0FN</t>
+  </si>
+  <si>
+    <t>R_3yVgHAisZTiufIt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of their pictures are from instagram, very explicit content, no social activities </t>
+  </si>
+  <si>
+    <t>getting more experiences, social experiences did not specify relationship with activity (row 5, AJ-AM)</t>
+  </si>
+  <si>
+    <t>getting more experiences, social experiences did not specify relationship with activity (row 8, AP-AQ)</t>
+  </si>
+  <si>
+    <t>had error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getting more experiences </t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1732,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,6 +1757,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1719,7 +1782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1790,19 +1853,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2029,10 +2093,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
+      <selection pane="bottomRight" activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6073,88 +6137,161 @@
       <c r="T140" s="14"/>
     </row>
     <row r="141" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="47">
+      <c r="C141" s="44">
         <v>45595</v>
       </c>
-      <c r="E141" s="42" t="s">
+      <c r="E141" s="47" t="s">
         <v>507</v>
       </c>
-      <c r="F141" s="43"/>
-      <c r="K141" s="44"/>
-      <c r="M141" s="45"/>
-      <c r="P141" s="43"/>
-      <c r="T141" s="46"/>
+      <c r="F141" s="42"/>
+      <c r="K141" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="M141" s="43"/>
+      <c r="P141" s="42"/>
+      <c r="T141" s="49" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="142" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="48">
+      <c r="B142" t="s">
+        <v>523</v>
+      </c>
+      <c r="C142" s="38">
         <v>45595</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="D142" t="s">
+        <v>517</v>
+      </c>
+      <c r="E142" s="45" t="s">
         <v>508</v>
       </c>
+      <c r="K142" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="T142" s="14" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="143" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="48">
+      <c r="C143" s="38">
         <v>45595</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>509</v>
       </c>
+      <c r="K143" s="19" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="48">
+      <c r="B144" t="s">
+        <v>524</v>
+      </c>
+      <c r="C144" s="38">
         <v>45595</v>
       </c>
-      <c r="E144" s="17" t="s">
+      <c r="D144" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E144" s="45" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="145" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="48">
+      <c r="K144" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="38">
         <v>45595</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="146" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="48">
+      <c r="K145" s="19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>525</v>
+      </c>
+      <c r="C146" s="38">
         <v>45595</v>
       </c>
-      <c r="E146" s="17" t="s">
+      <c r="D146" t="s">
+        <v>519</v>
+      </c>
+      <c r="E146" s="45" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="147" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="48">
+      <c r="K146" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T146" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="147" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>526</v>
+      </c>
+      <c r="C147" s="38">
         <v>45595</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="D147" t="s">
+        <v>520</v>
+      </c>
+      <c r="E147" s="45" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="148" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="48">
+      <c r="K147" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="38">
         <v>45595</v>
       </c>
       <c r="E148" s="27" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="149" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="48">
+      <c r="K148" s="19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="149" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>527</v>
+      </c>
+      <c r="C149" s="38">
         <v>45595</v>
       </c>
-      <c r="E149" s="17" t="s">
+      <c r="D149" t="s">
+        <v>521</v>
+      </c>
+      <c r="E149" s="45" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="150" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="48">
+      <c r="K149" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" t="s">
+        <v>528</v>
+      </c>
+      <c r="C150" s="38">
         <v>45595</v>
       </c>
-      <c r="E150" s="27" t="s">
+      <c r="D150" t="s">
+        <v>522</v>
+      </c>
+      <c r="E150" s="46" t="s">
         <v>516</v>
+      </c>
+      <c r="K150" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A45D22-0277-6C41-84C2-25BD91B82C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD6AC66-A997-6148-A44E-C16428E28C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="500" windowWidth="25680" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="25680" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="533">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1634,9 +1634,6 @@
   </si>
   <si>
     <t>had error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getting more experiences </t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1729,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1763,12 +1760,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1782,7 +1773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1860,13 +1851,14 @@
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2093,7 +2085,7 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K143" sqref="K143"/>
@@ -6140,16 +6132,16 @@
       <c r="C141" s="44">
         <v>45595</v>
       </c>
-      <c r="E141" s="47" t="s">
+      <c r="E141" s="49" t="s">
         <v>507</v>
       </c>
       <c r="F141" s="42"/>
-      <c r="K141" s="48" t="s">
+      <c r="K141" s="47" t="s">
         <v>92</v>
       </c>
       <c r="M141" s="43"/>
       <c r="P141" s="42"/>
-      <c r="T141" s="49" t="s">
+      <c r="T141" s="48" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6163,11 +6155,11 @@
       <c r="D142" t="s">
         <v>517</v>
       </c>
-      <c r="E142" s="45" t="s">
+      <c r="E142" s="49" t="s">
         <v>508</v>
       </c>
       <c r="K142" s="19" t="s">
-        <v>533</v>
+        <v>27</v>
       </c>
       <c r="T142" s="14" t="s">
         <v>531</v>
@@ -6177,7 +6169,7 @@
       <c r="C143" s="38">
         <v>45595</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="49" t="s">
         <v>509</v>
       </c>
       <c r="K143" s="19" t="s">
@@ -6194,18 +6186,18 @@
       <c r="D144" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="E144" s="45" t="s">
+      <c r="E144" s="49" t="s">
         <v>510</v>
       </c>
       <c r="K144" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="38">
         <v>45595</v>
       </c>
-      <c r="E145" s="17" t="s">
+      <c r="E145" s="49" t="s">
         <v>511</v>
       </c>
       <c r="K145" s="19" t="s">
@@ -6222,7 +6214,7 @@
       <c r="D146" t="s">
         <v>519</v>
       </c>
-      <c r="E146" s="45" t="s">
+      <c r="E146" s="49" t="s">
         <v>512</v>
       </c>
       <c r="K146" s="19" t="s">
@@ -6246,14 +6238,14 @@
         <v>513</v>
       </c>
       <c r="K147" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="38">
         <v>45595</v>
       </c>
-      <c r="E148" s="27" t="s">
+      <c r="E148" s="50" t="s">
         <v>514</v>
       </c>
       <c r="K148" s="19" t="s">
@@ -6274,7 +6266,7 @@
         <v>515</v>
       </c>
       <c r="K149" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6291,7 +6283,7 @@
         <v>516</v>
       </c>
       <c r="K150" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD6AC66-A997-6148-A44E-C16428E28C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1A070-9A3A-414F-BC68-C792A9986BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="25680" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18400" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="548">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1634,6 +1634,51 @@
   </si>
   <si>
     <t>had error</t>
+  </si>
+  <si>
+    <t>6700d6aca79c6b2534f6292c</t>
+  </si>
+  <si>
+    <t>5fe23b5e1f2ef9db2ab8e5a0</t>
+  </si>
+  <si>
+    <t>610f303cfb519f6dc89edd5f</t>
+  </si>
+  <si>
+    <t>6704251bcdca04fef23d385d</t>
+  </si>
+  <si>
+    <t>6722ca2b1f3ebd2d544608c3</t>
+  </si>
+  <si>
+    <t>66f0a1d13629250f84bc2598</t>
+  </si>
+  <si>
+    <t>66f42a85953065aa4cc9d751</t>
+  </si>
+  <si>
+    <t>665629a30c7e3f40e8f3d1d5</t>
+  </si>
+  <si>
+    <t>671469967e2a4f2e612e3846</t>
+  </si>
+  <si>
+    <t>671865ac3a94e9d478286704</t>
+  </si>
+  <si>
+    <t>6711f493bfc7c4e11953872d</t>
+  </si>
+  <si>
+    <t>66b92d3b18295c1e6c125b85</t>
+  </si>
+  <si>
+    <t>65f54bfd77f3db0d47887b37</t>
+  </si>
+  <si>
+    <t>662fad6b6f397a64efc67680</t>
+  </si>
+  <si>
+    <t>66d2d920fb76c49f098b9397</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1850,15 +1895,12 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2085,10 +2127,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K143" sqref="K143"/>
+      <selection pane="bottomRight" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6132,16 +6174,16 @@
       <c r="C141" s="44">
         <v>45595</v>
       </c>
-      <c r="E141" s="49" t="s">
+      <c r="E141" s="17" t="s">
         <v>507</v>
       </c>
       <c r="F141" s="42"/>
-      <c r="K141" s="47" t="s">
+      <c r="K141" s="46" t="s">
         <v>92</v>
       </c>
       <c r="M141" s="43"/>
       <c r="P141" s="42"/>
-      <c r="T141" s="48" t="s">
+      <c r="T141" s="47" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6155,11 +6197,14 @@
       <c r="D142" t="s">
         <v>517</v>
       </c>
-      <c r="E142" s="49" t="s">
+      <c r="E142" s="17" t="s">
         <v>508</v>
       </c>
       <c r="K142" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M142" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="T142" s="14" t="s">
         <v>531</v>
@@ -6169,11 +6214,14 @@
       <c r="C143" s="38">
         <v>45595</v>
       </c>
-      <c r="E143" s="49" t="s">
+      <c r="E143" s="17" t="s">
         <v>509</v>
       </c>
       <c r="K143" s="19" t="s">
         <v>532</v>
+      </c>
+      <c r="M143" s="32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6186,22 +6234,28 @@
       <c r="D144" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="E144" s="49" t="s">
+      <c r="E144" s="17" t="s">
         <v>510</v>
       </c>
       <c r="K144" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M144" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="38">
         <v>45595</v>
       </c>
-      <c r="E145" s="49" t="s">
+      <c r="E145" s="17" t="s">
         <v>511</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>532</v>
+      </c>
+      <c r="M145" s="32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6214,11 +6268,14 @@
       <c r="D146" t="s">
         <v>519</v>
       </c>
-      <c r="E146" s="49" t="s">
+      <c r="E146" s="17" t="s">
         <v>512</v>
       </c>
       <c r="K146" s="19" t="s">
         <v>92</v>
+      </c>
+      <c r="M146" s="32" t="s">
+        <v>188</v>
       </c>
       <c r="T146" s="14" t="s">
         <v>529</v>
@@ -6234,22 +6291,28 @@
       <c r="D147" t="s">
         <v>520</v>
       </c>
-      <c r="E147" s="45" t="s">
+      <c r="E147" s="17" t="s">
         <v>513</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M147" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="148" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="38">
         <v>45595</v>
       </c>
-      <c r="E148" s="50" t="s">
+      <c r="E148" s="27" t="s">
         <v>514</v>
       </c>
       <c r="K148" s="19" t="s">
         <v>532</v>
+      </c>
+      <c r="M148" s="32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6268,6 +6331,9 @@
       <c r="K149" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M149" s="31" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="150" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
@@ -6279,11 +6345,95 @@
       <c r="D150" t="s">
         <v>522</v>
       </c>
-      <c r="E150" s="46" t="s">
+      <c r="E150" s="27" t="s">
         <v>516</v>
       </c>
       <c r="K150" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M150" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="5">
+        <v>45602</v>
+      </c>
+      <c r="E151" s="37" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="5">
+        <v>45602</v>
+      </c>
+      <c r="E152" s="37" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E153" s="37" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="154" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E154" s="37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="155" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E155" s="37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="156" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E156" s="37" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="157" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E157" s="37" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E158" s="37" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E159" s="37" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E160" s="37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E161" s="37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E162" s="37" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E163" s="37" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E164" s="37" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E165" s="36" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1A070-9A3A-414F-BC68-C792A9986BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1BA353-7A76-D243-B60B-745D41F44A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18400" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10520" yWindow="2720" windowWidth="27200" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="587">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1679,6 +1679,123 @@
   </si>
   <si>
     <t>66d2d920fb76c49f098b9397</t>
+  </si>
+  <si>
+    <t>R_7YFkXrjpVa62Fzs</t>
+  </si>
+  <si>
+    <t>R_6uDDC7QDwjI066B</t>
+  </si>
+  <si>
+    <t>R_6HZ9MTSv03BPbxx</t>
+  </si>
+  <si>
+    <t>R_763hAhvqFljOUGx</t>
+  </si>
+  <si>
+    <t>R_1JHIhaCHmWmYTXH</t>
+  </si>
+  <si>
+    <t>R_7btQZKrTF8CmwUh</t>
+  </si>
+  <si>
+    <t>R_5VgwNXv5XjxVXud</t>
+  </si>
+  <si>
+    <t>R_3ruTPf8W3JxJuPC</t>
+  </si>
+  <si>
+    <t>R_6wvLlQuA1Nw34r5</t>
+  </si>
+  <si>
+    <t>R_3pKWobtydEspmx3</t>
+  </si>
+  <si>
+    <t>R_3GHvQzwBbXHatm2</t>
+  </si>
+  <si>
+    <t>R_7BmLVDpRTl5d9jU</t>
+  </si>
+  <si>
+    <t>R_3OqLvLOxO4QULh7</t>
+  </si>
+  <si>
+    <t>R_3lrEwbSDmS8LthE</t>
+  </si>
+  <si>
+    <t>R_13vniCllMtSTcR3</t>
+  </si>
+  <si>
+    <t>R_6c1uaNXvKu6k5MR</t>
+  </si>
+  <si>
+    <t>R_7CWCkSHB5eze9xw</t>
+  </si>
+  <si>
+    <t>R_7mxXThCxggmeFRE</t>
+  </si>
+  <si>
+    <t>R_7BwCiHvnTVPBHfr</t>
+  </si>
+  <si>
+    <t>R_6FKwUkRCd7R2Wzg</t>
+  </si>
+  <si>
+    <t>R_1vhNvwo1kWlXwV4</t>
+  </si>
+  <si>
+    <t>R_59O56hXxlZ2wjND</t>
+  </si>
+  <si>
+    <t>R_3JgFZBNwbUQBI3P</t>
+  </si>
+  <si>
+    <t>R_67USt495rzk1JHL</t>
+  </si>
+  <si>
+    <t>R_6uDQqol5Jhx6kbn</t>
+  </si>
+  <si>
+    <t>R_5nvZOM5dfg3aOhc</t>
+  </si>
+  <si>
+    <t>R_11b9zcJ8pqdC57o</t>
+  </si>
+  <si>
+    <t>R_5D6x0gXzynga5nr</t>
+  </si>
+  <si>
+    <t>R_5F4lMo5TjFq9Chu</t>
+  </si>
+  <si>
+    <t>R_50ZO4o4hdrhgDBf</t>
+  </si>
+  <si>
+    <t>getting more experiences, social activities - did not name relationship with activity (Row 5, cell AI)</t>
+  </si>
+  <si>
+    <t>getting more experiences, none of social acitvities name a relationship (Row 6, cells AH-AQ)</t>
+  </si>
+  <si>
+    <t>getting more experiences, none of social acitvities name a relationship (Row 7, cells AH-AQ)</t>
+  </si>
+  <si>
+    <t>getting more experiences, social activities - did not name relationship with activity (Row 8, cell AI)</t>
+  </si>
+  <si>
+    <t>getting more experiences, social acitvities - did not name relationship with activity (Row 9, cell AQ)</t>
+  </si>
+  <si>
+    <t>getting more experiences, social acitvities - did not name relationship with activity (Row 10, cell AH, AL), nonsocial activities - did the acitvity with a person (Row 10, U)</t>
+  </si>
+  <si>
+    <t>getting more experiences, none of nonsocial activities are done alone, (row 12, cells S-AB)</t>
+  </si>
+  <si>
+    <t>getting more experiences, social activities - did not name relationship with activity (Row 14, cells AJ, AM) nonsocial activities - may not be done alone, may be their dog, but it might be the nickname of a person (Row 14, cell V)</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -2127,10 +2244,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C160" sqref="C160"/>
+      <selection pane="bottomRight" activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6171,6 +6288,9 @@
       <c r="T140" s="14"/>
     </row>
     <row r="141" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="C141" s="44">
         <v>45595</v>
       </c>
@@ -6188,6 +6308,9 @@
       </c>
     </row>
     <row r="142" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="B142" t="s">
         <v>523</v>
       </c>
@@ -6211,6 +6334,9 @@
       </c>
     </row>
     <row r="143" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="C143" s="38">
         <v>45595</v>
       </c>
@@ -6225,6 +6351,9 @@
       </c>
     </row>
     <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="B144" t="s">
         <v>524</v>
       </c>
@@ -6244,7 +6373,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="C145" s="38">
         <v>45595</v>
       </c>
@@ -6258,7 +6390,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="B146" t="s">
         <v>525</v>
       </c>
@@ -6281,7 +6416,10 @@
         <v>529</v>
       </c>
     </row>
-    <row r="147" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="B147" t="s">
         <v>526</v>
       </c>
@@ -6301,7 +6439,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="C148" s="38">
         <v>45595</v>
       </c>
@@ -6315,7 +6456,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="149" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="B149" t="s">
         <v>527</v>
       </c>
@@ -6335,7 +6479,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="B150" t="s">
         <v>528</v>
       </c>
@@ -6355,85 +6502,328 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B151" t="s">
+        <v>563</v>
+      </c>
       <c r="C151" s="5">
         <v>45602</v>
       </c>
+      <c r="D151" t="s">
+        <v>548</v>
+      </c>
       <c r="E151" s="37" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="152" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K151" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T151" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B152" t="s">
+        <v>564</v>
+      </c>
       <c r="C152" s="5">
         <v>45602</v>
       </c>
+      <c r="D152" t="s">
+        <v>549</v>
+      </c>
       <c r="E152" s="37" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="153" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K152" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B153" t="s">
+        <v>565</v>
+      </c>
+      <c r="C153" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D153" t="s">
+        <v>550</v>
+      </c>
       <c r="E153" s="37" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="154" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K153" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T153" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B154" t="s">
+        <v>566</v>
+      </c>
+      <c r="C154" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D154" t="s">
+        <v>551</v>
+      </c>
       <c r="E154" s="37" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="155" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K154" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T154" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B155" t="s">
+        <v>567</v>
+      </c>
+      <c r="C155" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="E155" s="37" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="156" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K155" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B156" t="s">
+        <v>568</v>
+      </c>
+      <c r="C156" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="E156" s="37" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="157" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K156" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T156" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B157" t="s">
+        <v>569</v>
+      </c>
+      <c r="C157" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D157" t="s">
+        <v>554</v>
+      </c>
       <c r="E157" s="37" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="158" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K157" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T157" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B158" t="s">
+        <v>570</v>
+      </c>
+      <c r="C158" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D158" t="s">
+        <v>555</v>
+      </c>
       <c r="E158" s="37" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="159" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K158" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T158" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B159" t="s">
+        <v>571</v>
+      </c>
+      <c r="C159" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D159" t="s">
+        <v>556</v>
+      </c>
       <c r="E159" s="37" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="160" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K159" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B160" t="s">
+        <v>572</v>
+      </c>
+      <c r="C160" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D160" t="s">
+        <v>557</v>
+      </c>
       <c r="E160" s="37" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="161" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K160" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T160" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B161" t="s">
+        <v>573</v>
+      </c>
+      <c r="C161" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D161" t="s">
+        <v>558</v>
+      </c>
       <c r="E161" s="37" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="162" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K161" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T161" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B162" t="s">
+        <v>574</v>
+      </c>
+      <c r="C162" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D162" t="s">
+        <v>559</v>
+      </c>
       <c r="E162" s="37" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="163" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K162" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B163" t="s">
+        <v>575</v>
+      </c>
+      <c r="C163" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D163" t="s">
+        <v>560</v>
+      </c>
       <c r="E163" s="37" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="164" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K163" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B164" t="s">
+        <v>576</v>
+      </c>
+      <c r="C164" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D164" t="s">
+        <v>561</v>
+      </c>
       <c r="E164" s="37" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="165" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K164" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B165" t="s">
+        <v>577</v>
+      </c>
+      <c r="C165" s="38">
+        <v>45602</v>
+      </c>
+      <c r="D165" t="s">
+        <v>562</v>
+      </c>
       <c r="E165" s="36" t="s">
         <v>547</v>
+      </c>
+      <c r="K165" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Documents/GitHub/WTP_Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1BA353-7A76-D243-B60B-745D41F44A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445FC90B-8782-8B44-81CF-440D762BBDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="2720" windowWidth="27200" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10180" yWindow="360" windowWidth="27200" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="587">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1795,7 +1795,7 @@
     <t>getting more experiences, social activities - did not name relationship with activity (Row 14, cells AJ, AM) nonsocial activities - may not be done alone, may be their dog, but it might be the nickname of a person (Row 14, cell V)</t>
   </si>
   <si>
-    <t>g</t>
+    <t>g (messaged)</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2017,6 +2017,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2244,10 +2247,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K162" sqref="K162"/>
+      <selection pane="bottomRight" activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6542,7 +6545,10 @@
         <v>534</v>
       </c>
       <c r="K152" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M152" s="48" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="153" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6562,7 +6568,7 @@
         <v>535</v>
       </c>
       <c r="K153" s="19" t="s">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="T153" s="14" t="s">
         <v>579</v>
@@ -6585,7 +6591,7 @@
         <v>536</v>
       </c>
       <c r="K154" s="19" t="s">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="T154" s="14" t="s">
         <v>580</v>
@@ -6608,7 +6614,7 @@
         <v>537</v>
       </c>
       <c r="K155" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6628,7 +6634,7 @@
         <v>538</v>
       </c>
       <c r="K156" s="19" t="s">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="T156" s="14" t="s">
         <v>581</v>
@@ -6651,7 +6657,7 @@
         <v>539</v>
       </c>
       <c r="K157" s="19" t="s">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="T157" s="14" t="s">
         <v>578</v>
@@ -6674,7 +6680,7 @@
         <v>540</v>
       </c>
       <c r="K158" s="19" t="s">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="T158" s="14" t="s">
         <v>583</v>
@@ -6697,7 +6703,7 @@
         <v>541</v>
       </c>
       <c r="K159" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6717,7 +6723,7 @@
         <v>542</v>
       </c>
       <c r="K160" s="19" t="s">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="T160" s="14" t="s">
         <v>582</v>
@@ -6763,7 +6769,7 @@
         <v>544</v>
       </c>
       <c r="K162" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6783,7 +6789,7 @@
         <v>545</v>
       </c>
       <c r="K163" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6803,7 +6809,7 @@
         <v>546</v>
       </c>
       <c r="K164" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6823,7 +6829,7 @@
         <v>547</v>
       </c>
       <c r="K165" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445FC90B-8782-8B44-81CF-440D762BBDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE7D68A-56F6-7E46-A1EB-22644BEF19FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10180" yWindow="360" windowWidth="27200" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36960" yWindow="1840" windowWidth="27200" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="586">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1793,9 +1793,6 @@
   </si>
   <si>
     <t>getting more experiences, social activities - did not name relationship with activity (Row 14, cells AJ, AM) nonsocial activities - may not be done alone, may be their dog, but it might be the nickname of a person (Row 14, cell V)</t>
-  </si>
-  <si>
-    <t>g (messaged)</t>
   </si>
 </sst>
 </file>
@@ -2247,10 +2244,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K161" sqref="K161"/>
+      <selection pane="bottomRight" activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6522,7 +6519,7 @@
         <v>533</v>
       </c>
       <c r="K151" s="19" t="s">
-        <v>586</v>
+        <v>27</v>
       </c>
       <c r="T151" s="14" t="s">
         <v>584</v>
@@ -6616,6 +6613,9 @@
       <c r="K155" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M155" s="31" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="156" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
@@ -6705,6 +6705,9 @@
       <c r="K159" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M159" s="31" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="160" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
@@ -6746,7 +6749,7 @@
         <v>543</v>
       </c>
       <c r="K161" s="19" t="s">
-        <v>586</v>
+        <v>27</v>
       </c>
       <c r="T161" s="14" t="s">
         <v>585</v>
@@ -6790,6 +6793,9 @@
       </c>
       <c r="K163" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M163" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE7D68A-56F6-7E46-A1EB-22644BEF19FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E4B7D-CC93-2248-A3AC-B144FA11E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36960" yWindow="1840" windowWidth="27200" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="586">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1888,7 +1888,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1909,13 +1909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,21 +1996,19 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2244,10 +2236,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K162" sqref="K162"/>
+      <selection pane="bottomRight" activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6287,23 +6279,20 @@
       </c>
       <c r="T140" s="14"/>
     </row>
-    <row r="141" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C141" s="44">
+      <c r="C141" s="38">
         <v>45595</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="F141" s="42"/>
-      <c r="K141" s="46" t="s">
+      <c r="K141" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M141" s="43"/>
-      <c r="P141" s="42"/>
-      <c r="T141" s="47" t="s">
+      <c r="T141" s="14" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6469,7 +6458,7 @@
       <c r="D149" t="s">
         <v>521</v>
       </c>
-      <c r="E149" s="45" t="s">
+      <c r="E149" s="17" t="s">
         <v>515</v>
       </c>
       <c r="K149" s="19" t="s">
@@ -6502,26 +6491,31 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="4" t="s">
+    <row r="151" spans="1:20" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="43" t="s">
         <v>563</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="44">
         <v>45602</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="E151" s="37" t="s">
+      <c r="E151" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="K151" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T151" s="14" t="s">
+      <c r="F151" s="46"/>
+      <c r="K151" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M151" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="P151" s="46"/>
+      <c r="T151" s="48" t="s">
         <v>584</v>
       </c>
     </row>
@@ -6544,7 +6538,7 @@
       <c r="K152" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M152" s="48" t="s">
+      <c r="M152" s="41" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6567,6 +6561,9 @@
       <c r="K153" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M153" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T153" s="14" t="s">
         <v>579</v>
       </c>
@@ -6590,6 +6587,9 @@
       <c r="K154" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M154" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T154" s="14" t="s">
         <v>580</v>
       </c>
@@ -6636,6 +6636,9 @@
       <c r="K156" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M156" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T156" s="14" t="s">
         <v>581</v>
       </c>
@@ -6659,6 +6662,9 @@
       <c r="K157" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M157" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T157" s="14" t="s">
         <v>578</v>
       </c>
@@ -6682,6 +6688,9 @@
       <c r="K158" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M158" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="T158" s="14" t="s">
         <v>583</v>
       </c>
@@ -6728,6 +6737,9 @@
       <c r="K160" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M160" s="32" t="s">
+        <v>188</v>
+      </c>
       <c r="T160" s="14" t="s">
         <v>582</v>
       </c>
@@ -6749,7 +6761,10 @@
         <v>543</v>
       </c>
       <c r="K161" s="19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="M161" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="T161" s="14" t="s">
         <v>585</v>
@@ -6774,6 +6789,9 @@
       <c r="K162" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M162" s="31" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="163" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
@@ -6817,6 +6835,9 @@
       <c r="K164" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="M164" s="31" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="165" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
@@ -6836,6 +6857,9 @@
       </c>
       <c r="K165" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="M165" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E4B7D-CC93-2248-A3AC-B144FA11E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC8342-CC98-C74E-AA9D-9A3A588A5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2236,10 +2236,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C149" sqref="C149"/>
+      <selection pane="bottomRight" activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2372,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>187</v>
@@ -2508,7 +2508,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>187</v>
@@ -2541,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>187</v>
@@ -2673,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>187</v>
@@ -2706,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>187</v>
@@ -2780,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M13" s="30" t="s">
         <v>191</v>
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M14" s="30" t="s">
         <v>192</v>
@@ -2885,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M16" s="30" t="s">
         <v>193</v>
@@ -3035,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="M20" s="30" t="s">
         <v>193</v>
@@ -3105,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M22" s="30" t="s">
         <v>187</v>
@@ -3140,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M23" s="30" t="s">
         <v>265</v>
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M25" s="30" t="s">
         <v>187</v>
@@ -3284,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M27" s="30" t="s">
         <v>193</v>
@@ -3357,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M29" s="30" t="s">
         <v>193</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M35" s="30" t="s">
         <v>186</v>
@@ -3621,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M36" s="30" t="s">
         <v>187</v>
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M37" s="30" t="s">
         <v>186</v>
@@ -3720,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M39" s="30" t="s">
         <v>186</v>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M42" s="30" t="s">
         <v>186</v>
@@ -3871,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M44" s="30" t="s">
         <v>186</v>
@@ -3900,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M45" s="30" t="s">
         <v>185</v>
@@ -3929,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M46" s="30" t="s">
         <v>186</v>
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M47" s="30" t="s">
         <v>186</v>
@@ -4196,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M55" s="30" t="s">
         <v>238</v>
@@ -4326,7 +4326,7 @@
         <v>3</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M60" s="30" t="s">
         <v>186</v>
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M64" s="30" t="s">
         <v>265</v>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M67" s="30" t="s">
         <v>265</v>
@@ -4493,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M68" s="30" t="s">
         <v>265</v>
@@ -4516,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M69" s="30" t="s">
         <v>265</v>
@@ -4536,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M70" s="30" t="s">
         <v>265</v>
@@ -4556,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M71" s="30" t="s">
         <v>265</v>
@@ -4576,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M72" s="30" t="s">
         <v>265</v>
@@ -4599,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M73" s="30" t="s">
         <v>265</v>
@@ -6127,7 +6127,7 @@
         <v>458</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M134" s="32" t="s">
         <v>506</v>
@@ -6735,7 +6735,7 @@
         <v>542</v>
       </c>
       <c r="K160" s="19" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M160" s="32" t="s">
         <v>188</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC8342-CC98-C74E-AA9D-9A3A588A5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64585033-15A3-AF47-A744-4B2DFDA5E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38000" yWindow="720" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -2236,10 +2236,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K131" sqref="K131"/>
+      <selection pane="bottomRight" activeCell="M67" sqref="M67:M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4625,7 +4625,7 @@
         <v>27</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="M74" s="32" t="s">
         <v>303</v>
@@ -4947,7 +4947,7 @@
         <v>306</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="M86" s="32" t="s">
         <v>265</v>
@@ -5163,7 +5163,7 @@
         <v>315</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="M95" s="32" t="s">
         <v>265</v>
@@ -5353,7 +5353,7 @@
         <v>361</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="M103" s="32" t="s">
         <v>188</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64585033-15A3-AF47-A744-4B2DFDA5E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC0C07B-BFA7-814A-89E9-7904E476CD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38000" yWindow="720" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="0" windowWidth="19840" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="585">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -91,18 +91,12 @@
     <t>surveys_missing</t>
   </si>
   <si>
-    <t>afterstresschange</t>
-  </si>
-  <si>
     <t>filter_directory?</t>
   </si>
   <si>
     <t>timebetween</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -112,12 +106,6 @@
     <t>Debriefed</t>
   </si>
   <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -1793,6 +1781,15 @@
   </si>
   <si>
     <t>getting more experiences, social activities - did not name relationship with activity (Row 14, cells AJ, AM) nonsocial activities - may not be done alone, may be their dog, but it might be the nickname of a person (Row 14, cell V)</t>
+  </si>
+  <si>
+    <t>sex (M=0; F=1)</t>
+  </si>
+  <si>
+    <t>race (0=white, 1=black, 2=latinx, 3=asian, 4=mixed, 5 = NA)</t>
+  </si>
+  <si>
+    <t>date_part1completed</t>
   </si>
 </sst>
 </file>
@@ -2236,10 +2233,10 @@
   <dimension ref="A1:Y1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M67" sqref="M67:M73"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2257,10 +2254,9 @@
     <col min="13" max="13" width="12.6640625" style="35"/>
     <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" customWidth="1"/>
-    <col min="16" max="16" width="19.5" style="10" customWidth="1"/>
-    <col min="17" max="17" width="19.5" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="17" max="17" width="19.5" style="10" customWidth="1"/>
+    <col min="18" max="18" width="19.5" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
     <col min="20" max="20" width="103.33203125" style="12" customWidth="1"/>
     <col min="21" max="24" width="12.6640625" customWidth="1"/>
   </cols>
@@ -2288,13 +2284,13 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>9</v>
@@ -2303,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>17</v>
@@ -2311,43 +2307,43 @@
       <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Y1" s="2" t="s">
-        <v>25</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5">
         <v>45393</v>
@@ -2356,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="10">
         <v>45393</v>
@@ -2372,64 +2368,64 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2" s="10">
-        <v>44875</v>
-      </c>
-      <c r="Q2">
-        <f>_xlfn.DAYS(P2,F2)</f>
-        <v>-518</v>
-      </c>
-      <c r="R2" s="6">
+      <c r="P2" s="5">
+        <v>45392</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>45396</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.DAYS(Q2,F2)</f>
+        <v>3</v>
+      </c>
+      <c r="S2" s="6">
         <v>2</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="U2" s="4">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>25</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="4">
         <v>0</v>
-      </c>
-      <c r="V2">
-        <v>30</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5">
         <v>45393</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" s="10">
         <v>45393</v>
@@ -2442,27 +2438,27 @@
         <v>3</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
         <v>45393</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10">
         <v>45393</v>
@@ -2478,24 +2474,24 @@
         <v>3</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
         <v>45393</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10">
         <v>45393</v>
@@ -2508,27 +2504,27 @@
         <v>3</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>45393</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10">
         <v>45393</v>
@@ -2541,27 +2537,27 @@
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5">
         <v>45394</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F7" s="10">
         <v>45394</v>
@@ -2577,24 +2573,24 @@
         <v>3</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5">
         <v>45394</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" s="10">
         <v>45394</v>
@@ -2610,24 +2606,24 @@
         <v>3</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5">
         <v>45394</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="10">
         <v>45394</v>
@@ -2643,24 +2639,24 @@
         <v>3</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
       </c>
       <c r="C10" s="5">
         <v>45394</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F10" s="10">
         <v>45394</v>
@@ -2673,27 +2669,27 @@
         <v>3</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5">
         <v>45463</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="10">
         <v>45454</v>
@@ -2706,30 +2702,30 @@
         <v>3</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5">
         <v>45467</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" s="10">
         <v>45466</v>
@@ -2745,27 +2741,27 @@
         <v>3</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5">
         <v>45467</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" s="10">
         <v>45466</v>
@@ -2780,27 +2776,27 @@
         <v>3</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5">
         <v>45467</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="10">
         <v>45466</v>
@@ -2815,24 +2811,24 @@
         <v>3</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" s="5">
         <v>45467</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F15" s="10">
         <v>45466</v>
@@ -2841,36 +2837,36 @@
         <v>3</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C16" s="5">
         <v>45467</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F16" s="10">
         <v>45466</v>
@@ -2885,30 +2881,30 @@
         <v>3</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5">
         <v>45467</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17" s="10">
         <v>45466</v>
@@ -2929,21 +2925,21 @@
         <v>45469</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="15">
         <v>45467</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" s="16">
         <v>45466</v>
@@ -2952,37 +2948,37 @@
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="P18" s="16"/>
+        <v>184</v>
+      </c>
+      <c r="Q18" s="16"/>
       <c r="T18" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C19" s="5">
         <v>45467</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F19" s="10">
         <v>45466</v>
@@ -2991,36 +2987,36 @@
         <v>3</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C20" s="5">
         <v>45467</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F20" s="10">
         <v>45466</v>
@@ -3035,24 +3031,24 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5">
         <v>45467</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F21" s="10">
         <v>45466</v>
@@ -3061,36 +3057,36 @@
         <v>3</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" s="5">
         <v>45467</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F22" s="10">
         <v>45466</v>
@@ -3105,27 +3101,27 @@
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C23" s="5">
         <v>45467</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F23" s="10">
         <v>45466</v>
@@ -3140,27 +3136,27 @@
         <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C24" s="5">
         <v>45467</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F24" s="10">
         <v>45466</v>
@@ -3178,22 +3174,22 @@
         <v>3</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25" s="18">
         <v>45475.893946759257</v>
@@ -3208,10 +3204,10 @@
         <v>3</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N25">
         <v>20</v>
@@ -3219,19 +3215,19 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C26" s="5">
         <v>45476</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F26" s="18">
         <v>45475.933194444442</v>
@@ -3249,27 +3245,27 @@
         <v>3</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5">
         <v>45476</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27" s="18">
         <v>45475.898773148147</v>
@@ -3284,27 +3280,27 @@
         <v>3</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C28" s="5">
         <v>45477</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F28" s="18">
         <v>45475.899189814816</v>
@@ -3322,27 +3318,27 @@
         <v>3</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5">
         <v>45478</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F29" s="18">
         <v>45475.907094907408</v>
@@ -3357,27 +3353,27 @@
         <v>3</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C30" s="5">
         <v>45479</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F30" s="18">
         <v>45475.912314814814</v>
@@ -3393,27 +3389,27 @@
         <v>3</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C31" s="5">
         <v>45480</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F31" s="18">
         <v>45475.918715277781</v>
@@ -3431,30 +3427,30 @@
         <v>3</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="R31" t="s">
+        <v>186</v>
+      </c>
+      <c r="S31" t="s">
         <v>3</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32" s="5">
         <v>45481</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F32" s="18">
         <v>45475.990833333337</v>
@@ -3463,36 +3459,36 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="R32" t="s">
+        <v>184</v>
+      </c>
+      <c r="S32" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C33" s="5">
         <v>45482</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F33" s="18">
         <v>45476.090590277781</v>
@@ -3510,27 +3506,27 @@
         <v>3</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="R33" t="s">
+        <v>186</v>
+      </c>
+      <c r="S33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C34" s="5">
         <v>45483</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F34" s="18">
         <v>45476.23265046296</v>
@@ -3548,27 +3544,27 @@
         <v>3</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="R34" t="s">
+        <v>186</v>
+      </c>
+      <c r="S34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C35" s="5">
         <v>45484</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F35" s="18">
         <v>45475.935532407406</v>
@@ -3583,30 +3579,30 @@
         <v>3</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="R35" t="s">
+        <v>182</v>
+      </c>
+      <c r="S35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C36" s="5">
         <v>45485</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F36" s="18">
         <v>45475.923344907409</v>
@@ -3621,30 +3617,30 @@
         <v>3</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="R36" t="s">
+        <v>183</v>
+      </c>
+      <c r="S36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C37" s="5">
         <v>45486</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F37" s="18">
         <v>45476.044374999998</v>
@@ -3659,30 +3655,30 @@
         <v>3</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="R37" t="s">
+        <v>182</v>
+      </c>
+      <c r="S37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C38" s="5">
         <v>45490</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>3</v>
@@ -3691,59 +3687,59 @@
         <v>3</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="R38" t="s">
+        <v>180</v>
+      </c>
+      <c r="S38" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C39" s="5">
         <v>45490</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M39" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="R39" t="s">
+        <v>182</v>
+      </c>
+      <c r="S39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C40" s="5">
         <v>45490</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>3</v>
@@ -3752,27 +3748,27 @@
         <v>3</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="R40" t="s">
+        <v>180</v>
+      </c>
+      <c r="S40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C41" s="5">
         <v>45490</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>3</v>
@@ -3781,62 +3777,62 @@
         <v>3</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="R41" t="s">
+        <v>211</v>
+      </c>
+      <c r="S41" t="s">
         <v>3</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C42" s="5">
         <v>45490</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M42" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="R42" t="s">
+        <v>182</v>
+      </c>
+      <c r="S42" t="s">
         <v>3</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C43" s="5">
         <v>45490</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>3</v>
@@ -3845,149 +3841,149 @@
         <v>3</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="R43" t="s">
+        <v>179</v>
+      </c>
+      <c r="S43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C44" s="5">
         <v>45490</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="R44" t="s">
+        <v>182</v>
+      </c>
+      <c r="S44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C45" s="5">
         <v>45490</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M45" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="R45" t="s">
+        <v>181</v>
+      </c>
+      <c r="S45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C46" s="5">
         <v>45490</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M46" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N46">
         <v>20</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>3</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C47" s="5">
         <v>45490</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M47" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="R47" t="s">
+        <v>182</v>
+      </c>
+      <c r="S47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C48" s="5">
         <v>45511</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>3</v>
@@ -3996,27 +3992,27 @@
         <v>3</v>
       </c>
       <c r="M48" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="R48" t="s">
+        <v>185</v>
+      </c>
+      <c r="S48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C49" s="5">
         <v>45511</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>3</v>
@@ -4025,30 +4021,30 @@
         <v>3</v>
       </c>
       <c r="M49" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N49" s="2">
         <v>20</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C50" s="5">
         <v>45517</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>3</v>
@@ -4057,30 +4053,30 @@
         <v>3</v>
       </c>
       <c r="M50" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="R50" t="s">
+        <v>185</v>
+      </c>
+      <c r="S50" t="s">
         <v>3</v>
       </c>
       <c r="T50" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C51" s="5">
         <v>45517</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>3</v>
@@ -4089,27 +4085,27 @@
         <v>3</v>
       </c>
       <c r="M51" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T51" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C52" s="5">
         <v>45517</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>3</v>
@@ -4118,53 +4114,53 @@
         <v>3</v>
       </c>
       <c r="M52" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C53" s="5">
         <v>45517</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C54" s="5">
         <v>45524</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>3</v>
@@ -4173,50 +4169,50 @@
         <v>3</v>
       </c>
       <c r="M54" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C55" s="5">
         <v>45524</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M55" s="30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C56" s="5">
         <v>45524</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>3</v>
@@ -4225,24 +4221,24 @@
         <v>3</v>
       </c>
       <c r="M56" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C57" s="5">
         <v>45524</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>3</v>
@@ -4251,24 +4247,24 @@
         <v>3</v>
       </c>
       <c r="M57" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C58" s="5">
         <v>45524</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>3</v>
@@ -4277,24 +4273,24 @@
         <v>3</v>
       </c>
       <c r="M58" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C59" s="5">
         <v>45524</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>3</v>
@@ -4303,68 +4299,68 @@
         <v>3</v>
       </c>
       <c r="M59" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C60" s="5">
         <v>45524</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M60" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C61" s="5">
         <v>45532</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T61" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C62" s="5">
         <v>45533</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>3</v>
@@ -4373,18 +4369,18 @@
         <v>3</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C63" s="5">
         <v>45534</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>3</v>
@@ -4393,38 +4389,38 @@
         <v>3</v>
       </c>
       <c r="M63" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C64" s="5">
         <v>45535</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M64" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C65" s="5">
         <v>45536</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>3</v>
@@ -4433,18 +4429,18 @@
         <v>3</v>
       </c>
       <c r="M65" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C66" s="5">
         <v>45537</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>3</v>
@@ -4453,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="M66" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N66" s="2">
         <v>32</v>
@@ -4461,42 +4457,42 @@
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C67" s="5">
         <v>45538</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M67" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C68" s="5">
         <v>45539</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M68" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N68">
         <v>20</v>
@@ -4504,82 +4500,82 @@
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C69" s="5">
         <v>45540</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M69" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C70" s="5">
         <v>45541</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M70" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C71" s="5">
         <v>45542</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M71" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C72" s="5">
         <v>45543</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M72" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N72">
         <v>3</v>
@@ -4587,2279 +4583,2276 @@
     </row>
     <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C73" s="5">
         <v>45544</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M73" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C74" s="5">
         <v>45552</v>
       </c>
       <c r="D74" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M74" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C75" s="5">
         <v>45552</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M75" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T75" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C76" s="5">
         <v>45552</v>
       </c>
       <c r="D76" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K76" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T76" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C77" s="5">
         <v>45552</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K77" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M77" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C78" s="5">
         <v>45552</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K78" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M78" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C79" s="5">
         <v>45552</v>
       </c>
       <c r="D79" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M79" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T79" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C80" s="5">
         <v>45552</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K80" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C81" s="5">
         <v>45552</v>
       </c>
       <c r="D81" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F81" s="25"/>
       <c r="I81" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M81" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T81" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C82" s="5">
         <v>45552</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K82" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M82" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C83" s="5">
         <v>45552</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M83" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T83" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C84" s="26">
         <v>45567</v>
       </c>
       <c r="D84" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K84" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M84" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C85" s="26">
         <v>45567</v>
       </c>
       <c r="D85" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M85" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T85" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C86" s="26">
         <v>45567</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T86" s="14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C87" s="26">
         <v>45567</v>
       </c>
       <c r="D87" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K87" s="14" t="s">
         <v>3</v>
       </c>
       <c r="M87" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C88" s="26">
         <v>45567</v>
       </c>
       <c r="D88" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K88" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M88" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C89" s="26">
         <v>45567</v>
       </c>
       <c r="D89" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K89" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C90" s="26">
         <v>45567</v>
       </c>
       <c r="D90" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K90" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M90" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C91" s="26">
         <v>45567</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K91" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C92" s="26">
         <v>45567</v>
       </c>
       <c r="D92" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K92" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M92" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C93" s="26">
         <v>45567</v>
       </c>
       <c r="D93" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M93" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C94" s="26">
         <v>45567</v>
       </c>
       <c r="D94" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K94" s="14" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C95" s="26">
         <v>45567</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M95" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T95" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C96" s="26">
         <v>45567</v>
       </c>
       <c r="D96" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M96" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C97" s="26">
         <v>45567</v>
       </c>
       <c r="D97" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E97" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M97" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C98" s="26">
         <v>45567</v>
       </c>
       <c r="D98" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M98" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C99" s="26">
         <v>45567</v>
       </c>
       <c r="D99" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M99" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C100" s="26">
         <v>45567</v>
       </c>
       <c r="D100" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K100" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C101" s="5">
         <v>45574</v>
       </c>
       <c r="D101" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K101" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T101" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B102" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C102" s="5">
         <v>45574</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K102" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B103" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C103" s="5">
         <v>45574</v>
       </c>
       <c r="D103" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M103" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T103" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C104" s="5">
         <v>45574</v>
       </c>
       <c r="D104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M104" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T104" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B105" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C105" s="5">
         <v>45574</v>
       </c>
       <c r="D105" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K105" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M105" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T105" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C106" s="5">
         <v>45574</v>
       </c>
       <c r="D106" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M106" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T106" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B107" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C107" s="26">
         <v>45574</v>
       </c>
       <c r="D107" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K107" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M107" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T107" s="14" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B108" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C108" s="26">
         <v>45574</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K108" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M108" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T108" s="14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C109" s="26">
         <v>45574</v>
       </c>
       <c r="D109" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M109" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T109" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C110" s="26">
         <v>45574</v>
       </c>
       <c r="D110" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E110" s="37" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K110" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M110" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B111" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C111" s="26">
         <v>45574</v>
       </c>
       <c r="D111" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K111" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M111" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B112" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C112" s="26">
         <v>45574</v>
       </c>
       <c r="D112" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E112" s="37" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K112" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M112" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B113" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C113" s="26">
         <v>45574</v>
       </c>
       <c r="D113" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M113" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B114" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C114" s="26">
         <v>45574</v>
       </c>
       <c r="D114" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E114" s="37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K114" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M114" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C115" s="26">
         <v>45574</v>
       </c>
       <c r="D115" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E115" s="37" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K115" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M115" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B116" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C116" s="38">
         <v>45581</v>
       </c>
       <c r="D116" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K116" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M116" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B117" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C117" s="38">
         <v>45581</v>
       </c>
       <c r="D117" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M117" s="32" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="T117" s="14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B118" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C118" s="38">
         <v>45581</v>
       </c>
       <c r="D118" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M118" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T118" s="14" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B119" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C119" s="38">
         <v>45581</v>
       </c>
       <c r="D119" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K119" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M119" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T119" s="14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B120" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C120" s="38">
         <v>45581</v>
       </c>
       <c r="D120" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M120" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T120" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B121" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C121" s="38">
         <v>45581</v>
       </c>
       <c r="D121" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K121" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M121" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B122" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C122" s="38">
         <v>45581</v>
       </c>
       <c r="D122" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K122" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M122" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T122" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B123" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C123" s="38">
         <v>45581</v>
       </c>
       <c r="D123" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M123" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T123" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B124" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C124" s="38">
         <v>45581</v>
       </c>
       <c r="D124" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K124" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M124" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T124" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B125" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C125" s="38">
         <v>45588</v>
       </c>
       <c r="D125" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E125" s="39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K125" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M125" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T125" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B126" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C126" s="38">
         <v>45588</v>
       </c>
       <c r="D126" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E126" s="39" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K126" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M126" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T126" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C127" s="38">
         <v>45588</v>
       </c>
       <c r="D127" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E127" s="39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M127" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T127" s="14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C128" s="38">
         <v>45588</v>
       </c>
       <c r="D128" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E128" s="39" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K128" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M128" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T128" s="14"/>
     </row>
     <row r="129" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B129" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C129" s="38">
         <v>45588</v>
       </c>
       <c r="D129" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E129" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K129" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M129" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B130" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C130" s="38">
         <v>45588</v>
       </c>
       <c r="D130" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E130" s="39" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K130" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M130" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B131" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C131" s="38">
         <v>45588</v>
       </c>
       <c r="D131" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K131" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M131" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T131" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C132" s="38">
         <v>45588</v>
       </c>
       <c r="D132" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K132" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M132" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="S132">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="T132" s="14" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C133" s="38">
         <v>45588</v>
       </c>
       <c r="D133" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K133" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M133" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B134" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C134" s="38">
         <v>45588</v>
       </c>
       <c r="D134" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="T134" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C135" s="38">
         <v>45588</v>
       </c>
       <c r="D135" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K135" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T135" s="14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C136" s="38">
         <v>45588</v>
       </c>
       <c r="D136" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K136" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M136" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T136" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B137" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C137" s="38">
         <v>45588</v>
       </c>
       <c r="D137" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E137" s="40" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K137" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M137" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B138" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C138" s="38">
         <v>45588</v>
       </c>
       <c r="D138" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E138" s="39" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M138" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T138" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B139" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C139" s="38">
         <v>45588</v>
       </c>
       <c r="D139" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E139" s="39" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K139" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M139" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T139" s="14"/>
     </row>
     <row r="140" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B140" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C140" s="38">
         <v>45588</v>
       </c>
       <c r="D140" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E140" s="39" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K140" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M140" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T140" s="14"/>
     </row>
     <row r="141" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C141" s="38">
         <v>45595</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K141" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T141" s="14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B142" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C142" s="38">
         <v>45595</v>
       </c>
       <c r="D142" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K142" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M142" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T142" s="14" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C143" s="38">
         <v>45595</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K143" s="19" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B144" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C144" s="38">
         <v>45595</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K144" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M144" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C145" s="38">
         <v>45595</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K145" s="19" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M145" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B146" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C146" s="38">
         <v>45595</v>
       </c>
       <c r="D146" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K146" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M146" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T146" s="14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B147" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C147" s="38">
         <v>45595</v>
       </c>
       <c r="D147" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M147" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C148" s="38">
         <v>45595</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K148" s="19" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M148" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B149" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C149" s="38">
         <v>45595</v>
       </c>
       <c r="D149" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K149" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M149" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B150" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C150" s="38">
         <v>45595</v>
       </c>
       <c r="D150" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K150" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M150" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:20" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="42" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B151" s="43" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C151" s="44">
         <v>45602</v>
       </c>
       <c r="D151" s="43" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E151" s="45" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F151" s="46"/>
       <c r="K151" s="47" t="s">
         <v>3</v>
       </c>
       <c r="M151" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="P151" s="46"/>
+        <v>211</v>
+      </c>
+      <c r="Q151" s="46"/>
       <c r="T151" s="48" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="152" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B152" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C152" s="5">
         <v>45602</v>
       </c>
       <c r="D152" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E152" s="37" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K152" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M152" s="41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B153" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C153" s="38">
         <v>45602</v>
       </c>
       <c r="D153" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E153" s="37" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K153" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M153" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T153" s="14" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B154" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C154" s="38">
         <v>45602</v>
       </c>
       <c r="D154" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E154" s="37" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K154" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M154" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T154" s="14" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="155" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B155" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C155" s="38">
         <v>45602</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E155" s="37" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K155" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M155" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B156" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C156" s="38">
         <v>45602</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E156" s="37" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M156" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T156" s="14" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="157" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B157" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C157" s="38">
         <v>45602</v>
       </c>
       <c r="D157" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K157" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M157" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T157" s="14" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B158" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C158" s="38">
         <v>45602</v>
       </c>
       <c r="D158" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K158" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M158" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T158" s="14" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B159" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C159" s="38">
         <v>45602</v>
       </c>
       <c r="D159" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K159" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M159" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C160" s="38">
         <v>45602</v>
       </c>
       <c r="D160" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E160" s="37" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K160" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M160" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T160" s="14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B161" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C161" s="38">
         <v>45602</v>
       </c>
       <c r="D161" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E161" s="37" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K161" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M161" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T161" s="14" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B162" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C162" s="38">
         <v>45602</v>
       </c>
       <c r="D162" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E162" s="37" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K162" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M162" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B163" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C163" s="38">
         <v>45602</v>
       </c>
       <c r="D163" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E163" s="37" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K163" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M163" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B164" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C164" s="38">
         <v>45602</v>
       </c>
       <c r="D164" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K164" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M164" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B165" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C165" s="38">
         <v>45602</v>
       </c>
       <c r="D165" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E165" s="36" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K165" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M165" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD8280-1F1A-244D-A4A1-79120E2D07B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE287E2-0CBC-334A-B6DA-6F5C1123E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="0" windowWidth="24480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="586">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1790,6 +1790,9 @@
   </si>
   <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>removed them because they did not correctly enter salience ratings</t>
   </si>
 </sst>
 </file>
@@ -2216,10 +2219,10 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6766,7 +6769,7 @@
         <v>299</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="M84" s="24" t="s">
         <v>210</v>
@@ -6780,6 +6783,9 @@
       <c r="R84">
         <f t="shared" si="1"/>
         <v>2</v>
+      </c>
+      <c r="T84" s="14" t="s">
+        <v>585</v>
       </c>
       <c r="U84">
         <v>1</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE287E2-0CBC-334A-B6DA-6F5C1123E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C931A00-25A9-CF47-B444-C81B9504241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="0" windowWidth="24480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8800" yWindow="1960" windowWidth="24480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$L$1:$L$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="586">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -2216,13 +2216,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T70" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="135" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="X152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T85" sqref="T85"/>
+      <selection pane="bottomRight" activeCell="Z169" sqref="Z169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2234,21 +2234,21 @@
     <col min="6" max="6" width="19" style="10" customWidth="1"/>
     <col min="7" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34" style="28" customWidth="1"/>
-    <col min="14" max="14" width="26" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="19.5" style="10" customWidth="1"/>
-    <col min="18" max="18" width="19.5" customWidth="1"/>
-    <col min="19" max="19" width="15.1640625" customWidth="1"/>
-    <col min="20" max="20" width="103.33203125" style="12" customWidth="1"/>
-    <col min="21" max="24" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="34" style="28" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="10" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="21" max="21" width="103.33203125" style="12" customWidth="1"/>
+    <col min="22" max="25" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2279,53 +2279,54 @@
       <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -2354,51 +2355,52 @@
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
         <v>45392</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>45396</v>
       </c>
-      <c r="R2">
-        <f>_xlfn.DAYS(Q2,P2)</f>
+      <c r="S2">
+        <f>_xlfn.DAYS(R2,Q2)</f>
         <v>4</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <v>2</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
-      <c r="V2">
+      <c r="V2" s="4">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>25</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -2424,39 +2426,39 @@
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="N3" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>45393</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>45396</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R66" si="0">_xlfn.DAYS(Q3,P3)</f>
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="0">_xlfn.DAYS(R3,Q3)</f>
+        <v>3</v>
       </c>
       <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>26</v>
       </c>
-      <c r="W3" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2482,39 +2484,42 @@
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="24" t="s">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>45393</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>45398</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>35</v>
       </c>
-      <c r="W4" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -2540,36 +2545,36 @@
       <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="N5" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>45393</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>-45393</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
       <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>26</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -2595,36 +2600,36 @@
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="N6" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>45393</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="0"/>
         <v>-45393</v>
       </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
       <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>26</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -2650,39 +2655,42 @@
       <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="24" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>45394</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>45397</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
       <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>32</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -2708,39 +2716,42 @@
       <c r="I8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="24" t="s">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>45394</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>45395</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
       <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>34</v>
       </c>
-      <c r="W8" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2766,39 +2777,42 @@
       <c r="I9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="24" t="s">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>45394</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <v>45395</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>29</v>
       </c>
-      <c r="W9" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -2824,39 +2838,39 @@
       <c r="I10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="N10" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>45394</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>45395</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>31</v>
       </c>
-      <c r="W10" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -2882,39 +2896,39 @@
       <c r="I11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="N11" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>45454</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="0"/>
         <v>-45454</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="U11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
       <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>25</v>
       </c>
-      <c r="W11" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -2940,42 +2954,45 @@
       <c r="I12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>45467</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>45476</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="U12" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
       <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>28</v>
       </c>
-      <c r="W12" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -3003,39 +3020,39 @@
       <c r="I13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>45467</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>45476</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>30</v>
       </c>
-      <c r="W13" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
@@ -3063,36 +3080,36 @@
       <c r="I14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="N14" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>45467</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="0"/>
         <v>-45467</v>
       </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
       <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>23</v>
       </c>
-      <c r="W14" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
@@ -3117,39 +3134,39 @@
       <c r="I15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="N15" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>45467</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="0"/>
         <v>-45467</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="U15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
       <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>24</v>
       </c>
-      <c r="W15" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -3177,39 +3194,39 @@
       <c r="I16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="N16" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>45467</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="0"/>
         <v>-45467</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="U16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
       <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
         <v>27</v>
       </c>
-      <c r="W16" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
@@ -3237,42 +3254,45 @@
       <c r="I17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="5">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="5">
         <v>45469</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="N17" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>45467</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="R17" s="10">
         <v>45475</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
       <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
         <v>31</v>
       </c>
-      <c r="W17" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -3297,40 +3317,40 @@
       <c r="I18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="N18" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="P18" s="15">
+      <c r="Q18" s="15">
         <v>45467</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18">
+      <c r="R18" s="16"/>
+      <c r="S18">
         <f t="shared" si="0"/>
         <v>-45467</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="U18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
       <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
         <v>26</v>
       </c>
-      <c r="W18" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3358,39 +3378,39 @@
       <c r="I19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="N19" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>45467</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="0"/>
         <v>-45467</v>
       </c>
-      <c r="T19" s="14" t="s">
+      <c r="U19" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>24</v>
       </c>
-      <c r="W19" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -3418,36 +3438,36 @@
       <c r="I20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="N20" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>45467</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="0"/>
         <v>-45467</v>
       </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
       <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
         <v>19</v>
       </c>
-      <c r="W20" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -3472,39 +3492,39 @@
       <c r="I21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="N21" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>45467</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="0"/>
         <v>-45467</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="U21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
       <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
         <v>31</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
@@ -3532,36 +3552,36 @@
       <c r="I22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="N22" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>45467</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="0"/>
         <v>-45467</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
       <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>33</v>
       </c>
-      <c r="W22" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
@@ -3589,39 +3609,39 @@
       <c r="I23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="N23" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>45489</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="R23" s="10">
         <v>45476</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
       <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
         <v>34</v>
       </c>
-      <c r="W23" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
@@ -3649,39 +3669,42 @@
       <c r="I24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="25" t="s">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <v>45474</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="R24" s="10">
         <v>45475</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>23</v>
       </c>
-      <c r="W24" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
@@ -3707,42 +3730,42 @@
       <c r="I25" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="L25" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="N25" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>20</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <v>45476</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="R25" s="10">
         <v>45477</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>33</v>
       </c>
-      <c r="W25" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>67</v>
       </c>
@@ -3770,42 +3793,45 @@
       <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="24" t="s">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <v>45476</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="R26" s="10">
         <v>45484</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="U26" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>18</v>
       </c>
-      <c r="W26" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
@@ -3833,39 +3859,39 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="L27" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="N27" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>45476</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="R27" s="10">
         <v>45484</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>28</v>
       </c>
-      <c r="W27" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -3893,42 +3919,45 @@
       <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="24" t="s">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <v>45476</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="R28" s="10">
         <v>45478</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T28" s="12" t="s">
+      <c r="U28" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
       <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>31</v>
       </c>
-      <c r="W28" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -3956,39 +3985,39 @@
       <c r="I29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="L29" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="N29" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <v>45476</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="R29" s="10">
         <v>45478</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
       <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>31</v>
       </c>
-      <c r="W29" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -4014,42 +4043,45 @@
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="24" t="s">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q30" s="5">
         <v>45476</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="R30" s="10">
         <v>45492</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="U30" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
       <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
         <v>26</v>
       </c>
-      <c r="W30" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
@@ -4077,45 +4109,48 @@
       <c r="I31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M31" s="24" t="s">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P31" s="5">
+      <c r="Q31" s="5">
         <v>45476</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="R31" s="10">
         <v>45477</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S31" t="s">
-        <v>3</v>
-      </c>
-      <c r="T31" s="12" t="s">
+      <c r="T31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
       <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>27</v>
       </c>
-      <c r="W31" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
@@ -4140,29 +4175,29 @@
       <c r="I32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="N32" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P32" s="5">
+      <c r="Q32" s="5">
         <v>45476</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="0"/>
         <v>-45476</v>
       </c>
-      <c r="S32" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="14" t="s">
+      <c r="T32" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
@@ -4190,42 +4225,45 @@
       <c r="I33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="24" t="s">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <v>45476</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="R33" s="10">
         <v>45477</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S33" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
+      <c r="T33" t="s">
+        <v>3</v>
       </c>
       <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>33</v>
       </c>
-      <c r="W33" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
@@ -4253,42 +4291,45 @@
       <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M34" s="24" t="s">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P34" s="5">
+      <c r="Q34" s="5">
         <v>45476</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="R34" s="10">
         <v>45476</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S34" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
+      <c r="T34" t="s">
+        <v>3</v>
       </c>
       <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
         <v>23</v>
       </c>
-      <c r="W34" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
@@ -4316,42 +4357,42 @@
       <c r="I35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="L35" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M35" s="23" t="s">
+      <c r="N35" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="P35" s="5">
+      <c r="Q35" s="5">
         <v>45478</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="R35" s="10">
         <v>45478</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S35" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
+      <c r="T35" t="s">
+        <v>3</v>
       </c>
       <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
         <v>33</v>
       </c>
-      <c r="W35" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>67</v>
       </c>
@@ -4379,42 +4420,42 @@
       <c r="I36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="L36" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="N36" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="P36" s="5">
+      <c r="Q36" s="5">
         <v>45476</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="R36" s="10">
         <v>45482</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S36" t="s">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
+      <c r="T36" t="s">
+        <v>3</v>
       </c>
       <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>35</v>
       </c>
-      <c r="W36" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>67</v>
       </c>
@@ -4442,42 +4483,42 @@
       <c r="I37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="L37" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M37" s="23" t="s">
+      <c r="N37" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="P37" s="5">
+      <c r="Q37" s="5">
         <v>45497</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="R37" s="10">
         <v>45479</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="S37" t="s">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
+      <c r="T37" t="s">
+        <v>3</v>
       </c>
       <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
         <v>26</v>
       </c>
-      <c r="W37" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -4496,45 +4537,48 @@
       <c r="I38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="25" t="s">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="P38" s="5">
+      <c r="Q38" s="5">
         <v>45489</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="R38" s="10">
         <v>45495</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S38" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="14" t="s">
+      <c r="T38" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
       <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>35</v>
       </c>
-      <c r="W38" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>153</v>
       </c>
@@ -4553,42 +4597,42 @@
       <c r="I39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="18" t="s">
+      <c r="L39" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="N39" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="P39" s="5">
+      <c r="Q39" s="5">
         <v>45489</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="R39" s="10">
         <v>45495</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S39" t="s">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
+      <c r="T39" t="s">
+        <v>3</v>
       </c>
       <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
         <v>25</v>
       </c>
-      <c r="W39" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>153</v>
       </c>
@@ -4607,42 +4651,45 @@
       <c r="I40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M40" s="24" t="s">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="P40" s="5">
+      <c r="Q40" s="5">
         <v>45489</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="R40" s="10">
         <v>45493</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S40" t="s">
-        <v>3</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
+      <c r="T40" t="s">
+        <v>3</v>
       </c>
       <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
         <v>28</v>
       </c>
-      <c r="W40" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>153</v>
       </c>
@@ -4661,45 +4708,48 @@
       <c r="I41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="24" t="s">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P41" s="5">
+      <c r="Q41" s="5">
         <v>45489</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="R41" s="10">
         <v>45518</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="S41" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="14" t="s">
+      <c r="T41" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
       <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
         <v>34</v>
       </c>
-      <c r="W41" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>153</v>
       </c>
@@ -4718,45 +4768,45 @@
       <c r="I42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="18" t="s">
+      <c r="L42" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M42" s="23" t="s">
+      <c r="N42" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="P42" s="5">
+      <c r="Q42" s="5">
         <v>45489</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="R42" s="10">
         <v>45495</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S42" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="14" t="s">
+      <c r="T42" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
       <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
         <v>26</v>
       </c>
-      <c r="W42" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>153</v>
       </c>
@@ -4775,42 +4825,45 @@
       <c r="I43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="24" t="s">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="P43" s="5">
+      <c r="Q43" s="5">
         <v>45489</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="R43" s="10">
         <v>45493</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S43" t="s">
-        <v>3</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
+      <c r="T43" t="s">
+        <v>3</v>
       </c>
       <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
         <v>21</v>
       </c>
-      <c r="W43" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>153</v>
       </c>
@@ -4829,42 +4882,42 @@
       <c r="I44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="18" t="s">
+      <c r="L44" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M44" s="23" t="s">
+      <c r="N44" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="P44" s="5">
+      <c r="Q44" s="5">
         <v>45489</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="R44" s="10">
         <v>45495</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S44" t="s">
-        <v>3</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
+      <c r="T44" t="s">
+        <v>3</v>
       </c>
       <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
         <v>20</v>
       </c>
-      <c r="W44" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y44">
+      <c r="Y44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>153</v>
       </c>
@@ -4883,39 +4936,39 @@
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="18" t="s">
+      <c r="L45" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="N45" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="P45" s="5">
+      <c r="Q45" s="5">
         <v>45489</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="0"/>
         <v>-45489</v>
       </c>
-      <c r="S45" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
+      <c r="T45" t="s">
+        <v>3</v>
       </c>
       <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
         <v>29</v>
       </c>
-      <c r="W45" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>153</v>
       </c>
@@ -4934,48 +4987,48 @@
       <c r="I46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="18" t="s">
+      <c r="L46" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M46" s="23" t="s">
+      <c r="N46" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>20</v>
       </c>
-      <c r="P46" s="5">
+      <c r="Q46" s="5">
         <v>45489</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="R46" s="10">
         <v>45495</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S46" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="14" t="s">
+      <c r="T46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
       <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
         <v>20</v>
       </c>
-      <c r="W46" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y46">
+      <c r="Y46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>153</v>
       </c>
@@ -4994,42 +5047,42 @@
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="18" t="s">
+      <c r="L47" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M47" s="23" t="s">
+      <c r="N47" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="P47" s="5">
+      <c r="Q47" s="5">
         <v>45489</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="R47" s="10">
         <v>45496</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S47" t="s">
-        <v>3</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
+      <c r="T47" t="s">
+        <v>3</v>
       </c>
       <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
         <v>30</v>
       </c>
-      <c r="W47" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>153</v>
       </c>
@@ -5048,42 +5101,45 @@
       <c r="I48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="24" t="s">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P48" s="5">
+      <c r="Q48" s="5">
         <v>45510</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="R48" s="10">
         <v>45512</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S48" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
+      <c r="T48" t="s">
+        <v>3</v>
       </c>
       <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
         <v>29</v>
       </c>
-      <c r="W48" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>153</v>
       </c>
@@ -5102,45 +5158,48 @@
       <c r="I49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="24" t="s">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <v>20</v>
       </c>
-      <c r="P49" s="5">
+      <c r="Q49" s="5">
         <v>45510</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="R49" s="10">
         <v>45512</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S49" t="s">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
+      <c r="T49" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="W49">
         <v>24</v>
       </c>
-      <c r="W49" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y49">
+      <c r="Y49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>153</v>
       </c>
@@ -5159,45 +5218,48 @@
       <c r="I50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M50" s="27" t="s">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N50" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="P50" s="5">
+      <c r="Q50" s="5">
         <v>45516</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="R50" s="10">
         <v>45518</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S50" t="s">
-        <v>3</v>
-      </c>
-      <c r="T50" s="14" t="s">
+      <c r="T50" t="s">
+        <v>3</v>
+      </c>
+      <c r="U50" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
       <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
         <v>31</v>
       </c>
-      <c r="W50" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>153</v>
       </c>
@@ -5216,42 +5278,45 @@
       <c r="I51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K51" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M51" s="24" t="s">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P51" s="5">
+      <c r="Q51" s="5">
         <v>45516</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="R51" s="10">
         <v>45521</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T51" s="14" t="s">
+      <c r="U51" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
       <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
         <v>21</v>
       </c>
-      <c r="W51" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>153</v>
       </c>
@@ -5270,42 +5335,45 @@
       <c r="I52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="24" t="s">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <v>45516</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="R52" s="10">
         <v>45519</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T52" s="14" t="s">
+      <c r="U52" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
       <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
         <v>33</v>
       </c>
-      <c r="W52" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>153</v>
       </c>
@@ -5324,20 +5392,20 @@
       <c r="I53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="18" t="s">
+      <c r="L53" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M53" s="25" t="s">
+      <c r="N53" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W53" s="4"/>
       <c r="X53" s="4"/>
-    </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y53" s="4"/>
+    </row>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>153</v>
       </c>
@@ -5356,39 +5424,42 @@
       <c r="I54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="24" t="s">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P54" s="5">
+      <c r="Q54" s="5">
         <v>45524</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="R54" s="10">
         <v>45525</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
       <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
         <v>27</v>
       </c>
-      <c r="W54" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>153</v>
       </c>
@@ -5407,39 +5478,39 @@
       <c r="I55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="18" t="s">
+      <c r="L55" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M55" s="23" t="s">
+      <c r="N55" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="P55" s="5">
+      <c r="Q55" s="5">
         <v>45524</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="R55" s="10">
         <v>45525</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
       <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
         <v>20</v>
       </c>
-      <c r="W55" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>153</v>
       </c>
@@ -5458,39 +5529,42 @@
       <c r="I56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K56" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M56" s="24" t="s">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N56" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P56" s="5">
+      <c r="Q56" s="5">
         <v>45524</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="R56" s="10">
         <v>45526</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
       <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
         <v>20</v>
       </c>
-      <c r="W56" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y56">
+      <c r="Y56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>153</v>
       </c>
@@ -5509,39 +5583,42 @@
       <c r="I57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="24" t="s">
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P57" s="5">
+      <c r="Q57" s="5">
         <v>45524</v>
       </c>
-      <c r="Q57" s="10">
+      <c r="R57" s="10">
         <v>45526</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
       <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
         <v>20</v>
       </c>
-      <c r="W57" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>153</v>
       </c>
@@ -5560,39 +5637,42 @@
       <c r="I58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="24" t="s">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P58" s="5">
+      <c r="Q58" s="5">
         <v>45524</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="R58" s="10">
         <v>45527</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U58">
-        <v>1</v>
-      </c>
       <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
         <v>25</v>
       </c>
-      <c r="W58" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>153</v>
       </c>
@@ -5611,39 +5691,42 @@
       <c r="I59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="24" t="s">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P59" s="5">
+      <c r="Q59" s="5">
         <v>45524</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="R59" s="10">
         <v>45528</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
       <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
         <v>34</v>
       </c>
-      <c r="W59" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>153</v>
       </c>
@@ -5662,39 +5745,39 @@
       <c r="I60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="18" t="s">
+      <c r="L60" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M60" s="23" t="s">
+      <c r="N60" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="P60" s="5">
+      <c r="Q60" s="5">
         <v>45524</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="R60" s="10">
         <v>45528</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U60">
-        <v>1</v>
-      </c>
       <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
         <v>25</v>
       </c>
-      <c r="W60" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y60">
+      <c r="Y60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>249</v>
       </c>
@@ -5708,39 +5791,40 @@
         <v>23</v>
       </c>
       <c r="J61" s="4"/>
-      <c r="K61" s="18" t="s">
+      <c r="K61" s="4"/>
+      <c r="L61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M61" s="25" t="s">
+      <c r="N61" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P61" s="5">
+      <c r="Q61" s="5">
         <v>45530</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <f t="shared" si="0"/>
         <v>-45530</v>
       </c>
-      <c r="T61" s="14" t="s">
+      <c r="U61" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
       <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
         <v>18</v>
       </c>
-      <c r="W61" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>250</v>
       </c>
@@ -5753,39 +5837,42 @@
       <c r="I62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="24" t="s">
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P62" s="5">
+      <c r="Q62" s="5">
         <v>45530</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="R62" s="10">
         <v>45533</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
       <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
         <v>24</v>
       </c>
-      <c r="W62" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>247</v>
       </c>
@@ -5798,39 +5885,42 @@
       <c r="I63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K63" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M63" s="24" t="s">
+      <c r="K63" s="4">
+        <v>1</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N63" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P63" s="5">
+      <c r="Q63" s="5">
         <v>45530</v>
       </c>
-      <c r="Q63" s="10">
+      <c r="R63" s="10">
         <v>45533</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
       <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
         <v>30</v>
       </c>
-      <c r="W63" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>251</v>
       </c>
@@ -5843,39 +5933,39 @@
       <c r="I64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="18" t="s">
+      <c r="L64" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M64" s="23" t="s">
+      <c r="N64" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="P64" s="5">
+      <c r="Q64" s="5">
         <v>45530</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="R64" s="10">
         <v>45534</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
       <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
         <v>28</v>
       </c>
-      <c r="W64" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>248</v>
       </c>
@@ -5888,39 +5978,42 @@
       <c r="I65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K65" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M65" s="24" t="s">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N65" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P65" s="5">
+      <c r="Q65" s="5">
         <v>45530</v>
       </c>
-      <c r="Q65" s="10">
+      <c r="R65" s="10">
         <v>45537</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U65">
-        <v>1</v>
-      </c>
       <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
         <v>29</v>
       </c>
-      <c r="W65" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>252</v>
       </c>
@@ -5933,42 +6026,45 @@
       <c r="I66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="24" t="s">
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="N66" s="2">
+      <c r="O66" s="2">
         <v>32</v>
       </c>
-      <c r="P66" s="5">
+      <c r="Q66" s="5">
         <v>45530</v>
       </c>
-      <c r="Q66" s="10">
+      <c r="R66" s="10">
         <v>45536</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
       <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
         <v>26</v>
       </c>
-      <c r="W66" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>254</v>
       </c>
@@ -5981,39 +6077,39 @@
       <c r="I67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K67" s="18" t="s">
+      <c r="L67" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M67" s="23" t="s">
+      <c r="N67" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="P67" s="5">
+      <c r="Q67" s="5">
         <v>45530</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="R67" s="10">
         <v>45537</v>
       </c>
-      <c r="R67">
-        <f t="shared" ref="R67:R130" si="1">_xlfn.DAYS(Q67,P67)</f>
+      <c r="S67">
+        <f t="shared" ref="S67:S130" si="1">_xlfn.DAYS(R67,Q67)</f>
         <v>7</v>
       </c>
-      <c r="U67">
-        <v>1</v>
-      </c>
       <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
         <v>32</v>
       </c>
-      <c r="W67" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>259</v>
       </c>
@@ -6026,42 +6122,42 @@
       <c r="I68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K68" s="18" t="s">
+      <c r="L68" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M68" s="23" t="s">
+      <c r="N68" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>20</v>
       </c>
-      <c r="P68" s="5">
+      <c r="Q68" s="5">
         <v>45530</v>
       </c>
-      <c r="Q68" s="10">
+      <c r="R68" s="10">
         <v>45536</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
       <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
         <v>22</v>
       </c>
-      <c r="W68" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>256</v>
       </c>
@@ -6074,36 +6170,36 @@
       <c r="I69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K69" s="18" t="s">
+      <c r="L69" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M69" s="23" t="s">
+      <c r="N69" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="P69" s="5">
+      <c r="Q69" s="5">
         <v>45530</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <f t="shared" si="1"/>
         <v>-45530</v>
       </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
       <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
         <v>23</v>
       </c>
-      <c r="W69" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y69">
+      <c r="Y69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>257</v>
       </c>
@@ -6116,39 +6212,39 @@
       <c r="I70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K70" s="18" t="s">
+      <c r="L70" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M70" s="23" t="s">
+      <c r="N70" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="P70" s="5">
+      <c r="Q70" s="5">
         <v>45530</v>
       </c>
-      <c r="Q70" s="10">
+      <c r="R70" s="10">
         <v>45538</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
       <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
         <v>23</v>
       </c>
-      <c r="W70" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>258</v>
       </c>
@@ -6161,39 +6257,39 @@
       <c r="I71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K71" s="18" t="s">
+      <c r="L71" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M71" s="23" t="s">
+      <c r="N71" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="P71" s="5">
+      <c r="Q71" s="5">
         <v>45530</v>
       </c>
-      <c r="Q71" s="10">
+      <c r="R71" s="10">
         <v>45538</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="U71">
-        <v>1</v>
-      </c>
       <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
         <v>27</v>
       </c>
-      <c r="W71" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y71">
+      <c r="Y71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z71">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>253</v>
       </c>
@@ -6206,42 +6302,42 @@
       <c r="I72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="18" t="s">
+      <c r="L72" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M72" s="23" t="s">
+      <c r="N72" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="P72" s="5">
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="5">
         <v>45533</v>
       </c>
-      <c r="Q72" s="10">
+      <c r="R72" s="10">
         <v>45546</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
       <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
         <v>23</v>
       </c>
-      <c r="W72" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>255</v>
       </c>
@@ -6254,39 +6350,39 @@
       <c r="I73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K73" s="18" t="s">
+      <c r="L73" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M73" s="23" t="s">
+      <c r="N73" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="P73" s="5">
+      <c r="Q73" s="5">
         <v>45533</v>
       </c>
-      <c r="Q73" s="10">
+      <c r="R73" s="10">
         <v>45548</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
       <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
         <v>21</v>
       </c>
-      <c r="W73" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>153</v>
       </c>
@@ -6305,39 +6401,39 @@
       <c r="I74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="18" t="s">
+      <c r="L74" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M74" s="25" t="s">
+      <c r="N74" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="P74" s="5">
+      <c r="Q74" s="5">
         <v>45554</v>
       </c>
-      <c r="Q74" s="10">
+      <c r="R74" s="10">
         <v>45554</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
       <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
         <v>34</v>
       </c>
-      <c r="W74" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>153</v>
       </c>
@@ -6356,39 +6452,39 @@
       <c r="I75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K75" s="18" t="s">
+      <c r="L75" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="M75" s="25" t="s">
+      <c r="N75" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P75" s="5">
+      <c r="Q75" s="5">
         <v>45551</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <f t="shared" si="1"/>
         <v>-45551</v>
       </c>
-      <c r="T75" s="14" t="s">
+      <c r="U75" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
       <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
         <v>31</v>
       </c>
-      <c r="W75" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -6407,42 +6503,45 @@
       <c r="I76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="24" t="s">
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P76" s="5">
+      <c r="Q76" s="5">
         <v>45551</v>
       </c>
-      <c r="Q76" s="10">
+      <c r="R76" s="10">
         <v>45566</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T76" s="14" t="s">
+      <c r="U76" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
       <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
         <v>22</v>
       </c>
-      <c r="W76" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6461,39 +6560,42 @@
       <c r="I77" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M77" s="24" t="s">
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N77" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P77" s="5">
+      <c r="Q77" s="5">
         <v>45551</v>
       </c>
-      <c r="Q77" s="10">
+      <c r="R77" s="10">
         <v>45569</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
       <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
         <v>35</v>
       </c>
-      <c r="W77" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -6512,39 +6614,42 @@
       <c r="I78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M78" s="24" t="s">
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N78" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P78" s="5">
+      <c r="Q78" s="5">
         <v>45551</v>
       </c>
-      <c r="Q78" s="10">
+      <c r="R78" s="10">
         <v>45566</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="U78">
-        <v>1</v>
-      </c>
       <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
         <v>30</v>
       </c>
-      <c r="W78" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -6563,23 +6668,23 @@
       <c r="I79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="18" t="s">
+      <c r="L79" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M79" s="25" t="s">
+      <c r="N79" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T79" s="14" t="s">
+      <c r="U79" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="W79" s="4"/>
       <c r="X79" s="4"/>
-    </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y79" s="4"/>
+    </row>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -6598,39 +6703,42 @@
       <c r="I80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K80" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="24" t="s">
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P80" s="5">
+      <c r="Q80" s="5">
         <v>45551</v>
       </c>
-      <c r="Q80" s="10">
+      <c r="R80" s="10">
         <v>45561</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U80">
-        <v>1</v>
-      </c>
       <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
         <v>20</v>
       </c>
-      <c r="W80" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>153</v>
       </c>
@@ -6650,23 +6758,23 @@
       <c r="I81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K81" s="18" t="s">
+      <c r="L81" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M81" s="25" t="s">
+      <c r="N81" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T81" s="14" t="s">
+      <c r="U81" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="W81" s="4"/>
       <c r="X81" s="4"/>
-    </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y81" s="4"/>
+    </row>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -6685,39 +6793,42 @@
       <c r="I82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K82" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M82" s="24" t="s">
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N82" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P82" s="5">
+      <c r="Q82" s="5">
         <v>45551</v>
       </c>
-      <c r="Q82" s="10">
+      <c r="R82" s="10">
         <v>45566</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="U82">
-        <v>1</v>
-      </c>
       <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
         <v>29</v>
       </c>
-      <c r="W82" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y82">
+      <c r="Y82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -6736,23 +6847,23 @@
       <c r="I83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K83" s="18" t="s">
+      <c r="L83" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="M83" s="25" t="s">
+      <c r="N83" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T83" s="14" t="s">
+      <c r="U83" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="W83" s="4"/>
       <c r="X83" s="4"/>
-    </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y83" s="4"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>153</v>
       </c>
@@ -6768,42 +6879,42 @@
       <c r="E84" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="K84" s="18" t="s">
+      <c r="L84" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M84" s="24" t="s">
+      <c r="N84" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P84" s="5">
+      <c r="Q84" s="5">
         <v>45566</v>
       </c>
-      <c r="Q84" s="10">
+      <c r="R84" s="10">
         <v>45568</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T84" s="14" t="s">
+      <c r="U84" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="U84">
-        <v>1</v>
-      </c>
       <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
         <v>33</v>
       </c>
-      <c r="W84" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y84" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6819,42 +6930,45 @@
       <c r="E85" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="K85" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M85" s="24" t="s">
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N85" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P85" s="5">
+      <c r="Q85" s="5">
         <v>45566</v>
       </c>
-      <c r="Q85" s="10">
+      <c r="R85" s="10">
         <v>45568</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T85" s="14" t="s">
+      <c r="U85" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="U85">
-        <v>1</v>
-      </c>
       <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
         <v>24</v>
       </c>
-      <c r="W85" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -6870,39 +6984,39 @@
       <c r="E86" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="K86" s="14" t="s">
+      <c r="L86" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="M86" s="25" t="s">
+      <c r="N86" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="P86" s="5">
+      <c r="Q86" s="5">
         <v>45566</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <f t="shared" si="1"/>
         <v>-45566</v>
       </c>
-      <c r="T86" s="14" t="s">
+      <c r="U86" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
       <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
         <v>21</v>
       </c>
-      <c r="W86" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -6918,42 +7032,45 @@
       <c r="E87" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="K87" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M87" s="24" t="s">
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N87" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P87" s="5">
+      <c r="Q87" s="5">
         <v>45566</v>
       </c>
-      <c r="Q87" s="10">
+      <c r="R87" s="10">
         <v>45568</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T87" s="12" t="s">
+      <c r="U87" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U87">
-        <v>1</v>
-      </c>
       <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
         <v>33</v>
       </c>
-      <c r="W87" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -6969,39 +7086,42 @@
       <c r="E88" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="K88" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M88" s="24" t="s">
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N88" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P88" s="5">
+      <c r="Q88" s="5">
         <v>45566</v>
       </c>
-      <c r="Q88" s="10">
+      <c r="R88" s="10">
         <v>45568</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
       <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
         <v>32</v>
       </c>
-      <c r="W88" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -7017,39 +7137,42 @@
       <c r="E89" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="K89" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="24" t="s">
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P89" s="5">
+      <c r="Q89" s="5">
         <v>45566</v>
       </c>
-      <c r="Q89" s="10">
+      <c r="R89" s="10">
         <v>45568</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
       <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
         <v>29</v>
       </c>
-      <c r="W89" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -7065,39 +7188,42 @@
       <c r="E90" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="K90" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M90" s="24" t="s">
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N90" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P90" s="5">
+      <c r="Q90" s="5">
         <v>45566</v>
       </c>
-      <c r="Q90" s="10">
+      <c r="R90" s="10">
         <v>45568</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U90">
-        <v>1</v>
-      </c>
       <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
         <v>27</v>
       </c>
-      <c r="W90" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y90" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -7113,39 +7239,42 @@
       <c r="E91" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="K91" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="24" t="s">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P91" s="5">
+      <c r="Q91" s="5">
         <v>45566</v>
       </c>
-      <c r="Q91" s="10">
+      <c r="R91" s="10">
         <v>45573</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="U91">
-        <v>1</v>
-      </c>
       <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
         <v>29</v>
       </c>
-      <c r="W91" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y91" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -7161,39 +7290,42 @@
       <c r="E92" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="K92" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M92" s="24" t="s">
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N92" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P92" s="5">
+      <c r="Q92" s="5">
         <v>45566</v>
       </c>
-      <c r="Q92" s="10">
+      <c r="R92" s="10">
         <v>45568</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U92">
-        <v>1</v>
-      </c>
       <c r="V92">
+        <v>1</v>
+      </c>
+      <c r="W92">
         <v>22</v>
       </c>
-      <c r="W92" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -7209,39 +7341,42 @@
       <c r="E93" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="K93" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M93" s="24" t="s">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N93" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P93" s="5">
+      <c r="Q93" s="5">
         <v>45566</v>
       </c>
-      <c r="Q93" s="10">
+      <c r="R93" s="10">
         <v>45569</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U93">
-        <v>1</v>
-      </c>
       <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
         <v>28</v>
       </c>
-      <c r="W93" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -7257,42 +7392,45 @@
       <c r="E94" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="K94" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="24" t="s">
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P94" s="5">
+      <c r="Q94" s="5">
         <v>45566</v>
       </c>
-      <c r="Q94" s="10">
+      <c r="R94" s="10">
         <v>45570</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T94" s="12" t="s">
+      <c r="U94" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
       <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
         <v>34</v>
       </c>
-      <c r="W94" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y94">
+      <c r="Y94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -7308,42 +7446,42 @@
       <c r="E95" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="K95" s="18" t="s">
+      <c r="L95" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M95" s="25" t="s">
+      <c r="N95" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="5">
+      <c r="Q95" s="5">
         <v>45566</v>
       </c>
-      <c r="Q95" s="10">
+      <c r="R95" s="10">
         <v>45572</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T95" s="14" t="s">
+      <c r="U95" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="U95">
-        <v>1</v>
-      </c>
       <c r="V95">
+        <v>1</v>
+      </c>
+      <c r="W95">
         <v>35</v>
       </c>
-      <c r="W95" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y95" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -7359,39 +7497,42 @@
       <c r="E96" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="K96" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M96" s="24" t="s">
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N96" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P96" s="5">
+      <c r="Q96" s="5">
         <v>45566</v>
       </c>
-      <c r="Q96" s="10">
+      <c r="R96" s="10">
         <v>45569</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U96">
-        <v>1</v>
-      </c>
       <c r="V96">
+        <v>1</v>
+      </c>
+      <c r="W96">
         <v>26</v>
       </c>
-      <c r="W96" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y96" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -7407,39 +7548,42 @@
       <c r="E97" t="s">
         <v>312</v>
       </c>
-      <c r="K97" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M97" s="24" t="s">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N97" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P97" s="5">
+      <c r="Q97" s="5">
         <v>45566</v>
       </c>
-      <c r="Q97" s="10">
+      <c r="R97" s="10">
         <v>45569</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U97">
-        <v>1</v>
-      </c>
       <c r="V97">
+        <v>1</v>
+      </c>
+      <c r="W97">
         <v>24</v>
       </c>
-      <c r="W97" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X97" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -7455,39 +7599,42 @@
       <c r="E98" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="K98" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M98" s="24" t="s">
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N98" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P98" s="5">
+      <c r="Q98" s="5">
         <v>45566</v>
       </c>
-      <c r="Q98" s="10">
+      <c r="R98" s="10">
         <v>45572</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="U98">
-        <v>1</v>
-      </c>
       <c r="V98">
+        <v>1</v>
+      </c>
+      <c r="W98">
         <v>33</v>
       </c>
-      <c r="W98" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y98" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -7503,39 +7650,42 @@
       <c r="E99" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="K99" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M99" s="24" t="s">
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N99" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P99" s="5">
+      <c r="Q99" s="5">
         <v>45566</v>
       </c>
-      <c r="Q99" s="10">
+      <c r="R99" s="10">
         <v>45570</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U99">
-        <v>1</v>
-      </c>
       <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99">
         <v>20</v>
       </c>
-      <c r="W99" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X99" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y99" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -7551,39 +7701,42 @@
       <c r="E100" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="K100" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="24" t="s">
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P100" s="5">
+      <c r="Q100" s="5">
         <v>45566</v>
       </c>
-      <c r="Q100" s="10">
+      <c r="R100" s="10">
         <v>45570</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U100">
-        <v>1</v>
-      </c>
       <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100">
         <v>30</v>
       </c>
-      <c r="W100" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y100">
+      <c r="Y100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z100">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>369</v>
       </c>
@@ -7599,42 +7752,45 @@
       <c r="E101" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="K101" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="24" t="s">
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P101" s="5">
+      <c r="Q101" s="5">
         <v>45573</v>
       </c>
-      <c r="Q101" s="10">
+      <c r="R101" s="10">
         <v>45575</v>
       </c>
-      <c r="R101">
+      <c r="S101">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T101" s="14" t="s">
+      <c r="U101" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="U101">
-        <v>1</v>
-      </c>
       <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101">
         <v>23</v>
       </c>
-      <c r="W101" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y101" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>369</v>
       </c>
@@ -7650,39 +7806,42 @@
       <c r="E102" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="K102" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="24" t="s">
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P102" s="5">
+      <c r="Q102" s="5">
         <v>45573</v>
       </c>
-      <c r="Q102" s="10">
+      <c r="R102" s="10">
         <v>45575</v>
       </c>
-      <c r="R102">
+      <c r="S102">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U102">
-        <v>1</v>
-      </c>
       <c r="V102">
+        <v>1</v>
+      </c>
+      <c r="W102">
         <v>30</v>
       </c>
-      <c r="W102" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y102" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>369</v>
       </c>
@@ -7698,42 +7857,42 @@
       <c r="E103" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="K103" s="18" t="s">
+      <c r="L103" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M103" s="25" t="s">
+      <c r="N103" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P103" s="5">
+      <c r="Q103" s="5">
         <v>45573</v>
       </c>
-      <c r="Q103" s="10">
+      <c r="R103" s="10">
         <v>45579</v>
       </c>
-      <c r="R103">
+      <c r="S103">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T103" s="14" t="s">
+      <c r="U103" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="U103">
-        <v>1</v>
-      </c>
       <c r="V103">
+        <v>1</v>
+      </c>
+      <c r="W103">
         <v>27</v>
       </c>
-      <c r="W103" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y103">
+      <c r="Y103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z103">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>369</v>
       </c>
@@ -7749,26 +7908,26 @@
       <c r="E104" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="K104" s="18" t="s">
+      <c r="L104" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M104" s="25" t="s">
+      <c r="N104" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="P104" s="5">
+      <c r="Q104" s="5">
         <v>45573</v>
       </c>
-      <c r="R104">
+      <c r="S104">
         <f t="shared" si="1"/>
         <v>-45573</v>
       </c>
-      <c r="T104" s="14" t="s">
+      <c r="U104" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="W104" s="4"/>
       <c r="X104" s="4"/>
-    </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y104" s="4"/>
+    </row>
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>369</v>
       </c>
@@ -7784,42 +7943,45 @@
       <c r="E105" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="K105" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M105" s="24" t="s">
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N105" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P105" s="5">
+      <c r="Q105" s="5">
         <v>45573</v>
       </c>
-      <c r="Q105" s="10">
+      <c r="R105" s="10">
         <v>45576</v>
       </c>
-      <c r="R105">
+      <c r="S105">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T105" s="14" t="s">
+      <c r="U105" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
       <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
         <v>27</v>
       </c>
-      <c r="W105" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>369</v>
       </c>
@@ -7835,26 +7997,26 @@
       <c r="E106" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="K106" s="18" t="s">
+      <c r="L106" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M106" s="25" t="s">
+      <c r="N106" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="P106" s="5">
+      <c r="Q106" s="5">
         <v>45573</v>
       </c>
-      <c r="R106">
+      <c r="S106">
         <f t="shared" si="1"/>
         <v>-45573</v>
       </c>
-      <c r="T106" s="14" t="s">
+      <c r="U106" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="W106" s="4"/>
       <c r="X106" s="4"/>
-    </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y106" s="4"/>
+    </row>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>369</v>
       </c>
@@ -7870,42 +8032,45 @@
       <c r="E107" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="K107" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M107" s="24" t="s">
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N107" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P107" s="5">
+      <c r="Q107" s="5">
         <v>45573</v>
       </c>
-      <c r="Q107" s="10">
+      <c r="R107" s="10">
         <v>45576</v>
       </c>
-      <c r="R107">
+      <c r="S107">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T107" s="14" t="s">
+      <c r="U107" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
       <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
         <v>21</v>
       </c>
-      <c r="W107" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>369</v>
       </c>
@@ -7921,42 +8086,45 @@
       <c r="E108" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="K108" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M108" s="24" t="s">
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N108" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P108" s="5">
+      <c r="Q108" s="5">
         <v>45573</v>
       </c>
-      <c r="Q108" s="10">
+      <c r="R108" s="10">
         <v>45575</v>
       </c>
-      <c r="R108">
+      <c r="S108">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T108" s="14" t="s">
+      <c r="U108" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="U108">
-        <v>1</v>
-      </c>
       <c r="V108">
+        <v>1</v>
+      </c>
+      <c r="W108">
         <v>22</v>
       </c>
-      <c r="W108" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>369</v>
       </c>
@@ -7972,26 +8140,26 @@
       <c r="E109" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="K109" s="18" t="s">
+      <c r="L109" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M109" s="25" t="s">
+      <c r="N109" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="P109" s="5">
+      <c r="Q109" s="5">
         <v>45573</v>
       </c>
-      <c r="R109">
+      <c r="S109">
         <f t="shared" si="1"/>
         <v>-45573</v>
       </c>
-      <c r="T109" s="14" t="s">
+      <c r="U109" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="W109" s="4"/>
       <c r="X109" s="4"/>
-    </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y109" s="4"/>
+    </row>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>369</v>
       </c>
@@ -8007,39 +8175,42 @@
       <c r="E110" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="K110" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M110" s="24" t="s">
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N110" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P110" s="5">
+      <c r="Q110" s="5">
         <v>45573</v>
       </c>
-      <c r="Q110" s="10">
+      <c r="R110" s="10">
         <v>45575</v>
       </c>
-      <c r="R110">
+      <c r="S110">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
       <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
         <v>29</v>
       </c>
-      <c r="W110" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X110" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y110" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>369</v>
       </c>
@@ -8055,39 +8226,42 @@
       <c r="E111" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="K111" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M111" s="24" t="s">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N111" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P111" s="5">
+      <c r="Q111" s="5">
         <v>45574</v>
       </c>
-      <c r="Q111" s="10">
+      <c r="R111" s="10">
         <v>45575</v>
       </c>
-      <c r="R111">
+      <c r="S111">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
       <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
         <v>35</v>
       </c>
-      <c r="W111" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X111" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>369</v>
       </c>
@@ -8103,39 +8277,42 @@
       <c r="E112" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="K112" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M112" s="24" t="s">
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N112" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P112" s="5">
+      <c r="Q112" s="5">
         <v>45574</v>
       </c>
-      <c r="Q112" s="10">
+      <c r="R112" s="10">
         <v>45576</v>
       </c>
-      <c r="R112">
+      <c r="S112">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
       <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
         <v>32</v>
       </c>
-      <c r="W112" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X112" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y112" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>369</v>
       </c>
@@ -8151,39 +8328,42 @@
       <c r="E113" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="K113" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M113" s="24" t="s">
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N113" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P113" s="5">
+      <c r="Q113" s="5">
         <v>45574</v>
       </c>
-      <c r="Q113" s="10">
+      <c r="R113" s="10">
         <v>45577</v>
       </c>
-      <c r="R113">
+      <c r="S113">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U113">
-        <v>1</v>
-      </c>
       <c r="V113">
+        <v>1</v>
+      </c>
+      <c r="W113">
         <v>34</v>
       </c>
-      <c r="W113" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X113" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y113" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>369</v>
       </c>
@@ -8199,39 +8379,42 @@
       <c r="E114" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="K114" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M114" s="24" t="s">
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N114" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P114" s="5">
+      <c r="Q114" s="5">
         <v>45574</v>
       </c>
-      <c r="Q114" s="10">
+      <c r="R114" s="10">
         <v>45575</v>
       </c>
-      <c r="R114">
+      <c r="S114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U114">
-        <v>0</v>
-      </c>
       <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
         <v>34</v>
       </c>
-      <c r="W114" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y114" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>369</v>
       </c>
@@ -8247,39 +8430,42 @@
       <c r="E115" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="K115" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M115" s="24" t="s">
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N115" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P115" s="5">
+      <c r="Q115" s="5">
         <v>45574</v>
       </c>
-      <c r="Q115" s="10">
+      <c r="R115" s="10">
         <v>45575</v>
       </c>
-      <c r="R115">
+      <c r="S115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U115">
-        <v>1</v>
-      </c>
       <c r="V115">
+        <v>1</v>
+      </c>
+      <c r="W115">
         <v>25</v>
       </c>
-      <c r="W115" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X115" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y115">
+      <c r="Y115" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z115">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>416</v>
       </c>
@@ -8295,39 +8481,42 @@
       <c r="E116" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="K116" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M116" s="24" t="s">
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N116" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P116" s="5">
+      <c r="Q116" s="5">
         <v>45580</v>
       </c>
-      <c r="Q116" s="10">
+      <c r="R116" s="10">
         <v>45582</v>
       </c>
-      <c r="R116">
+      <c r="S116">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U116">
-        <v>1</v>
-      </c>
       <c r="V116">
+        <v>1</v>
+      </c>
+      <c r="W116">
         <v>23</v>
       </c>
-      <c r="W116" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X116" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>416</v>
       </c>
@@ -8343,26 +8532,26 @@
       <c r="E117" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="K117" s="18" t="s">
+      <c r="L117" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="M117" s="25" t="s">
+      <c r="N117" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="P117" s="5">
+      <c r="Q117" s="5">
         <v>45580</v>
       </c>
-      <c r="R117">
+      <c r="S117">
         <f t="shared" si="1"/>
         <v>-45580</v>
       </c>
-      <c r="T117" s="14" t="s">
+      <c r="U117" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="W117" s="4"/>
       <c r="X117" s="4"/>
-    </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y117" s="4"/>
+    </row>
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>416</v>
       </c>
@@ -8378,26 +8567,26 @@
       <c r="E118" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="K118" s="18" t="s">
+      <c r="L118" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="M118" s="25" t="s">
+      <c r="N118" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P118" s="5">
+      <c r="Q118" s="5">
         <v>45580</v>
       </c>
-      <c r="R118">
+      <c r="S118">
         <f t="shared" si="1"/>
         <v>-45580</v>
       </c>
-      <c r="T118" s="14" t="s">
+      <c r="U118" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="W118" s="4"/>
       <c r="X118" s="4"/>
-    </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y118" s="4"/>
+    </row>
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>416</v>
       </c>
@@ -8413,42 +8602,45 @@
       <c r="E119" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="K119" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M119" s="24" t="s">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N119" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P119" s="5">
+      <c r="Q119" s="5">
         <v>45580</v>
       </c>
-      <c r="Q119" s="10">
+      <c r="R119" s="10">
         <v>45585</v>
       </c>
-      <c r="R119">
+      <c r="S119">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="T119" s="14" t="s">
+      <c r="U119" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="U119">
-        <v>1</v>
-      </c>
       <c r="V119">
+        <v>1</v>
+      </c>
+      <c r="W119">
         <v>30</v>
       </c>
-      <c r="W119" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X119" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y119" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>416</v>
       </c>
@@ -8464,26 +8656,26 @@
       <c r="E120" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="K120" s="18" t="s">
+      <c r="L120" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="M120" s="25" t="s">
+      <c r="N120" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P120" s="5">
+      <c r="Q120" s="5">
         <v>45580</v>
       </c>
-      <c r="R120">
+      <c r="S120">
         <f t="shared" si="1"/>
         <v>-45580</v>
       </c>
-      <c r="T120" s="14" t="s">
+      <c r="U120" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="W120" s="4"/>
       <c r="X120" s="4"/>
-    </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y120" s="4"/>
+    </row>
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>416</v>
       </c>
@@ -8499,39 +8691,42 @@
       <c r="E121" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="K121" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M121" s="24" t="s">
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N121" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P121" s="5">
+      <c r="Q121" s="5">
         <v>45580</v>
       </c>
-      <c r="Q121" s="10">
+      <c r="R121" s="10">
         <v>45582</v>
       </c>
-      <c r="R121">
+      <c r="S121">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U121">
-        <v>1</v>
-      </c>
       <c r="V121">
+        <v>1</v>
+      </c>
+      <c r="W121">
         <v>29</v>
       </c>
-      <c r="W121" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X121" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y121" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>416</v>
       </c>
@@ -8547,42 +8742,45 @@
       <c r="E122" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="K122" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M122" s="24" t="s">
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N122" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P122" s="5">
+      <c r="Q122" s="5">
         <v>45580</v>
       </c>
-      <c r="Q122" s="10">
+      <c r="R122" s="10">
         <v>45582</v>
       </c>
-      <c r="R122">
+      <c r="S122">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T122" s="14" t="s">
+      <c r="U122" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="U122">
-        <v>1</v>
-      </c>
       <c r="V122">
+        <v>1</v>
+      </c>
+      <c r="W122">
         <v>35</v>
       </c>
-      <c r="W122" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X122" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y122">
+      <c r="Y122" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z122">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>416</v>
       </c>
@@ -8598,42 +8796,45 @@
       <c r="E123" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="K123" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M123" s="25" t="s">
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N123" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="P123" s="5">
+      <c r="Q123" s="5">
         <v>45580</v>
       </c>
-      <c r="Q123" s="10">
+      <c r="R123" s="10">
         <v>45586</v>
       </c>
-      <c r="R123">
+      <c r="S123">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T123" s="14" t="s">
+      <c r="U123" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="U123">
-        <v>0</v>
-      </c>
       <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
         <v>26</v>
       </c>
-      <c r="W123" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X123" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y123" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>416</v>
       </c>
@@ -8649,42 +8850,45 @@
       <c r="E124" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="K124" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M124" s="24" t="s">
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N124" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P124" s="5">
+      <c r="Q124" s="5">
         <v>45580</v>
       </c>
-      <c r="Q124" s="10">
+      <c r="R124" s="10">
         <v>45585</v>
       </c>
-      <c r="R124">
+      <c r="S124">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="T124" s="14" t="s">
+      <c r="U124" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="U124">
-        <v>1</v>
-      </c>
       <c r="V124">
+        <v>1</v>
+      </c>
+      <c r="W124">
         <v>33</v>
       </c>
-      <c r="W124" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X124" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y124">
+      <c r="Y124" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>369</v>
       </c>
@@ -8700,42 +8904,45 @@
       <c r="E125" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="K125" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M125" s="24" t="s">
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N125" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P125" s="5">
+      <c r="Q125" s="5">
         <v>45587</v>
       </c>
-      <c r="Q125" s="10">
+      <c r="R125" s="10">
         <v>45591</v>
       </c>
-      <c r="R125">
+      <c r="S125">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T125" s="14" t="s">
+      <c r="U125" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="U125">
-        <v>1</v>
-      </c>
       <c r="V125">
+        <v>1</v>
+      </c>
+      <c r="W125">
         <v>26</v>
       </c>
-      <c r="W125" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y125">
+      <c r="Y125" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>369</v>
       </c>
@@ -8751,42 +8958,45 @@
       <c r="E126" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="K126" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M126" s="24" t="s">
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N126" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P126" s="5">
+      <c r="Q126" s="5">
         <v>45587</v>
       </c>
-      <c r="Q126" s="10">
+      <c r="R126" s="10">
         <v>45591</v>
       </c>
-      <c r="R126">
+      <c r="S126">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T126" s="14" t="s">
+      <c r="U126" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="U126">
-        <v>0</v>
-      </c>
       <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
         <v>19</v>
       </c>
-      <c r="W126" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X126" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y126">
+      <c r="Y126" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>369</v>
       </c>
@@ -8802,42 +9012,45 @@
       <c r="E127" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="K127" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M127" s="24" t="s">
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N127" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P127" s="5">
+      <c r="Q127" s="5">
         <v>45587</v>
       </c>
-      <c r="Q127" s="10">
+      <c r="R127" s="10">
         <v>45591</v>
       </c>
-      <c r="R127">
+      <c r="S127">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T127" s="14" t="s">
+      <c r="U127" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="U127">
-        <v>1</v>
-      </c>
       <c r="V127">
+        <v>1</v>
+      </c>
+      <c r="W127">
         <v>26</v>
       </c>
-      <c r="W127" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X127" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y127" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>369</v>
       </c>
@@ -8853,40 +9066,43 @@
       <c r="E128" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="K128" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M128" s="24" t="s">
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N128" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P128" s="5">
+      <c r="Q128" s="5">
         <v>45587</v>
       </c>
-      <c r="Q128" s="10">
+      <c r="R128" s="10">
         <v>45591</v>
       </c>
-      <c r="R128">
+      <c r="S128">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T128" s="14"/>
-      <c r="U128">
-        <v>1</v>
-      </c>
+      <c r="U128" s="14"/>
       <c r="V128">
+        <v>1</v>
+      </c>
+      <c r="W128">
         <v>32</v>
       </c>
-      <c r="W128" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X128" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y128" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>369</v>
       </c>
@@ -8902,39 +9118,42 @@
       <c r="E129" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="K129" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M129" s="24" t="s">
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N129" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P129" s="5">
+      <c r="Q129" s="5">
         <v>45587</v>
       </c>
-      <c r="Q129" s="10">
+      <c r="R129" s="10">
         <v>45590</v>
       </c>
-      <c r="R129">
+      <c r="S129">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U129">
-        <v>0</v>
-      </c>
       <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
         <v>23</v>
       </c>
-      <c r="W129" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X129" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y129">
+      <c r="Y129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z129">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>369</v>
       </c>
@@ -8950,39 +9169,42 @@
       <c r="E130" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="K130" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M130" s="24" t="s">
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N130" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P130" s="5">
+      <c r="Q130" s="5">
         <v>45587</v>
       </c>
-      <c r="Q130" s="10">
+      <c r="R130" s="10">
         <v>45590</v>
       </c>
-      <c r="R130">
+      <c r="S130">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U130">
-        <v>1</v>
-      </c>
       <c r="V130">
+        <v>1</v>
+      </c>
+      <c r="W130">
         <v>27</v>
       </c>
-      <c r="W130" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X130" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y130" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>369</v>
       </c>
@@ -8998,26 +9220,26 @@
       <c r="E131" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="K131" s="18" t="s">
+      <c r="L131" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M131" s="25" t="s">
+      <c r="N131" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P131" s="5">
+      <c r="Q131" s="5">
         <v>45587</v>
       </c>
-      <c r="R131">
-        <f t="shared" ref="R131:R165" si="2">_xlfn.DAYS(Q131,P131)</f>
+      <c r="S131">
+        <f t="shared" ref="S131:S165" si="2">_xlfn.DAYS(R131,Q131)</f>
         <v>-45587</v>
       </c>
-      <c r="T131" s="14" t="s">
+      <c r="U131" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="W131" s="4"/>
       <c r="X131" s="4"/>
-    </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y131" s="4"/>
+    </row>
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>369</v>
       </c>
@@ -9033,42 +9255,45 @@
       <c r="E132" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="K132" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M132" s="24" t="s">
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N132" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P132" s="5">
+      <c r="Q132" s="5">
         <v>45587</v>
       </c>
-      <c r="Q132" s="10">
+      <c r="R132" s="10">
         <v>45593</v>
       </c>
-      <c r="R132">
+      <c r="S132">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T132" s="14" t="s">
+      <c r="U132" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="U132">
-        <v>1</v>
-      </c>
       <c r="V132">
+        <v>1</v>
+      </c>
+      <c r="W132">
         <v>29</v>
       </c>
-      <c r="W132" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X132" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y132">
+      <c r="Y132" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z132">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>369</v>
       </c>
@@ -9084,39 +9309,42 @@
       <c r="E133" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="K133" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M133" s="24" t="s">
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N133" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P133" s="5">
+      <c r="Q133" s="5">
         <v>45587</v>
       </c>
-      <c r="Q133" s="10">
+      <c r="R133" s="10">
         <v>45590</v>
       </c>
-      <c r="R133">
+      <c r="S133">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U133">
-        <v>1</v>
-      </c>
       <c r="V133">
+        <v>1</v>
+      </c>
+      <c r="W133">
         <v>34</v>
       </c>
-      <c r="W133" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X133" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>369</v>
       </c>
@@ -9132,39 +9360,39 @@
       <c r="E134" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="K134" s="18" t="s">
+      <c r="L134" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M134" s="25" t="s">
+      <c r="N134" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="P134" s="5">
+      <c r="Q134" s="5">
         <v>45587</v>
       </c>
-      <c r="R134">
+      <c r="S134">
         <f t="shared" si="2"/>
         <v>-45587</v>
       </c>
-      <c r="T134" s="14" t="s">
+      <c r="U134" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="U134">
-        <v>1</v>
-      </c>
       <c r="V134">
+        <v>1</v>
+      </c>
+      <c r="W134">
         <v>27</v>
       </c>
-      <c r="W134" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X134" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y134" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>369</v>
       </c>
@@ -9177,26 +9405,26 @@
       <c r="E135" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="K135" s="18" t="s">
+      <c r="L135" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M135" s="25" t="s">
+      <c r="N135" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P135" s="5">
+      <c r="Q135" s="5">
         <v>45587</v>
       </c>
-      <c r="R135">
+      <c r="S135">
         <f t="shared" si="2"/>
         <v>-45587</v>
       </c>
-      <c r="T135" s="14" t="s">
+      <c r="U135" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="W135" s="4"/>
       <c r="X135" s="4"/>
-    </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y135" s="4"/>
+    </row>
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>369</v>
       </c>
@@ -9209,26 +9437,26 @@
       <c r="E136" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="K136" s="18" t="s">
+      <c r="L136" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M136" s="25" t="s">
+      <c r="N136" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P136" s="5">
+      <c r="Q136" s="5">
         <v>45587</v>
       </c>
-      <c r="R136">
+      <c r="S136">
         <f t="shared" si="2"/>
         <v>-45587</v>
       </c>
-      <c r="T136" s="14" t="s">
+      <c r="U136" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="W136" s="4"/>
       <c r="X136" s="4"/>
-    </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y136" s="4"/>
+    </row>
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>369</v>
       </c>
@@ -9244,39 +9472,42 @@
       <c r="E137" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="K137" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M137" s="24" t="s">
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N137" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P137" s="5">
+      <c r="Q137" s="5">
         <v>45590</v>
       </c>
-      <c r="Q137" s="10">
+      <c r="R137" s="10">
         <v>45590</v>
       </c>
-      <c r="R137">
+      <c r="S137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U137">
-        <v>1</v>
-      </c>
       <c r="V137">
+        <v>1</v>
+      </c>
+      <c r="W137">
         <v>23</v>
       </c>
-      <c r="W137" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>369</v>
       </c>
@@ -9292,42 +9523,45 @@
       <c r="E138" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="K138" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M138" s="24" t="s">
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N138" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P138" s="5">
+      <c r="Q138" s="5">
         <v>45590</v>
       </c>
-      <c r="Q138" s="10">
+      <c r="R138" s="10">
         <v>45591</v>
       </c>
-      <c r="R138">
+      <c r="S138">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T138" s="14" t="s">
+      <c r="U138" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="U138">
-        <v>1</v>
-      </c>
       <c r="V138">
+        <v>1</v>
+      </c>
+      <c r="W138">
         <v>26</v>
       </c>
-      <c r="W138" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X138" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y138">
+      <c r="Y138" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z138">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>369</v>
       </c>
@@ -9343,40 +9577,43 @@
       <c r="E139" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="K139" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M139" s="24" t="s">
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N139" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P139" s="5">
+      <c r="Q139" s="5">
         <v>45580</v>
       </c>
-      <c r="Q139" s="10">
+      <c r="R139" s="10">
         <v>45590</v>
       </c>
-      <c r="R139">
+      <c r="S139">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="T139" s="14"/>
-      <c r="U139">
-        <v>1</v>
-      </c>
+      <c r="U139" s="14"/>
       <c r="V139">
+        <v>1</v>
+      </c>
+      <c r="W139">
         <v>27</v>
       </c>
-      <c r="W139" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X139" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y139" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>369</v>
       </c>
@@ -9392,40 +9629,43 @@
       <c r="E140" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="K140" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M140" s="24" t="s">
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N140" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P140" s="5">
+      <c r="Q140" s="5">
         <v>45580</v>
       </c>
-      <c r="Q140" s="10">
+      <c r="R140" s="10">
         <v>45591</v>
       </c>
-      <c r="R140">
+      <c r="S140">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T140" s="14"/>
-      <c r="U140">
-        <v>0</v>
-      </c>
+      <c r="U140" s="14"/>
       <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
         <v>35</v>
       </c>
-      <c r="W140" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X140" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y140" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>369</v>
       </c>
@@ -9435,36 +9675,36 @@
       <c r="E141" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="K141" s="18" t="s">
+      <c r="L141" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="P141" s="5">
+      <c r="Q141" s="5">
         <v>45594</v>
       </c>
-      <c r="R141">
+      <c r="S141">
         <f t="shared" si="2"/>
         <v>-45594</v>
       </c>
-      <c r="T141" s="14" t="s">
+      <c r="U141" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="U141">
-        <v>1</v>
-      </c>
       <c r="V141">
+        <v>1</v>
+      </c>
+      <c r="W141">
         <v>23</v>
       </c>
-      <c r="W141" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X141" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y141">
+      <c r="Y141" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z141">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>369</v>
       </c>
@@ -9480,42 +9720,45 @@
       <c r="E142" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="K142" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M142" s="24" t="s">
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N142" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P142" s="5">
+      <c r="Q142" s="5">
         <v>45594</v>
       </c>
-      <c r="Q142" s="10">
+      <c r="R142" s="10">
         <v>45596</v>
       </c>
-      <c r="R142">
+      <c r="S142">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T142" s="14" t="s">
+      <c r="U142" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="U142">
-        <v>1</v>
-      </c>
       <c r="V142">
+        <v>1</v>
+      </c>
+      <c r="W142">
         <v>32</v>
       </c>
-      <c r="W142" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X142" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y142" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>369</v>
       </c>
@@ -9525,23 +9768,23 @@
       <c r="E143" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="K143" s="18" t="s">
+      <c r="L143" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="M143" s="25" t="s">
+      <c r="N143" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P143" s="5">
+      <c r="Q143" s="5">
         <v>45594</v>
       </c>
-      <c r="R143">
+      <c r="S143">
         <f t="shared" si="2"/>
         <v>-45594</v>
       </c>
-      <c r="W143" s="4"/>
       <c r="X143" s="4"/>
-    </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y143" s="4"/>
+    </row>
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>369</v>
       </c>
@@ -9557,39 +9800,42 @@
       <c r="E144" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="K144" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M144" s="24" t="s">
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N144" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P144" s="5">
+      <c r="Q144" s="5">
         <v>45594</v>
       </c>
-      <c r="Q144" s="10">
+      <c r="R144" s="10">
         <v>45596</v>
       </c>
-      <c r="R144">
+      <c r="S144">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
       <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
         <v>28</v>
       </c>
-      <c r="W144" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X144" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y144">
+      <c r="Y144" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z144">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>369</v>
       </c>
@@ -9599,23 +9845,23 @@
       <c r="E145" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="K145" s="18" t="s">
+      <c r="L145" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="M145" s="25" t="s">
+      <c r="N145" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P145" s="5">
+      <c r="Q145" s="5">
         <v>45594</v>
       </c>
-      <c r="R145">
+      <c r="S145">
         <f t="shared" si="2"/>
         <v>-45594</v>
       </c>
-      <c r="W145" s="4"/>
       <c r="X145" s="4"/>
-    </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y145" s="4"/>
+    </row>
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>369</v>
       </c>
@@ -9631,26 +9877,26 @@
       <c r="E146" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="K146" s="18" t="s">
+      <c r="L146" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M146" s="25" t="s">
+      <c r="N146" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P146" s="5">
+      <c r="Q146" s="5">
         <v>45594</v>
       </c>
-      <c r="R146">
+      <c r="S146">
         <f t="shared" si="2"/>
         <v>-45594</v>
       </c>
-      <c r="T146" s="14" t="s">
+      <c r="U146" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="W146" s="4"/>
       <c r="X146" s="4"/>
-    </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y146" s="4"/>
+    </row>
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>369</v>
       </c>
@@ -9666,39 +9912,42 @@
       <c r="E147" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="K147" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M147" s="24" t="s">
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N147" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P147" s="5">
+      <c r="Q147" s="5">
         <v>45594</v>
       </c>
-      <c r="Q147" s="10">
+      <c r="R147" s="10">
         <v>45596</v>
       </c>
-      <c r="R147">
+      <c r="S147">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="U147">
-        <v>1</v>
-      </c>
       <c r="V147">
+        <v>1</v>
+      </c>
+      <c r="W147">
         <v>21</v>
       </c>
-      <c r="W147" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X147" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>369</v>
       </c>
@@ -9708,23 +9957,23 @@
       <c r="E148" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="K148" s="18" t="s">
+      <c r="L148" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="M148" s="25" t="s">
+      <c r="N148" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P148" s="5">
+      <c r="Q148" s="5">
         <v>45594</v>
       </c>
-      <c r="R148">
+      <c r="S148">
         <f t="shared" si="2"/>
         <v>-45594</v>
       </c>
-      <c r="W148" s="4"/>
       <c r="X148" s="4"/>
-    </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y148" s="4"/>
+    </row>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>369</v>
       </c>
@@ -9740,39 +9989,42 @@
       <c r="E149" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="K149" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M149" s="24" t="s">
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N149" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P149" s="5">
+      <c r="Q149" s="5">
         <v>45594</v>
       </c>
-      <c r="Q149" s="10">
+      <c r="R149" s="10">
         <v>45598</v>
       </c>
-      <c r="R149">
+      <c r="S149">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U149">
-        <v>0</v>
-      </c>
       <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
         <v>27</v>
       </c>
-      <c r="W149" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X149" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y149" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>369</v>
       </c>
@@ -9788,39 +10040,42 @@
       <c r="E150" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="K150" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M150" s="24" t="s">
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N150" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P150" s="5">
+      <c r="Q150" s="5">
         <v>45594</v>
       </c>
-      <c r="Q150" s="10">
+      <c r="R150" s="10">
         <v>45596</v>
       </c>
-      <c r="R150">
+      <c r="S150">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="U150">
-        <v>0</v>
-      </c>
       <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
         <v>20</v>
       </c>
-      <c r="W150" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X150" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y150">
+      <c r="Y150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>369</v>
       </c>
@@ -9836,42 +10091,45 @@
       <c r="E151" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="K151" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M151" s="25" t="s">
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N151" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="P151" s="5">
+      <c r="Q151" s="5">
         <v>45602</v>
       </c>
-      <c r="Q151" s="10">
+      <c r="R151" s="10">
         <v>45605</v>
       </c>
-      <c r="R151">
+      <c r="S151">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="T151" s="14" t="s">
+      <c r="U151" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="U151">
-        <v>0</v>
-      </c>
       <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
         <v>31</v>
       </c>
-      <c r="W151" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X151" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y151" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>369</v>
       </c>
@@ -9887,39 +10145,42 @@
       <c r="E152" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="K152" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M152" s="30" t="s">
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N152" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="P152" s="5">
+      <c r="Q152" s="5">
         <v>45602</v>
       </c>
-      <c r="Q152" s="10">
+      <c r="R152" s="10">
         <v>45603</v>
       </c>
-      <c r="R152">
+      <c r="S152">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U152">
-        <v>0</v>
-      </c>
       <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
         <v>33</v>
       </c>
-      <c r="W152" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X152" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y152" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>369</v>
       </c>
@@ -9935,42 +10196,45 @@
       <c r="E153" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="K153" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M153" s="24" t="s">
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N153" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P153" s="5">
+      <c r="Q153" s="5">
         <v>45602</v>
       </c>
-      <c r="Q153" s="10">
+      <c r="R153" s="10">
         <v>45603</v>
       </c>
-      <c r="R153">
+      <c r="S153">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T153" s="14" t="s">
+      <c r="U153" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="U153">
-        <v>0</v>
-      </c>
       <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
         <v>24</v>
       </c>
-      <c r="W153" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X153" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y153" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>369</v>
       </c>
@@ -9986,42 +10250,45 @@
       <c r="E154" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="K154" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M154" s="24" t="s">
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N154" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P154" s="5">
+      <c r="Q154" s="5">
         <v>45602</v>
       </c>
-      <c r="Q154" s="10">
+      <c r="R154" s="10">
         <v>45603</v>
       </c>
-      <c r="R154">
+      <c r="S154">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T154" s="14" t="s">
+      <c r="U154" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="U154">
-        <v>1</v>
-      </c>
       <c r="V154">
+        <v>1</v>
+      </c>
+      <c r="W154">
         <v>21</v>
       </c>
-      <c r="W154" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X154" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y154">
+      <c r="Y154" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z154">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>369</v>
       </c>
@@ -10037,39 +10304,42 @@
       <c r="E155" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="K155" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M155" s="24" t="s">
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N155" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P155" s="5">
+      <c r="Q155" s="5">
         <v>45602</v>
       </c>
-      <c r="Q155" s="10">
+      <c r="R155" s="10">
         <v>45603</v>
       </c>
-      <c r="R155">
+      <c r="S155">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U155">
-        <v>1</v>
-      </c>
       <c r="V155">
+        <v>1</v>
+      </c>
+      <c r="W155">
         <v>24</v>
       </c>
-      <c r="W155" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X155" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y155" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>369</v>
       </c>
@@ -10085,42 +10355,45 @@
       <c r="E156" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="K156" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M156" s="24" t="s">
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N156" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P156" s="5">
+      <c r="Q156" s="5">
         <v>45602</v>
       </c>
-      <c r="Q156" s="10">
+      <c r="R156" s="10">
         <v>45603</v>
       </c>
-      <c r="R156">
+      <c r="S156">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T156" s="14" t="s">
+      <c r="U156" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="U156">
-        <v>0</v>
-      </c>
       <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
         <v>20</v>
       </c>
-      <c r="W156" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X156" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y156" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>369</v>
       </c>
@@ -10136,42 +10409,45 @@
       <c r="E157" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="K157" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M157" s="24" t="s">
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N157" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P157" s="5">
+      <c r="Q157" s="5">
         <v>45602</v>
       </c>
-      <c r="Q157" s="10">
+      <c r="R157" s="10">
         <v>45603</v>
       </c>
-      <c r="R157">
+      <c r="S157">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T157" s="14" t="s">
+      <c r="U157" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="U157">
-        <v>1</v>
-      </c>
       <c r="V157">
+        <v>1</v>
+      </c>
+      <c r="W157">
         <v>19</v>
       </c>
-      <c r="W157" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X157" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y157" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>369</v>
       </c>
@@ -10187,42 +10463,45 @@
       <c r="E158" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="K158" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M158" s="24" t="s">
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N158" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P158" s="5">
+      <c r="Q158" s="5">
         <v>45602</v>
       </c>
-      <c r="Q158" s="10">
+      <c r="R158" s="10">
         <v>45603</v>
       </c>
-      <c r="R158">
+      <c r="S158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T158" s="14" t="s">
+      <c r="U158" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="U158">
-        <v>1</v>
-      </c>
       <c r="V158">
+        <v>1</v>
+      </c>
+      <c r="W158">
         <v>31</v>
       </c>
-      <c r="W158" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X158" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y158" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>369</v>
       </c>
@@ -10238,39 +10517,42 @@
       <c r="E159" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="K159" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M159" s="24" t="s">
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N159" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P159" s="5">
+      <c r="Q159" s="5">
         <v>45602</v>
       </c>
-      <c r="Q159" s="10">
+      <c r="R159" s="10">
         <v>45603</v>
       </c>
-      <c r="R159">
+      <c r="S159">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U159">
-        <v>1</v>
-      </c>
       <c r="V159">
+        <v>1</v>
+      </c>
+      <c r="W159">
         <v>33</v>
       </c>
-      <c r="W159" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X159" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y159" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>369</v>
       </c>
@@ -10286,39 +10568,39 @@
       <c r="E160" s="39" t="s">
         <v>535</v>
       </c>
-      <c r="K160" s="18" t="s">
+      <c r="L160" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M160" s="25" t="s">
+      <c r="N160" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="P160" s="5">
+      <c r="Q160" s="5">
         <v>45602</v>
       </c>
-      <c r="R160">
+      <c r="S160">
         <f t="shared" si="2"/>
         <v>-45602</v>
       </c>
-      <c r="T160" s="14" t="s">
+      <c r="U160" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="U160">
-        <v>1</v>
-      </c>
       <c r="V160">
+        <v>1</v>
+      </c>
+      <c r="W160">
         <v>31</v>
       </c>
-      <c r="W160" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X160" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y160" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>369</v>
       </c>
@@ -10334,42 +10616,45 @@
       <c r="E161" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="K161" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M161" s="24" t="s">
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N161" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P161" s="5">
+      <c r="Q161" s="5">
         <v>45602</v>
       </c>
-      <c r="Q161" s="10">
+      <c r="R161" s="10">
         <v>45603</v>
       </c>
-      <c r="R161">
+      <c r="S161">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T161" s="14" t="s">
+      <c r="U161" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="U161">
-        <v>0</v>
-      </c>
       <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
         <v>18</v>
       </c>
-      <c r="W161" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X161" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>369</v>
       </c>
@@ -10385,39 +10670,42 @@
       <c r="E162" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K162" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M162" s="24" t="s">
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N162" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P162" s="5">
+      <c r="Q162" s="5">
         <v>45602</v>
       </c>
-      <c r="Q162" s="10">
+      <c r="R162" s="10">
         <v>45603</v>
       </c>
-      <c r="R162">
+      <c r="S162">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U162">
-        <v>0</v>
-      </c>
       <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
         <v>32</v>
       </c>
-      <c r="W162" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X162" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y162">
+      <c r="Y162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z162">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>369</v>
       </c>
@@ -10433,39 +10721,42 @@
       <c r="E163" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="K163" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M163" s="24" t="s">
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N163" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P163" s="5">
+      <c r="Q163" s="5">
         <v>45602</v>
       </c>
-      <c r="Q163" s="10">
+      <c r="R163" s="10">
         <v>45603</v>
       </c>
-      <c r="R163">
+      <c r="S163">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U163">
-        <v>1</v>
-      </c>
       <c r="V163">
+        <v>1</v>
+      </c>
+      <c r="W163">
         <v>23</v>
       </c>
-      <c r="W163" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X163" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y163" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>369</v>
       </c>
@@ -10481,39 +10772,42 @@
       <c r="E164" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="K164" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M164" s="24" t="s">
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N164" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P164" s="5">
+      <c r="Q164" s="5">
         <v>45602</v>
       </c>
-      <c r="Q164" s="10">
+      <c r="R164" s="10">
         <v>45604</v>
       </c>
-      <c r="R164">
+      <c r="S164">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="U164">
-        <v>1</v>
-      </c>
       <c r="V164">
+        <v>1</v>
+      </c>
+      <c r="W164">
         <v>19</v>
       </c>
-      <c r="W164" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X164" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y164" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>369</v>
       </c>
@@ -10529,46 +10823,71 @@
       <c r="E165" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="K165" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M165" s="24" t="s">
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N165" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="P165" s="5">
+      <c r="Q165" s="5">
         <v>45603</v>
       </c>
-      <c r="Q165" s="10">
+      <c r="R165" s="10">
         <v>45604</v>
       </c>
-      <c r="R165">
+      <c r="S165">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U165">
-        <v>1</v>
-      </c>
       <c r="V165">
+        <v>1</v>
+      </c>
+      <c r="W165">
         <v>35</v>
       </c>
-      <c r="W165" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="X165" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048575" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z168">
+        <f>COUNTIF(Z2:Z165, 0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V169">
+        <f>SUM(V2:V165)</f>
+        <v>85</v>
+      </c>
+      <c r="W169">
+        <f>AVERAGE(W2:W165)</f>
+        <v>27.287671232876711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K171">
+        <f>SUM(K4:K165)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1048575" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1048575" s="5"/>
     </row>
-    <row r="1048576" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P1048576" s="5"/>
+    <row r="1048576" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1048576" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="L1:L2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C931A00-25A9-CF47-B444-C81B9504241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE85227-4B8F-7D4F-B663-BF336D65FBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="1960" windowWidth="24480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="0" windowWidth="24480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="588">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1793,6 +1793,12 @@
   </si>
   <si>
     <t>removed them because they did not correctly enter salience ratings</t>
+  </si>
+  <si>
+    <t>WHY?</t>
+  </si>
+  <si>
+    <t>do not use (no WTP info needed)</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1894,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1907,6 +1913,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E46E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1920,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1993,6 +2035,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2002,6 +2070,7 @@
   <colors>
     <mruColors>
       <color rgb="FF9E46E3"/>
+      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2218,11 +2287,11 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X152" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="135" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z169" sqref="Z169"/>
+      <selection pane="bottomRight" activeCell="S170" sqref="S170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2554,10 +2623,6 @@
       <c r="Q5" s="5">
         <v>45393</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>-45393</v>
-      </c>
       <c r="V5">
         <v>1</v>
       </c>
@@ -2609,10 +2674,6 @@
       <c r="Q6" s="5">
         <v>45393</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>-45393</v>
-      </c>
       <c r="V6">
         <v>1</v>
       </c>
@@ -2905,10 +2966,6 @@
       <c r="Q11" s="5">
         <v>45454</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>-45454</v>
-      </c>
       <c r="U11" s="14" t="s">
         <v>54</v>
       </c>
@@ -3089,10 +3146,6 @@
       <c r="Q14" s="5">
         <v>45467</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>-45467</v>
-      </c>
       <c r="V14">
         <v>1</v>
       </c>
@@ -3143,10 +3196,6 @@
       <c r="Q15" s="5">
         <v>45467</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>-45467</v>
-      </c>
       <c r="U15" s="12" t="s">
         <v>83</v>
       </c>
@@ -3203,10 +3252,6 @@
       <c r="Q16" s="5">
         <v>45467</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>-45467</v>
-      </c>
       <c r="U16" s="14" t="s">
         <v>97</v>
       </c>
@@ -3317,7 +3362,7 @@
       <c r="I18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="51" t="s">
         <v>88</v>
       </c>
       <c r="N18" s="26" t="s">
@@ -3327,10 +3372,7 @@
         <v>45467</v>
       </c>
       <c r="R18" s="16"/>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>-45467</v>
-      </c>
+      <c r="S18"/>
       <c r="U18" s="12" t="s">
         <v>83</v>
       </c>
@@ -3378,7 +3420,7 @@
       <c r="I19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="42" t="s">
         <v>88</v>
       </c>
       <c r="N19" s="25" t="s">
@@ -3386,10 +3428,6 @@
       </c>
       <c r="Q19" s="5">
         <v>45467</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>-45467</v>
       </c>
       <c r="U19" s="14" t="s">
         <v>89</v>
@@ -3447,10 +3485,6 @@
       <c r="Q20" s="5">
         <v>45467</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>-45467</v>
-      </c>
       <c r="V20">
         <v>1</v>
       </c>
@@ -3501,10 +3535,6 @@
       <c r="Q21" s="5">
         <v>45467</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>-45467</v>
-      </c>
       <c r="U21" s="12" t="s">
         <v>83</v>
       </c>
@@ -3561,10 +3591,6 @@
       <c r="Q22" s="5">
         <v>45467</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="0"/>
-        <v>-45467</v>
-      </c>
       <c r="V22">
         <v>0</v>
       </c>
@@ -3621,10 +3647,6 @@
       <c r="R23" s="10">
         <v>45476</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
       <c r="V23">
         <v>1</v>
       </c>
@@ -3859,7 +3881,7 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="45" t="s">
         <v>218</v>
       </c>
       <c r="N27" s="23" t="s">
@@ -3875,6 +3897,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="U27" s="14" t="s">
+        <v>586</v>
+      </c>
       <c r="V27">
         <v>0</v>
       </c>
@@ -3985,7 +4010,7 @@
       <c r="I29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="45" t="s">
         <v>218</v>
       </c>
       <c r="N29" s="23" t="s">
@@ -4175,7 +4200,7 @@
       <c r="I32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="44" t="s">
         <v>88</v>
       </c>
       <c r="N32" s="25" t="s">
@@ -4183,10 +4208,6 @@
       </c>
       <c r="Q32" s="5">
         <v>45476</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="0"/>
-        <v>-45476</v>
       </c>
       <c r="T32" t="s">
         <v>3</v>
@@ -4369,10 +4390,6 @@
       <c r="R35" s="10">
         <v>45478</v>
       </c>
-      <c r="S35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="T35" t="s">
         <v>3</v>
       </c>
@@ -4495,10 +4512,6 @@
       <c r="R37" s="10">
         <v>45479</v>
       </c>
-      <c r="S37">
-        <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
       <c r="T37" t="s">
         <v>3</v>
       </c>
@@ -4945,10 +4958,6 @@
       <c r="Q45" s="5">
         <v>45489</v>
       </c>
-      <c r="S45">
-        <f t="shared" si="0"/>
-        <v>-45489</v>
-      </c>
       <c r="T45" t="s">
         <v>3</v>
       </c>
@@ -5392,15 +5401,11 @@
       <c r="I53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L53" s="18" t="s">
+      <c r="L53" s="45" t="s">
         <v>88</v>
       </c>
       <c r="N53" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
@@ -5792,7 +5797,7 @@
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="18" t="s">
+      <c r="L61" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N61" s="25" t="s">
@@ -5800,10 +5805,6 @@
       </c>
       <c r="Q61" s="5">
         <v>45530</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="0"/>
-        <v>-45530</v>
       </c>
       <c r="U61" s="14" t="s">
         <v>246</v>
@@ -6179,10 +6180,6 @@
       <c r="Q69" s="5">
         <v>45530</v>
       </c>
-      <c r="S69">
-        <f t="shared" si="1"/>
-        <v>-45530</v>
-      </c>
       <c r="V69">
         <v>0</v>
       </c>
@@ -6401,8 +6398,8 @@
       <c r="I74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L74" s="18" t="s">
-        <v>88</v>
+      <c r="L74" s="46" t="s">
+        <v>587</v>
       </c>
       <c r="N74" s="25" t="s">
         <v>298</v>
@@ -6412,10 +6409,6 @@
       </c>
       <c r="R74" s="10">
         <v>45554</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -6452,7 +6445,7 @@
       <c r="I75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L75" s="18" t="s">
+      <c r="L75" s="45" t="s">
         <v>290</v>
       </c>
       <c r="N75" s="25" t="s">
@@ -6460,10 +6453,6 @@
       </c>
       <c r="Q75" s="5">
         <v>45551</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="1"/>
-        <v>-45551</v>
       </c>
       <c r="U75" s="14" t="s">
         <v>297</v>
@@ -6668,15 +6657,11 @@
       <c r="I79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L79" s="18" t="s">
+      <c r="L79" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N79" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U79" s="14" t="s">
         <v>293</v>
@@ -6758,15 +6743,11 @@
       <c r="I81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L81" s="18" t="s">
+      <c r="L81" s="47" t="s">
         <v>88</v>
       </c>
       <c r="N81" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U81" s="14" t="s">
         <v>294</v>
@@ -6847,15 +6828,11 @@
       <c r="I83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L83" s="18" t="s">
+      <c r="L83" s="43" t="s">
         <v>290</v>
       </c>
       <c r="N83" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U83" s="14" t="s">
         <v>292</v>
@@ -6879,7 +6856,7 @@
       <c r="E84" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="L84" s="18" t="s">
+      <c r="L84" s="48" t="s">
         <v>88</v>
       </c>
       <c r="N84" s="24" t="s">
@@ -6984,7 +6961,7 @@
       <c r="E86" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="L86" s="14" t="s">
+      <c r="L86" s="49" t="s">
         <v>88</v>
       </c>
       <c r="N86" s="25" t="s">
@@ -6992,10 +6969,6 @@
       </c>
       <c r="Q86" s="5">
         <v>45566</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="1"/>
-        <v>-45566</v>
       </c>
       <c r="U86" s="14" t="s">
         <v>353</v>
@@ -7446,7 +7419,7 @@
       <c r="E95" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="L95" s="18" t="s">
+      <c r="L95" s="50" t="s">
         <v>88</v>
       </c>
       <c r="N95" s="25" t="s">
@@ -7857,7 +7830,7 @@
       <c r="E103" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="L103" s="18" t="s">
+      <c r="L103" s="47" t="s">
         <v>88</v>
       </c>
       <c r="N103" s="25" t="s">
@@ -7908,7 +7881,7 @@
       <c r="E104" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="L104" s="18" t="s">
+      <c r="L104" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N104" s="25" t="s">
@@ -7916,10 +7889,6 @@
       </c>
       <c r="Q104" s="5">
         <v>45573</v>
-      </c>
-      <c r="S104">
-        <f t="shared" si="1"/>
-        <v>-45573</v>
       </c>
       <c r="U104" s="14" t="s">
         <v>582</v>
@@ -7997,7 +7966,7 @@
       <c r="E106" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="L106" s="18" t="s">
+      <c r="L106" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N106" s="25" t="s">
@@ -8005,10 +7974,6 @@
       </c>
       <c r="Q106" s="5">
         <v>45573</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="1"/>
-        <v>-45573</v>
       </c>
       <c r="U106" s="14" t="s">
         <v>400</v>
@@ -8140,7 +8105,7 @@
       <c r="E109" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="L109" s="18" t="s">
+      <c r="L109" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N109" s="25" t="s">
@@ -8148,10 +8113,6 @@
       </c>
       <c r="Q109" s="5">
         <v>45573</v>
-      </c>
-      <c r="S109">
-        <f t="shared" si="1"/>
-        <v>-45573</v>
       </c>
       <c r="U109" s="14" t="s">
         <v>582</v>
@@ -8532,7 +8493,7 @@
       <c r="E117" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="L117" s="18" t="s">
+      <c r="L117" s="47" t="s">
         <v>438</v>
       </c>
       <c r="N117" s="25" t="s">
@@ -8540,10 +8501,6 @@
       </c>
       <c r="Q117" s="5">
         <v>45580</v>
-      </c>
-      <c r="S117">
-        <f t="shared" si="1"/>
-        <v>-45580</v>
       </c>
       <c r="U117" s="14" t="s">
         <v>583</v>
@@ -8567,7 +8524,7 @@
       <c r="E118" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="L118" s="18" t="s">
+      <c r="L118" s="43" t="s">
         <v>496</v>
       </c>
       <c r="N118" s="25" t="s">
@@ -8575,10 +8532,6 @@
       </c>
       <c r="Q118" s="5">
         <v>45580</v>
-      </c>
-      <c r="S118">
-        <f t="shared" si="1"/>
-        <v>-45580</v>
       </c>
       <c r="U118" s="14" t="s">
         <v>436</v>
@@ -8656,7 +8609,7 @@
       <c r="E120" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="L120" s="18" t="s">
+      <c r="L120" s="43" t="s">
         <v>496</v>
       </c>
       <c r="N120" s="25" t="s">
@@ -8664,10 +8617,6 @@
       </c>
       <c r="Q120" s="5">
         <v>45580</v>
-      </c>
-      <c r="S120">
-        <f t="shared" si="1"/>
-        <v>-45580</v>
       </c>
       <c r="U120" s="14" t="s">
         <v>435</v>
@@ -9220,7 +9169,7 @@
       <c r="E131" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="L131" s="18" t="s">
+      <c r="L131" s="47" t="s">
         <v>88</v>
       </c>
       <c r="N131" s="25" t="s">
@@ -9228,10 +9177,6 @@
       </c>
       <c r="Q131" s="5">
         <v>45587</v>
-      </c>
-      <c r="S131">
-        <f t="shared" ref="S131:S165" si="2">_xlfn.DAYS(R131,Q131)</f>
-        <v>-45587</v>
       </c>
       <c r="U131" s="14" t="s">
         <v>491</v>
@@ -9271,7 +9216,7 @@
         <v>45593</v>
       </c>
       <c r="S132">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S131:S165" si="2">_xlfn.DAYS(R132,Q132)</f>
         <v>6</v>
       </c>
       <c r="U132" s="14" t="s">
@@ -9360,7 +9305,7 @@
       <c r="E134" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="L134" s="18" t="s">
+      <c r="L134" s="50" t="s">
         <v>218</v>
       </c>
       <c r="N134" s="25" t="s">
@@ -9368,10 +9313,6 @@
       </c>
       <c r="Q134" s="5">
         <v>45587</v>
-      </c>
-      <c r="S134">
-        <f t="shared" si="2"/>
-        <v>-45587</v>
       </c>
       <c r="U134" s="14" t="s">
         <v>488</v>
@@ -9405,7 +9346,7 @@
       <c r="E135" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="L135" s="18" t="s">
+      <c r="L135" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N135" s="25" t="s">
@@ -9413,10 +9354,6 @@
       </c>
       <c r="Q135" s="5">
         <v>45587</v>
-      </c>
-      <c r="S135">
-        <f t="shared" si="2"/>
-        <v>-45587</v>
       </c>
       <c r="U135" s="14" t="s">
         <v>485</v>
@@ -9437,7 +9374,7 @@
       <c r="E136" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="L136" s="18" t="s">
+      <c r="L136" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N136" s="25" t="s">
@@ -9445,10 +9382,6 @@
       </c>
       <c r="Q136" s="5">
         <v>45587</v>
-      </c>
-      <c r="S136">
-        <f t="shared" si="2"/>
-        <v>-45587</v>
       </c>
       <c r="U136" s="14" t="s">
         <v>484</v>
@@ -9675,15 +9608,11 @@
       <c r="E141" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="L141" s="18" t="s">
+      <c r="L141" s="47" t="s">
         <v>88</v>
       </c>
       <c r="Q141" s="5">
         <v>45594</v>
-      </c>
-      <c r="S141">
-        <f t="shared" si="2"/>
-        <v>-45594</v>
       </c>
       <c r="U141" s="14" t="s">
         <v>523</v>
@@ -9768,7 +9697,7 @@
       <c r="E143" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="L143" s="18" t="s">
+      <c r="L143" s="45" t="s">
         <v>525</v>
       </c>
       <c r="N143" s="25" t="s">
@@ -9776,10 +9705,6 @@
       </c>
       <c r="Q143" s="5">
         <v>45594</v>
-      </c>
-      <c r="S143">
-        <f t="shared" si="2"/>
-        <v>-45594</v>
       </c>
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
@@ -9845,7 +9770,7 @@
       <c r="E145" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="L145" s="18" t="s">
+      <c r="L145" s="45" t="s">
         <v>525</v>
       </c>
       <c r="N145" s="25" t="s">
@@ -9853,10 +9778,6 @@
       </c>
       <c r="Q145" s="5">
         <v>45594</v>
-      </c>
-      <c r="S145">
-        <f t="shared" si="2"/>
-        <v>-45594</v>
       </c>
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
@@ -9877,7 +9798,7 @@
       <c r="E146" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="L146" s="18" t="s">
+      <c r="L146" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N146" s="25" t="s">
@@ -9885,10 +9806,6 @@
       </c>
       <c r="Q146" s="5">
         <v>45594</v>
-      </c>
-      <c r="S146">
-        <f t="shared" si="2"/>
-        <v>-45594</v>
       </c>
       <c r="U146" s="14" t="s">
         <v>522</v>
@@ -9957,7 +9874,7 @@
       <c r="E148" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="L148" s="18" t="s">
+      <c r="L148" s="50" t="s">
         <v>525</v>
       </c>
       <c r="N148" s="25" t="s">
@@ -9965,10 +9882,6 @@
       </c>
       <c r="Q148" s="5">
         <v>45594</v>
-      </c>
-      <c r="S148">
-        <f t="shared" si="2"/>
-        <v>-45594</v>
       </c>
       <c r="X148" s="4"/>
       <c r="Y148" s="4"/>
@@ -10097,7 +10010,7 @@
       <c r="L151" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N151" s="25" t="s">
+      <c r="N151" s="24" t="s">
         <v>210</v>
       </c>
       <c r="Q151" s="5">
@@ -10568,7 +10481,7 @@
       <c r="E160" s="39" t="s">
         <v>535</v>
       </c>
-      <c r="L160" s="18" t="s">
+      <c r="L160" s="47" t="s">
         <v>218</v>
       </c>
       <c r="N160" s="25" t="s">
@@ -10576,10 +10489,6 @@
       </c>
       <c r="Q160" s="5">
         <v>45602</v>
-      </c>
-      <c r="S160">
-        <f t="shared" si="2"/>
-        <v>-45602</v>
       </c>
       <c r="U160" s="14" t="s">
         <v>575</v>
@@ -10859,12 +10768,20 @@
       </c>
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S168">
+        <f>AVERAGE(S2:S165)</f>
+        <v>4.3414634146341466</v>
+      </c>
       <c r="Z168">
         <f>COUNTIF(Z2:Z165, 0)</f>
         <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S169">
+        <f>STDEV(S2:S165)</f>
+        <v>4.2846069664856188</v>
+      </c>
       <c r="V169">
         <f>SUM(V2:V165)</f>
         <v>85</v>
@@ -10878,6 +10795,12 @@
       <c r="K171">
         <f>SUM(K4:K165)</f>
         <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W172">
+        <f>STDEV(W2:W165)</f>
+        <v>4.86926873233738</v>
       </c>
     </row>
     <row r="1048575" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/WTP_Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE85227-4B8F-7D4F-B663-BF336D65FBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1207F2-A330-AA4F-B263-128B8B67A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="0" windowWidth="24480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="22800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="596">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1799,6 +1799,30 @@
   </si>
   <si>
     <t>do not use (no WTP info needed)</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>latin</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Middle eastern</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -2285,13 +2309,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S170" sqref="S170"/>
+      <selection pane="bottomRight" activeCell="Z175" sqref="Z175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2305,16 +2329,16 @@
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="11" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="21.1640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="34" style="28" customWidth="1"/>
-    <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="19.5" style="10" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" customWidth="1"/>
-    <col min="21" max="21" width="103.33203125" style="12" customWidth="1"/>
-    <col min="22" max="25" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="26" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="10" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="103.33203125" style="12" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2465,9 +2489,7 @@
       <c r="Y2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -2523,9 +2545,6 @@
       <c r="Y3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
@@ -2635,9 +2654,6 @@
       <c r="Y5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -2686,9 +2702,6 @@
       <c r="Y6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
@@ -2927,9 +2940,6 @@
       <c r="Y10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -2981,9 +2991,6 @@
       <c r="Y11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -3105,9 +3112,6 @@
       <c r="Y13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
@@ -3158,9 +3162,6 @@
       <c r="Y14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
@@ -3211,9 +3212,6 @@
       <c r="Y15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
@@ -3265,9 +3263,6 @@
         <v>3</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z16">
         <v>3</v>
       </c>
     </row>
@@ -3388,9 +3383,6 @@
       <c r="Y18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z18" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
@@ -3444,9 +3436,6 @@
       <c r="Y19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z19">
-        <v>3</v>
-      </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
@@ -3497,9 +3486,6 @@
       <c r="Y20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -3550,9 +3536,6 @@
       <c r="Y21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z21">
-        <v>2</v>
-      </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
@@ -3603,9 +3586,6 @@
       <c r="Y22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z22">
-        <v>3</v>
-      </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -3659,9 +3639,6 @@
       <c r="Y23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -3783,9 +3760,6 @@
       <c r="Y25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
@@ -3912,9 +3886,6 @@
       <c r="Y27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z27">
-        <v>3</v>
-      </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
@@ -4038,9 +4009,6 @@
       <c r="Y29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
@@ -4405,9 +4373,6 @@
       <c r="Y35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z35">
-        <v>3</v>
-      </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
@@ -4468,9 +4433,6 @@
       <c r="Y36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z36">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -4527,9 +4489,6 @@
       <c r="Y37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z37">
-        <v>4</v>
-      </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -4641,9 +4600,6 @@
       <c r="Y39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -4815,9 +4771,6 @@
       <c r="Y42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
@@ -4926,9 +4879,6 @@
       <c r="Y44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z44">
-        <v>2</v>
-      </c>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
@@ -4973,9 +4923,6 @@
       <c r="Y45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
@@ -5033,9 +4980,6 @@
       <c r="Y46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z46">
-        <v>4</v>
-      </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
@@ -5087,9 +5031,6 @@
       <c r="Y47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
@@ -5511,9 +5452,6 @@
       <c r="Y55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z55">
-        <v>3</v>
-      </c>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
@@ -5777,9 +5715,6 @@
       </c>
       <c r="Y60" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="Z60">
-        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5821,9 +5756,6 @@
       <c r="Y61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
@@ -5962,9 +5894,6 @@
       <c r="Y64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
@@ -6106,9 +6035,6 @@
       <c r="Y67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
@@ -6154,9 +6080,6 @@
       <c r="Y68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z68">
-        <v>1</v>
-      </c>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
@@ -6192,9 +6115,6 @@
       <c r="Y69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z69">
-        <v>5</v>
-      </c>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
@@ -6237,9 +6157,6 @@
       <c r="Y70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z70">
-        <v>1</v>
-      </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
@@ -6282,9 +6199,6 @@
       <c r="Y71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z71">
-        <v>5</v>
-      </c>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
@@ -6330,9 +6244,6 @@
       <c r="Y72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z72">
-        <v>1</v>
-      </c>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
@@ -6375,9 +6286,6 @@
       <c r="Y73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z73">
-        <v>1</v>
-      </c>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
@@ -6422,9 +6330,6 @@
       <c r="Y74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z74">
-        <v>1</v>
-      </c>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
@@ -6469,9 +6374,6 @@
       <c r="Y75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z75">
-        <v>1</v>
-      </c>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
@@ -6887,9 +6789,6 @@
       <c r="Y84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z84">
-        <v>1</v>
-      </c>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
@@ -6985,9 +6884,6 @@
       <c r="Y86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z86">
-        <v>1</v>
-      </c>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
@@ -7450,9 +7346,6 @@
       <c r="Y95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
@@ -7861,9 +7754,6 @@
       <c r="Y103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z103">
-        <v>4</v>
-      </c>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
@@ -9216,7 +9106,7 @@
         <v>45593</v>
       </c>
       <c r="S132">
-        <f t="shared" ref="S131:S165" si="2">_xlfn.DAYS(R132,Q132)</f>
+        <f t="shared" ref="S132:S165" si="2">_xlfn.DAYS(R132,Q132)</f>
         <v>6</v>
       </c>
       <c r="U132" s="14" t="s">
@@ -9329,9 +9219,6 @@
       <c r="Y134" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z134">
-        <v>0</v>
-      </c>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
@@ -9629,9 +9516,6 @@
       <c r="Y141" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z141">
-        <v>6</v>
-      </c>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
@@ -10505,11 +10389,8 @@
       <c r="Y160" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>369</v>
       </c>
@@ -10563,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>369</v>
       </c>
@@ -10614,7 +10495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>369</v>
       </c>
@@ -10665,7 +10546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>369</v>
       </c>
@@ -10716,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>369</v>
       </c>
@@ -10767,17 +10648,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S168">
         <f>AVERAGE(S2:S165)</f>
         <v>4.3414634146341466</v>
       </c>
-      <c r="Z168">
-        <f>COUNTIF(Z2:Z165, 0)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA168" s="4"/>
+    </row>
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S169">
         <f>STDEV(S2:S165)</f>
         <v>4.2846069664856188</v>
@@ -10791,17 +10669,97 @@
         <v>27.287671232876711</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA170" s="4"/>
+    </row>
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K171">
         <f>SUM(K4:K165)</f>
         <v>98</v>
       </c>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z171">
+        <f>COUNTIF(Z2:Z165, 0)</f>
+        <v>47</v>
+      </c>
+      <c r="AA171" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W172">
         <f>STDEV(W2:W165)</f>
         <v>4.86926873233738</v>
       </c>
+      <c r="Z172">
+        <f>COUNTIF(Z3:Z166, 1)</f>
+        <v>21</v>
+      </c>
+      <c r="AA172" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z173">
+        <f>COUNTIF(Z3:Z167, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="AA173" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z174">
+        <f>COUNTIF(Z2:Z168, 3)</f>
+        <v>9</v>
+      </c>
+      <c r="AA174" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z175">
+        <f>COUNTIF(Z2:Z169, 4)</f>
+        <v>8</v>
+      </c>
+      <c r="AA175" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z176">
+        <f>COUNTIF(Z2:Z170, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA176" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="177" spans="26:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z177">
+        <f>COUNTIF(Z2:Z171, 6)</f>
+        <v>0</v>
+      </c>
+      <c r="AA177" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="178" spans="26:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z178">
+        <f>COUNTIF(Z2:Z172, 7)</f>
+        <v>1</v>
+      </c>
+      <c r="AA178" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="179" spans="26:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z179">
+        <f>SUM(Z171:Z178)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="180" spans="26:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA180" s="4"/>
     </row>
     <row r="1048575" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1048575" s="5"/>
